--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281C419-670D-41E7-AF07-1B321734A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FF449-70B5-4D49-A4D7-33DE2757428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SlNo</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Gurdian Name</t>
   </si>
 </sst>
 </file>
@@ -379,22 +382,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,21 +409,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -432,8 +438,9 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -455,8 +462,9 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -478,8 +486,9 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -501,8 +510,9 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -524,8 +534,9 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -547,8 +558,9 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -570,8 +582,9 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -593,8 +606,9 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -616,8 +630,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -639,8 +654,9 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -662,8 +678,9 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -685,8 +702,9 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -708,8 +726,9 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -731,8 +750,9 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -754,8 +774,9 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -777,8 +798,9 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -800,8 +822,9 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -823,8 +846,9 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -846,8 +870,9 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -869,8 +894,9 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -892,8 +918,9 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -915,8 +942,9 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -938,8 +966,9 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -961,8 +990,9 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -984,8 +1014,9 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1007,8 +1038,9 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1030,8 +1062,9 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1053,8 +1086,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1076,8 +1110,9 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1099,8 +1134,9 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1122,8 +1158,9 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1145,8 +1182,9 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1168,8 +1206,9 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1191,8 +1230,9 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1214,8 +1254,9 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1237,8 +1278,9 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1260,8 +1302,9 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1283,8 +1326,9 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1306,8 +1350,9 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1329,8 +1374,9 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1352,8 +1398,9 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1375,8 +1422,9 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1398,8 +1446,9 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1421,8 +1470,9 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1444,8 +1494,9 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1467,8 +1518,9 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1490,8 +1542,9 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1513,8 +1566,9 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1536,8 +1590,9 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1559,8 +1614,9 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1582,8 +1638,9 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1605,8 +1662,9 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1628,8 +1686,9 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1651,8 +1710,9 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54" s="2"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1674,8 +1734,9 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55" s="2"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1697,8 +1758,9 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1720,8 +1782,9 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1743,8 +1806,9 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1766,8 +1830,9 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1789,8 +1854,9 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V60" s="2"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1812,8 +1878,9 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V61" s="2"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1835,8 +1902,9 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V62" s="2"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1858,8 +1926,9 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V63" s="2"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1881,8 +1950,9 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V64" s="2"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1904,8 +1974,9 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65" s="2"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1927,8 +1998,9 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66" s="2"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1950,8 +2022,9 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67" s="2"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1973,8 +2046,9 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1996,8 +2070,9 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V69" s="2"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2019,8 +2094,9 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V70" s="2"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2042,8 +2118,9 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2065,8 +2142,9 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V72" s="2"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2088,8 +2166,9 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73" s="2"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2111,8 +2190,9 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" s="2"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2134,8 +2214,9 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2157,8 +2238,9 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V76" s="2"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2180,8 +2262,9 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V77" s="2"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2203,8 +2286,9 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V78" s="2"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2226,8 +2310,9 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V79" s="2"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2249,8 +2334,9 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V80" s="2"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2272,8 +2358,9 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V81" s="2"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2295,8 +2382,9 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V82" s="2"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2318,8 +2406,9 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2341,6 +2430,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FF449-70B5-4D49-A4D7-33DE2757428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBA9EC2-D6AB-4B42-9FA0-96C71D4B371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SlNo</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Gurdian Name</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,10 +398,11 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,9 +428,11 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -439,8 +445,9 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -463,8 +470,9 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -487,8 +495,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -511,8 +520,9 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -535,8 +545,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -559,8 +570,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -583,8 +595,9 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -607,8 +620,9 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -631,8 +645,9 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -655,8 +670,9 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -679,8 +695,9 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -703,8 +720,9 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -727,8 +745,9 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -751,8 +770,9 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -775,8 +795,9 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -799,8 +820,9 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -823,8 +845,9 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -847,8 +870,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -871,8 +895,9 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -895,8 +920,9 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -919,8 +945,9 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -943,8 +970,9 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -967,8 +995,9 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -991,8 +1020,9 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1015,8 +1045,9 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1039,8 +1070,9 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1063,8 +1095,9 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1087,8 +1120,9 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1111,8 +1145,9 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1135,8 +1170,9 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1159,8 +1195,9 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1183,8 +1220,9 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1207,8 +1245,9 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1231,8 +1270,9 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1255,8 +1295,9 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1279,8 +1320,9 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1303,8 +1345,9 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1327,8 +1370,9 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1351,8 +1395,9 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1375,8 +1420,9 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1399,8 +1445,9 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1423,8 +1470,9 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1447,8 +1495,9 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1471,8 +1520,9 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1495,8 +1545,9 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1519,8 +1570,9 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1543,8 +1595,9 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1567,8 +1620,9 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1591,8 +1645,9 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1615,8 +1670,9 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1639,8 +1695,9 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1663,8 +1720,9 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1687,8 +1745,9 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1711,8 +1770,9 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1735,8 +1795,9 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1759,8 +1820,9 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1783,8 +1845,9 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1807,8 +1870,9 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1831,8 +1895,9 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1855,8 +1920,9 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1879,8 +1945,9 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1903,8 +1970,9 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1927,8 +1995,9 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1951,8 +2020,9 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1975,8 +2045,9 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1999,8 +2070,9 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2023,8 +2095,9 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2047,8 +2120,9 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2071,8 +2145,9 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2095,8 +2170,9 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2119,8 +2195,9 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2143,8 +2220,9 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2167,8 +2245,9 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2191,8 +2270,9 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2215,8 +2295,9 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2239,8 +2320,9 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2263,8 +2345,9 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2287,8 +2370,9 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2311,8 +2395,9 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2335,8 +2420,9 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2359,8 +2445,9 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2383,8 +2470,9 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2407,8 +2495,9 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2431,6 +2520,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891B42B-C582-49FE-949F-F198685AC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4CCCF-296F-465A-ACC8-27E3C486A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,7 +780,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -873,7 +873,9 @@
       <c r="E3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>9088090333</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4CCCF-296F-465A-ACC8-27E3C486A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFEC5B-B2C4-44E4-B61A-CCA8FD41BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
   <si>
     <t>Student Name</t>
   </si>
@@ -363,13 +363,19 @@
     <t>Postering</t>
   </si>
   <si>
-    <t>Ahamed Mr</t>
-  </si>
-  <si>
     <t>Amitava Karali</t>
   </si>
   <si>
     <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Demo Class</t>
+  </si>
+  <si>
+    <t>Ahamed Pabyeen</t>
+  </si>
+  <si>
+    <t>Shahista Parveen</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -789,7 +795,7 @@
     <col min="2" max="2" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.73046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -797,7 +803,7 @@
     <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.265625" style="2" bestFit="1" customWidth="1"/>
@@ -871,7 +877,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1">
         <v>9088090333</v>
@@ -885,7 +891,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="1">
         <v>5</v>
@@ -938,10 +944,12 @@
     </row>
     <row r="5" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1">
         <v>9973827280</v>
@@ -950,11 +958,19 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="6">
+        <v>45174</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45176</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDFEC5B-B2C4-44E4-B61A-CCA8FD41BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771289A-FC11-4FAD-B113-8925C58C5C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
   <si>
     <t>Student Name</t>
   </si>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>Shahista Parveen</t>
+  </si>
+  <si>
+    <t>Aviroop</t>
+  </si>
+  <si>
+    <t>Rubu Park</t>
+  </si>
+  <si>
+    <t>F2F Scheduled</t>
+  </si>
+  <si>
+    <t>Aparna Roy</t>
+  </si>
+  <si>
+    <t>Need Tally Faculty</t>
+  </si>
+  <si>
+    <t>Tally</t>
   </si>
 </sst>
 </file>
@@ -786,7 +804,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -802,8 +820,8 @@
     <col min="9" max="9" width="15.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.265625" style="2" bestFit="1" customWidth="1"/>
@@ -1016,19 +1034,41 @@
     </row>
     <row r="7" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="F7" s="1">
+        <v>9123745867</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="6">
+        <v>45176</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45176</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1074,19 +1114,41 @@
     </row>
     <row r="9" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="F9" s="1">
+        <v>6289937147</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="6">
+        <v>45176</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45176</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771289A-FC11-4FAD-B113-8925C58C5C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9A506-0D68-43FE-8993-26DF5AD915F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,7 +804,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -965,7 +965,9 @@
       <c r="C5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>7324916970</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>115</v>
       </c>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9A506-0D68-43FE-8993-26DF5AD915F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07567FE-D9C5-401B-9234-972CFBBDD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Students-Prospects" sheetId="2" r:id="rId2"/>
+    <sheet name="Daily-Visit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="155">
   <si>
     <t>Student Name</t>
   </si>
@@ -394,6 +396,102 @@
   </si>
   <si>
     <t>Tally</t>
+  </si>
+  <si>
+    <t>Slno</t>
+  </si>
+  <si>
+    <t>Tollygunje</t>
+  </si>
+  <si>
+    <t>Visit Date</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>Work/Designation</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Kaustav Dey</t>
+  </si>
+  <si>
+    <t>EY Resource Manager</t>
+  </si>
+  <si>
+    <t>N-356 Patuli</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>N-350 Patuli</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Amarnath Goswami</t>
+  </si>
+  <si>
+    <t>Ekata</t>
+  </si>
+  <si>
+    <t>Niloy Barat</t>
+  </si>
+  <si>
+    <t>His wife is associated with Durga Puja,Hence need to call for displaying flex</t>
+  </si>
+  <si>
+    <t>He will give cell no of secretary of Nautical</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>Kartik Purkiit</t>
+  </si>
+  <si>
+    <t>He is supposed to distribute 72 leaflets at Ekata. We need to give Rs 50 and take feedback</t>
+  </si>
+  <si>
+    <t>Manisree</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Ujjal Ghatak</t>
+  </si>
+  <si>
+    <t>We need to go there and talk to manager at 10.00 AM to 11:00 AM</t>
+  </si>
+  <si>
+    <t>Belmonte</t>
+  </si>
+  <si>
+    <t>We need someone from Belmonte to access the whole flat</t>
+  </si>
+  <si>
+    <t>Ashmita</t>
+  </si>
+  <si>
+    <t>Dance School</t>
+  </si>
+  <si>
+    <t>She is a working professional</t>
   </si>
 </sst>
 </file>
@@ -441,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -494,11 +592,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -517,6 +626,44 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,36 +947,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.06640625" style="2"/>
+    <col min="14" max="14" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="12" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:28" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:28" ht="12.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:28" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -888,7 +1035,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -931,7 +1078,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -960,7 +1107,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:28" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>116</v>
@@ -1005,7 +1152,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1034,7 +1181,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:28" ht="24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>120</v>
@@ -1085,7 +1232,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1114,7 +1261,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:28" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>117</v>
@@ -1165,7 +1312,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1194,7 +1341,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1223,7 +1370,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1252,7 +1399,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:28" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1297,7 +1444,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:28" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>107</v>
@@ -1348,7 +1495,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>109</v>
@@ -1399,7 +1546,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1428,7 +1575,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1457,7 +1604,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1486,7 +1633,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>103</v>
@@ -1525,7 +1672,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>101</v>
@@ -1564,7 +1711,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>99</v>
@@ -1603,7 +1750,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>97</v>
@@ -1642,7 +1789,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>96</v>
@@ -1681,7 +1828,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>94</v>
@@ -1720,7 +1867,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>92</v>
@@ -1759,7 +1906,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>91</v>
@@ -1796,7 +1943,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>90</v>
@@ -1833,7 +1980,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>89</v>
@@ -1870,7 +2017,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>88</v>
@@ -1907,7 +2054,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>86</v>
@@ -1944,7 +2091,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>85</v>
@@ -1981,7 +2128,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>83</v>
@@ -2018,7 +2165,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" t="s">
         <v>81</v>
@@ -2055,7 +2202,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" t="s">
         <v>79</v>
@@ -2092,7 +2239,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
         <v>78</v>
@@ -2129,7 +2276,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>77</v>
@@ -2166,7 +2313,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" t="s">
         <v>75</v>
@@ -2203,7 +2350,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" t="s">
         <v>75</v>
@@ -2240,7 +2387,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -2277,7 +2424,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>72</v>
@@ -2314,7 +2461,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>71</v>
@@ -2351,7 +2498,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" t="s">
         <v>70</v>
@@ -2388,7 +2535,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" t="s">
         <v>68</v>
@@ -2425,7 +2572,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>66</v>
@@ -2462,7 +2609,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" t="s">
         <v>65</v>
@@ -2499,7 +2646,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" t="s">
         <v>64</v>
@@ -2536,7 +2683,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>62</v>
@@ -2573,7 +2720,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" t="s">
         <v>61</v>
@@ -2610,7 +2757,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" t="s">
         <v>60</v>
@@ -2647,7 +2794,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" t="s">
         <v>59</v>
@@ -2684,7 +2831,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -2721,7 +2868,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" t="s">
         <v>56</v>
@@ -2758,7 +2905,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" t="s">
         <v>54</v>
@@ -2795,7 +2942,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" t="s">
         <v>52</v>
@@ -2832,7 +2979,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -2869,7 +3016,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" t="s">
         <v>48</v>
@@ -2906,7 +3053,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" t="s">
         <v>46</v>
@@ -2943,7 +3090,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
         <v>45</v>
@@ -2980,7 +3127,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" t="s">
         <v>43</v>
@@ -3017,7 +3164,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" t="s">
         <v>42</v>
@@ -3054,7 +3201,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>40</v>
@@ -3091,7 +3238,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>38</v>
@@ -3128,7 +3275,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>35</v>
@@ -3165,7 +3312,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>33</v>
@@ -3202,7 +3349,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>32</v>
@@ -3239,7 +3386,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" t="s">
         <v>31</v>
@@ -3276,7 +3423,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
         <v>28</v>
@@ -3313,7 +3460,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" t="s">
         <v>25</v>
@@ -3350,7 +3497,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>22</v>
@@ -3387,7 +3534,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="G70"/>
       <c r="H70" s="1"/>
@@ -3412,7 +3559,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="G71"/>
       <c r="H71" s="1"/>
@@ -3437,7 +3584,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="G72"/>
       <c r="H72" s="1"/>
@@ -3462,7 +3609,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="G73"/>
       <c r="H73" s="1"/>
@@ -3487,7 +3634,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="G74"/>
       <c r="H74" s="1"/>
@@ -3512,7 +3659,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="G75"/>
       <c r="H75" s="1"/>
@@ -3537,7 +3684,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="2:28" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="G76"/>
       <c r="H76" s="1"/>
@@ -3562,7 +3709,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3591,7 +3738,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3620,7 +3767,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3649,7 +3796,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3678,7 +3825,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3707,7 +3854,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3736,7 +3883,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3765,7 +3912,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3794,7 +3941,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3823,7 +3970,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3852,7 +3999,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3881,7 +4028,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3910,7 +4057,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="2:28" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3942,4 +4089,2024 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947A63F-F219-4538-9F06-D95754C563C6}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="15"/>
+    <col min="11" max="12" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="17">
+        <v>9088090333</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="6">
+        <v>45174</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45176</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7324916970</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="17">
+        <v>9973827280</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="6">
+        <v>45174</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45176</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="17">
+        <v>9123745867</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="6">
+        <v>45176</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45176</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17">
+        <v>6289937147</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="6">
+        <v>45176</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45176</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9804666470</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45174</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9007420629</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45174</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45174</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9007799541</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45174</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45174</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="16">
+        <v>7439306825</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="10"/>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="16">
+        <v>8697960232</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10"/>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="16">
+        <v>9830963853</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="16">
+        <v>9903482607</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="10"/>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="16">
+        <v>9674122749</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8902792233</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="16">
+        <v>8981518461</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="16">
+        <v>6291394017</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="12"/>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="16">
+        <v>8240045609</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="12"/>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="16">
+        <v>9734020100</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="12"/>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="16">
+        <v>7029550368</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="12"/>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="16">
+        <v>7477479911</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="12"/>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="16">
+        <v>9163148376</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="12"/>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="16">
+        <v>9339422735</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="12"/>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="16">
+        <v>9073931456</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="12"/>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="16">
+        <v>7980429704</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="12"/>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="16">
+        <v>8617256144</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="12"/>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="16">
+        <v>9153399782</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="12"/>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="16">
+        <v>9432305281</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="12"/>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="16">
+        <v>8582862129</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="12"/>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="16">
+        <v>9836325815</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="12"/>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="16">
+        <v>9321586870</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="12"/>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="16">
+        <v>9830328851</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="12"/>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="16">
+        <v>9073950900</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="12"/>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="16">
+        <v>9560621777</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="12"/>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="16">
+        <v>7370988146</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="12"/>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="16">
+        <v>8240580651</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="12"/>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="16">
+        <v>9831921605</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="12"/>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="16">
+        <v>9330061807</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="12"/>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="16">
+        <v>8887850034</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="12"/>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="16">
+        <v>9382353541</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="12"/>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="16">
+        <v>6291764011</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="12"/>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="16">
+        <v>9123066614</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="12"/>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="16">
+        <v>7044076484</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="12"/>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="16">
+        <v>6290369571</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="12"/>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="16">
+        <v>8240456328</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="12"/>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="16">
+        <v>8777056761</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="12"/>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="16">
+        <v>7628069343</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="12"/>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="16">
+        <v>7980835215</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="12"/>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="16">
+        <v>9330804219</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="12"/>
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="16">
+        <v>8584068988</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="12"/>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="16">
+        <v>8240996600</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="12"/>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="16">
+        <v>8697349807</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="12"/>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="16">
+        <v>8900200144</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="12"/>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="16">
+        <v>9679872726</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="12"/>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="16">
+        <v>9143179780</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="12"/>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="16">
+        <v>9051329877</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="12"/>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="16">
+        <v>7439940754</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="12"/>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="16">
+        <v>7602684338</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="12"/>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="16">
+        <v>7584994196</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="12"/>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="16">
+        <v>9330285792</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="12"/>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>45179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>9836382341</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>45179</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>45179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4">
+        <v>9433543355</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>7980645323</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6">
+        <v>6290199582</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <v>45179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>45179</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18">
+        <v>45179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>7044757677</v>
+      </c>
+      <c r="H9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07567FE-D9C5-401B-9234-972CFBBDD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6A8C8-CD34-4B60-81A2-3C75DD922410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="156">
   <si>
     <t>Student Name</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>She is a working professional</t>
+  </si>
+  <si>
+    <t>Followup Date</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -625,12 +628,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,11 +649,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4096,35 +4090,35 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="15"/>
-    <col min="11" max="12" width="8.88671875" style="15"/>
+    <col min="8" max="8" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="13"/>
+    <col min="11" max="12" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -4133,19 +4127,19 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -4162,25 +4156,25 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="12">
         <v>9088090333</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="6">
         <v>45174</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>113</v>
       </c>
       <c r="M2" s="1">
@@ -4195,29 +4189,29 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>7324916970</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>9973827280</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="6">
         <v>45174</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>114</v>
       </c>
       <c r="M3" s="1">
@@ -4232,33 +4226,33 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>9123745867</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J4" s="6">
         <v>45176</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="1">
@@ -4273,33 +4267,33 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>6289937147</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>106</v>
       </c>
       <c r="J5" s="6">
         <v>45176</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>119</v>
       </c>
       <c r="M5" s="1">
@@ -4314,27 +4308,27 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>9804666470</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="1">
@@ -4349,33 +4343,33 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="1">
         <v>9007420629</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>106</v>
       </c>
       <c r="J7" s="6">
         <v>45174</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>108</v>
       </c>
       <c r="M7" s="1">
@@ -4390,33 +4384,33 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="1">
         <v>9007799541</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>110</v>
       </c>
       <c r="J8" s="6">
         <v>45174</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>108</v>
       </c>
       <c r="M8" s="1">
@@ -4431,27 +4425,27 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>7439306825</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
       <c r="F9" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4460,27 +4454,27 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>8697960232</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
       <c r="F10" t="s">
         <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4489,27 +4483,27 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>9830963853</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
       <c r="F11" t="s">
         <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4518,27 +4512,27 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>9903482607</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
       <c r="F12" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4547,27 +4541,27 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>9674122749</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
       <c r="F13" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -4576,27 +4570,27 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>8902792233</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
       <c r="F14" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4605,10 +4599,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>8981518461</v>
       </c>
       <c r="F15" t="s">
@@ -4617,13 +4611,13 @@
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4632,27 +4626,27 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>6291394017</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="10"/>
       <c r="F16" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -4661,27 +4655,27 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>8240045609</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="10"/>
       <c r="F17" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -4690,27 +4684,27 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>9734020100</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="10"/>
       <c r="F18" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4719,27 +4713,27 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>7029550368</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="10"/>
       <c r="F19" t="s">
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4748,27 +4742,27 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>7477479911</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="F20" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4777,27 +4771,27 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>9163148376</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="10"/>
       <c r="F21" t="s">
         <v>84</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4806,27 +4800,27 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>9339422735</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="10"/>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4835,27 +4829,27 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>9073931456</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -4864,27 +4858,27 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>7980429704</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="10"/>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -4893,27 +4887,27 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>8617256144</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
       <c r="F25" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -4922,27 +4916,27 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>9153399782</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="10"/>
       <c r="F26" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4951,27 +4945,27 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>9432305281</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="10"/>
       <c r="F27" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="14"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -4980,27 +4974,27 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>8582862129</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -5009,27 +5003,27 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <v>9836325815</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="F29" t="s">
         <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -5038,27 +5032,27 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>9321586870</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="10"/>
       <c r="F30" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="14"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -5067,27 +5061,27 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>9830328851</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="10"/>
       <c r="F31" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -5096,27 +5090,27 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>9073950900</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="10"/>
       <c r="F32" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="14"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -5125,27 +5119,27 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <v>9560621777</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="10"/>
       <c r="F33" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="14"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -5154,27 +5148,27 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <v>7370988146</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="10"/>
       <c r="F34" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="14"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5183,27 +5177,27 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <v>8240580651</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="10"/>
       <c r="F35" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -5212,27 +5206,27 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="14">
         <v>9831921605</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="10"/>
       <c r="F36" t="s">
         <v>63</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -5241,27 +5235,27 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="14">
         <v>9330061807</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="10"/>
       <c r="F37" t="s">
         <v>37</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="14"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -5270,27 +5264,27 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="14">
         <v>8887850034</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="10"/>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -5299,27 +5293,27 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <v>9382353541</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="10"/>
       <c r="F39" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5328,27 +5322,27 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>6291764011</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="10"/>
       <c r="F40" t="s">
         <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5357,27 +5351,27 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <v>9123066614</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="10"/>
       <c r="F41" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -5386,27 +5380,27 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="14">
         <v>7044076484</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="10"/>
       <c r="F42" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -5415,27 +5409,27 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <v>6290369571</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="10"/>
       <c r="F43" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5444,27 +5438,27 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <v>8240456328</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="10"/>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5473,27 +5467,27 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <v>8777056761</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="10"/>
       <c r="F45" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5502,27 +5496,27 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <v>7628069343</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="10"/>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5531,27 +5525,27 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="14">
         <v>7980835215</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="10"/>
       <c r="F47" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="14"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5560,27 +5554,27 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>9330804219</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
       <c r="F48" t="s">
         <v>44</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5589,27 +5583,27 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="14">
         <v>8584068988</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="10"/>
       <c r="F49" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="14"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5618,27 +5612,27 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="14">
         <v>8240996600</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="10"/>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5647,27 +5641,27 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="14">
         <v>8697349807</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="10"/>
       <c r="F51" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="14"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5676,27 +5670,27 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="14">
         <v>8900200144</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="10"/>
       <c r="F52" t="s">
         <v>37</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5705,27 +5699,27 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="14">
         <v>9679872726</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="10"/>
       <c r="F53" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5734,27 +5728,27 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="14">
         <v>9143179780</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="10"/>
       <c r="F54" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -5763,27 +5757,27 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="14">
         <v>9051329877</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="10"/>
       <c r="F55" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="14"/>
+      <c r="I55" s="12"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -5792,27 +5786,27 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>7439940754</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="10"/>
       <c r="F56" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="14"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -5821,27 +5815,27 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>7602684338</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="10"/>
       <c r="F57" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I57" s="14"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -5850,27 +5844,27 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="14">
         <v>7584994196</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="10"/>
       <c r="F58" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -5879,27 +5873,27 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="14">
         <v>9330285792</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="10"/>
       <c r="F59" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="14"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -5911,15 +5905,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -5931,43 +5925,46 @@
     <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="K1" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="15">
         <v>45179</v>
       </c>
       <c r="C2" t="s">
@@ -5986,22 +5983,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>45179</v>
       </c>
       <c r="H3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>45179</v>
       </c>
       <c r="E4" t="s">
@@ -6017,8 +6014,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
       <c r="E5" t="s">
         <v>140</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>144</v>
       </c>
@@ -6049,11 +6046,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>45179</v>
       </c>
       <c r="E7" t="s">
@@ -6069,11 +6066,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>45179</v>
       </c>
       <c r="H8" t="s">
@@ -6083,11 +6080,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>45179</v>
       </c>
       <c r="C9" t="s">

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6A8C8-CD34-4B60-81A2-3C75DD922410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B896EC-0D83-4541-810E-9B2DD08CC99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="176">
   <si>
     <t>Student Name</t>
   </si>
@@ -495,6 +495,66 @@
   </si>
   <si>
     <t>Followup Date</t>
+  </si>
+  <si>
+    <t>Sidharth</t>
+  </si>
+  <si>
+    <t>Student of Netaji Subhas</t>
+  </si>
+  <si>
+    <t>Sidhartho</t>
+  </si>
+  <si>
+    <t>Ankush Dey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS or Bcom </t>
+  </si>
+  <si>
+    <t>Debosmita</t>
+  </si>
+  <si>
+    <t>Sayantika Baraj</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>Ranjan Singh</t>
+  </si>
+  <si>
+    <t>Studying Civil in Polytechnic</t>
+  </si>
+  <si>
+    <t>Avinandan Dutta</t>
+  </si>
+  <si>
+    <t>Studing Computer Science in Polytechnic</t>
+  </si>
+  <si>
+    <t>Rik Kundu</t>
+  </si>
+  <si>
+    <t>Bcom Hons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arka </t>
+  </si>
+  <si>
+    <t>Ajoy Basak</t>
+  </si>
+  <si>
+    <t>Interested to study AI for his son</t>
+  </si>
+  <si>
+    <t>Gaurav Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interested to study AI </t>
+  </si>
+  <si>
+    <t>Gopal Mondal</t>
   </si>
 </sst>
 </file>
@@ -5905,10 +5965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6103,6 +6163,204 @@
         <v>154</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>9330494523</v>
+      </c>
+      <c r="J10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11">
+        <v>9339487022</v>
+      </c>
+      <c r="J11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12">
+        <v>9330494523</v>
+      </c>
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13">
+        <v>8617296138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14">
+        <v>9902987601</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15">
+        <v>7501846983</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16">
+        <v>8900306546</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17">
+        <v>8697636226</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>9051481706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19">
+        <v>9734305807</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20">
+        <v>7044189984</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <v>45181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <v>9064573012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B896EC-0D83-4541-810E-9B2DD08CC99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F386AE1-A498-4011-8346-BF622FDB9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="176">
   <si>
     <t>Student Name</t>
   </si>
@@ -5968,7 +5968,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6244,6 +6244,9 @@
       <c r="D14">
         <v>9902987601</v>
       </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
       <c r="J14" t="s">
         <v>163</v>
       </c>
@@ -6326,6 +6329,9 @@
       <c r="D19">
         <v>9734305807</v>
       </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
       <c r="J19" t="s">
         <v>172</v>
       </c>
@@ -6342,6 +6348,9 @@
       </c>
       <c r="D20">
         <v>7044189984</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
       </c>
       <c r="J20" t="s">
         <v>174</v>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F386AE1-A498-4011-8346-BF622FDB9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98F9B-9C87-4A49-A562-AD738DA99A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Students-Prospects" sheetId="2" r:id="rId2"/>
     <sheet name="Daily-Visit" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="181">
   <si>
     <t>Student Name</t>
   </si>
@@ -555,6 +556,21 @@
   </si>
   <si>
     <t>Gopal Mondal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminar Date </t>
+  </si>
+  <si>
+    <t>Seminar Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student </t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Gurdian</t>
   </si>
 </sst>
 </file>
@@ -4150,7 +4166,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5965,10 +5981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5983,9 +5999,10 @@
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -6017,10 +6034,19 @@
         <v>133</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6043,7 +6069,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6054,7 +6080,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="E5" t="s">
         <v>140</v>
@@ -6089,7 +6115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>144</v>
       </c>
@@ -6106,7 +6132,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6126,7 +6152,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6140,7 +6166,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6163,7 +6189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6180,7 +6206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6197,7 +6223,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6214,7 +6240,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6231,7 +6257,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6251,7 +6277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6268,7 +6294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6368,6 +6394,44 @@
       </c>
       <c r="D21">
         <v>9064573012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE59D4-FD08-4612-851B-E358E933A94E}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98F9B-9C87-4A49-A562-AD738DA99A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79F693-4E19-4C0E-B8F7-8CA452EB0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="211">
   <si>
     <t>Student Name</t>
   </si>
@@ -571,13 +571,103 @@
   </si>
   <si>
     <t>Gurdian</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>S. Mallik</t>
+  </si>
+  <si>
+    <t>Computer 11-12</t>
+  </si>
+  <si>
+    <t>Alapan Mother</t>
+  </si>
+  <si>
+    <t>Iradri Das Mother</t>
+  </si>
+  <si>
+    <t>Std IX</t>
+  </si>
+  <si>
+    <t>Std X</t>
+  </si>
+  <si>
+    <t>Anuvab Das</t>
+  </si>
+  <si>
+    <t>Debojyoti</t>
+  </si>
+  <si>
+    <t>South Point School</t>
+  </si>
+  <si>
+    <t>Suvam</t>
+  </si>
+  <si>
+    <t>Sumondno</t>
+  </si>
+  <si>
+    <t>Aiush</t>
+  </si>
+  <si>
+    <t>Shuvo Das</t>
+  </si>
+  <si>
+    <t>Patuli Food Court</t>
+  </si>
+  <si>
+    <t>Anusrita</t>
+  </si>
+  <si>
+    <t>Swannakhen</t>
+  </si>
+  <si>
+    <t>Shreyashi</t>
+  </si>
+  <si>
+    <t>Puja</t>
+  </si>
+  <si>
+    <t>Tonun Das</t>
+  </si>
+  <si>
+    <t>Disha</t>
+  </si>
+  <si>
+    <t>Sompa</t>
+  </si>
+  <si>
+    <t>Arunava</t>
+  </si>
+  <si>
+    <t>Lolita</t>
+  </si>
+  <si>
+    <t>Sawayam</t>
+  </si>
+  <si>
+    <t>Commerce, AI &amp; Coding</t>
+  </si>
+  <si>
+    <t>Dibya Priya Jana</t>
+  </si>
+  <si>
+    <t>Brainware College…DS/AI….B Tech…..AI &amp; Coding</t>
+  </si>
+  <si>
+    <t>Science VIII all subjects</t>
+  </si>
+  <si>
+    <t>Arkaprava Ghosh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +688,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -686,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -735,6 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4166,7 +4265,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5981,22 +6080,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.5546875" customWidth="1"/>
@@ -6068,6 +6167,12 @@
       <c r="I2" t="s">
         <v>135</v>
       </c>
+      <c r="K2" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
@@ -6079,6 +6184,12 @@
       <c r="H3" t="s">
         <v>136</v>
       </c>
+      <c r="K3" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
@@ -6098,6 +6209,12 @@
       </c>
       <c r="J4" t="s">
         <v>142</v>
+      </c>
+      <c r="K4" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6114,6 +6231,12 @@
       <c r="J5" t="s">
         <v>141</v>
       </c>
+      <c r="K5" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
@@ -6131,6 +6254,12 @@
       <c r="J6" t="s">
         <v>145</v>
       </c>
+      <c r="K6" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -6151,6 +6280,12 @@
       <c r="J7" t="s">
         <v>149</v>
       </c>
+      <c r="K7" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
@@ -6165,6 +6300,12 @@
       <c r="J8" t="s">
         <v>151</v>
       </c>
+      <c r="K8" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
@@ -6188,6 +6329,12 @@
       <c r="J9" t="s">
         <v>154</v>
       </c>
+      <c r="K9" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
@@ -6205,6 +6352,12 @@
       <c r="J10" t="s">
         <v>157</v>
       </c>
+      <c r="K10" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
@@ -6222,6 +6375,12 @@
       <c r="J11" t="s">
         <v>157</v>
       </c>
+      <c r="K11" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L11" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
@@ -6239,6 +6398,12 @@
       <c r="J12" t="s">
         <v>160</v>
       </c>
+      <c r="K12" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
@@ -6256,6 +6421,12 @@
       <c r="J13" t="s">
         <v>160</v>
       </c>
+      <c r="K13" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
@@ -6276,6 +6447,12 @@
       <c r="J14" t="s">
         <v>163</v>
       </c>
+      <c r="K14" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -6293,6 +6470,12 @@
       <c r="J15" t="s">
         <v>165</v>
       </c>
+      <c r="K15" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
@@ -6310,8 +6493,14 @@
       <c r="J16" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6327,8 +6516,14 @@
       <c r="J17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6341,8 +6536,14 @@
       <c r="D18">
         <v>9051481706</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6361,8 +6562,14 @@
       <c r="J19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6381,8 +6588,14 @@
       <c r="J20" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="15">
+        <v>45193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6395,6 +6608,381 @@
       <c r="D21">
         <v>9064573012</v>
       </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22">
+        <v>9830540969</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23">
+        <v>9875597274</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24">
+        <v>9831649789</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25">
+        <v>7044454791</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26">
+        <v>9051070314</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27">
+        <v>8100234251</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28">
+        <v>895612401</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29">
+        <v>9038607618</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30">
+        <v>9123738352</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31">
+        <v>7439648726</v>
+      </c>
+      <c r="H31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32">
+        <v>6290149228</v>
+      </c>
+      <c r="H32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>30</v>
+      </c>
+      <c r="B33" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33">
+        <v>7439235390</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34">
+        <v>9831616972</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>9875642078</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36">
+        <v>9330260643</v>
+      </c>
+      <c r="H36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37">
+        <v>7865006160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38">
+        <v>9933568503</v>
+      </c>
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>7980097885</v>
+      </c>
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40">
+        <v>8017803547</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41">
+        <v>8927931385</v>
+      </c>
+      <c r="H41" t="s">
+        <v>195</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>39</v>
+      </c>
+      <c r="B42" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42">
+        <v>9123811981</v>
+      </c>
+      <c r="H42" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79F693-4E19-4C0E-B8F7-8CA452EB0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4D647-BA5C-422B-9BD9-AB3149125574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="215">
   <si>
     <t>Student Name</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t>Arkaprava Ghosh</t>
+  </si>
+  <si>
+    <t>Siya</t>
+  </si>
+  <si>
+    <t>Gould Smith</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Soma</t>
   </si>
 </sst>
 </file>
@@ -784,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -834,6 +846,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6080,10 +6093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6979,10 +6992,55 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
+      <c r="A43" s="17">
+        <v>40</v>
+      </c>
+      <c r="B43" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43">
+        <v>8789192117</v>
+      </c>
+      <c r="H43" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
+      <c r="A44" s="17">
+        <v>41</v>
+      </c>
+      <c r="B44" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44">
+        <v>7439261742</v>
+      </c>
+      <c r="H44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45">
+        <v>8910136033</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4D647-BA5C-422B-9BD9-AB3149125574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346E0A8-2C69-4036-AD07-8AAA585E7C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Students-Prospects" sheetId="2" r:id="rId2"/>
     <sheet name="Daily-Visit" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Seminar-Plan" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="277">
   <si>
     <t>Student Name</t>
   </si>
@@ -673,13 +674,199 @@
   </si>
   <si>
     <t>Soma</t>
+  </si>
+  <si>
+    <t>Seminar Plan</t>
+  </si>
+  <si>
+    <t>Basudeb Ghosh</t>
+  </si>
+  <si>
+    <t>Patuli Locality</t>
+  </si>
+  <si>
+    <t>B. Pal</t>
+  </si>
+  <si>
+    <t>Pinaki Ganguly</t>
+  </si>
+  <si>
+    <t>Kalyani Sarkar</t>
+  </si>
+  <si>
+    <t>Abhirup Biswas</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>Suvomita</t>
+  </si>
+  <si>
+    <t>Ujjal</t>
+  </si>
+  <si>
+    <t>Sapaljit</t>
+  </si>
+  <si>
+    <t>Sumita</t>
+  </si>
+  <si>
+    <t>Sotojit</t>
+  </si>
+  <si>
+    <t>Ranu</t>
+  </si>
+  <si>
+    <t>Thidiet</t>
+  </si>
+  <si>
+    <t>Aloke Mitra</t>
+  </si>
+  <si>
+    <t>Alibia Chatterjee</t>
+  </si>
+  <si>
+    <t>Aitizhy</t>
+  </si>
+  <si>
+    <t>Dipankar Dey</t>
+  </si>
+  <si>
+    <t>Anbus pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohul </t>
+  </si>
+  <si>
+    <t>Rupali Halder</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>4 PM To 6 PM</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>N-1/25, Patuli Kol-94</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Anirban Chakraborty,Debashish Nath,Anupam Sen,Pradipta Bose and Sayan Basak</t>
+  </si>
+  <si>
+    <t>Estimated Guests</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Pradipta Bose</t>
+  </si>
+  <si>
+    <t>Main Speaker</t>
+  </si>
+  <si>
+    <t>Anirban Chakraborty</t>
+  </si>
+  <si>
+    <t>Subject of Speaking</t>
+  </si>
+  <si>
+    <t>Debashish Nath</t>
+  </si>
+  <si>
+    <t>c) Commerce and Law</t>
+  </si>
+  <si>
+    <t>Anupam Sen</t>
+  </si>
+  <si>
+    <t>Sayan Basak</t>
+  </si>
+  <si>
+    <t>d) Working environment of Anodiam</t>
+  </si>
+  <si>
+    <t>b) Humanities,Science &amp; Competetive Exams</t>
+  </si>
+  <si>
+    <t>a) Introduction about Anodiam and Tech dept</t>
+  </si>
+  <si>
+    <t>d) Mission and Vision of Anodiam &amp; AI</t>
+  </si>
+  <si>
+    <t>Entrance at ground stair</t>
+  </si>
+  <si>
+    <t>Right Arrow Key under the CCTV camera</t>
+  </si>
+  <si>
+    <t>Gate at ground stair</t>
+  </si>
+  <si>
+    <t>Under the bell, write Press Bell</t>
+  </si>
+  <si>
+    <t>Posters in the wall of stair case</t>
+  </si>
+  <si>
+    <t>a) Anodiam Posters</t>
+  </si>
+  <si>
+    <t>b) Seminar in Ist Floor</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Total Cleaning of Staircase and surrounding walls</t>
+  </si>
+  <si>
+    <t>Ist Floor, Nebula</t>
+  </si>
+  <si>
+    <t>Door of the room</t>
+  </si>
+  <si>
+    <t>Anodiam Poster</t>
+  </si>
+  <si>
+    <t>Food for guest</t>
+  </si>
+  <si>
+    <t>Tea  --&gt; Needs to purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buiscuits --&gt; Needs to purchase</t>
+  </si>
+  <si>
+    <t>Water --&gt; take 1 extra jar of water</t>
+  </si>
+  <si>
+    <t>Paper Cups --&gt; Need to buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +899,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
     </font>
   </fonts>
   <fills count="3">
@@ -796,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -847,6 +1039,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6093,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6231,6 +6436,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
       <c r="B5" s="15"/>
       <c r="E5" t="s">
         <v>140</v>
@@ -6252,6 +6460,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
       <c r="E6" t="s">
         <v>144</v>
       </c>
@@ -6276,7 +6487,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15">
         <v>45179</v>
@@ -6302,7 +6513,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15">
         <v>45179</v>
@@ -6322,7 +6533,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15">
         <v>45179</v>
@@ -6351,7 +6562,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15">
         <v>45181</v>
@@ -6374,7 +6585,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15">
         <v>45181</v>
@@ -6397,7 +6608,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="15">
         <v>45181</v>
@@ -6420,7 +6631,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="15">
         <v>45181</v>
@@ -6443,7 +6654,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15">
         <v>45181</v>
@@ -6469,7 +6680,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15">
         <v>45181</v>
@@ -6492,7 +6703,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15">
         <v>45181</v>
@@ -6515,7 +6726,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15">
         <v>45181</v>
@@ -6538,7 +6749,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15">
         <v>45181</v>
@@ -6558,7 +6769,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="15">
         <v>45181</v>
@@ -6584,7 +6795,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15">
         <v>45181</v>
@@ -6610,7 +6821,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15">
         <v>45181</v>
@@ -6624,7 +6835,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15">
         <v>45187</v>
@@ -6641,7 +6852,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15">
         <v>45187</v>
@@ -6658,7 +6869,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15">
         <v>45187</v>
@@ -6678,7 +6889,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15">
         <v>45187</v>
@@ -6695,7 +6906,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15">
         <v>45187</v>
@@ -6712,7 +6923,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="15">
         <v>45187</v>
@@ -6729,7 +6940,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15">
         <v>45187</v>
@@ -6746,7 +6957,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="15">
         <v>45187</v>
@@ -6763,7 +6974,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15">
         <v>45187</v>
@@ -6780,7 +6991,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15">
         <v>45187</v>
@@ -6797,7 +7008,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="15">
         <v>45187</v>
@@ -6814,7 +7025,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15">
         <v>45187</v>
@@ -6831,7 +7042,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15">
         <v>45187</v>
@@ -6848,7 +7059,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="15">
         <v>45187</v>
@@ -6865,7 +7076,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15">
         <v>45187</v>
@@ -6882,7 +7093,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="15">
         <v>45187</v>
@@ -6899,7 +7110,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="15">
         <v>45187</v>
@@ -6916,7 +7127,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="15">
         <v>45187</v>
@@ -6933,7 +7144,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="15">
         <v>45187</v>
@@ -6953,7 +7164,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="15">
         <v>45187</v>
@@ -6973,7 +7184,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15">
         <v>45187</v>
@@ -6993,12 +7204,12 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="15">
         <v>45188</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" t="s">
         <v>211</v>
       </c>
       <c r="D43">
@@ -7010,12 +7221,12 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="15">
         <v>45188</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" t="s">
         <v>213</v>
       </c>
       <c r="D44">
@@ -7027,7 +7238,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="15">
         <v>45188</v>
@@ -7040,6 +7251,398 @@
       </c>
       <c r="H45" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46">
+        <v>8981502987</v>
+      </c>
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47">
+        <v>8133843005</v>
+      </c>
+      <c r="H47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>6290583136</v>
+      </c>
+      <c r="H48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49">
+        <v>8336817657</v>
+      </c>
+      <c r="H49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50">
+        <v>9831493208</v>
+      </c>
+      <c r="H50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51">
+        <v>7003540372</v>
+      </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52">
+        <v>7278448048</v>
+      </c>
+      <c r="H52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53">
+        <v>9830826860</v>
+      </c>
+      <c r="H53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54">
+        <v>8420848861</v>
+      </c>
+      <c r="H54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55">
+        <v>9872355769</v>
+      </c>
+      <c r="H55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56">
+        <v>6294268223</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57">
+        <v>9143297263</v>
+      </c>
+      <c r="H57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58">
+        <v>7890899876</v>
+      </c>
+      <c r="H58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59">
+        <v>6289529539</v>
+      </c>
+      <c r="H59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60">
+        <v>9433055625</v>
+      </c>
+      <c r="H60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61">
+        <v>9433221128</v>
+      </c>
+      <c r="H61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62">
+        <v>8477712310</v>
+      </c>
+      <c r="H62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C63" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63">
+        <v>628955425</v>
+      </c>
+      <c r="H63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64">
+        <v>9477900494</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65">
+        <v>8777706597</v>
+      </c>
+      <c r="H65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15">
+        <v>45188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66">
+        <v>9433256207</v>
+      </c>
+      <c r="H66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7083,4 +7686,477 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288CA36-D873-4098-B177-E86045106D9A}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="23">
+        <v>45193</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="24">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>11</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>14</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>15</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346E0A8-2C69-4036-AD07-8AAA585E7C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D05F36-B85F-444F-8EE2-50F4BFBB4DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="279">
   <si>
     <t>Student Name</t>
   </si>
@@ -860,6 +860,12 @@
   </si>
   <si>
     <t>Paper Cups --&gt; Need to buy</t>
+  </si>
+  <si>
+    <t>Guests Calling</t>
+  </si>
+  <si>
+    <t>Call all the guests from Thursday</t>
   </si>
 </sst>
 </file>
@@ -988,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1038,7 +1044,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7260,7 +7265,7 @@
       <c r="B46" s="15">
         <v>45188</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" t="s">
         <v>216</v>
       </c>
       <c r="D46">
@@ -7277,7 +7282,7 @@
       <c r="B47" s="15">
         <v>45188</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" t="s">
         <v>218</v>
       </c>
       <c r="D47">
@@ -7294,7 +7299,7 @@
       <c r="B48" s="15">
         <v>45188</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" t="s">
         <v>219</v>
       </c>
       <c r="D48">
@@ -7311,7 +7316,7 @@
       <c r="B49" s="15">
         <v>45188</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" t="s">
         <v>220</v>
       </c>
       <c r="D49">
@@ -7328,7 +7333,7 @@
       <c r="B50" s="15">
         <v>45188</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" t="s">
         <v>221</v>
       </c>
       <c r="D50">
@@ -7345,7 +7350,7 @@
       <c r="B51" s="15">
         <v>45188</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" t="s">
         <v>222</v>
       </c>
       <c r="D51">
@@ -7362,7 +7367,7 @@
       <c r="B52" s="15">
         <v>45188</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" t="s">
         <v>223</v>
       </c>
       <c r="D52">
@@ -7379,7 +7384,7 @@
       <c r="B53" s="15">
         <v>45188</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" t="s">
         <v>224</v>
       </c>
       <c r="D53">
@@ -7396,7 +7401,7 @@
       <c r="B54" s="15">
         <v>45188</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" t="s">
         <v>225</v>
       </c>
       <c r="D54">
@@ -7413,7 +7418,7 @@
       <c r="B55" s="15">
         <v>45188</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" t="s">
         <v>226</v>
       </c>
       <c r="D55">
@@ -7430,7 +7435,7 @@
       <c r="B56" s="15">
         <v>45188</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" t="s">
         <v>227</v>
       </c>
       <c r="D56">
@@ -7447,7 +7452,7 @@
       <c r="B57" s="15">
         <v>45188</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" t="s">
         <v>228</v>
       </c>
       <c r="D57">
@@ -7464,7 +7469,7 @@
       <c r="B58" s="15">
         <v>45188</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" t="s">
         <v>230</v>
       </c>
       <c r="D58">
@@ -7692,8 +7697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288CA36-D873-4098-B177-E86045106D9A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7704,454 +7709,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>45193</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>20</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>14</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="A28" s="19">
+        <v>16</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D05F36-B85F-444F-8EE2-50F4BFBB4DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75387EBD-32F0-4A5F-905B-D034FBD96A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Daily-Visit" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Seminar-Plan" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="286">
   <si>
     <t>Student Name</t>
   </si>
@@ -866,6 +867,27 @@
   </si>
   <si>
     <t>Call all the guests from Thursday</t>
+  </si>
+  <si>
+    <t>Smart Class rooms</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Location Details --&gt; near Patuli More, near Khudiram Metro Station</t>
+  </si>
+  <si>
+    <t>Sayan's Point</t>
+  </si>
+  <si>
+    <t>AI Courses</t>
+  </si>
+  <si>
+    <t>Online Study Material through APP</t>
   </si>
 </sst>
 </file>
@@ -7697,8 +7719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288CA36-D873-4098-B177-E86045106D9A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8170,4 +8192,57 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D3FE7-1901-4CCA-BA6E-580E1451B6B7}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75387EBD-32F0-4A5F-905B-D034FBD96A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19440" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="Seminar-Plan" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="352">
   <si>
     <t>Student Name</t>
   </si>
@@ -725,9 +719,6 @@
     <t>Thidiet</t>
   </si>
   <si>
-    <t>Aloke Mitra</t>
-  </si>
-  <si>
     <t>Alibia Chatterjee</t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     <t>Dipankar Dey</t>
   </si>
   <si>
-    <t>Anbus pal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rohul </t>
   </si>
   <si>
@@ -888,13 +876,217 @@
   </si>
   <si>
     <t>Online Study Material through APP</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>P-2</t>
+  </si>
+  <si>
+    <t>P-3</t>
+  </si>
+  <si>
+    <t>P-4</t>
+  </si>
+  <si>
+    <t>P-5</t>
+  </si>
+  <si>
+    <t>P-6</t>
+  </si>
+  <si>
+    <t>P-7</t>
+  </si>
+  <si>
+    <t>P-8</t>
+  </si>
+  <si>
+    <t>P-9</t>
+  </si>
+  <si>
+    <t>P-10</t>
+  </si>
+  <si>
+    <t>P-11</t>
+  </si>
+  <si>
+    <t>P-12</t>
+  </si>
+  <si>
+    <t>P-13</t>
+  </si>
+  <si>
+    <t>P-14</t>
+  </si>
+  <si>
+    <t>P-15</t>
+  </si>
+  <si>
+    <t>P-16</t>
+  </si>
+  <si>
+    <t>P-17</t>
+  </si>
+  <si>
+    <t>P-18</t>
+  </si>
+  <si>
+    <t>P-19</t>
+  </si>
+  <si>
+    <t>P-20</t>
+  </si>
+  <si>
+    <t>P-21</t>
+  </si>
+  <si>
+    <t>P-22</t>
+  </si>
+  <si>
+    <t>P-23</t>
+  </si>
+  <si>
+    <t>P-24</t>
+  </si>
+  <si>
+    <t>P-25</t>
+  </si>
+  <si>
+    <t>P-26</t>
+  </si>
+  <si>
+    <t>P-27</t>
+  </si>
+  <si>
+    <t>P-28</t>
+  </si>
+  <si>
+    <t>P-29</t>
+  </si>
+  <si>
+    <t>P-30</t>
+  </si>
+  <si>
+    <t>P-31</t>
+  </si>
+  <si>
+    <t>P-32</t>
+  </si>
+  <si>
+    <t>P-33</t>
+  </si>
+  <si>
+    <t>P-34</t>
+  </si>
+  <si>
+    <t>P-35</t>
+  </si>
+  <si>
+    <t>P-36</t>
+  </si>
+  <si>
+    <t>P-37</t>
+  </si>
+  <si>
+    <t>P-38</t>
+  </si>
+  <si>
+    <t>P-39</t>
+  </si>
+  <si>
+    <t>P-40</t>
+  </si>
+  <si>
+    <t>P-41</t>
+  </si>
+  <si>
+    <t>P-42</t>
+  </si>
+  <si>
+    <t>P-43</t>
+  </si>
+  <si>
+    <t>P-44</t>
+  </si>
+  <si>
+    <t>P-45</t>
+  </si>
+  <si>
+    <t>P-46</t>
+  </si>
+  <si>
+    <t>P-47</t>
+  </si>
+  <si>
+    <t>P-48</t>
+  </si>
+  <si>
+    <t>P-49</t>
+  </si>
+  <si>
+    <t>P-50</t>
+  </si>
+  <si>
+    <t>P-51</t>
+  </si>
+  <si>
+    <t>P-52</t>
+  </si>
+  <si>
+    <t>P-53</t>
+  </si>
+  <si>
+    <t>P-54</t>
+  </si>
+  <si>
+    <t>P-55</t>
+  </si>
+  <si>
+    <t>P-56</t>
+  </si>
+  <si>
+    <t>P-57</t>
+  </si>
+  <si>
+    <t>P-58</t>
+  </si>
+  <si>
+    <t>P-59</t>
+  </si>
+  <si>
+    <t>P-60</t>
+  </si>
+  <si>
+    <t>P-61</t>
+  </si>
+  <si>
+    <t>P-62</t>
+  </si>
+  <si>
+    <t>P-63</t>
+  </si>
+  <si>
+    <t>P-64</t>
+  </si>
+  <si>
+    <t>P-65</t>
+  </si>
+  <si>
+    <t>May Be</t>
+  </si>
+  <si>
+    <t>Ankus pal</t>
+  </si>
+  <si>
+    <t>Monaranjan Mondal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,7 +1331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1174,7 +1366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1351,14 +1543,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB89"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1368,29 +1560,29 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="2"/>
+    <col min="16" max="16" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="12.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:28" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" ht="12.6" thickBot="1"/>
+    <row r="2" spans="2:28" ht="36.6" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1641,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1492,7 +1684,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1521,7 +1713,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="2:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" ht="24">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>116</v>
@@ -1566,7 +1758,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1595,7 +1787,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="2:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="24">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>120</v>
@@ -1646,7 +1838,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1675,7 +1867,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="2:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="24">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>117</v>
@@ -1726,7 +1918,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1755,7 +1947,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1784,7 +1976,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1813,7 +2005,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="2:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="24">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1858,7 +2050,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="2:28" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="24">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>107</v>
@@ -1909,7 +2101,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>109</v>
@@ -1960,7 +2152,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1989,7 +2181,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2018,7 +2210,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2047,7 +2239,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="14.45">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>103</v>
@@ -2086,7 +2278,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" ht="14.45">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>101</v>
@@ -2125,7 +2317,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" ht="14.45">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>99</v>
@@ -2164,7 +2356,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" ht="14.45">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>97</v>
@@ -2203,7 +2395,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" ht="14.45">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>96</v>
@@ -2242,7 +2434,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" ht="14.45">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>94</v>
@@ -2281,7 +2473,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" ht="14.45">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>92</v>
@@ -2320,7 +2512,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" ht="14.45">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>91</v>
@@ -2357,7 +2549,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" ht="14.45">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>90</v>
@@ -2394,7 +2586,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" ht="14.45">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>89</v>
@@ -2431,7 +2623,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" ht="14.45">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>88</v>
@@ -2468,7 +2660,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" ht="14.45">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>86</v>
@@ -2505,7 +2697,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" ht="14.45">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>85</v>
@@ -2542,7 +2734,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" ht="14.45">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>83</v>
@@ -2579,7 +2771,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="14.45">
       <c r="B33" s="1"/>
       <c r="C33" t="s">
         <v>81</v>
@@ -2616,7 +2808,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" ht="14.45">
       <c r="B34" s="1"/>
       <c r="C34" t="s">
         <v>79</v>
@@ -2653,7 +2845,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" ht="14.45">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
         <v>78</v>
@@ -2690,7 +2882,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" ht="14.45">
       <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>77</v>
@@ -2727,7 +2919,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" ht="14.45">
       <c r="B37" s="1"/>
       <c r="C37" t="s">
         <v>75</v>
@@ -2764,7 +2956,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" ht="14.45">
       <c r="B38" s="1"/>
       <c r="C38" t="s">
         <v>75</v>
@@ -2801,7 +2993,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" ht="14.45">
       <c r="B39" s="1"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -2838,7 +3030,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" ht="14.45">
       <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>72</v>
@@ -2875,7 +3067,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:28" ht="14.45">
       <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>71</v>
@@ -2912,7 +3104,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" ht="14.45">
       <c r="B42" s="1"/>
       <c r="C42" t="s">
         <v>70</v>
@@ -2949,7 +3141,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" ht="14.45">
       <c r="B43" s="1"/>
       <c r="C43" t="s">
         <v>68</v>
@@ -2986,7 +3178,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" ht="14.45">
       <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>66</v>
@@ -3023,7 +3215,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" ht="14.45">
       <c r="B45" s="1"/>
       <c r="C45" t="s">
         <v>65</v>
@@ -3060,7 +3252,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" ht="14.45">
       <c r="B46" s="1"/>
       <c r="C46" t="s">
         <v>64</v>
@@ -3097,7 +3289,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:28" ht="14.45">
       <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>62</v>
@@ -3134,7 +3326,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" ht="14.45">
       <c r="B48" s="1"/>
       <c r="C48" t="s">
         <v>61</v>
@@ -3171,7 +3363,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:28" ht="14.45">
       <c r="B49" s="1"/>
       <c r="C49" t="s">
         <v>60</v>
@@ -3208,7 +3400,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:28" ht="14.45">
       <c r="B50" s="1"/>
       <c r="C50" t="s">
         <v>59</v>
@@ -3245,7 +3437,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:28" ht="14.45">
       <c r="B51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -3282,7 +3474,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:28" ht="14.45">
       <c r="B52" s="1"/>
       <c r="C52" t="s">
         <v>56</v>
@@ -3319,7 +3511,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:28" ht="14.45">
       <c r="B53" s="1"/>
       <c r="C53" t="s">
         <v>54</v>
@@ -3356,7 +3548,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:28" ht="14.45">
       <c r="B54" s="1"/>
       <c r="C54" t="s">
         <v>52</v>
@@ -3393,7 +3585,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:28" ht="14.45">
       <c r="B55" s="1"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -3430,7 +3622,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:28" ht="14.45">
       <c r="B56" s="1"/>
       <c r="C56" t="s">
         <v>48</v>
@@ -3467,7 +3659,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:28" ht="14.45">
       <c r="B57" s="1"/>
       <c r="C57" t="s">
         <v>46</v>
@@ -3504,7 +3696,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:28" ht="14.45">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
         <v>45</v>
@@ -3541,7 +3733,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:28" ht="14.45">
       <c r="B59" s="1"/>
       <c r="C59" t="s">
         <v>43</v>
@@ -3578,7 +3770,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:28" ht="14.45">
       <c r="B60" s="1"/>
       <c r="C60" t="s">
         <v>42</v>
@@ -3615,7 +3807,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:28" ht="14.45">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>40</v>
@@ -3652,7 +3844,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:28" ht="14.45">
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>38</v>
@@ -3689,7 +3881,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:28" ht="14.45">
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>35</v>
@@ -3726,7 +3918,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:28" ht="14.45">
       <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>33</v>
@@ -3763,7 +3955,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:28" ht="14.45">
       <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>32</v>
@@ -3800,7 +3992,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:28" ht="14.45">
       <c r="B66" s="1"/>
       <c r="C66" t="s">
         <v>31</v>
@@ -3837,7 +4029,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:28" ht="14.45">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
         <v>28</v>
@@ -3874,7 +4066,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:28" ht="14.45">
       <c r="B68" s="1"/>
       <c r="C68" t="s">
         <v>25</v>
@@ -3911,7 +4103,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:28" ht="14.45">
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>22</v>
@@ -3948,7 +4140,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:28" ht="14.45">
       <c r="B70" s="1"/>
       <c r="G70"/>
       <c r="H70" s="1"/>
@@ -3973,7 +4165,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:28" ht="14.45">
       <c r="B71" s="1"/>
       <c r="G71"/>
       <c r="H71" s="1"/>
@@ -3998,7 +4190,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:28" ht="14.45">
       <c r="B72" s="1"/>
       <c r="G72"/>
       <c r="H72" s="1"/>
@@ -4023,7 +4215,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:28" ht="14.45">
       <c r="B73" s="1"/>
       <c r="G73"/>
       <c r="H73" s="1"/>
@@ -4048,7 +4240,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:28" ht="14.45">
       <c r="B74" s="1"/>
       <c r="G74"/>
       <c r="H74" s="1"/>
@@ -4073,7 +4265,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:28" ht="14.45">
       <c r="B75" s="1"/>
       <c r="G75"/>
       <c r="H75" s="1"/>
@@ -4098,7 +4290,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:28" ht="14.45">
       <c r="B76" s="1"/>
       <c r="G76"/>
       <c r="H76" s="1"/>
@@ -4123,7 +4315,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:28">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4152,7 +4344,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:28">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4181,7 +4373,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:28">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4210,7 +4402,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:28">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4239,7 +4431,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:28">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4268,7 +4460,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:28">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4297,7 +4489,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:28">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4326,7 +4518,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:28">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4355,7 +4547,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:28">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4384,7 +4576,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:28">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4413,7 +4605,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:28">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4442,7 +4634,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:28">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4471,7 +4663,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:28">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4506,26 +4698,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947A63F-F219-4538-9F06-D95754C563C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="13"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="13"/>
+    <col min="11" max="12" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="36.6" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
@@ -4572,7 +4764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4605,7 +4797,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4642,7 +4834,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4683,7 +4875,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4724,7 +4916,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4759,7 +4951,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4800,7 +4992,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4841,7 +5033,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4870,7 +5062,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4899,7 +5091,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4928,7 +5120,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4957,7 +5149,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4986,7 +5178,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5015,7 +5207,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5042,7 +5234,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5071,7 +5263,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5100,7 +5292,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5129,7 +5321,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5158,7 +5350,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5187,7 +5379,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5216,7 +5408,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5245,7 +5437,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5274,7 +5466,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5303,7 +5495,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5332,7 +5524,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5361,7 +5553,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5390,7 +5582,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5419,7 +5611,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5448,7 +5640,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5477,7 +5669,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5506,7 +5698,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5535,7 +5727,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5564,7 +5756,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5593,7 +5785,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5622,7 +5814,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5651,7 +5843,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5680,7 +5872,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5709,7 +5901,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5738,7 +5930,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5767,7 +5959,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5796,7 +5988,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5825,7 +6017,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5854,7 +6046,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5883,7 +6075,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5912,7 +6104,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5941,7 +6133,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5970,7 +6162,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5999,7 +6191,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6028,7 +6220,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6057,7 +6249,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6086,7 +6278,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6115,7 +6307,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6144,7 +6336,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6173,7 +6365,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6202,7 +6394,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6231,7 +6423,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6260,7 +6452,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6289,7 +6481,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6324,29 +6516,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF2424-D6E5-483B-A49D-6898AA1F3E64}">
-  <dimension ref="A1:N73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -6356,41 +6549,45 @@
       <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="11" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6400,165 +6597,192 @@
       <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2">
         <v>9836382341</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="15">
+      <c r="M2" s="15">
         <v>45193</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="15">
         <v>45179</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="15">
+      <c r="M3" s="15">
         <v>45193</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="15">
         <v>45179</v>
       </c>
+      <c r="D4" t="s">
+        <v>286</v>
+      </c>
       <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
         <v>138</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>9433543355</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>139</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="15">
+      <c r="M4" s="15">
         <v>45193</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" t="s">
         <v>140</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>7980645323</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>139</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="15">
+      <c r="M5" s="15">
         <v>45193</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" t="s">
         <v>144</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>6290199582</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>143</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>139</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="15">
+      <c r="M6" s="15">
         <v>45193</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="15">
         <v>45179</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" t="s">
         <v>148</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>147</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>146</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="15">
+      <c r="M7" s="15">
         <v>45193</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="15">
         <v>45179</v>
       </c>
-      <c r="H8" t="s">
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J8" t="s">
         <v>150</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="15">
+      <c r="M8" s="15">
         <v>45193</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6568,26 +6792,32 @@
       <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9">
         <v>7044757677</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>153</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>135</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="15">
+      <c r="M9" s="15">
         <v>45193</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -6597,20 +6827,26 @@
       <c r="C10" t="s">
         <v>156</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10">
         <v>9330494523</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="15">
+      <c r="M10" s="15">
         <v>45193</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -6620,20 +6856,26 @@
       <c r="C11" t="s">
         <v>158</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
         <v>9339487022</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="15">
+      <c r="M11" s="15">
         <v>45193</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -6643,20 +6885,20 @@
       <c r="C12" t="s">
         <v>159</v>
       </c>
-      <c r="D12">
-        <v>9330494523</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="15">
+      <c r="M12" s="15">
         <v>45193</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6666,20 +6908,26 @@
       <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13">
         <v>8617296138</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="15">
+      <c r="M13" s="15">
         <v>45193</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6689,23 +6937,26 @@
       <c r="C14" t="s">
         <v>162</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14">
         <v>9902987601</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>163</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="15">
+      <c r="M14" s="15">
         <v>45193</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6715,20 +6966,23 @@
       <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15">
         <v>7501846983</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="15">
+      <c r="M15" s="15">
         <v>45193</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6738,20 +6992,26 @@
       <c r="C16" t="s">
         <v>166</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16">
         <v>8900306546</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="15">
+      <c r="M16" s="15">
         <v>45193</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -6761,20 +7021,26 @@
       <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17">
         <v>8697636226</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="15">
+      <c r="M17" s="15">
         <v>45193</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -6784,17 +7050,20 @@
       <c r="C18" t="s">
         <v>170</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18">
         <v>9051481706</v>
       </c>
-      <c r="K18" s="15">
+      <c r="M18" s="15">
         <v>45193</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -6804,23 +7073,26 @@
       <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19">
         <v>9734305807</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>135</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="15">
+      <c r="M19" s="15">
         <v>45193</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -6830,23 +7102,26 @@
       <c r="C20" t="s">
         <v>173</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20">
         <v>7044189984</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>135</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="15">
+      <c r="M20" s="15">
         <v>45193</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -6856,11 +7131,14 @@
       <c r="C21" t="s">
         <v>175</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21">
         <v>9064573012</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -6870,14 +7148,17 @@
       <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22">
         <v>9830540969</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -6887,14 +7168,17 @@
       <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23">
         <v>9875597274</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -6904,17 +7188,20 @@
       <c r="C24" t="s">
         <v>185</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24">
         <v>9831649789</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>190</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -6924,14 +7211,17 @@
       <c r="C25" t="s">
         <v>188</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25">
         <v>7044454791</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -6941,14 +7231,17 @@
       <c r="C26" t="s">
         <v>189</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26">
         <v>9051070314</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -6958,14 +7251,17 @@
       <c r="C27" t="s">
         <v>191</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27">
         <v>8100234251</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -6975,14 +7271,17 @@
       <c r="C28" t="s">
         <v>192</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28">
         <v>895612401</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -6992,14 +7291,17 @@
       <c r="C29" t="s">
         <v>193</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29">
         <v>9038607618</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -7009,14 +7311,17 @@
       <c r="C30" t="s">
         <v>194</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30">
         <v>9123738352</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -7026,14 +7331,17 @@
       <c r="C31" t="s">
         <v>196</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31">
         <v>7439648726</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -7043,14 +7351,17 @@
       <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32">
         <v>6290149228</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -7060,14 +7371,17 @@
       <c r="C33" t="s">
         <v>198</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33">
         <v>7439235390</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -7077,14 +7391,17 @@
       <c r="C34" t="s">
         <v>199</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34">
         <v>9831616972</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -7094,14 +7411,17 @@
       <c r="C35" t="s">
         <v>200</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35">
         <v>9875642078</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -7111,14 +7431,17 @@
       <c r="C36" t="s">
         <v>201</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F36">
         <v>9330260643</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -7128,14 +7451,17 @@
       <c r="C37" t="s">
         <v>202</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37">
         <v>7865006160</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -7145,14 +7471,17 @@
       <c r="C38" t="s">
         <v>203</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38">
         <v>9933568503</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -7162,14 +7491,17 @@
       <c r="C39" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F39">
         <v>7980097885</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -7179,17 +7511,20 @@
       <c r="C40" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40">
         <v>8017803547</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>195</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -7199,17 +7534,20 @@
       <c r="C41" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>323</v>
+      </c>
+      <c r="F41">
         <v>8927931385</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>195</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -7219,17 +7557,20 @@
       <c r="C42" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>324</v>
+      </c>
+      <c r="F42">
         <v>9123811981</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>195</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -7239,14 +7580,17 @@
       <c r="C43" t="s">
         <v>211</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F43">
         <v>8789192117</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -7256,14 +7600,17 @@
       <c r="C44" t="s">
         <v>213</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44">
         <v>7439261742</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -7273,14 +7620,17 @@
       <c r="C45" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>327</v>
+      </c>
+      <c r="F45">
         <v>8910136033</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -7290,14 +7640,17 @@
       <c r="C46" t="s">
         <v>216</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46">
         <v>8981502987</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -7307,14 +7660,17 @@
       <c r="C47" t="s">
         <v>218</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47">
         <v>8133843005</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -7324,14 +7680,17 @@
       <c r="C48" t="s">
         <v>219</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48">
         <v>6290583136</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -7341,14 +7700,17 @@
       <c r="C49" t="s">
         <v>220</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49">
         <v>8336817657</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -7358,14 +7720,17 @@
       <c r="C50" t="s">
         <v>221</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50">
         <v>9831493208</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -7375,14 +7740,17 @@
       <c r="C51" t="s">
         <v>222</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51">
         <v>7003540372</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -7392,14 +7760,17 @@
       <c r="C52" t="s">
         <v>223</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52">
         <v>7278448048</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -7409,14 +7780,17 @@
       <c r="C53" t="s">
         <v>224</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53">
         <v>9830826860</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -7426,14 +7800,17 @@
       <c r="C54" t="s">
         <v>225</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>336</v>
+      </c>
+      <c r="F54">
         <v>8420848861</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -7443,14 +7820,17 @@
       <c r="C55" t="s">
         <v>226</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55">
         <v>9872355769</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -7460,14 +7840,17 @@
       <c r="C56" t="s">
         <v>227</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56">
         <v>6294268223</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -7477,14 +7860,17 @@
       <c r="C57" t="s">
         <v>228</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57">
         <v>9143297263</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -7494,14 +7880,17 @@
       <c r="C58" t="s">
         <v>230</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F58">
         <v>7890899876</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -7511,14 +7900,17 @@
       <c r="C59" t="s">
         <v>229</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>341</v>
+      </c>
+      <c r="F59">
         <v>6289529539</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -7526,16 +7918,19 @@
         <v>45188</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60">
+        <v>351</v>
+      </c>
+      <c r="D60" t="s">
+        <v>342</v>
+      </c>
+      <c r="F60">
         <v>9433055625</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -7543,16 +7938,22 @@
         <v>45188</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
-      </c>
-      <c r="D61">
+        <v>231</v>
+      </c>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
         <v>9433221128</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -7560,16 +7961,19 @@
         <v>45188</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62">
+        <v>232</v>
+      </c>
+      <c r="D62" t="s">
+        <v>344</v>
+      </c>
+      <c r="F62">
         <v>8477712310</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -7577,16 +7981,19 @@
         <v>45188</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
-      </c>
-      <c r="D63">
+        <v>233</v>
+      </c>
+      <c r="D63" t="s">
+        <v>345</v>
+      </c>
+      <c r="F63">
         <v>628955425</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -7594,16 +8001,22 @@
         <v>45188</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64">
+        <v>350</v>
+      </c>
+      <c r="D64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E64" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64">
         <v>9477900494</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -7611,16 +8024,22 @@
         <v>45188</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
+        <v>347</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65">
         <v>8777706597</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -7628,46 +8047,49 @@
         <v>45188</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66">
+        <v>235</v>
+      </c>
+      <c r="D66" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66">
         <v>9433256207</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="17">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="17">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="17">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="17">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="17">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -7678,16 +8100,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE59D4-FD08-4612-851B-E358E933A94E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
@@ -7716,21 +8138,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288CA36-D873-4098-B177-E86045106D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45">
       <c r="A1" s="19"/>
       <c r="B1" s="23" t="s">
         <v>215</v>
@@ -7743,7 +8165,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45">
       <c r="A2" s="19"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -7754,7 +8176,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45">
       <c r="A3" s="19" t="s">
         <v>127</v>
       </c>
@@ -7767,12 +8189,12 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45">
       <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="22">
         <v>45193</v>
@@ -7784,15 +8206,15 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45">
       <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7801,15 +8223,15 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45">
       <c r="A6" s="19">
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7818,15 +8240,15 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45">
       <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7835,15 +8257,15 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45">
       <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7852,12 +8274,12 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45">
       <c r="A9" s="19">
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="20">
         <v>20</v>
@@ -7869,15 +8291,15 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45">
       <c r="A10" s="19">
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7886,15 +8308,15 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45">
       <c r="A11" s="19">
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -7903,12 +8325,12 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45">
       <c r="A12" s="19">
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -7918,13 +8340,13 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45">
       <c r="A13" s="19"/>
       <c r="B13" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -7933,13 +8355,13 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45">
       <c r="A14" s="19"/>
       <c r="B14" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -7948,13 +8370,13 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45">
       <c r="A15" s="19"/>
       <c r="B15" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -7963,13 +8385,13 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45">
       <c r="A16" s="19"/>
       <c r="B16" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -7978,13 +8400,13 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45">
       <c r="A17" s="19"/>
       <c r="B17" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -7993,15 +8415,15 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45">
       <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -8010,15 +8432,15 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -8027,15 +8449,15 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -8044,11 +8466,11 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45">
       <c r="A21" s="19"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -8057,15 +8479,15 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45">
       <c r="A22" s="19">
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -8074,15 +8496,15 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45">
       <c r="A23" s="19">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -8091,15 +8513,15 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -8108,11 +8530,11 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45">
       <c r="A25" s="19"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -8121,11 +8543,11 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45">
       <c r="A26" s="19"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -8134,11 +8556,11 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45">
       <c r="A27" s="19"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -8147,15 +8569,15 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="19">
         <v>16</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -8164,7 +8586,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="19"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -8175,7 +8597,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="19"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -8195,51 +8617,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D3FE7-1901-4CCA-BA6E-580E1451B6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="354">
   <si>
     <t>Student Name</t>
   </si>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <t>Monaranjan Mondal</t>
+  </si>
+  <si>
+    <t>May be</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1581,8 +1587,8 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="12.6" thickBot="1"/>
-    <row r="2" spans="2:28" ht="36.6" thickBot="1">
+    <row r="1" spans="2:28" ht="12.75" thickBot="1"/>
+    <row r="2" spans="2:28" ht="24.75" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="2:28" ht="24">
+    <row r="14" spans="2:28">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>107</v>
@@ -2239,7 +2245,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="14.45">
+    <row r="19" spans="2:28" ht="15">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>103</v>
@@ -2278,7 +2284,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="14.45">
+    <row r="20" spans="2:28" ht="15">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>101</v>
@@ -2317,7 +2323,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="14.45">
+    <row r="21" spans="2:28" ht="15">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>99</v>
@@ -2356,7 +2362,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="14.45">
+    <row r="22" spans="2:28" ht="15">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>97</v>
@@ -2395,7 +2401,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="14.45">
+    <row r="23" spans="2:28" ht="15">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>96</v>
@@ -2434,7 +2440,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="14.45">
+    <row r="24" spans="2:28" ht="15">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>94</v>
@@ -2473,7 +2479,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="14.45">
+    <row r="25" spans="2:28" ht="15">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>92</v>
@@ -2512,7 +2518,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="14.45">
+    <row r="26" spans="2:28" ht="15">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>91</v>
@@ -2549,7 +2555,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="14.45">
+    <row r="27" spans="2:28" ht="15">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>90</v>
@@ -2586,7 +2592,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="14.45">
+    <row r="28" spans="2:28" ht="15">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>89</v>
@@ -2623,7 +2629,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="14.45">
+    <row r="29" spans="2:28" ht="15">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>88</v>
@@ -2660,7 +2666,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="14.45">
+    <row r="30" spans="2:28" ht="15">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>86</v>
@@ -2697,7 +2703,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="14.45">
+    <row r="31" spans="2:28" ht="15">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>85</v>
@@ -2734,7 +2740,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" ht="14.45">
+    <row r="32" spans="2:28" ht="15">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>83</v>
@@ -2771,7 +2777,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="2:28" ht="14.45">
+    <row r="33" spans="2:28" ht="15">
       <c r="B33" s="1"/>
       <c r="C33" t="s">
         <v>81</v>
@@ -2808,7 +2814,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="2:28" ht="14.45">
+    <row r="34" spans="2:28" ht="15">
       <c r="B34" s="1"/>
       <c r="C34" t="s">
         <v>79</v>
@@ -2845,7 +2851,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="2:28" ht="14.45">
+    <row r="35" spans="2:28" ht="15">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
         <v>78</v>
@@ -2882,7 +2888,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="2:28" ht="14.45">
+    <row r="36" spans="2:28" ht="15">
       <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>77</v>
@@ -2919,7 +2925,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="2:28" ht="14.45">
+    <row r="37" spans="2:28" ht="15">
       <c r="B37" s="1"/>
       <c r="C37" t="s">
         <v>75</v>
@@ -2956,7 +2962,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="2:28" ht="14.45">
+    <row r="38" spans="2:28" ht="15">
       <c r="B38" s="1"/>
       <c r="C38" t="s">
         <v>75</v>
@@ -2993,7 +2999,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="2:28" ht="14.45">
+    <row r="39" spans="2:28" ht="15">
       <c r="B39" s="1"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -3030,7 +3036,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="2:28" ht="14.45">
+    <row r="40" spans="2:28" ht="15">
       <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>72</v>
@@ -3067,7 +3073,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="2:28" ht="14.45">
+    <row r="41" spans="2:28" ht="15">
       <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>71</v>
@@ -3104,7 +3110,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="2:28" ht="14.45">
+    <row r="42" spans="2:28" ht="15">
       <c r="B42" s="1"/>
       <c r="C42" t="s">
         <v>70</v>
@@ -3141,7 +3147,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="2:28" ht="14.45">
+    <row r="43" spans="2:28" ht="15">
       <c r="B43" s="1"/>
       <c r="C43" t="s">
         <v>68</v>
@@ -3178,7 +3184,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="2:28" ht="14.45">
+    <row r="44" spans="2:28" ht="15">
       <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>66</v>
@@ -3215,7 +3221,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="2:28" ht="14.45">
+    <row r="45" spans="2:28" ht="15">
       <c r="B45" s="1"/>
       <c r="C45" t="s">
         <v>65</v>
@@ -3252,7 +3258,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="2:28" ht="14.45">
+    <row r="46" spans="2:28" ht="15">
       <c r="B46" s="1"/>
       <c r="C46" t="s">
         <v>64</v>
@@ -3289,7 +3295,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="2:28" ht="14.45">
+    <row r="47" spans="2:28" ht="15">
       <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>62</v>
@@ -3326,7 +3332,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="2:28" ht="14.45">
+    <row r="48" spans="2:28" ht="15">
       <c r="B48" s="1"/>
       <c r="C48" t="s">
         <v>61</v>
@@ -3363,7 +3369,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="2:28" ht="14.45">
+    <row r="49" spans="2:28" ht="15">
       <c r="B49" s="1"/>
       <c r="C49" t="s">
         <v>60</v>
@@ -3400,7 +3406,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="2:28" ht="14.45">
+    <row r="50" spans="2:28" ht="15">
       <c r="B50" s="1"/>
       <c r="C50" t="s">
         <v>59</v>
@@ -3437,7 +3443,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="2:28" ht="14.45">
+    <row r="51" spans="2:28" ht="15">
       <c r="B51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -3474,7 +3480,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="2:28" ht="14.45">
+    <row r="52" spans="2:28" ht="15">
       <c r="B52" s="1"/>
       <c r="C52" t="s">
         <v>56</v>
@@ -3511,7 +3517,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="2:28" ht="14.45">
+    <row r="53" spans="2:28" ht="15">
       <c r="B53" s="1"/>
       <c r="C53" t="s">
         <v>54</v>
@@ -3548,7 +3554,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="2:28" ht="14.45">
+    <row r="54" spans="2:28" ht="15">
       <c r="B54" s="1"/>
       <c r="C54" t="s">
         <v>52</v>
@@ -3585,7 +3591,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="2:28" ht="14.45">
+    <row r="55" spans="2:28" ht="15">
       <c r="B55" s="1"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -3622,7 +3628,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="2:28" ht="14.45">
+    <row r="56" spans="2:28" ht="15">
       <c r="B56" s="1"/>
       <c r="C56" t="s">
         <v>48</v>
@@ -3659,7 +3665,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="2:28" ht="14.45">
+    <row r="57" spans="2:28" ht="15">
       <c r="B57" s="1"/>
       <c r="C57" t="s">
         <v>46</v>
@@ -3696,7 +3702,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="2:28" ht="14.45">
+    <row r="58" spans="2:28" ht="15">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
         <v>45</v>
@@ -3733,7 +3739,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="2:28" ht="14.45">
+    <row r="59" spans="2:28" ht="15">
       <c r="B59" s="1"/>
       <c r="C59" t="s">
         <v>43</v>
@@ -3770,7 +3776,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="2:28" ht="14.45">
+    <row r="60" spans="2:28" ht="15">
       <c r="B60" s="1"/>
       <c r="C60" t="s">
         <v>42</v>
@@ -3807,7 +3813,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="2:28" ht="14.45">
+    <row r="61" spans="2:28" ht="15">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>40</v>
@@ -3844,7 +3850,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="2:28" ht="14.45">
+    <row r="62" spans="2:28" ht="15">
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>38</v>
@@ -3881,7 +3887,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="2:28" ht="14.45">
+    <row r="63" spans="2:28" ht="15">
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>35</v>
@@ -3918,7 +3924,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="2:28" ht="14.45">
+    <row r="64" spans="2:28" ht="15">
       <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>33</v>
@@ -3955,7 +3961,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="2:28" ht="14.45">
+    <row r="65" spans="2:28" ht="15">
       <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>32</v>
@@ -3992,7 +3998,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="2:28" ht="14.45">
+    <row r="66" spans="2:28" ht="15">
       <c r="B66" s="1"/>
       <c r="C66" t="s">
         <v>31</v>
@@ -4029,7 +4035,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="2:28" ht="14.45">
+    <row r="67" spans="2:28" ht="15">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
         <v>28</v>
@@ -4066,7 +4072,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="2:28" ht="14.45">
+    <row r="68" spans="2:28" ht="15">
       <c r="B68" s="1"/>
       <c r="C68" t="s">
         <v>25</v>
@@ -4103,7 +4109,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="2:28" ht="14.45">
+    <row r="69" spans="2:28" ht="15">
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>22</v>
@@ -4140,7 +4146,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="2:28" ht="14.45">
+    <row r="70" spans="2:28" ht="15">
       <c r="B70" s="1"/>
       <c r="G70"/>
       <c r="H70" s="1"/>
@@ -4165,7 +4171,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="2:28" ht="14.45">
+    <row r="71" spans="2:28" ht="15">
       <c r="B71" s="1"/>
       <c r="G71"/>
       <c r="H71" s="1"/>
@@ -4190,7 +4196,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="2:28" ht="14.45">
+    <row r="72" spans="2:28" ht="15">
       <c r="B72" s="1"/>
       <c r="G72"/>
       <c r="H72" s="1"/>
@@ -4215,7 +4221,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="2:28" ht="14.45">
+    <row r="73" spans="2:28" ht="15">
       <c r="B73" s="1"/>
       <c r="G73"/>
       <c r="H73" s="1"/>
@@ -4240,7 +4246,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="2:28" ht="14.45">
+    <row r="74" spans="2:28" ht="15">
       <c r="B74" s="1"/>
       <c r="G74"/>
       <c r="H74" s="1"/>
@@ -4265,7 +4271,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="2:28" ht="14.45">
+    <row r="75" spans="2:28" ht="15">
       <c r="B75" s="1"/>
       <c r="G75"/>
       <c r="H75" s="1"/>
@@ -4290,7 +4296,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="2:28" ht="14.45">
+    <row r="76" spans="2:28" ht="15">
       <c r="B76" s="1"/>
       <c r="G76"/>
       <c r="H76" s="1"/>
@@ -4717,7 +4723,7 @@
     <col min="11" max="12" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.6" thickBot="1">
+    <row r="1" spans="1:15" ht="36.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
@@ -5033,7 +5039,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5062,7 +5068,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5091,7 +5097,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5120,7 +5126,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5149,7 +5155,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5178,7 +5184,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5234,7 +5240,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5263,7 +5269,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="14.45">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5292,7 +5298,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="14.45">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5321,7 +5327,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="14.45">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5350,7 +5356,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="14.45">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5379,7 +5385,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="14.45">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5408,7 +5414,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="14.45">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5437,7 +5443,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="14.45">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5466,7 +5472,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5495,7 +5501,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="14.45">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5524,7 +5530,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="14.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5553,7 +5559,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="14.45">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6519,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7637,11 +7643,14 @@
       <c r="B46" s="15">
         <v>45188</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D46" t="s">
         <v>328</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
       </c>
       <c r="F46">
         <v>8981502987</v>
@@ -7903,6 +7912,9 @@
       <c r="D59" t="s">
         <v>341</v>
       </c>
+      <c r="E59" t="s">
+        <v>353</v>
+      </c>
       <c r="F59">
         <v>6289529539</v>
       </c>
@@ -7923,6 +7935,9 @@
       <c r="D60" t="s">
         <v>342</v>
       </c>
+      <c r="E60" t="s">
+        <v>352</v>
+      </c>
       <c r="F60">
         <v>9433055625</v>
       </c>
@@ -8096,6 +8111,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8109,7 +8125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
@@ -8152,7 +8168,7 @@
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="19"/>
       <c r="B1" s="23" t="s">
         <v>215</v>
@@ -8165,7 +8181,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="14.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="19"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -8176,7 +8192,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
         <v>127</v>
       </c>
@@ -8189,7 +8205,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -8206,7 +8222,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45">
+    <row r="5" spans="1:9">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -8223,7 +8239,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -8240,7 +8256,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45">
+    <row r="7" spans="1:9">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -8257,7 +8273,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45">
+    <row r="8" spans="1:9">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -8274,7 +8290,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45">
+    <row r="9" spans="1:9">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -8291,7 +8307,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45">
+    <row r="10" spans="1:9">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -8308,7 +8324,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45">
+    <row r="11" spans="1:9">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -8325,7 +8341,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45">
+    <row r="12" spans="1:9">
       <c r="A12" s="19">
         <v>9</v>
       </c>
@@ -8340,7 +8356,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="21" t="s">
         <v>256</v>
@@ -8355,7 +8371,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="21" t="s">
         <v>255</v>
@@ -8370,7 +8386,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45">
+    <row r="15" spans="1:9">
       <c r="A15" s="19"/>
       <c r="B15" s="21" t="s">
         <v>251</v>
@@ -8385,7 +8401,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45">
+    <row r="16" spans="1:9">
       <c r="A16" s="19"/>
       <c r="B16" s="21" t="s">
         <v>254</v>
@@ -8400,7 +8416,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45">
+    <row r="17" spans="1:9">
       <c r="A17" s="19"/>
       <c r="B17" s="21" t="s">
         <v>257</v>
@@ -8415,7 +8431,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45">
+    <row r="18" spans="1:9">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -8432,7 +8448,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -8449,7 +8465,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45">
+    <row r="20" spans="1:9">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -8466,7 +8482,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9">
       <c r="A21" s="19"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
@@ -8479,7 +8495,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45">
+    <row r="22" spans="1:9">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -8496,7 +8512,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45">
+    <row r="23" spans="1:9">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -8513,7 +8529,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45">
+    <row r="24" spans="1:9">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -8530,7 +8546,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9">
       <c r="A25" s="19"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
@@ -8543,7 +8559,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9">
       <c r="A26" s="19"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
@@ -8556,7 +8572,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="27" spans="1:9">
       <c r="A27" s="19"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8B524-5182-45B2-9474-7962783E7D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19440" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="360">
   <si>
     <t>Student Name</t>
   </si>
@@ -617,33 +623,15 @@
     <t>Anusrita</t>
   </si>
   <si>
-    <t>Swannakhen</t>
-  </si>
-  <si>
-    <t>Shreyashi</t>
-  </si>
-  <si>
     <t>Puja</t>
   </si>
   <si>
-    <t>Tonun Das</t>
-  </si>
-  <si>
     <t>Disha</t>
   </si>
   <si>
-    <t>Sompa</t>
-  </si>
-  <si>
-    <t>Arunava</t>
-  </si>
-  <si>
     <t>Lolita</t>
   </si>
   <si>
-    <t>Sawayam</t>
-  </si>
-  <si>
     <t>Commerce, AI &amp; Coding</t>
   </si>
   <si>
@@ -665,9 +653,6 @@
     <t>Gould Smith</t>
   </si>
   <si>
-    <t>Sumit</t>
-  </si>
-  <si>
     <t>Soma</t>
   </si>
   <si>
@@ -683,9 +668,6 @@
     <t>B. Pal</t>
   </si>
   <si>
-    <t>Pinaki Ganguly</t>
-  </si>
-  <si>
     <t>Kalyani Sarkar</t>
   </si>
   <si>
@@ -701,24 +683,15 @@
     <t>Suvomita</t>
   </si>
   <si>
-    <t>Ujjal</t>
-  </si>
-  <si>
     <t>Sapaljit</t>
   </si>
   <si>
     <t>Sumita</t>
   </si>
   <si>
-    <t>Sotojit</t>
-  </si>
-  <si>
     <t>Ranu</t>
   </si>
   <si>
-    <t>Thidiet</t>
-  </si>
-  <si>
     <t>Alibia Chatterjee</t>
   </si>
   <si>
@@ -1086,13 +1059,64 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Ranajit Chatterjee</t>
+  </si>
+  <si>
+    <t>Not Picked Up</t>
+  </si>
+  <si>
+    <t>Invalid Number</t>
+  </si>
+  <si>
+    <t>To Be Called</t>
+  </si>
+  <si>
+    <t>Akash Mondal</t>
+  </si>
+  <si>
+    <t>Out Of service</t>
+  </si>
+  <si>
+    <t>Satyo Ranjan Sarkar</t>
+  </si>
+  <si>
+    <t>Tridip Mondal</t>
+  </si>
+  <si>
+    <t>Sukhmeet Singh</t>
+  </si>
+  <si>
+    <t>FB Live</t>
+  </si>
+  <si>
+    <t>Sawayam Dhar</t>
+  </si>
+  <si>
+    <t>Call Later On</t>
+  </si>
+  <si>
+    <t>Arunava Misra</t>
+  </si>
+  <si>
+    <t>Rinki Shaw</t>
+  </si>
+  <si>
+    <t>Tarun Das</t>
+  </si>
+  <si>
+    <t>Shreyashi Taluqdar</t>
+  </si>
+  <si>
+    <t>Rinku Poddar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1277,6 +1301,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,14 +1578,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB89"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1566,29 +1595,29 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2:P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="12.75" thickBot="1"/>
-    <row r="2" spans="2:28" ht="24.75" thickBot="1">
+    <row r="1" spans="2:28" ht="12.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:28" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1676,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1690,7 +1719,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="2:28">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1719,7 +1748,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="2:28" ht="24">
+    <row r="5" spans="2:28" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>116</v>
@@ -1764,7 +1793,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="2:28">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1793,7 +1822,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="2:28" ht="24">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>120</v>
@@ -1844,7 +1873,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1873,7 +1902,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="2:28" ht="24">
+    <row r="9" spans="2:28" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>117</v>
@@ -1924,7 +1953,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1953,7 +1982,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="2:28">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1982,7 +2011,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="2:28">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2011,7 +2040,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="2:28" ht="24">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -2056,7 +2085,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="2:28">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>107</v>
@@ -2107,7 +2136,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="2:28">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>109</v>
@@ -2158,7 +2187,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="2:28">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2187,7 +2216,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2216,7 +2245,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2245,7 +2274,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="15">
+    <row r="19" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>103</v>
@@ -2284,7 +2313,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="15">
+    <row r="20" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>101</v>
@@ -2323,7 +2352,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="15">
+    <row r="21" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>99</v>
@@ -2362,7 +2391,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="15">
+    <row r="22" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>97</v>
@@ -2401,7 +2430,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="15">
+    <row r="23" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>96</v>
@@ -2440,7 +2469,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="15">
+    <row r="24" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>94</v>
@@ -2479,7 +2508,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="15">
+    <row r="25" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>92</v>
@@ -2518,7 +2547,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="15">
+    <row r="26" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>91</v>
@@ -2555,7 +2584,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="15">
+    <row r="27" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>90</v>
@@ -2592,7 +2621,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="15">
+    <row r="28" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>89</v>
@@ -2629,7 +2658,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="15">
+    <row r="29" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>88</v>
@@ -2666,7 +2695,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="15">
+    <row r="30" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>86</v>
@@ -2703,7 +2732,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="15">
+    <row r="31" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>85</v>
@@ -2740,7 +2769,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" ht="15">
+    <row r="32" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>83</v>
@@ -2777,7 +2806,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="2:28" ht="15">
+    <row r="33" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" t="s">
         <v>81</v>
@@ -2814,7 +2843,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="2:28" ht="15">
+    <row r="34" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" t="s">
         <v>79</v>
@@ -2851,7 +2880,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="2:28" ht="15">
+    <row r="35" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
         <v>78</v>
@@ -2888,7 +2917,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="2:28" ht="15">
+    <row r="36" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>77</v>
@@ -2925,7 +2954,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="2:28" ht="15">
+    <row r="37" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" t="s">
         <v>75</v>
@@ -2962,7 +2991,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="2:28" ht="15">
+    <row r="38" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" t="s">
         <v>75</v>
@@ -2999,7 +3028,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="2:28" ht="15">
+    <row r="39" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" t="s">
         <v>74</v>
@@ -3036,7 +3065,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="2:28" ht="15">
+    <row r="40" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>72</v>
@@ -3073,7 +3102,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="2:28" ht="15">
+    <row r="41" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>71</v>
@@ -3110,7 +3139,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="2:28" ht="15">
+    <row r="42" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" t="s">
         <v>70</v>
@@ -3147,7 +3176,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="2:28" ht="15">
+    <row r="43" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" t="s">
         <v>68</v>
@@ -3184,7 +3213,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="2:28" ht="15">
+    <row r="44" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>66</v>
@@ -3221,7 +3250,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="2:28" ht="15">
+    <row r="45" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" t="s">
         <v>65</v>
@@ -3258,7 +3287,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="2:28" ht="15">
+    <row r="46" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" t="s">
         <v>64</v>
@@ -3295,7 +3324,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="2:28" ht="15">
+    <row r="47" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>62</v>
@@ -3332,7 +3361,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="2:28" ht="15">
+    <row r="48" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" t="s">
         <v>61</v>
@@ -3369,7 +3398,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="2:28" ht="15">
+    <row r="49" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" t="s">
         <v>60</v>
@@ -3406,7 +3435,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="2:28" ht="15">
+    <row r="50" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" t="s">
         <v>59</v>
@@ -3443,7 +3472,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="2:28" ht="15">
+    <row r="51" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" t="s">
         <v>58</v>
@@ -3480,7 +3509,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="2:28" ht="15">
+    <row r="52" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" t="s">
         <v>56</v>
@@ -3517,7 +3546,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="2:28" ht="15">
+    <row r="53" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" t="s">
         <v>54</v>
@@ -3554,7 +3583,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="2:28" ht="15">
+    <row r="54" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" t="s">
         <v>52</v>
@@ -3591,7 +3620,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="2:28" ht="15">
+    <row r="55" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" t="s">
         <v>50</v>
@@ -3628,7 +3657,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="2:28" ht="15">
+    <row r="56" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" t="s">
         <v>48</v>
@@ -3665,7 +3694,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="2:28" ht="15">
+    <row r="57" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" t="s">
         <v>46</v>
@@ -3702,7 +3731,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="2:28" ht="15">
+    <row r="58" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
         <v>45</v>
@@ -3739,7 +3768,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="2:28" ht="15">
+    <row r="59" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" t="s">
         <v>43</v>
@@ -3776,7 +3805,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="2:28" ht="15">
+    <row r="60" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" t="s">
         <v>42</v>
@@ -3813,7 +3842,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="2:28" ht="15">
+    <row r="61" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>40</v>
@@ -3850,7 +3879,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="2:28" ht="15">
+    <row r="62" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>38</v>
@@ -3887,7 +3916,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="2:28" ht="15">
+    <row r="63" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>35</v>
@@ -3924,7 +3953,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="2:28" ht="15">
+    <row r="64" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>33</v>
@@ -3961,7 +3990,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="2:28" ht="15">
+    <row r="65" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" t="s">
         <v>32</v>
@@ -3998,7 +4027,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="2:28" ht="15">
+    <row r="66" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" t="s">
         <v>31</v>
@@ -4035,7 +4064,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="2:28" ht="15">
+    <row r="67" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
         <v>28</v>
@@ -4072,7 +4101,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="2:28" ht="15">
+    <row r="68" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" t="s">
         <v>25</v>
@@ -4109,7 +4138,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="2:28" ht="15">
+    <row r="69" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>22</v>
@@ -4146,7 +4175,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="2:28" ht="15">
+    <row r="70" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="G70"/>
       <c r="H70" s="1"/>
@@ -4171,7 +4200,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="2:28" ht="15">
+    <row r="71" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="G71"/>
       <c r="H71" s="1"/>
@@ -4196,7 +4225,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="2:28" ht="15">
+    <row r="72" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="G72"/>
       <c r="H72" s="1"/>
@@ -4221,7 +4250,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="2:28" ht="15">
+    <row r="73" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="G73"/>
       <c r="H73" s="1"/>
@@ -4246,7 +4275,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="2:28" ht="15">
+    <row r="74" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="G74"/>
       <c r="H74" s="1"/>
@@ -4271,7 +4300,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="2:28" ht="15">
+    <row r="75" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="G75"/>
       <c r="H75" s="1"/>
@@ -4296,7 +4325,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="2:28" ht="15">
+    <row r="76" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="G76"/>
       <c r="H76" s="1"/>
@@ -4321,7 +4350,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4350,7 +4379,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="2:28">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4379,7 +4408,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4408,7 +4437,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4437,7 +4466,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="2:28">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4466,7 +4495,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4495,7 +4524,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="2:28">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4524,7 +4553,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4553,7 +4582,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="2:28">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4582,7 +4611,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4611,7 +4640,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="2:28">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4640,7 +4669,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="2:28">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4669,7 +4698,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="2:28">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4704,26 +4733,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="13"/>
-    <col min="11" max="12" width="8.85546875" style="13"/>
+    <col min="5" max="5" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="13"/>
+    <col min="11" max="12" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" thickBot="1">
+    <row r="1" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
@@ -4770,7 +4799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.45" customHeight="1">
+    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4803,7 +4832,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="14.45" customHeight="1">
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4840,7 +4869,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14.45" customHeight="1">
+    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4881,7 +4910,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" customHeight="1">
+    <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4922,7 +4951,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.45" customHeight="1">
+    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4957,7 +4986,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" customHeight="1">
+    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4998,7 +5027,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" customHeight="1">
+    <row r="8" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5039,7 +5068,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5068,7 +5097,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5097,7 +5126,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5126,7 +5155,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5155,7 +5184,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5184,7 +5213,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5213,7 +5242,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5240,7 +5269,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5269,7 +5298,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5298,7 +5327,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5327,7 +5356,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5356,7 +5385,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5385,7 +5414,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5414,7 +5443,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5443,7 +5472,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5472,7 +5501,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5501,7 +5530,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5530,7 +5559,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5559,7 +5588,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5588,7 +5617,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5617,7 +5646,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5646,7 +5675,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5675,7 +5704,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5704,7 +5733,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5733,7 +5762,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5762,7 +5791,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5791,7 +5820,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5820,7 +5849,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5849,7 +5878,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5878,7 +5907,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5907,7 +5936,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5936,7 +5965,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5965,7 +5994,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5994,7 +6023,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6023,7 +6052,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6052,7 +6081,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6081,7 +6110,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6110,7 +6139,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6139,7 +6168,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6168,7 +6197,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6197,7 +6226,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6226,7 +6255,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6255,7 +6284,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6284,7 +6313,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6313,7 +6342,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6342,7 +6371,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6371,7 +6400,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6400,7 +6429,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6429,7 +6458,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6458,7 +6487,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6487,7 +6516,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6522,30 +6551,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" thickBot="1">
+    <row r="1" spans="1:15" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -6589,11 +6619,8 @@
       <c r="O1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6604,10 +6631,10 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F2">
         <v>9836382341</v>
@@ -6628,7 +6655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6636,7 +6663,7 @@
         <v>45179</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J3" t="s">
         <v>136</v>
@@ -6648,45 +6675,50 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="17">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="25">
         <v>45179</v>
       </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="26">
         <v>9433543355</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="25">
         <v>45193</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="26" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
         <v>140</v>
@@ -6707,12 +6739,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -6736,7 +6768,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -6744,7 +6776,7 @@
         <v>45179</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
         <v>148</v>
@@ -6765,7 +6797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -6773,7 +6805,7 @@
         <v>45179</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J8" t="s">
         <v>150</v>
@@ -6788,7 +6820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6799,7 +6831,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
         <v>113</v>
@@ -6823,7 +6855,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -6834,7 +6866,7 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
         <v>113</v>
@@ -6852,7 +6884,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -6863,7 +6895,7 @@
         <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
         <v>113</v>
@@ -6881,7 +6913,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -6892,7 +6924,7 @@
         <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="L12" t="s">
         <v>160</v>
@@ -6904,7 +6936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -6915,7 +6947,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
         <v>113</v>
@@ -6933,7 +6965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F14">
         <v>9902987601</v>
@@ -6962,7 +6994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -6973,7 +7005,7 @@
         <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F15">
         <v>7501846983</v>
@@ -6988,7 +7020,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -6999,7 +7031,7 @@
         <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
         <v>113</v>
@@ -7017,7 +7049,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -7028,7 +7060,7 @@
         <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
         <v>113</v>
@@ -7046,7 +7078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -7057,7 +7089,7 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F18">
         <v>9051481706</v>
@@ -7069,7 +7101,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -7080,7 +7112,7 @@
         <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F19">
         <v>9734305807</v>
@@ -7098,7 +7130,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -7109,7 +7141,7 @@
         <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F20">
         <v>7044189984</v>
@@ -7127,7 +7159,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -7138,13 +7170,13 @@
         <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F21">
         <v>9064573012</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -7155,7 +7187,7 @@
         <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F22">
         <v>9830540969</v>
@@ -7164,7 +7196,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -7175,7 +7207,7 @@
         <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F23">
         <v>9875597274</v>
@@ -7184,7 +7216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F24">
         <v>9831649789</v>
@@ -7207,7 +7239,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -7218,7 +7250,7 @@
         <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F25">
         <v>7044454791</v>
@@ -7227,7 +7259,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -7238,7 +7270,7 @@
         <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F26">
         <v>9051070314</v>
@@ -7247,7 +7279,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -7258,7 +7290,7 @@
         <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F27">
         <v>8100234251</v>
@@ -7267,7 +7299,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -7278,7 +7310,7 @@
         <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F28">
         <v>895612401</v>
@@ -7287,7 +7319,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -7298,7 +7330,7 @@
         <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F29">
         <v>9038607618</v>
@@ -7307,7 +7339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -7318,7 +7350,7 @@
         <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F30">
         <v>9123738352</v>
@@ -7327,7 +7359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -7338,7 +7370,10 @@
         <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="E31" t="s">
+        <v>344</v>
       </c>
       <c r="F31">
         <v>7439648726</v>
@@ -7347,7 +7382,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -7355,10 +7390,13 @@
         <v>45187</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="E32" t="s">
+        <v>344</v>
       </c>
       <c r="F32">
         <v>6290149228</v>
@@ -7367,7 +7405,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -7375,10 +7413,13 @@
         <v>45187</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="E33" t="s">
+        <v>338</v>
       </c>
       <c r="F33">
         <v>7439235390</v>
@@ -7387,7 +7428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -7395,10 +7436,13 @@
         <v>45187</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="E34" t="s">
+        <v>344</v>
       </c>
       <c r="F34">
         <v>9831616972</v>
@@ -7407,7 +7451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -7415,10 +7459,13 @@
         <v>45187</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="E35" t="s">
+        <v>338</v>
       </c>
       <c r="F35">
         <v>9875642078</v>
@@ -7427,7 +7474,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -7435,10 +7482,13 @@
         <v>45187</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="E36" t="s">
+        <v>342</v>
       </c>
       <c r="F36">
         <v>9330260643</v>
@@ -7447,7 +7497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -7455,10 +7505,13 @@
         <v>45187</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="E37" t="s">
+        <v>338</v>
       </c>
       <c r="F37">
         <v>7865006160</v>
@@ -7467,7 +7520,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -7475,10 +7528,13 @@
         <v>45187</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>309</v>
+      </c>
+      <c r="E38" t="s">
+        <v>338</v>
       </c>
       <c r="F38">
         <v>9933568503</v>
@@ -7487,7 +7543,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -7495,10 +7551,13 @@
         <v>45187</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
       </c>
       <c r="F39">
         <v>7980097885</v>
@@ -7507,7 +7566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -7515,10 +7574,13 @@
         <v>45187</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="E40" t="s">
+        <v>338</v>
       </c>
       <c r="F40">
         <v>8017803547</v>
@@ -7527,10 +7589,10 @@
         <v>195</v>
       </c>
       <c r="L40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -7538,10 +7600,13 @@
         <v>45187</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>323</v>
+        <v>312</v>
+      </c>
+      <c r="E41" t="s">
+        <v>354</v>
       </c>
       <c r="F41">
         <v>8927931385</v>
@@ -7550,10 +7615,10 @@
         <v>195</v>
       </c>
       <c r="L41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -7561,10 +7626,13 @@
         <v>45187</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="E42" t="s">
+        <v>344</v>
       </c>
       <c r="F42">
         <v>9123811981</v>
@@ -7573,10 +7641,10 @@
         <v>195</v>
       </c>
       <c r="L42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -7584,19 +7652,22 @@
         <v>45188</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s">
-        <v>325</v>
+        <v>314</v>
+      </c>
+      <c r="E43" t="s">
+        <v>352</v>
       </c>
       <c r="F43">
         <v>8789192117</v>
       </c>
       <c r="J43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -7604,19 +7675,22 @@
         <v>45188</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="E44" t="s">
+        <v>344</v>
       </c>
       <c r="F44">
         <v>7439261742</v>
       </c>
       <c r="J44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -7624,19 +7698,22 @@
         <v>45188</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="E45" t="s">
+        <v>338</v>
       </c>
       <c r="F45">
         <v>8910136033</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -7644,10 +7721,10 @@
         <v>45188</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
         <v>113</v>
@@ -7656,10 +7733,10 @@
         <v>8981502987</v>
       </c>
       <c r="J46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -7667,19 +7744,22 @@
         <v>45188</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
       </c>
       <c r="F47">
         <v>8133843005</v>
       </c>
       <c r="J47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -7687,19 +7767,22 @@
         <v>45188</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>344</v>
       </c>
       <c r="F48">
         <v>6290583136</v>
       </c>
       <c r="J48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -7707,19 +7790,22 @@
         <v>45188</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>320</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
       </c>
       <c r="F49">
         <v>8336817657</v>
       </c>
       <c r="J49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -7727,19 +7813,22 @@
         <v>45188</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>321</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
       </c>
       <c r="F50">
         <v>9831493208</v>
       </c>
       <c r="J50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -7747,19 +7836,22 @@
         <v>45188</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>322</v>
+      </c>
+      <c r="E51" t="s">
+        <v>346</v>
       </c>
       <c r="F51">
         <v>7003540372</v>
       </c>
       <c r="J51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -7767,19 +7859,22 @@
         <v>45188</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>334</v>
+        <v>323</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
       </c>
       <c r="F52">
         <v>7278448048</v>
       </c>
       <c r="J52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -7787,19 +7882,22 @@
         <v>45188</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>335</v>
+        <v>324</v>
+      </c>
+      <c r="E53" t="s">
+        <v>342</v>
       </c>
       <c r="F53">
         <v>9830826860</v>
       </c>
       <c r="J53" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -7807,19 +7905,22 @@
         <v>45188</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="D54" t="s">
-        <v>336</v>
+        <v>325</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
       </c>
       <c r="F54">
         <v>8420848861</v>
       </c>
       <c r="J54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -7827,19 +7928,22 @@
         <v>45188</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>337</v>
+        <v>326</v>
+      </c>
+      <c r="E55" t="s">
+        <v>348</v>
       </c>
       <c r="F55">
         <v>9872355769</v>
       </c>
       <c r="J55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -7847,19 +7951,22 @@
         <v>45188</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D56" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" t="s">
         <v>338</v>
       </c>
       <c r="F56">
         <v>6294268223</v>
       </c>
       <c r="J56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -7867,19 +7974,22 @@
         <v>45188</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
       </c>
       <c r="F57">
         <v>9143297263</v>
       </c>
       <c r="J57" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -7887,19 +7997,22 @@
         <v>45188</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>329</v>
+      </c>
+      <c r="E58" t="s">
+        <v>338</v>
       </c>
       <c r="F58">
         <v>7890899876</v>
       </c>
       <c r="J58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -7907,22 +8020,22 @@
         <v>45188</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F59">
         <v>6289529539</v>
       </c>
       <c r="J59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -7930,22 +8043,22 @@
         <v>45188</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F60">
         <v>9433055625</v>
       </c>
       <c r="J60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -7953,10 +8066,10 @@
         <v>45188</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E61" t="s">
         <v>113</v>
@@ -7965,10 +8078,10 @@
         <v>9433221128</v>
       </c>
       <c r="J61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -7976,19 +8089,22 @@
         <v>45188</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
+        <v>333</v>
+      </c>
+      <c r="E62" t="s">
         <v>344</v>
       </c>
       <c r="F62">
         <v>8477712310</v>
       </c>
       <c r="J62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -7996,19 +8112,22 @@
         <v>45188</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" t="s">
         <v>345</v>
       </c>
       <c r="F63">
         <v>628955425</v>
       </c>
       <c r="J63" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -8016,22 +8135,22 @@
         <v>45188</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D64" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E64" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F64">
         <v>9477900494</v>
       </c>
       <c r="J64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -8039,10 +8158,10 @@
         <v>45188</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E65" t="s">
         <v>113</v>
@@ -8051,10 +8170,10 @@
         <v>8777706597</v>
       </c>
       <c r="J65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -8062,49 +8181,52 @@
         <v>45188</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
+        <v>337</v>
+      </c>
+      <c r="E66" t="s">
         <v>348</v>
       </c>
       <c r="F66">
         <v>9433256207</v>
       </c>
       <c r="J66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -8116,16 +8238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
@@ -8154,24 +8276,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="21"/>
@@ -8181,7 +8303,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -8192,7 +8314,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>127</v>
       </c>
@@ -8205,12 +8327,12 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C4" s="22">
         <v>45193</v>
@@ -8222,15 +8344,15 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -8239,15 +8361,15 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -8256,15 +8378,15 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -8273,15 +8395,15 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -8290,12 +8412,12 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C9" s="20">
         <v>20</v>
@@ -8307,15 +8429,15 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -8324,15 +8446,15 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -8341,12 +8463,12 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -8356,13 +8478,13 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="21" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -8371,13 +8493,13 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="21" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -8386,13 +8508,13 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="21" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8401,13 +8523,13 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="21" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -8416,13 +8538,13 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="21" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -8431,15 +8553,15 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -8448,15 +8570,15 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -8465,15 +8587,15 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -8482,11 +8604,11 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -8495,15 +8617,15 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -8512,15 +8634,15 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -8529,15 +8651,15 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -8546,11 +8668,11 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -8559,11 +8681,11 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -8572,11 +8694,11 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -8585,15 +8707,15 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>16</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -8602,7 +8724,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -8613,7 +8735,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -8633,51 +8755,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8B524-5182-45B2-9474-7962783E7D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E53C1-992D-4C22-A866-D58EA160D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="357">
   <si>
     <t>Student Name</t>
   </si>
@@ -545,12 +545,6 @@
     <t xml:space="preserve">Arka </t>
   </si>
   <si>
-    <t>Ajoy Basak</t>
-  </si>
-  <si>
-    <t>Interested to study AI for his son</t>
-  </si>
-  <si>
     <t>Gaurav Das</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>Alapan Mother</t>
   </si>
   <si>
-    <t>Iradri Das Mother</t>
-  </si>
-  <si>
     <t>Std IX</t>
   </si>
   <si>
@@ -605,18 +596,9 @@
     <t>South Point School</t>
   </si>
   <si>
-    <t>Suvam</t>
-  </si>
-  <si>
     <t>Sumondno</t>
   </si>
   <si>
-    <t>Aiush</t>
-  </si>
-  <si>
-    <t>Shuvo Das</t>
-  </si>
-  <si>
     <t>Patuli Food Court</t>
   </si>
   <si>
@@ -902,9 +884,6 @@
     <t>P-17</t>
   </si>
   <si>
-    <t>P-18</t>
-  </si>
-  <si>
     <t>P-19</t>
   </si>
   <si>
@@ -1110,6 +1089,18 @@
   </si>
   <si>
     <t>Rinku Poddar</t>
+  </si>
+  <si>
+    <t>Sabita Routh</t>
+  </si>
+  <si>
+    <t>Lakshmi Chakraborty</t>
+  </si>
+  <si>
+    <t>Soham</t>
+  </si>
+  <si>
+    <t>Bithika Das</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1301,11 +1292,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6552,10 +6538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6611,10 +6597,10 @@
         <v>133</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>155</v>
@@ -6631,10 +6617,10 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F2">
         <v>9836382341</v>
@@ -6652,7 +6638,7 @@
         <v>45193</v>
       </c>
       <c r="N2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -6663,7 +6649,7 @@
         <v>45179</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
         <v>136</v>
@@ -6672,45 +6658,40 @@
         <v>45193</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="15">
         <v>45179</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26" t="s">
+      <c r="G4" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4">
         <v>9433543355</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26" t="s">
+      <c r="J4" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="L4" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="15">
         <v>45193</v>
       </c>
-      <c r="N4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="26"/>
+      <c r="N4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
@@ -6718,7 +6699,10 @@
       </c>
       <c r="B5" s="15"/>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
       </c>
       <c r="G5" t="s">
         <v>140</v>
@@ -6736,7 +6720,7 @@
         <v>45193</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -6744,7 +6728,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -6765,7 +6752,7 @@
         <v>45193</v>
       </c>
       <c r="N6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -6776,7 +6763,10 @@
         <v>45179</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
       </c>
       <c r="G7" t="s">
         <v>148</v>
@@ -6794,7 +6784,7 @@
         <v>45193</v>
       </c>
       <c r="N7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -6805,7 +6795,7 @@
         <v>45179</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J8" t="s">
         <v>150</v>
@@ -6817,7 +6807,7 @@
         <v>45193</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -6831,7 +6821,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>113</v>
@@ -6852,7 +6842,7 @@
         <v>45193</v>
       </c>
       <c r="N9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -6866,7 +6856,7 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
         <v>113</v>
@@ -6881,7 +6871,7 @@
         <v>45193</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -6895,7 +6885,7 @@
         <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
         <v>113</v>
@@ -6910,7 +6900,7 @@
         <v>45193</v>
       </c>
       <c r="N11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -6924,7 +6914,7 @@
         <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L12" t="s">
         <v>160</v>
@@ -6933,7 +6923,7 @@
         <v>45193</v>
       </c>
       <c r="N12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -6947,7 +6937,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
         <v>113</v>
@@ -6962,7 +6952,7 @@
         <v>45193</v>
       </c>
       <c r="N13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -6976,7 +6966,10 @@
         <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>331</v>
       </c>
       <c r="F14">
         <v>9902987601</v>
@@ -6991,7 +6984,7 @@
         <v>45193</v>
       </c>
       <c r="N14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -7005,7 +6998,10 @@
         <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="E15" t="s">
+        <v>331</v>
       </c>
       <c r="F15">
         <v>7501846983</v>
@@ -7017,7 +7013,7 @@
         <v>45193</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -7031,7 +7027,7 @@
         <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
         <v>113</v>
@@ -7046,7 +7042,7 @@
         <v>45193</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -7060,7 +7056,7 @@
         <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
         <v>113</v>
@@ -7075,7 +7071,7 @@
         <v>45193</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -7089,7 +7085,10 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
       </c>
       <c r="F18">
         <v>9051481706</v>
@@ -7098,7 +7097,7 @@
         <v>45193</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -7112,10 +7111,13 @@
         <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="E19" t="s">
+        <v>331</v>
       </c>
       <c r="F19">
-        <v>9734305807</v>
+        <v>7044189984</v>
       </c>
       <c r="K19" t="s">
         <v>135</v>
@@ -7127,7 +7129,7 @@
         <v>45193</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -7141,22 +7143,13 @@
         <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="E20" t="s">
+        <v>337</v>
       </c>
       <c r="F20">
-        <v>7044189984</v>
-      </c>
-      <c r="K20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" t="s">
-        <v>174</v>
-      </c>
-      <c r="M20" s="15">
-        <v>45193</v>
-      </c>
-      <c r="N20" t="s">
-        <v>181</v>
+        <v>9064573012</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -7164,16 +7157,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="15">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="E21" t="s">
+        <v>345</v>
       </c>
       <c r="F21">
-        <v>9064573012</v>
+        <v>9830540969</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -7187,10 +7189,16 @@
         <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="E22" t="s">
+        <v>335</v>
       </c>
       <c r="F22">
-        <v>9830540969</v>
+        <v>9875597274</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
       </c>
       <c r="K22" t="s">
         <v>183</v>
@@ -7204,16 +7212,22 @@
         <v>45187</v>
       </c>
       <c r="C23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23">
+        <v>9831649789</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
         <v>184</v>
-      </c>
-      <c r="D23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23">
-        <v>9875597274</v>
-      </c>
-      <c r="K23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -7227,15 +7241,15 @@
         <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
+        <v>337</v>
       </c>
       <c r="F24">
-        <v>9831649789</v>
+        <v>7044454791</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7247,16 +7261,19 @@
         <v>45187</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>290</v>
+      </c>
+      <c r="E25" t="s">
+        <v>338</v>
       </c>
       <c r="F25">
-        <v>7044454791</v>
+        <v>9051070314</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -7267,16 +7284,19 @@
         <v>45187</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>337</v>
       </c>
       <c r="F26">
-        <v>9051070314</v>
+        <v>8100234251</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -7287,16 +7307,19 @@
         <v>45187</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="E27" t="s">
+        <v>338</v>
       </c>
       <c r="F27">
-        <v>8100234251</v>
+        <v>895612401</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -7307,16 +7330,19 @@
         <v>45187</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="E28" t="s">
+        <v>337</v>
       </c>
       <c r="F28">
-        <v>895612401</v>
+        <v>9038607618</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -7327,16 +7353,19 @@
         <v>45187</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="E29" t="s">
+        <v>335</v>
       </c>
       <c r="F29">
-        <v>9038607618</v>
+        <v>9123738352</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -7347,16 +7376,19 @@
         <v>45187</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="E30" t="s">
+        <v>337</v>
       </c>
       <c r="F30">
-        <v>9123738352</v>
+        <v>7439648726</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -7367,19 +7399,19 @@
         <v>45187</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F31">
-        <v>7439648726</v>
+        <v>6290149228</v>
       </c>
       <c r="J31" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -7390,19 +7422,19 @@
         <v>45187</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F32">
-        <v>6290149228</v>
+        <v>7439235390</v>
       </c>
       <c r="J32" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -7413,19 +7445,19 @@
         <v>45187</v>
       </c>
       <c r="C33" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F33">
-        <v>7439235390</v>
+        <v>9831616972</v>
       </c>
       <c r="J33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -7436,19 +7468,19 @@
         <v>45187</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F34">
-        <v>9831616972</v>
+        <v>9875642078</v>
       </c>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -7459,19 +7491,19 @@
         <v>45187</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F35">
-        <v>9875642078</v>
+        <v>9330260643</v>
       </c>
       <c r="J35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7482,19 +7514,19 @@
         <v>45187</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F36">
-        <v>9330260643</v>
+        <v>7865006160</v>
       </c>
       <c r="J36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -7505,19 +7537,19 @@
         <v>45187</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F37">
-        <v>7865006160</v>
+        <v>9933568503</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -7527,20 +7559,20 @@
       <c r="B38" s="15">
         <v>45187</v>
       </c>
-      <c r="C38" t="s">
-        <v>355</v>
+      <c r="C38" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E38" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="F38">
-        <v>9933568503</v>
+        <v>7980097885</v>
       </c>
       <c r="J38" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7551,19 +7583,22 @@
         <v>45187</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="F39">
-        <v>7980097885</v>
+        <v>8017803547</v>
       </c>
       <c r="J39" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="L39" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7574,22 +7609,22 @@
         <v>45187</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>353</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F40">
-        <v>8017803547</v>
+        <v>8927931385</v>
       </c>
       <c r="J40" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7600,22 +7635,22 @@
         <v>45187</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F41">
-        <v>8927931385</v>
+        <v>9123811981</v>
       </c>
       <c r="J41" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -7623,25 +7658,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="15">
-        <v>45187</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>204</v>
+        <v>45188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F42">
-        <v>9123811981</v>
+        <v>8789192117</v>
       </c>
       <c r="J42" t="s">
-        <v>195</v>
-      </c>
-      <c r="L42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -7652,19 +7684,19 @@
         <v>45188</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F43">
-        <v>8789192117</v>
+        <v>7439261742</v>
       </c>
       <c r="J43" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -7674,20 +7706,20 @@
       <c r="B44" s="15">
         <v>45188</v>
       </c>
-      <c r="C44" t="s">
-        <v>351</v>
+      <c r="C44" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F44">
-        <v>7439261742</v>
+        <v>8910136033</v>
       </c>
       <c r="J44" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -7698,19 +7730,19 @@
         <v>45188</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="F45">
-        <v>8910136033</v>
+        <v>8981502987</v>
       </c>
       <c r="J45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -7720,20 +7752,20 @@
       <c r="B46" s="15">
         <v>45188</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>209</v>
+      <c r="C46" t="s">
+        <v>205</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E46" t="s">
         <v>113</v>
       </c>
       <c r="F46">
-        <v>8981502987</v>
+        <v>8133843005</v>
       </c>
       <c r="J46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -7744,19 +7776,19 @@
         <v>45188</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="F47">
-        <v>8133843005</v>
+        <v>6290583136</v>
       </c>
       <c r="J47" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -7767,19 +7799,19 @@
         <v>45188</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="F48">
-        <v>6290583136</v>
+        <v>8336817657</v>
       </c>
       <c r="J48" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -7790,19 +7822,19 @@
         <v>45188</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
         <v>113</v>
       </c>
       <c r="F49">
-        <v>8336817657</v>
+        <v>9831493208</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -7813,19 +7845,19 @@
         <v>45188</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="F50">
-        <v>9831493208</v>
+        <v>7003540372</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -7836,19 +7868,19 @@
         <v>45188</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="F51">
-        <v>7003540372</v>
+        <v>7278448048</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -7859,19 +7891,19 @@
         <v>45188</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="F52">
-        <v>7278448048</v>
+        <v>9830826860</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -7882,19 +7914,19 @@
         <v>45188</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="F53">
-        <v>9830826860</v>
+        <v>8420848861</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -7905,19 +7937,19 @@
         <v>45188</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>341</v>
       </c>
       <c r="F54">
-        <v>8420848861</v>
+        <v>9872355769</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -7928,19 +7960,19 @@
         <v>45188</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F55">
-        <v>9872355769</v>
+        <v>6294268223</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -7951,19 +7983,19 @@
         <v>45188</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="F56">
-        <v>6294268223</v>
+        <v>9143297263</v>
       </c>
       <c r="J56" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -7974,19 +8006,19 @@
         <v>45188</v>
       </c>
       <c r="C57" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="F57">
-        <v>9143297263</v>
+        <v>7890899876</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -7997,19 +8029,19 @@
         <v>45188</v>
       </c>
       <c r="C58" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F58">
-        <v>7890899876</v>
+        <v>6289529539</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -8020,19 +8052,19 @@
         <v>45188</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F59">
-        <v>6289529539</v>
+        <v>9433055625</v>
       </c>
       <c r="J59" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -8043,19 +8075,19 @@
         <v>45188</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="F60">
-        <v>9433055625</v>
+        <v>9433221128</v>
       </c>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -8066,19 +8098,19 @@
         <v>45188</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="F61">
-        <v>9433221128</v>
+        <v>8477712310</v>
       </c>
       <c r="J61" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -8089,19 +8121,19 @@
         <v>45188</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F62">
-        <v>8477712310</v>
+        <v>628955425</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -8112,19 +8144,19 @@
         <v>45188</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F63">
-        <v>628955425</v>
+        <v>9477900494</v>
       </c>
       <c r="J63" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -8135,19 +8167,19 @@
         <v>45188</v>
       </c>
       <c r="C64" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="F64">
-        <v>9477900494</v>
+        <v>8777706597</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -8158,77 +8190,19 @@
         <v>45188</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>341</v>
       </c>
       <c r="F65">
-        <v>8777706597</v>
+        <v>9433256207</v>
       </c>
       <c r="J65" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
-        <v>65</v>
-      </c>
-      <c r="B66" s="15">
-        <v>45188</v>
-      </c>
-      <c r="C66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" t="s">
-        <v>337</v>
-      </c>
-      <c r="E66" t="s">
-        <v>348</v>
-      </c>
-      <c r="F66">
-        <v>9433256207</v>
-      </c>
-      <c r="J66" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8249,13 +8223,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>134</v>
@@ -8293,7 +8267,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="21"/>
@@ -8332,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C4" s="22">
         <v>45193</v>
@@ -8349,10 +8323,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -8366,10 +8340,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -8383,10 +8357,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -8400,10 +8374,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -8417,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C9" s="20">
         <v>20</v>
@@ -8434,10 +8408,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -8451,10 +8425,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -8468,7 +8442,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -8481,10 +8455,10 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -8496,10 +8470,10 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -8511,10 +8485,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8526,10 +8500,10 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -8541,10 +8515,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -8558,10 +8532,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -8575,10 +8549,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -8592,10 +8566,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -8608,7 +8582,7 @@
       <c r="A21" s="19"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -8622,10 +8596,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -8639,10 +8613,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -8656,10 +8630,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -8672,7 +8646,7 @@
       <c r="A25" s="19"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -8685,7 +8659,7 @@
       <c r="A26" s="19"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -8698,7 +8672,7 @@
       <c r="A27" s="19"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -8712,10 +8686,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -8769,37 +8743,37 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E53C1-992D-4C22-A866-D58EA160D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AAF70-EA3F-4BFB-932F-E0769C7FEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="366">
   <si>
     <t>Student Name</t>
   </si>
@@ -1101,6 +1101,33 @@
   </si>
   <si>
     <t>Bithika Das</t>
+  </si>
+  <si>
+    <t>Jhuma</t>
+  </si>
+  <si>
+    <t>Suvangihi</t>
+  </si>
+  <si>
+    <t>K.Das</t>
+  </si>
+  <si>
+    <t>M Ghose</t>
+  </si>
+  <si>
+    <t>Ayan Halder</t>
+  </si>
+  <si>
+    <t>Udogjana</t>
+  </si>
+  <si>
+    <t>Maha maya</t>
+  </si>
+  <si>
+    <t>Tanusri Mondal</t>
+  </si>
+  <si>
+    <t>Supriya</t>
   </si>
 </sst>
 </file>
@@ -6538,10 +6565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6551,7 +6578,7 @@
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -8202,6 +8229,176 @@
         <v>9433256207</v>
       </c>
       <c r="J65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66">
+        <v>7679591433</v>
+      </c>
+      <c r="J66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67">
+        <v>8016981657</v>
+      </c>
+      <c r="J67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68">
+        <v>7596825771</v>
+      </c>
+      <c r="J68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+      <c r="B69" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69">
+        <v>8240581466</v>
+      </c>
+      <c r="J69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+      <c r="B70" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70">
+        <v>9162975575</v>
+      </c>
+      <c r="J70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71">
+        <v>8609063557</v>
+      </c>
+      <c r="J71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+      <c r="B72" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72">
+        <v>6291578892</v>
+      </c>
+      <c r="J72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>363</v>
+      </c>
+      <c r="F73">
+        <v>9831874618</v>
+      </c>
+      <c r="J73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>364</v>
+      </c>
+      <c r="F74">
+        <v>6289714787</v>
+      </c>
+      <c r="J74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75">
+        <v>9679402181</v>
+      </c>
+      <c r="J75" t="s">
         <v>204</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AAF70-EA3F-4BFB-932F-E0769C7FEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC8840-534B-4737-802C-547000307BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="372">
   <si>
     <t>Student Name</t>
   </si>
@@ -1128,6 +1128,24 @@
   </si>
   <si>
     <t>Supriya</t>
+  </si>
+  <si>
+    <t>Sounak</t>
+  </si>
+  <si>
+    <t>Somen</t>
+  </si>
+  <si>
+    <t>Vaskar</t>
+  </si>
+  <si>
+    <t>Kishor</t>
+  </si>
+  <si>
+    <t>Suvotik</t>
+  </si>
+  <si>
+    <t>Vijay Kumar (VIII)</t>
   </si>
 </sst>
 </file>
@@ -6565,10 +6583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8399,6 +8417,99 @@
         <v>9679402181</v>
       </c>
       <c r="J75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76">
+        <v>9748494952</v>
+      </c>
+      <c r="J76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>367</v>
+      </c>
+      <c r="F77">
+        <v>8100681522</v>
+      </c>
+      <c r="J77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C78" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78">
+        <v>8609345322</v>
+      </c>
+      <c r="J78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>369</v>
+      </c>
+      <c r="F79">
+        <v>9163931391</v>
+      </c>
+      <c r="J79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80">
+        <v>7003658621</v>
+      </c>
+      <c r="J80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
+        <v>45204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>371</v>
+      </c>
+      <c r="F81">
+        <v>9993168842</v>
+      </c>
+      <c r="J81" t="s">
         <v>204</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34FE265-9F4E-44C3-82C2-B224BC383F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861259D-A7C2-4E46-ABC2-D10B5EA99090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{7E67AF77-C060-4374-A850-FD124A910796}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="265">
   <si>
     <t>Student Name</t>
   </si>
@@ -760,13 +760,94 @@
   </si>
   <si>
     <t>Remarks (In Comments)</t>
+  </si>
+  <si>
+    <t>Ayushman  Roy</t>
+  </si>
+  <si>
+    <t>Sourjya Ghosh</t>
+  </si>
+  <si>
+    <t>Anwiksha</t>
+  </si>
+  <si>
+    <t>9874167066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srijit Kayal </t>
+  </si>
+  <si>
+    <t>9830152014</t>
+  </si>
+  <si>
+    <t>Moore Avenue</t>
+  </si>
+  <si>
+    <t>Garia Station</t>
+  </si>
+  <si>
+    <t>9836731867</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>I.C.S.E CLASS 10, MOCK TESTS</t>
+  </si>
+  <si>
+    <t>I.C.S.E CLASS 6</t>
+  </si>
+  <si>
+    <t>I.S.C , CLASS 11</t>
+  </si>
+  <si>
+    <t>I.C.S.E CLASS 5</t>
+  </si>
+  <si>
+    <t>I.C.S.E CLASS 9</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>9038840453</t>
+  </si>
+  <si>
+    <t>Piyali</t>
+  </si>
+  <si>
+    <t>9123029764</t>
+  </si>
+  <si>
+    <t>Nipun Saha</t>
+  </si>
+  <si>
+    <t>9883359259</t>
+  </si>
+  <si>
+    <t>no number</t>
+  </si>
+  <si>
+    <t>A.G Tollygunj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharishi </t>
+  </si>
+  <si>
+    <t>A.I</t>
+  </si>
+  <si>
+    <t>Ranadeb Bose</t>
+  </si>
+  <si>
+    <t>Mainak Residency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,12 +885,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Oxygen"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -864,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -914,6 +989,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1212,11 +1302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1262C33B-FFC3-456D-8444-DE5325A41BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,10 +1315,10 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,10 +1335,10 @@
       <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -1271,93 +1361,221 @@
       <c r="B2" s="9">
         <v>45244</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="22" t="s">
         <v>236</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="6">
+        <v>9830610602</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="6">
+        <v>6290043535</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45246</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45246</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45246</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45246</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
@@ -1365,258 +1583,258 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="F59"/>
+      <c r="F59" s="7"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="F60"/>
+      <c r="F60" s="7"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1624,14 +1842,14 @@
       <c r="B61" s="9"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="F61"/>
+      <c r="F61" s="7"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="F62"/>
+      <c r="F62" s="7"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -1639,14 +1857,14 @@
       <c r="B63" s="9"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="F63"/>
+      <c r="F63" s="7"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="F64"/>
+      <c r="F64" s="7"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -1654,14 +1872,14 @@
       <c r="B65" s="9"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="F65"/>
+      <c r="F65" s="7"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="F66"/>
+      <c r="F66" s="7"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -1669,14 +1887,14 @@
       <c r="B67" s="9"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="F67"/>
+      <c r="F67" s="7"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="F68"/>
+      <c r="F68" s="7"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -1684,14 +1902,14 @@
       <c r="B69" s="9"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="F69"/>
+      <c r="F69" s="7"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="F70"/>
+      <c r="F70" s="7"/>
       <c r="H70"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -1699,14 +1917,14 @@
       <c r="B71" s="9"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="F71"/>
+      <c r="F71" s="7"/>
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="F72"/>
+      <c r="F72" s="7"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -1714,14 +1932,14 @@
       <c r="B73" s="9"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="F73"/>
+      <c r="F73" s="7"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="F74"/>
+      <c r="F74" s="7"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -1729,14 +1947,14 @@
       <c r="B75" s="9"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="F75"/>
+      <c r="F75" s="7"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="F76"/>
+      <c r="F76" s="7"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -1744,14 +1962,14 @@
       <c r="B77" s="9"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="F77"/>
+      <c r="F77" s="7"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="F78"/>
+      <c r="F78" s="7"/>
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -1759,14 +1977,14 @@
       <c r="B79" s="9"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="F79"/>
+      <c r="F79" s="7"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="F80"/>
+      <c r="F80" s="7"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -1774,14 +1992,14 @@
       <c r="B81" s="9"/>
       <c r="C81"/>
       <c r="D81"/>
-      <c r="F81"/>
+      <c r="F81" s="7"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="F82"/>
+      <c r="F82" s="7"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -1789,14 +2007,14 @@
       <c r="B83" s="9"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="F83"/>
+      <c r="F83" s="7"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84"/>
       <c r="D84"/>
-      <c r="F84"/>
+      <c r="F84" s="7"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,14 +2022,14 @@
       <c r="B85" s="9"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="F85"/>
+      <c r="F85" s="7"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="F86"/>
+      <c r="F86" s="7"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -1819,14 +2037,14 @@
       <c r="B87" s="9"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="F87"/>
+      <c r="F87" s="7"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="F88"/>
+      <c r="F88" s="7"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -1834,14 +2052,14 @@
       <c r="B89" s="9"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="F89"/>
+      <c r="F89" s="7"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="F90"/>
+      <c r="F90" s="7"/>
       <c r="H90"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -1849,14 +2067,14 @@
       <c r="B91" s="9"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="F91"/>
+      <c r="F91" s="7"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92"/>
-      <c r="F92"/>
+      <c r="F92" s="7"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -1864,14 +2082,14 @@
       <c r="B93" s="9"/>
       <c r="C93" s="11"/>
       <c r="D93"/>
-      <c r="F93"/>
+      <c r="F93" s="7"/>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="11"/>
       <c r="D94"/>
-      <c r="F94"/>
+      <c r="F94" s="7"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -1879,14 +2097,14 @@
       <c r="B95" s="9"/>
       <c r="C95" s="11"/>
       <c r="D95"/>
-      <c r="F95"/>
+      <c r="F95" s="7"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="F96"/>
+      <c r="F96" s="7"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -1894,14 +2112,14 @@
       <c r="B97" s="9"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="F97"/>
+      <c r="F97" s="7"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="11"/>
       <c r="D98"/>
-      <c r="F98"/>
+      <c r="F98" s="7"/>
       <c r="H98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -1909,14 +2127,14 @@
       <c r="B99" s="9"/>
       <c r="C99" s="11"/>
       <c r="D99"/>
-      <c r="F99"/>
+      <c r="F99" s="7"/>
       <c r="H99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="F100"/>
+      <c r="F100" s="7"/>
       <c r="H100"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -1924,14 +2142,14 @@
       <c r="B101" s="9"/>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="F101"/>
+      <c r="F101" s="7"/>
       <c r="H101"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="F102"/>
+      <c r="F102" s="7"/>
       <c r="H102"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -1939,14 +2157,14 @@
       <c r="B103" s="9"/>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="F103"/>
+      <c r="F103" s="7"/>
       <c r="H103"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="F104"/>
+      <c r="F104" s="7"/>
       <c r="H104"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -1954,14 +2172,14 @@
       <c r="B105" s="9"/>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="F105"/>
+      <c r="F105" s="7"/>
       <c r="H105"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="F106"/>
+      <c r="F106" s="7"/>
       <c r="H106"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -1969,14 +2187,14 @@
       <c r="B107" s="9"/>
       <c r="C107"/>
       <c r="D107"/>
-      <c r="F107"/>
+      <c r="F107" s="7"/>
       <c r="H107"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="F108"/>
+      <c r="F108" s="7"/>
       <c r="H108"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -1984,14 +2202,14 @@
       <c r="B109" s="9"/>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="F109"/>
+      <c r="F109" s="7"/>
       <c r="H109"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="F110"/>
+      <c r="F110" s="7"/>
       <c r="H110"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -1999,14 +2217,14 @@
       <c r="B111" s="9"/>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="F111"/>
+      <c r="F111" s="7"/>
       <c r="H111"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="F112"/>
+      <c r="F112" s="7"/>
       <c r="H112"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -2014,14 +2232,14 @@
       <c r="B113" s="9"/>
       <c r="C113"/>
       <c r="D113"/>
-      <c r="F113"/>
+      <c r="F113" s="7"/>
       <c r="H113"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114"/>
       <c r="D114"/>
-      <c r="F114"/>
+      <c r="F114" s="7"/>
       <c r="H114"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -2029,14 +2247,14 @@
       <c r="B115" s="9"/>
       <c r="C115"/>
       <c r="D115"/>
-      <c r="F115"/>
+      <c r="F115" s="7"/>
       <c r="H115"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116"/>
       <c r="D116"/>
-      <c r="F116"/>
+      <c r="F116" s="7"/>
       <c r="H116"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -2044,14 +2262,14 @@
       <c r="B117" s="9"/>
       <c r="C117"/>
       <c r="D117"/>
-      <c r="F117"/>
+      <c r="F117" s="7"/>
       <c r="H117"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118"/>
       <c r="D118"/>
-      <c r="F118"/>
+      <c r="F118" s="7"/>
       <c r="H118"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -2059,14 +2277,14 @@
       <c r="B119" s="9"/>
       <c r="C119"/>
       <c r="D119"/>
-      <c r="F119"/>
+      <c r="F119" s="7"/>
       <c r="H119"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120"/>
       <c r="D120"/>
-      <c r="F120"/>
+      <c r="F120" s="7"/>
       <c r="H120"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -2074,14 +2292,14 @@
       <c r="B121" s="9"/>
       <c r="C121"/>
       <c r="D121"/>
-      <c r="F121"/>
+      <c r="F121" s="7"/>
       <c r="H121"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122"/>
       <c r="D122"/>
-      <c r="F122"/>
+      <c r="F122" s="7"/>
       <c r="H122"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -2089,14 +2307,14 @@
       <c r="B123" s="9"/>
       <c r="C123"/>
       <c r="D123"/>
-      <c r="F123"/>
+      <c r="F123" s="7"/>
       <c r="H123"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124"/>
       <c r="D124"/>
-      <c r="F124"/>
+      <c r="F124" s="7"/>
       <c r="H124"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -2104,14 +2322,14 @@
       <c r="B125" s="9"/>
       <c r="C125"/>
       <c r="D125"/>
-      <c r="F125"/>
+      <c r="F125" s="7"/>
       <c r="H125"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126"/>
       <c r="D126"/>
-      <c r="F126"/>
+      <c r="F126" s="7"/>
       <c r="H126"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -2119,14 +2337,14 @@
       <c r="B127" s="9"/>
       <c r="C127"/>
       <c r="D127"/>
-      <c r="F127"/>
+      <c r="F127" s="7"/>
       <c r="H127"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128"/>
       <c r="D128"/>
-      <c r="F128"/>
+      <c r="F128" s="7"/>
       <c r="H128"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -2134,14 +2352,14 @@
       <c r="B129" s="9"/>
       <c r="C129"/>
       <c r="D129"/>
-      <c r="F129"/>
+      <c r="F129" s="7"/>
       <c r="H129"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130"/>
       <c r="D130"/>
-      <c r="F130"/>
+      <c r="F130" s="7"/>
       <c r="H130"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -2149,14 +2367,14 @@
       <c r="B131" s="9"/>
       <c r="C131"/>
       <c r="D131"/>
-      <c r="F131"/>
+      <c r="F131" s="7"/>
       <c r="H131"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132"/>
       <c r="D132"/>
-      <c r="F132"/>
+      <c r="F132" s="7"/>
       <c r="H132"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -2164,14 +2382,14 @@
       <c r="B133" s="9"/>
       <c r="C133"/>
       <c r="D133"/>
-      <c r="F133"/>
+      <c r="F133" s="7"/>
       <c r="H133"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134"/>
       <c r="D134"/>
-      <c r="F134"/>
+      <c r="F134" s="7"/>
       <c r="H134"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -2179,17 +2397,20 @@
       <c r="B135" s="9"/>
       <c r="C135"/>
       <c r="D135"/>
-      <c r="F135"/>
+      <c r="F135" s="7"/>
       <c r="H135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5 F6:F10" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,7 +2423,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
@@ -4805,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4821,10 +5042,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861259D-A7C2-4E46-ABC2-D10B5EA99090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -27,18 +26,54 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
+    <author>del</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>del:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mock Test for Mathematics will be on 26th November 2023 at Anodiam premise at 12 PM. Duration is 2 hours
+Location in Google maps sent in whatsapp
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -46,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="266">
   <si>
     <t>Student Name</t>
   </si>
@@ -841,13 +876,16 @@
   </si>
   <si>
     <t>Mainak Residency</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +923,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1302,27 +1353,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -1354,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1391,8 +1443,11 @@
       <c r="H3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1413,7 +1468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1434,7 +1489,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1455,7 +1510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1476,7 +1531,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1496,7 +1551,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1516,7 +1571,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1536,7 +1591,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1553,7 +1608,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1565,7 +1620,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1577,252 +1632,252 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="20"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="E16" s="20"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="E17" s="20"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="E18" s="20"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="20"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="E20" s="20"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="20"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="E22" s="20"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="20"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="E24" s="20"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="20"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="E26" s="20"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="20"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="E28" s="20"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="20"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="E30" s="20"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31" s="20"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="E32" s="20"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33" s="20"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="E34" s="20"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="E35" s="20"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="E36" s="20"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37" s="20"/>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="E38" s="20"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="20"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="E40" s="20"/>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="E41" s="20"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="E42" s="20"/>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="E43" s="20"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="E44" s="20"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="E45" s="20"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="E46" s="20"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="E47" s="20"/>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="E48" s="20"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="E49" s="20"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="E50" s="20"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="20"/>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="E52" s="20"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="E53" s="20"/>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="E54" s="20"/>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="E55" s="20"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="E56" s="20"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="E57" s="20"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="E58" s="20"/>
       <c r="F58" s="24"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
       <c r="C59"/>
@@ -1830,14 +1885,14 @@
       <c r="F59" s="7"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
       <c r="C61"/>
@@ -1845,14 +1900,14 @@
       <c r="F61" s="7"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
       <c r="C63"/>
@@ -1860,14 +1915,14 @@
       <c r="F63" s="7"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
       <c r="C65"/>
@@ -1875,14 +1930,14 @@
       <c r="F65" s="7"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67"/>
@@ -1890,14 +1945,14 @@
       <c r="F67" s="7"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
       <c r="C69"/>
@@ -1905,14 +1960,14 @@
       <c r="F69" s="7"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
       <c r="C71"/>
@@ -1920,14 +1975,14 @@
       <c r="F71" s="7"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
       <c r="C73"/>
@@ -1935,14 +1990,14 @@
       <c r="F73" s="7"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
       <c r="C75"/>
@@ -1950,14 +2005,14 @@
       <c r="F75" s="7"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
       <c r="C77"/>
@@ -1965,14 +2020,14 @@
       <c r="F77" s="7"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
       <c r="C79"/>
@@ -1980,14 +2035,14 @@
       <c r="F79" s="7"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
       <c r="C81"/>
@@ -1995,14 +2050,14 @@
       <c r="F81" s="7"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
       <c r="C83"/>
@@ -2010,14 +2065,14 @@
       <c r="F83" s="7"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
       <c r="C85"/>
@@ -2025,14 +2080,14 @@
       <c r="F85" s="7"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
       <c r="C87"/>
@@ -2040,14 +2095,14 @@
       <c r="F87" s="7"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
       <c r="C89"/>
@@ -2055,14 +2110,14 @@
       <c r="F89" s="7"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
       <c r="C91"/>
@@ -2070,14 +2125,14 @@
       <c r="F91" s="7"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
       <c r="C93" s="11"/>
@@ -2085,14 +2140,14 @@
       <c r="F93" s="7"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="11"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
       <c r="C95" s="11"/>
@@ -2100,14 +2155,14 @@
       <c r="F95" s="7"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
       <c r="C97"/>
@@ -2115,14 +2170,14 @@
       <c r="F97" s="7"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="11"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
       <c r="C99" s="11"/>
@@ -2130,14 +2185,14 @@
       <c r="F99" s="7"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="9"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
       <c r="C101"/>
@@ -2145,14 +2200,14 @@
       <c r="F101" s="7"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
       <c r="C103"/>
@@ -2160,14 +2215,14 @@
       <c r="F103" s="7"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
       <c r="C105"/>
@@ -2175,14 +2230,14 @@
       <c r="F105" s="7"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
       <c r="C107"/>
@@ -2190,14 +2245,14 @@
       <c r="F107" s="7"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
       <c r="C109"/>
@@ -2205,14 +2260,14 @@
       <c r="F109" s="7"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
       <c r="C111"/>
@@ -2220,14 +2275,14 @@
       <c r="F111" s="7"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
       <c r="C113"/>
@@ -2235,14 +2290,14 @@
       <c r="F113" s="7"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
       <c r="C115"/>
@@ -2250,14 +2305,14 @@
       <c r="F115" s="7"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
       <c r="C117"/>
@@ -2265,14 +2320,14 @@
       <c r="F117" s="7"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
       <c r="C119"/>
@@ -2280,14 +2335,14 @@
       <c r="F119" s="7"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
       <c r="C121"/>
@@ -2295,14 +2350,14 @@
       <c r="F121" s="7"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
       <c r="C123"/>
@@ -2310,14 +2365,14 @@
       <c r="F123" s="7"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
       <c r="C125"/>
@@ -2325,14 +2380,14 @@
       <c r="F125" s="7"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
       <c r="C127"/>
@@ -2340,14 +2395,14 @@
       <c r="F127" s="7"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
       <c r="C129"/>
@@ -2355,14 +2410,14 @@
       <c r="F129" s="7"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
       <c r="C131"/>
@@ -2370,14 +2425,14 @@
       <c r="F131" s="7"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
       <c r="C133"/>
@@ -2385,14 +2440,14 @@
       <c r="F133" s="7"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="F134" s="7"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="9"/>
       <c r="C135"/>
@@ -2410,27 +2465,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -2462,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2482,7 +2537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2502,7 +2557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2522,7 +2577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2542,7 +2597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2562,7 +2617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2582,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2602,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2622,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2642,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2662,7 +2717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2682,7 +2737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2700,7 +2755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2720,7 +2775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2740,7 +2795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2760,7 +2815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2780,7 +2835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2800,7 +2855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2820,7 +2875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2840,7 +2895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2860,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2880,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2900,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2920,7 +2975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2940,7 +2995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2960,7 +3015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2980,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3000,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3020,7 +3075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3040,7 +3095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3060,7 +3115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3080,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3100,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3120,7 +3175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3140,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3160,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3180,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3200,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3220,7 +3275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3240,7 +3295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3260,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3280,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -3300,7 +3355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3320,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -3340,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3360,7 +3415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -3380,7 +3435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3400,7 +3455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -3420,7 +3475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3440,7 +3495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -3460,7 +3515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3480,7 +3535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -3500,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3520,7 +3575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3540,7 +3595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3560,7 +3615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3580,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3601,7 +3656,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -3616,7 +3671,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3636,7 +3691,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -3656,7 +3711,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3677,7 +3732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3693,7 +3748,7 @@
       <c r="F63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3709,7 +3764,7 @@
       <c r="F64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3723,7 +3778,7 @@
       <c r="F65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3739,7 +3794,7 @@
       <c r="F66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -3757,7 +3812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3773,7 +3828,7 @@
       <c r="F68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3789,7 +3844,7 @@
       <c r="F69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3805,7 +3860,7 @@
       <c r="F70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -3821,7 +3876,7 @@
       <c r="F71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3839,7 +3894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -3855,7 +3910,7 @@
       <c r="F73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3876,7 +3931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -3897,7 +3952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3918,7 +3973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -3937,7 +3992,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3956,7 +4011,7 @@
       </c>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -3975,7 +4030,7 @@
       </c>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3994,7 +4049,7 @@
       </c>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -4013,7 +4068,7 @@
       </c>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4032,7 +4087,7 @@
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -4051,7 +4106,7 @@
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4070,7 +4125,7 @@
       </c>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -4089,7 +4144,7 @@
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4108,7 +4163,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -4127,7 +4182,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4146,7 +4201,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -4165,7 +4220,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4184,7 +4239,7 @@
       </c>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -4203,7 +4258,7 @@
       </c>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4222,7 +4277,7 @@
       </c>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -4241,7 +4296,7 @@
       </c>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4260,7 +4315,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -4279,7 +4334,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4298,7 +4353,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -4317,7 +4372,7 @@
       </c>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4336,7 +4391,7 @@
       </c>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -4355,7 +4410,7 @@
       </c>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4374,7 +4429,7 @@
       </c>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4393,7 +4448,7 @@
       </c>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4412,7 +4467,7 @@
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -4431,7 +4486,7 @@
       </c>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4450,7 +4505,7 @@
       </c>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -4469,7 +4524,7 @@
       </c>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4488,7 +4543,7 @@
       </c>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -4507,7 +4562,7 @@
       </c>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4526,7 +4581,7 @@
       </c>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4545,7 +4600,7 @@
       </c>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4564,7 +4619,7 @@
       </c>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4583,7 +4638,7 @@
       </c>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4602,7 +4657,7 @@
       </c>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4621,7 +4676,7 @@
       </c>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4640,7 +4695,7 @@
       </c>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4659,7 +4714,7 @@
       </c>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4678,7 +4733,7 @@
       </c>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4697,7 +4752,7 @@
       </c>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4716,7 +4771,7 @@
       </c>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -4735,7 +4790,7 @@
       </c>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4754,7 +4809,7 @@
       </c>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -4773,7 +4828,7 @@
       </c>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4792,7 +4847,7 @@
       </c>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -4811,7 +4866,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4830,7 +4885,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -4849,7 +4904,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4868,7 +4923,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -4887,7 +4942,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4906,7 +4961,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -4925,7 +4980,7 @@
       </c>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4944,7 +4999,7 @@
       </c>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -4963,7 +5018,7 @@
       </c>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4982,7 +5037,7 @@
       </c>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5001,7 +5056,7 @@
       </c>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5026,21 +5081,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="25" t="s">
         <v>145</v>
@@ -5053,7 +5108,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5064,7 +5119,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>104</v>
       </c>
@@ -5077,7 +5132,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5094,7 +5149,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5111,7 +5166,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5128,7 +5183,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5145,7 +5200,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5162,7 +5217,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5179,7 +5234,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5196,7 +5251,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5213,7 +5268,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -5228,7 +5283,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="14" t="s">
         <v>182</v>
@@ -5243,7 +5298,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
         <v>181</v>
@@ -5258,7 +5313,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
         <v>177</v>
@@ -5273,7 +5328,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
         <v>180</v>
@@ -5288,7 +5343,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="14" t="s">
         <v>183</v>
@@ -5303,7 +5358,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>10</v>
       </c>
@@ -5320,7 +5375,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>11</v>
       </c>
@@ -5337,7 +5392,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -5354,7 +5409,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -5367,7 +5422,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>13</v>
       </c>
@@ -5384,7 +5439,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -5401,7 +5456,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>15</v>
       </c>
@@ -5418,7 +5473,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -5431,7 +5486,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -5444,7 +5499,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -5457,7 +5512,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>16</v>
       </c>
@@ -5474,7 +5529,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5485,7 +5540,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F4FC2-A684-40C3-B5C2-A84CE9C1DC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -26,31 +27,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
     <author>del</author>
+    <author>tc={F3567679-7100-435F-9060-FD21DFA278CA}</author>
+    <author>tc={E2877E5E-C5FC-48C7-91A7-9E60C028C722}</author>
+    <author>tc={F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}</author>
+    <author>tc={566A0D87-5B70-4568-95BC-4D1E089F500C}</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,8 +68,43 @@
           <t xml:space="preserve">
 Mock Test for Mathematics will be on 26th November 2023 at Anodiam premise at 12 PM. Duration is 2 hours
 Location in Google maps sent in whatsapp
-</t>
+Confirmed For Mock Test</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="2" shapeId="0" xr:uid="{F3567679-7100-435F-9060-FD21DFA278CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    To be contacted on 20th November 2023 by Rahul</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="3" shapeId="0" xr:uid="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="4" shapeId="0" xr:uid="{F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Did not pick up the call.
+Needed to be connected on 20th November by Debashish Nath.
+Guardian needed to be convinced.</t>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="5" shapeId="0" xr:uid="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Guardian will visit to Anodiam.
+Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
   </commentList>
@@ -81,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="274">
   <si>
     <t>Student Name</t>
   </si>
@@ -879,12 +910,36 @@
   </si>
   <si>
     <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mock Test (Y/N) ?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Just Dial</t>
+  </si>
+  <si>
+    <t>Rahul Dutta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1345,36 +1400,52 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I2" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7E67AF77-C060-4374-A850-FD124A910796}">
+  <threadedComment ref="J2" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7E67AF77-C060-4374-A850-FD124A910796}">
     <text>Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</text>
+  </threadedComment>
+  <threadedComment ref="J4" dT="2023-11-19T06:35:02.35" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F3567679-7100-435F-9060-FD21DFA278CA}">
+    <text>To be contacted on 20th November 2023 by Rahul</text>
+  </threadedComment>
+  <threadedComment ref="J5" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
+    <text>She may give mock test. We need to connect with her by Rahul on 20th November 2023</text>
+  </threadedComment>
+  <threadedComment ref="J6" dT="2023-11-19T06:49:28.97" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}">
+    <text>Did not pick up the call.
+Needed to be connected on 20th November by Debashish Nath.
+Guardian needed to be convinced.</text>
+  </threadedComment>
+  <threadedComment ref="J7" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
+    <text>Guardian will visit to Anodiam.
+Rahul will do follow up on Tuesday (21Nov 2023)</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -1396,17 +1467,23 @@
       <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1423,7 +1500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1440,14 +1517,20 @@
       <c r="G3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" t="s">
         <v>248</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1464,11 +1547,20 @@
       <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1485,11 +1577,20 @@
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1506,11 +1607,20 @@
       <c r="G6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1527,11 +1637,20 @@
       <c r="G7" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1547,11 +1666,14 @@
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1567,11 +1689,14 @@
       <c r="G9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1587,11 +1712,14 @@
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1604,11 +1732,11 @@
       <c r="F11" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1620,7 +1748,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1632,828 +1760,828 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="20"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="E16" s="20"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="E17" s="20"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="E18" s="20"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="20"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="E20" s="20"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="20"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="E22" s="20"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="20"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="E24" s="20"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="20"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="E26" s="20"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="20"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="E28" s="20"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="20"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="E30" s="20"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31" s="20"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="E32" s="20"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33" s="20"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="E34" s="20"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="E35" s="20"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="E36" s="20"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37" s="20"/>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="E38" s="20"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="20"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="E40" s="20"/>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="E41" s="20"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="E42" s="20"/>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="E43" s="20"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="E44" s="20"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="E45" s="20"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="E46" s="20"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="E47" s="20"/>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="E48" s="20"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="E49" s="20"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="E50" s="20"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="20"/>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="E52" s="20"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="E53" s="20"/>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="E54" s="20"/>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="E55" s="20"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="E56" s="20"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="E57" s="20"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="E58" s="20"/>
       <c r="F58" s="24"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="F59" s="7"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="F61" s="7"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="F63" s="7"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="F65" s="7"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="F67" s="7"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="F69" s="7"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="F71" s="7"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="F73" s="7"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="F75" s="7"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="F77" s="7"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="F79" s="7"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="F81" s="7"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="F83" s="7"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="F85" s="7"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="F87" s="7"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="F89" s="7"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
       <c r="C93" s="11"/>
       <c r="D93"/>
       <c r="F93" s="7"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="11"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
       <c r="C95" s="11"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="11"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
       <c r="C99" s="11"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="F101" s="7"/>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="F103" s="7"/>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="F105" s="7"/>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="F107" s="7"/>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="F109" s="7"/>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="F111" s="7"/>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="F113" s="7"/>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="F115" s="7"/>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="F117" s="7"/>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="F119" s="7"/>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="F121" s="7"/>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="F123" s="7"/>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="F125" s="7"/>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="F127" s="7"/>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="F129" s="7"/>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="F131" s="7"/>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="F133" s="7"/>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="F134" s="7"/>
-      <c r="H134"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="9"/>
       <c r="C135"/>
       <c r="D135"/>
       <c r="F135" s="7"/>
-      <c r="H135"/>
+      <c r="I135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,27 +2593,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -2517,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2537,7 +2665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2557,7 +2685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2577,7 +2705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2597,7 +2725,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2617,7 +2745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2637,7 +2765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2657,7 +2785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2677,7 +2805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2697,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2717,7 +2845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2737,7 +2865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2755,7 +2883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2775,7 +2903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2795,7 +2923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2815,7 +2943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2835,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2855,7 +2983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2875,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2895,7 +3023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2915,7 +3043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2935,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2955,7 +3083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2975,7 +3103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2995,7 +3123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3015,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3035,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3055,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3075,7 +3203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3095,7 +3223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3115,7 +3243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3135,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3155,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3175,7 +3303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3195,7 +3323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3215,7 +3343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3235,7 +3363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3255,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3275,7 +3403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3295,7 +3423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3315,7 +3443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3335,7 +3463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -3355,7 +3483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3375,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -3395,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3415,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -3435,7 +3563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3455,7 +3583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -3475,7 +3603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3495,7 +3623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -3515,7 +3643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3535,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -3555,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3575,7 +3703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3595,7 +3723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3615,7 +3743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3635,7 +3763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3656,7 +3784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -3671,7 +3799,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3691,7 +3819,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -3711,7 +3839,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3732,7 +3860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3748,7 +3876,7 @@
       <c r="F63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3764,7 +3892,7 @@
       <c r="F64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3778,7 +3906,7 @@
       <c r="F65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3794,7 +3922,7 @@
       <c r="F66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -3812,7 +3940,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3828,7 +3956,7 @@
       <c r="F68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3844,7 +3972,7 @@
       <c r="F69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3860,7 +3988,7 @@
       <c r="F70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -3876,7 +4004,7 @@
       <c r="F71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3894,7 +4022,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -3910,7 +4038,7 @@
       <c r="F73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3931,7 +4059,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -3952,7 +4080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3973,7 +4101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -3992,7 +4120,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4011,7 +4139,7 @@
       </c>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -4030,7 +4158,7 @@
       </c>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4049,7 +4177,7 @@
       </c>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -4068,7 +4196,7 @@
       </c>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4087,7 +4215,7 @@
       </c>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -4106,7 +4234,7 @@
       </c>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4125,7 +4253,7 @@
       </c>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -4144,7 +4272,7 @@
       </c>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4163,7 +4291,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -4182,7 +4310,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4201,7 +4329,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -4220,7 +4348,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4239,7 +4367,7 @@
       </c>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -4258,7 +4386,7 @@
       </c>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4277,7 +4405,7 @@
       </c>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -4296,7 +4424,7 @@
       </c>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4315,7 +4443,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -4334,7 +4462,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4353,7 +4481,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -4372,7 +4500,7 @@
       </c>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4391,7 +4519,7 @@
       </c>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -4410,7 +4538,7 @@
       </c>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4429,7 +4557,7 @@
       </c>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4448,7 +4576,7 @@
       </c>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4467,7 +4595,7 @@
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -4486,7 +4614,7 @@
       </c>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4505,7 +4633,7 @@
       </c>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -4524,7 +4652,7 @@
       </c>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4543,7 +4671,7 @@
       </c>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -4562,7 +4690,7 @@
       </c>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4581,7 +4709,7 @@
       </c>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4600,7 +4728,7 @@
       </c>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4619,7 +4747,7 @@
       </c>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4638,7 +4766,7 @@
       </c>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4657,7 +4785,7 @@
       </c>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4676,7 +4804,7 @@
       </c>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4695,7 +4823,7 @@
       </c>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4714,7 +4842,7 @@
       </c>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4733,7 +4861,7 @@
       </c>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4752,7 +4880,7 @@
       </c>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4771,7 +4899,7 @@
       </c>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -4790,7 +4918,7 @@
       </c>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4809,7 +4937,7 @@
       </c>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -4828,7 +4956,7 @@
       </c>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4847,7 +4975,7 @@
       </c>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -4866,7 +4994,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4885,7 +5013,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -4904,7 +5032,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4923,7 +5051,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -4942,7 +5070,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4961,7 +5089,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -4980,7 +5108,7 @@
       </c>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4999,7 +5127,7 @@
       </c>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -5018,7 +5146,7 @@
       </c>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5037,7 +5165,7 @@
       </c>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5056,7 +5184,7 @@
       </c>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5081,21 +5209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="25" t="s">
         <v>145</v>
@@ -5108,7 +5236,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5119,7 +5247,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>104</v>
       </c>
@@ -5132,7 +5260,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5149,7 +5277,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5166,7 +5294,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5183,7 +5311,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5200,7 +5328,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5217,7 +5345,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5234,7 +5362,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5251,7 +5379,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5268,7 +5396,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -5283,7 +5411,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="14" t="s">
         <v>182</v>
@@ -5298,7 +5426,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
         <v>181</v>
@@ -5313,7 +5441,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
         <v>177</v>
@@ -5328,7 +5456,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
         <v>180</v>
@@ -5343,7 +5471,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="14" t="s">
         <v>183</v>
@@ -5358,7 +5486,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>10</v>
       </c>
@@ -5375,7 +5503,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>11</v>
       </c>
@@ -5392,7 +5520,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -5409,7 +5537,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -5422,7 +5550,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>13</v>
       </c>
@@ -5439,7 +5567,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -5456,7 +5584,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>15</v>
       </c>
@@ -5473,7 +5601,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -5486,7 +5614,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -5499,7 +5627,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -5512,7 +5640,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>16</v>
       </c>
@@ -5529,7 +5657,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5540,7 +5668,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F4FC2-A684-40C3-B5C2-A84CE9C1DC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223DDEDE-AD92-4369-94C9-D00828EC662B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,10 @@
     <author>tc={E2877E5E-C5FC-48C7-91A7-9E60C028C722}</author>
     <author>tc={F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}</author>
     <author>tc={566A0D87-5B70-4568-95BC-4D1E089F500C}</author>
+    <author>tc={3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}</author>
+    <author>tc={05082A02-598E-41F9-A5E0-87BA7ABA0B6A}</author>
+    <author>tc={19A57DC7-0D01-4D8A-9629-B79D946B8EE8}</author>
+    <author>tc={58FDE46B-717B-46FD-8359-F3C0EFFF690C}</author>
   </authors>
   <commentList>
     <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -107,12 +111,44 @@
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
+    <comment ref="J8" authorId="6" shapeId="0" xr:uid="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="7" shapeId="0" xr:uid="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="8" shapeId="0" xr:uid="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="9" shapeId="0" xr:uid="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="274">
   <si>
     <t>Student Name</t>
   </si>
@@ -1045,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1113,6 +1149,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,6 +1458,18 @@
     <text>Guardian will visit to Anodiam.
 Rahul will do follow up on Tuesday (21Nov 2023)</text>
   </threadedComment>
+  <threadedComment ref="J8" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
+    <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
+  </threadedComment>
+  <threadedComment ref="J9" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
+    <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
+  </threadedComment>
+  <threadedComment ref="J10" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
+    <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
+  </threadedComment>
+  <threadedComment ref="J11" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
+    <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1427,7 +1478,7 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,6 +1723,12 @@
       <c r="I8" t="s">
         <v>262</v>
       </c>
+      <c r="K8" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1695,6 +1752,12 @@
       <c r="I9" t="s">
         <v>262</v>
       </c>
+      <c r="K9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -1718,6 +1781,12 @@
       <c r="I10" t="s">
         <v>262</v>
       </c>
+      <c r="K10" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1734,6 +1803,12 @@
       </c>
       <c r="I11" t="s">
         <v>262</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2594,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2608,12 +2683,13 @@
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="7" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -2635,17 +2711,23 @@
       <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2661,11 +2743,12 @@
       <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2681,11 +2764,12 @@
       <c r="G3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2701,11 +2785,12 @@
       <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2721,11 +2806,12 @@
       <c r="G5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2741,11 +2827,12 @@
       <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2761,11 +2848,11 @@
       <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2781,11 +2868,11 @@
       <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2801,11 +2888,11 @@
       <c r="G9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2821,11 +2908,11 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2841,11 +2928,11 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2861,11 +2948,11 @@
       <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2879,11 +2966,11 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2899,11 +2986,11 @@
       <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2919,11 +3006,11 @@
       <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2939,11 +3026,11 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2959,11 +3046,11 @@
       <c r="G17" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2979,11 +3066,11 @@
       <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2999,11 +3086,11 @@
       <c r="G19" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3019,11 +3106,11 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3039,11 +3126,11 @@
       <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3059,11 +3146,11 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3079,11 +3166,11 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3099,11 +3186,11 @@
       <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3119,11 +3206,11 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3139,11 +3226,11 @@
       <c r="G26" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3159,11 +3246,11 @@
       <c r="G27" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3179,11 +3266,11 @@
       <c r="G28" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3199,11 +3286,11 @@
       <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3219,11 +3306,11 @@
       <c r="G30" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3239,11 +3326,11 @@
       <c r="G31" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3259,11 +3346,11 @@
       <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3279,11 +3366,11 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3299,11 +3386,11 @@
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3319,11 +3406,11 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3339,11 +3426,11 @@
       <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3359,11 +3446,11 @@
       <c r="G37" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3379,11 +3466,11 @@
       <c r="G38" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3399,11 +3486,11 @@
       <c r="G39" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3419,11 +3506,11 @@
       <c r="G40" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3439,11 +3526,11 @@
       <c r="G41" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3459,11 +3546,11 @@
       <c r="G42" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -3479,11 +3566,11 @@
       <c r="G43" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3499,11 +3586,11 @@
       <c r="G44" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -3519,11 +3606,11 @@
       <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3539,11 +3626,11 @@
       <c r="G46" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -3559,11 +3646,11 @@
       <c r="G47" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3579,11 +3666,11 @@
       <c r="G48" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -3599,11 +3686,11 @@
       <c r="G49" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3619,11 +3706,11 @@
       <c r="G50" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -3639,11 +3726,11 @@
       <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3659,11 +3746,11 @@
       <c r="G52" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -3679,11 +3766,11 @@
       <c r="G53" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3699,11 +3786,11 @@
       <c r="G54" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3719,11 +3806,11 @@
       <c r="G55" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3739,11 +3826,11 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3759,11 +3846,11 @@
       <c r="G57" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3780,11 +3867,11 @@
       <c r="G58" t="s">
         <v>106</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -3797,9 +3884,9 @@
       <c r="G59" t="s">
         <v>108</v>
       </c>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3817,9 +3904,9 @@
       <c r="G60" t="s">
         <v>110</v>
       </c>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -3837,9 +3924,9 @@
       <c r="G61" t="s">
         <v>110</v>
       </c>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3856,11 +3943,11 @@
       <c r="G62" t="s">
         <v>113</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3874,9 +3961,9 @@
         <v>9330494523</v>
       </c>
       <c r="F63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3890,9 +3977,9 @@
         <v>9339487022</v>
       </c>
       <c r="F64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3904,9 +3991,9 @@
       </c>
       <c r="D65"/>
       <c r="F65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3920,9 +4007,9 @@
         <v>8617296138</v>
       </c>
       <c r="F66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -3936,11 +4023,11 @@
         <v>9902987601</v>
       </c>
       <c r="F67"/>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3954,9 +4041,9 @@
         <v>7501846983</v>
       </c>
       <c r="F68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3970,9 +4057,9 @@
         <v>8900306546</v>
       </c>
       <c r="F69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3986,9 +4073,9 @@
         <v>8697636226</v>
       </c>
       <c r="F70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -4002,9 +4089,9 @@
         <v>9051481706</v>
       </c>
       <c r="F71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4018,11 +4105,11 @@
         <v>7044189984</v>
       </c>
       <c r="F72"/>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -4036,9 +4123,9 @@
         <v>9064573012</v>
       </c>
       <c r="F73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4055,11 +4142,11 @@
       <c r="G74" t="s">
         <v>133</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -4076,11 +4163,11 @@
       <c r="G75" t="s">
         <v>133</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4097,11 +4184,11 @@
       <c r="G76" t="s">
         <v>133</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -4118,9 +4205,9 @@
       <c r="G77" t="s">
         <v>133</v>
       </c>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4137,9 +4224,9 @@
       <c r="G78" t="s">
         <v>133</v>
       </c>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -4156,9 +4243,9 @@
       <c r="G79" t="s">
         <v>133</v>
       </c>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4175,9 +4262,9 @@
       <c r="G80" t="s">
         <v>133</v>
       </c>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -4194,9 +4281,9 @@
       <c r="G81" t="s">
         <v>133</v>
       </c>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4213,9 +4300,9 @@
       <c r="G82" t="s">
         <v>133</v>
       </c>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -4232,9 +4319,9 @@
       <c r="G83" t="s">
         <v>135</v>
       </c>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4251,9 +4338,9 @@
       <c r="G84" t="s">
         <v>135</v>
       </c>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -4270,9 +4357,9 @@
       <c r="G85" t="s">
         <v>135</v>
       </c>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4289,9 +4376,9 @@
       <c r="G86" t="s">
         <v>135</v>
       </c>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -4308,9 +4395,9 @@
       <c r="G87" t="s">
         <v>135</v>
       </c>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4327,9 +4414,9 @@
       <c r="G88" t="s">
         <v>135</v>
       </c>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -4346,9 +4433,9 @@
       <c r="G89" t="s">
         <v>135</v>
       </c>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4365,9 +4452,9 @@
       <c r="G90" t="s">
         <v>135</v>
       </c>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -4384,9 +4471,9 @@
       <c r="G91" t="s">
         <v>135</v>
       </c>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4403,9 +4490,9 @@
       <c r="G92" t="s">
         <v>135</v>
       </c>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -4422,9 +4509,9 @@
       <c r="G93" t="s">
         <v>135</v>
       </c>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4441,9 +4528,9 @@
       <c r="G94" t="s">
         <v>135</v>
       </c>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -4460,9 +4547,9 @@
       <c r="G95" t="s">
         <v>143</v>
       </c>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4479,9 +4566,9 @@
       <c r="G96" t="s">
         <v>143</v>
       </c>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -4498,9 +4585,9 @@
       <c r="G97" t="s">
         <v>143</v>
       </c>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4517,9 +4604,9 @@
       <c r="G98" t="s">
         <v>147</v>
       </c>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -4536,9 +4623,9 @@
       <c r="G99" t="s">
         <v>147</v>
       </c>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4555,9 +4642,9 @@
       <c r="G100" t="s">
         <v>147</v>
       </c>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4574,9 +4661,9 @@
       <c r="G101" t="s">
         <v>147</v>
       </c>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4593,9 +4680,9 @@
       <c r="G102" t="s">
         <v>147</v>
       </c>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -4612,9 +4699,9 @@
       <c r="G103" t="s">
         <v>147</v>
       </c>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4631,9 +4718,9 @@
       <c r="G104" t="s">
         <v>147</v>
       </c>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -4650,9 +4737,9 @@
       <c r="G105" t="s">
         <v>147</v>
       </c>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4669,9 +4756,9 @@
       <c r="G106" t="s">
         <v>147</v>
       </c>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -4688,9 +4775,9 @@
       <c r="G107" t="s">
         <v>147</v>
       </c>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4707,9 +4794,9 @@
       <c r="G108" t="s">
         <v>147</v>
       </c>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4726,9 +4813,9 @@
       <c r="G109" t="s">
         <v>147</v>
       </c>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4745,9 +4832,9 @@
       <c r="G110" t="s">
         <v>147</v>
       </c>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4764,9 +4851,9 @@
       <c r="G111" t="s">
         <v>147</v>
       </c>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4783,9 +4870,9 @@
       <c r="G112" t="s">
         <v>147</v>
       </c>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4802,9 +4889,9 @@
       <c r="G113" t="s">
         <v>147</v>
       </c>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4821,9 +4908,9 @@
       <c r="G114" t="s">
         <v>147</v>
       </c>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4840,9 +4927,9 @@
       <c r="G115" t="s">
         <v>147</v>
       </c>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4859,9 +4946,9 @@
       <c r="G116" t="s">
         <v>147</v>
       </c>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4878,9 +4965,9 @@
       <c r="G117" t="s">
         <v>147</v>
       </c>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4897,9 +4984,9 @@
       <c r="G118" t="s">
         <v>147</v>
       </c>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -4916,9 +5003,9 @@
       <c r="G119" t="s">
         <v>147</v>
       </c>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4935,9 +5022,9 @@
       <c r="G120" t="s">
         <v>147</v>
       </c>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -4954,9 +5041,9 @@
       <c r="G121" t="s">
         <v>147</v>
       </c>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4973,9 +5060,9 @@
       <c r="G122" t="s">
         <v>147</v>
       </c>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -4992,9 +5079,9 @@
       <c r="G123" t="s">
         <v>147</v>
       </c>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5011,9 +5098,9 @@
       <c r="G124" t="s">
         <v>147</v>
       </c>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -5030,9 +5117,9 @@
       <c r="G125" t="s">
         <v>147</v>
       </c>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5049,9 +5136,9 @@
       <c r="G126" t="s">
         <v>147</v>
       </c>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -5068,9 +5155,9 @@
       <c r="G127" t="s">
         <v>147</v>
       </c>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5087,9 +5174,9 @@
       <c r="G128" t="s">
         <v>147</v>
       </c>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -5106,9 +5193,9 @@
       <c r="G129" t="s">
         <v>147</v>
       </c>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5125,9 +5212,9 @@
       <c r="G130" t="s">
         <v>147</v>
       </c>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -5144,9 +5231,9 @@
       <c r="G131" t="s">
         <v>147</v>
       </c>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5163,9 +5250,9 @@
       <c r="G132" t="s">
         <v>147</v>
       </c>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5182,9 +5269,9 @@
       <c r="G133" t="s">
         <v>147</v>
       </c>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5201,7 +5288,7 @@
       <c r="G134" t="s">
         <v>147</v>
       </c>
-      <c r="H134"/>
+      <c r="I134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223DDEDE-AD92-4369-94C9-D00828EC662B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B7DCF-64D0-4A05-BBD9-60ADF1CDC354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,7 @@
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
     <author>del</author>
-    <author>tc={F3567679-7100-435F-9060-FD21DFA278CA}</author>
     <author>tc={E2877E5E-C5FC-48C7-91A7-9E60C028C722}</author>
-    <author>tc={F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}</author>
     <author>tc={566A0D87-5B70-4568-95BC-4D1E089F500C}</author>
     <author>tc={3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}</author>
     <author>tc={05082A02-598E-41F9-A5E0-87BA7ABA0B6A}</author>
@@ -76,15 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="2" shapeId="0" xr:uid="{F3567679-7100-435F-9060-FD21DFA278CA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    To be contacted on 20th November 2023 by Rahul</t>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="3" shapeId="0" xr:uid="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
+    <comment ref="J4" authorId="2" shapeId="0" xr:uid="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,17 +82,7 @@
     She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
       </text>
     </comment>
-    <comment ref="J6" authorId="4" shapeId="0" xr:uid="{F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Did not pick up the call.
-Needed to be connected on 20th November by Debashish Nath.
-Guardian needed to be convinced.</t>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="5" shapeId="0" xr:uid="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
+    <comment ref="J5" authorId="3" shapeId="0" xr:uid="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +91,7 @@
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
-    <comment ref="J8" authorId="6" shapeId="0" xr:uid="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
+    <comment ref="J6" authorId="4" shapeId="0" xr:uid="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +99,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="J9" authorId="7" shapeId="0" xr:uid="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
+    <comment ref="J7" authorId="5" shapeId="0" xr:uid="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +107,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="J10" authorId="8" shapeId="0" xr:uid="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
+    <comment ref="J8" authorId="6" shapeId="0" xr:uid="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +115,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="J11" authorId="9" shapeId="0" xr:uid="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
+    <comment ref="J9" authorId="7" shapeId="0" xr:uid="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="268">
   <si>
     <t>Student Name</t>
   </si>
@@ -864,30 +844,15 @@
     <t>Remarks (In Comments)</t>
   </si>
   <si>
-    <t>Ayushman  Roy</t>
-  </si>
-  <si>
-    <t>Sourjya Ghosh</t>
-  </si>
-  <si>
     <t>Anwiksha</t>
   </si>
   <si>
     <t>9874167066</t>
   </si>
   <si>
-    <t xml:space="preserve">Srijit Kayal </t>
-  </si>
-  <si>
-    <t>9830152014</t>
-  </si>
-  <si>
     <t>Moore Avenue</t>
   </si>
   <si>
-    <t>Garia Station</t>
-  </si>
-  <si>
     <t>9836731867</t>
   </si>
   <si>
@@ -897,15 +862,9 @@
     <t>I.C.S.E CLASS 10, MOCK TESTS</t>
   </si>
   <si>
-    <t>I.C.S.E CLASS 6</t>
-  </si>
-  <si>
     <t>I.S.C , CLASS 11</t>
   </si>
   <si>
-    <t>I.C.S.E CLASS 5</t>
-  </si>
-  <si>
     <t>I.C.S.E CLASS 9</t>
   </si>
   <si>
@@ -970,6 +929,9 @@
   </si>
   <si>
     <t>Rahul Dutta</t>
+  </si>
+  <si>
+    <t>Ayushman  Sarkar</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +991,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,6 +1001,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1147,11 +1121,48 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,31 +1454,23 @@
     <text>Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</text>
   </threadedComment>
-  <threadedComment ref="J4" dT="2023-11-19T06:35:02.35" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F3567679-7100-435F-9060-FD21DFA278CA}">
-    <text>To be contacted on 20th November 2023 by Rahul</text>
-  </threadedComment>
-  <threadedComment ref="J5" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
+  <threadedComment ref="J4" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
     <text>She may give mock test. We need to connect with her by Rahul on 20th November 2023</text>
   </threadedComment>
-  <threadedComment ref="J6" dT="2023-11-19T06:49:28.97" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F2A69CD4-44CB-4ACC-8D33-4E56C30F09E1}">
-    <text>Did not pick up the call.
-Needed to be connected on 20th November by Debashish Nath.
-Guardian needed to be convinced.</text>
-  </threadedComment>
-  <threadedComment ref="J7" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
+  <threadedComment ref="J5" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
     <text>Guardian will visit to Anodiam.
 Rahul will do follow up on Tuesday (21Nov 2023)</text>
   </threadedComment>
-  <threadedComment ref="J8" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
+  <threadedComment ref="J6" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="J9" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
+  <threadedComment ref="J7" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="J10" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
+  <threadedComment ref="J8" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="J11" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
+  <threadedComment ref="J9" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1475,20 +1478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="27" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
@@ -1519,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>4</v>
@@ -1528,7 +1531,7 @@
         <v>237</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>3</v>
@@ -1552,153 +1555,157 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>45246</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="6">
+      <c r="C3" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="L3" t="s">
-        <v>265</v>
+      <c r="I3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="35">
         <v>45246</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="6">
-        <v>6290043535</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" t="s">
-        <v>249</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" t="s">
-        <v>269</v>
+      <c r="G4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="28">
         <v>45246</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="9">
         <v>45246</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="F6" s="23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" s="9">
         <v>45246</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>248</v>
+      </c>
       <c r="F7" s="23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,10 +1716,10 @@
         <v>45246</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
@@ -1721,42 +1728,36 @@
         <v>174</v>
       </c>
       <c r="I8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>45246</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" t="s">
         <v>262</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1766,77 +1767,36 @@
       <c r="B10" s="9">
         <v>45246</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" t="s">
-        <v>269</v>
-      </c>
+      <c r="C10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
       <c r="B11" s="9">
         <v>45246</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" t="s">
-        <v>269</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45246</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="23"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>45246</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="23"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2071,14 +2031,18 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="24"/>
+      <c r="B57" s="9"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="F57" s="7"/>
+      <c r="I57"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="24"/>
+      <c r="B58" s="9"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="F58" s="7"/>
+      <c r="I58"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -2315,7 +2279,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
-      <c r="C90"/>
+      <c r="C90" s="11"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
       <c r="I90"/>
@@ -2323,7 +2287,7 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
-      <c r="C91"/>
+      <c r="C91" s="11"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
       <c r="I91"/>
@@ -2345,7 +2309,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
-      <c r="C94" s="11"/>
+      <c r="C94"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
       <c r="I94"/>
@@ -2353,14 +2317,14 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="11"/>
+      <c r="C95"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
-      <c r="C96"/>
+      <c r="C96" s="11"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
       <c r="I96"/>
@@ -2368,14 +2332,14 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
-      <c r="C97"/>
+      <c r="C97" s="11"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
       <c r="I97"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
-      <c r="C98" s="11"/>
+      <c r="C98"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
       <c r="I98"/>
@@ -2383,7 +2347,7 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="11"/>
+      <c r="C99"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
       <c r="I99"/>
@@ -2643,25 +2607,10 @@
       <c r="F133" s="7"/>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B134" s="9"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="F134" s="7"/>
-      <c r="I134"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-      <c r="B135" s="9"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="F135" s="7"/>
-      <c r="I135"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F5 F6:F10" numberStoredAsText="1"/>
+    <ignoredError sqref="F4 F5:F8" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2686,7 +2635,7 @@
     <col min="7" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
@@ -2712,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>4</v>
@@ -2721,7 +2670,7 @@
         <v>237</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>3</v>
@@ -5312,10 +5261,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B7DCF-64D0-4A05-BBD9-60ADF1CDC354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873097A3-EE2D-41C0-BB8A-76F7689F1D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
     <sheet name="Old-Prospects" sheetId="2" r:id="rId2"/>
     <sheet name="Seminar-Plan" sheetId="5" r:id="rId3"/>
+    <sheet name="Daily-Marketing-Plan" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -1055,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1124,9 +1125,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1161,8 +1159,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1555,34 +1553,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>45246</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29">
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1590,63 +1588,63 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>45246</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>45246</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1680,7 +1678,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="9">
@@ -1738,7 +1736,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="9">
@@ -1773,7 +1771,7 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="9">
@@ -5261,10 +5259,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5721,4 +5719,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16512463-536B-4DEE-86DA-9893C0832B07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873097A3-EE2D-41C0-BB8A-76F7689F1D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F85F4-7786-48D6-BC82-5BE4BB696121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="271">
   <si>
     <t>Student Name</t>
   </si>
@@ -933,6 +933,15 @@
   </si>
   <si>
     <t>Ayushman  Sarkar</t>
+  </si>
+  <si>
+    <t>Ishan Kumar</t>
+  </si>
+  <si>
+    <t>7449868584</t>
+  </si>
+  <si>
+    <t>All Subjects</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,7 +1792,25 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
       <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -2618,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5725,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16512463-536B-4DEE-86DA-9893C0832B07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F85F4-7786-48D6-BC82-5BE4BB696121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC8EA28-DA00-4927-B1B4-1A90D446A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,19 @@
     <sheet name="Seminar-Plan" sheetId="5" r:id="rId3"/>
     <sheet name="Daily-Marketing-Plan" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="273">
   <si>
     <t>Student Name</t>
   </si>
@@ -942,13 +951,19 @@
   </si>
   <si>
     <t>All Subjects</t>
+  </si>
+  <si>
+    <t>Sathi</t>
+  </si>
+  <si>
+    <t>MS OFFICE &amp; Spoken English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1014,30 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="5">
@@ -1065,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1119,14 +1158,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1134,43 +1167,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,1149 +1566,1269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="27" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="29" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:29" ht="26.4">
+      <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:29">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="34">
         <v>45244</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:29" ht="14.4" customHeight="1">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="40">
         <v>45246</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28">
+      <c r="D3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:29" s="24" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="45">
         <v>45246</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="50" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" customHeight="1">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="40">
         <v>45246</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:29">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="34">
         <v>45246</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="38" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:29">
+      <c r="A7" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="34">
         <v>45246</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="38" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:29">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="34">
         <v>45246</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="38" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:29">
+      <c r="A9" s="55">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="34">
         <v>45246</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="38" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:29">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="34">
         <v>45246</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="34">
         <v>45246</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:29" s="24" customFormat="1">
+      <c r="A12" s="51">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="45">
+        <v>45254</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="51" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" s="24" customFormat="1">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45">
+        <v>45254</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="B14" s="1"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="B16" s="1"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" s="1"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20" s="1"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="1"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24" s="1"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" s="1"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28" s="1"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30" s="1"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="1"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34" s="1"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="1"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="B38" s="1"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="B40" s="1"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="B42" s="1"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="B44" s="1"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="B46" s="1"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="B48" s="1"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" s="1"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" s="1"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="24"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" s="1"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="24"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" s="1"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
-      <c r="C57"/>
+      <c r="C57" s="27"/>
       <c r="D57"/>
       <c r="F57" s="7"/>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="B58" s="9"/>
-      <c r="C58"/>
+      <c r="C58" s="27"/>
       <c r="D58"/>
       <c r="F58" s="7"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
-      <c r="C59"/>
+      <c r="C59" s="27"/>
       <c r="D59"/>
       <c r="F59" s="7"/>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="B60" s="9"/>
-      <c r="C60"/>
+      <c r="C60" s="27"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
-      <c r="C61"/>
+      <c r="C61" s="27"/>
       <c r="D61"/>
       <c r="F61" s="7"/>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="B62" s="9"/>
-      <c r="C62"/>
+      <c r="C62" s="27"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
-      <c r="C63"/>
+      <c r="C63" s="27"/>
       <c r="D63"/>
       <c r="F63" s="7"/>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="B64" s="9"/>
-      <c r="C64"/>
+      <c r="C64" s="27"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
-      <c r="C65"/>
+      <c r="C65" s="27"/>
       <c r="D65"/>
       <c r="F65" s="7"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="B66" s="9"/>
-      <c r="C66"/>
+      <c r="C66" s="27"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
-      <c r="C67"/>
+      <c r="C67" s="27"/>
       <c r="D67"/>
       <c r="F67" s="7"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="B68" s="9"/>
-      <c r="C68"/>
+      <c r="C68" s="27"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
-      <c r="C69"/>
+      <c r="C69" s="27"/>
       <c r="D69"/>
       <c r="F69" s="7"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="B70" s="9"/>
-      <c r="C70"/>
+      <c r="C70" s="27"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
-      <c r="C71"/>
+      <c r="C71" s="27"/>
       <c r="D71"/>
       <c r="F71" s="7"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="B72" s="9"/>
-      <c r="C72"/>
+      <c r="C72" s="27"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
-      <c r="C73"/>
+      <c r="C73" s="27"/>
       <c r="D73"/>
       <c r="F73" s="7"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="B74" s="9"/>
-      <c r="C74"/>
+      <c r="C74" s="27"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
-      <c r="C75"/>
+      <c r="C75" s="27"/>
       <c r="D75"/>
       <c r="F75" s="7"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="B76" s="9"/>
-      <c r="C76"/>
+      <c r="C76" s="27"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
-      <c r="C77"/>
+      <c r="C77" s="27"/>
       <c r="D77"/>
       <c r="F77" s="7"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="B78" s="9"/>
-      <c r="C78"/>
+      <c r="C78" s="27"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
-      <c r="C79"/>
+      <c r="C79" s="27"/>
       <c r="D79"/>
       <c r="F79" s="7"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="B80" s="9"/>
-      <c r="C80"/>
+      <c r="C80" s="27"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
-      <c r="C81"/>
+      <c r="C81" s="27"/>
       <c r="D81"/>
       <c r="F81" s="7"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="B82" s="9"/>
-      <c r="C82"/>
+      <c r="C82" s="27"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
-      <c r="C83"/>
+      <c r="C83" s="27"/>
       <c r="D83"/>
       <c r="F83" s="7"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="B84" s="9"/>
-      <c r="C84"/>
+      <c r="C84" s="27"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
-      <c r="C85"/>
+      <c r="C85" s="27"/>
       <c r="D85"/>
       <c r="F85" s="7"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="B86" s="9"/>
-      <c r="C86"/>
+      <c r="C86" s="27"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
-      <c r="C87"/>
+      <c r="C87" s="27"/>
       <c r="D87"/>
       <c r="F87" s="7"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="B88" s="9"/>
-      <c r="C88"/>
+      <c r="C88" s="27"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
-      <c r="C89"/>
+      <c r="C89" s="27"/>
       <c r="D89"/>
       <c r="F89" s="7"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="B90" s="9"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="28"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="11"/>
+      <c r="C91" s="28"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="B92" s="9"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="28"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="28"/>
       <c r="D93"/>
       <c r="F93" s="7"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="B94" s="9"/>
-      <c r="C94"/>
+      <c r="C94" s="27"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
-      <c r="C95"/>
+      <c r="C95" s="27"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="B96" s="9"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="28"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="28"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="B98" s="9"/>
-      <c r="C98"/>
+      <c r="C98" s="27"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
-      <c r="C99"/>
+      <c r="C99" s="27"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="B100" s="9"/>
-      <c r="C100"/>
+      <c r="C100" s="27"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
-      <c r="C101"/>
+      <c r="C101" s="27"/>
       <c r="D101"/>
       <c r="F101" s="7"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="B102" s="9"/>
-      <c r="C102"/>
+      <c r="C102" s="27"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
-      <c r="C103"/>
+      <c r="C103" s="27"/>
       <c r="D103"/>
       <c r="F103" s="7"/>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="B104" s="9"/>
-      <c r="C104"/>
+      <c r="C104" s="27"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
-      <c r="C105"/>
+      <c r="C105" s="27"/>
       <c r="D105"/>
       <c r="F105" s="7"/>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="B106" s="9"/>
-      <c r="C106"/>
+      <c r="C106" s="27"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
-      <c r="C107"/>
+      <c r="C107" s="27"/>
       <c r="D107"/>
       <c r="F107" s="7"/>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="B108" s="9"/>
-      <c r="C108"/>
+      <c r="C108" s="27"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
-      <c r="C109"/>
+      <c r="C109" s="27"/>
       <c r="D109"/>
       <c r="F109" s="7"/>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="B110" s="9"/>
-      <c r="C110"/>
+      <c r="C110" s="27"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
-      <c r="C111"/>
+      <c r="C111" s="27"/>
       <c r="D111"/>
       <c r="F111" s="7"/>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="B112" s="9"/>
-      <c r="C112"/>
+      <c r="C112" s="27"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
-      <c r="C113"/>
+      <c r="C113" s="27"/>
       <c r="D113"/>
       <c r="F113" s="7"/>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="B114" s="9"/>
-      <c r="C114"/>
+      <c r="C114" s="27"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
-      <c r="C115"/>
+      <c r="C115" s="27"/>
       <c r="D115"/>
       <c r="F115" s="7"/>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="B116" s="9"/>
-      <c r="C116"/>
+      <c r="C116" s="27"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
-      <c r="C117"/>
+      <c r="C117" s="27"/>
       <c r="D117"/>
       <c r="F117" s="7"/>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="B118" s="9"/>
-      <c r="C118"/>
+      <c r="C118" s="27"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
-      <c r="C119"/>
+      <c r="C119" s="27"/>
       <c r="D119"/>
       <c r="F119" s="7"/>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="B120" s="9"/>
-      <c r="C120"/>
+      <c r="C120" s="27"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
-      <c r="C121"/>
+      <c r="C121" s="27"/>
       <c r="D121"/>
       <c r="F121" s="7"/>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="B122" s="9"/>
-      <c r="C122"/>
+      <c r="C122" s="27"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
-      <c r="C123"/>
+      <c r="C123" s="27"/>
       <c r="D123"/>
       <c r="F123" s="7"/>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="B124" s="9"/>
-      <c r="C124"/>
+      <c r="C124" s="27"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
-      <c r="C125"/>
+      <c r="C125" s="27"/>
       <c r="D125"/>
       <c r="F125" s="7"/>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="B126" s="9"/>
-      <c r="C126"/>
+      <c r="C126" s="27"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
-      <c r="C127"/>
+      <c r="C127" s="27"/>
       <c r="D127"/>
       <c r="F127" s="7"/>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="B128" s="9"/>
-      <c r="C128"/>
+      <c r="C128" s="27"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
-      <c r="C129"/>
+      <c r="C129" s="27"/>
       <c r="D129"/>
       <c r="F129" s="7"/>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="B130" s="9"/>
-      <c r="C130"/>
+      <c r="C130" s="27"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
-      <c r="C131"/>
+      <c r="C131" s="27"/>
       <c r="D131"/>
       <c r="F131" s="7"/>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="B132" s="9"/>
-      <c r="C132"/>
+      <c r="C132" s="27"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
-      <c r="C133"/>
+      <c r="C133" s="27"/>
       <c r="D133"/>
       <c r="F133" s="7"/>
       <c r="I133"/>
@@ -2649,7 +2850,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -2660,10 +2861,10 @@
     <col min="7" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24">
       <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
@@ -2701,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2722,7 +2923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2743,7 +2944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2764,7 +2965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2785,7 +2986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.4" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2806,7 +3007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2826,7 +3027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2846,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2866,7 +3067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2886,7 +3087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2906,7 +3107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2926,7 +3127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2944,7 +3145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2964,7 +3165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2984,7 +3185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3004,7 +3205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3024,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3044,7 +3245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3064,7 +3265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3084,7 +3285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3104,7 +3305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3124,7 +3325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3144,7 +3345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3164,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3184,7 +3385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3204,7 +3405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3224,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3244,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3264,7 +3465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3284,7 +3485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3304,7 +3505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3324,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3344,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3364,7 +3565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3384,7 +3585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3404,7 +3605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3424,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3444,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -3464,7 +3665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3484,7 +3685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -3504,7 +3705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3524,7 +3725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -3544,7 +3745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3564,7 +3765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -3584,7 +3785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3604,7 +3805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -3624,7 +3825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3644,7 +3845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -3664,7 +3865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3684,7 +3885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -3704,7 +3905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3724,7 +3925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -3744,7 +3945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3764,7 +3965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3784,7 +3985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3804,7 +4005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3824,7 +4025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3845,7 +4046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -3860,7 +4061,7 @@
       </c>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3880,7 +4081,7 @@
       </c>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -3900,7 +4101,7 @@
       </c>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3921,7 +4122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3937,7 +4138,7 @@
       <c r="F63"/>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3953,7 +4154,7 @@
       <c r="F64"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3967,7 +4168,7 @@
       <c r="F65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3983,7 +4184,7 @@
       <c r="F66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -4001,7 +4202,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4017,7 +4218,7 @@
       <c r="F68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -4033,7 +4234,7 @@
       <c r="F69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4049,7 +4250,7 @@
       <c r="F70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -4065,7 +4266,7 @@
       <c r="F71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4083,7 +4284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -4099,7 +4300,7 @@
       <c r="F73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4120,7 +4321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -4141,7 +4342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4162,7 +4363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -4181,7 +4382,7 @@
       </c>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4200,7 +4401,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -4219,7 +4420,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4238,7 +4439,7 @@
       </c>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -4257,7 +4458,7 @@
       </c>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4276,7 +4477,7 @@
       </c>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -4295,7 +4496,7 @@
       </c>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4314,7 +4515,7 @@
       </c>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -4333,7 +4534,7 @@
       </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4352,7 +4553,7 @@
       </c>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -4371,7 +4572,7 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4390,7 +4591,7 @@
       </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -4409,7 +4610,7 @@
       </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4428,7 +4629,7 @@
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -4447,7 +4648,7 @@
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4466,7 +4667,7 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -4485,7 +4686,7 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4504,7 +4705,7 @@
       </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -4523,7 +4724,7 @@
       </c>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4542,7 +4743,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -4561,7 +4762,7 @@
       </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4580,7 +4781,7 @@
       </c>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -4599,7 +4800,7 @@
       </c>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4618,7 +4819,7 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4637,7 +4838,7 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4656,7 +4857,7 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -4675,7 +4876,7 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4694,7 +4895,7 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -4713,7 +4914,7 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4732,7 +4933,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -4751,7 +4952,7 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4770,7 +4971,7 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4789,7 +4990,7 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4808,7 +5009,7 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4827,7 +5028,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4846,7 +5047,7 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4865,7 +5066,7 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4884,7 +5085,7 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4903,7 +5104,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4922,7 +5123,7 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4941,7 +5142,7 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4960,7 +5161,7 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -4979,7 +5180,7 @@
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4998,7 +5199,7 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -5017,7 +5218,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5036,7 +5237,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -5055,7 +5256,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5074,7 +5275,7 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -5093,7 +5294,7 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5112,7 +5313,7 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -5131,7 +5332,7 @@
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5150,7 +5351,7 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -5169,7 +5370,7 @@
       </c>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5188,7 +5389,7 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -5207,7 +5408,7 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5226,7 +5427,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5245,7 +5446,7 @@
       </c>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5277,19 +5478,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="12"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -5297,7 +5498,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="12"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5308,7 +5509,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
         <v>104</v>
       </c>
@@ -5321,7 +5522,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5338,7 +5539,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5355,7 +5556,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5372,7 +5573,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5389,7 +5590,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5406,7 +5607,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5423,7 +5624,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5440,7 +5641,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5457,7 +5658,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -5472,7 +5673,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="12"/>
       <c r="B13" s="14" t="s">
         <v>182</v>
@@ -5487,7 +5688,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
         <v>181</v>
@@ -5502,7 +5703,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
         <v>177</v>
@@ -5517,7 +5718,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
         <v>180</v>
@@ -5532,7 +5733,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="14" t="s">
         <v>183</v>
@@ -5547,7 +5748,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="12">
         <v>10</v>
       </c>
@@ -5564,7 +5765,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="12">
         <v>11</v>
       </c>
@@ -5581,7 +5782,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="12">
         <v>12</v>
       </c>
@@ -5598,7 +5799,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -5611,7 +5812,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="12">
         <v>13</v>
       </c>
@@ -5628,7 +5829,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -5645,7 +5846,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="12">
         <v>15</v>
       </c>
@@ -5662,7 +5863,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -5675,7 +5876,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -5688,7 +5889,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -5701,7 +5902,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="12">
         <v>16</v>
       </c>
@@ -5718,7 +5919,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5729,7 +5930,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5756,7 +5957,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC8EA28-DA00-4927-B1B4-1A90D446A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9E37F-C966-4E08-BF18-BCB0F82DE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Mock Test for Mathematics will be on 26th November 2023 at Anodiam premise at 12 PM. Duration is 2 hours
+Mock Test for Mathematics will be on 02 December 2023 at Anodiam premise at 12 PM. Duration is 2 hours
 Location in Google maps sent in whatsapp
 Confirmed For Mock Test</t>
         </r>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1168,9 +1168,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1251,7 +1248,9 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,455 +1568,454 @@
   <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="27" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="29" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>45244</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:29" ht="14.4" customHeight="1">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>45246</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41">
+      <c r="D3" s="38"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="42" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="24" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A4" s="51">
+      <c r="A4" s="50">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>45246</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="14.4" customHeight="1">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>45246</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="52" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="42" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>45246</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="33" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="55">
+      <c r="A7" s="54">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>45246</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="33" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>45246</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="55">
+      <c r="A9" s="54">
         <v>8</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>45246</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="53" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="33" t="s">
+      <c r="J9" s="37"/>
+      <c r="K9" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>45246</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="55">
+      <c r="A11" s="54">
         <v>10</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>45246</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:29" s="24" customFormat="1">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>11</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>45254</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="46" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
     </row>
     <row r="13" spans="1:29" s="24" customFormat="1">
-      <c r="A13" s="51">
+      <c r="A13" s="50">
         <v>12</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>45254</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="1"/>
@@ -2258,14 +2256,14 @@
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="26"/>
       <c r="D57"/>
       <c r="F57" s="7"/>
       <c r="I57"/>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="9"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="26"/>
       <c r="D58"/>
       <c r="F58" s="7"/>
       <c r="I58"/>
@@ -2273,14 +2271,14 @@
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="26"/>
       <c r="D59"/>
       <c r="F59" s="7"/>
       <c r="I59"/>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="9"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="26"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
       <c r="I60"/>
@@ -2288,14 +2286,14 @@
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="26"/>
       <c r="D61"/>
       <c r="F61" s="7"/>
       <c r="I61"/>
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="9"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="26"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
       <c r="I62"/>
@@ -2303,14 +2301,14 @@
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="26"/>
       <c r="D63"/>
       <c r="F63" s="7"/>
       <c r="I63"/>
     </row>
     <row r="64" spans="1:9">
       <c r="B64" s="9"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="26"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
       <c r="I64"/>
@@ -2318,14 +2316,14 @@
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="26"/>
       <c r="D65"/>
       <c r="F65" s="7"/>
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9">
       <c r="B66" s="9"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="26"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
       <c r="I66"/>
@@ -2333,14 +2331,14 @@
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="27"/>
+      <c r="C67" s="26"/>
       <c r="D67"/>
       <c r="F67" s="7"/>
       <c r="I67"/>
     </row>
     <row r="68" spans="1:9">
       <c r="B68" s="9"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="26"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
       <c r="I68"/>
@@ -2348,14 +2346,14 @@
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="26"/>
       <c r="D69"/>
       <c r="F69" s="7"/>
       <c r="I69"/>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="9"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="26"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
       <c r="I70"/>
@@ -2363,14 +2361,14 @@
     <row r="71" spans="1:9">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="27"/>
+      <c r="C71" s="26"/>
       <c r="D71"/>
       <c r="F71" s="7"/>
       <c r="I71"/>
     </row>
     <row r="72" spans="1:9">
       <c r="B72" s="9"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="26"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
       <c r="I72"/>
@@ -2378,14 +2376,14 @@
     <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="27"/>
+      <c r="C73" s="26"/>
       <c r="D73"/>
       <c r="F73" s="7"/>
       <c r="I73"/>
     </row>
     <row r="74" spans="1:9">
       <c r="B74" s="9"/>
-      <c r="C74" s="27"/>
+      <c r="C74" s="26"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
       <c r="I74"/>
@@ -2393,14 +2391,14 @@
     <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="27"/>
+      <c r="C75" s="26"/>
       <c r="D75"/>
       <c r="F75" s="7"/>
       <c r="I75"/>
     </row>
     <row r="76" spans="1:9">
       <c r="B76" s="9"/>
-      <c r="C76" s="27"/>
+      <c r="C76" s="26"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
       <c r="I76"/>
@@ -2408,14 +2406,14 @@
     <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="27"/>
+      <c r="C77" s="26"/>
       <c r="D77"/>
       <c r="F77" s="7"/>
       <c r="I77"/>
     </row>
     <row r="78" spans="1:9">
       <c r="B78" s="9"/>
-      <c r="C78" s="27"/>
+      <c r="C78" s="26"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
       <c r="I78"/>
@@ -2423,14 +2421,14 @@
     <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="27"/>
+      <c r="C79" s="26"/>
       <c r="D79"/>
       <c r="F79" s="7"/>
       <c r="I79"/>
     </row>
     <row r="80" spans="1:9">
       <c r="B80" s="9"/>
-      <c r="C80" s="27"/>
+      <c r="C80" s="26"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
       <c r="I80"/>
@@ -2438,14 +2436,14 @@
     <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="27"/>
+      <c r="C81" s="26"/>
       <c r="D81"/>
       <c r="F81" s="7"/>
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9">
       <c r="B82" s="9"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="26"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
       <c r="I82"/>
@@ -2453,14 +2451,14 @@
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="27"/>
+      <c r="C83" s="26"/>
       <c r="D83"/>
       <c r="F83" s="7"/>
       <c r="I83"/>
     </row>
     <row r="84" spans="1:9">
       <c r="B84" s="9"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="26"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
       <c r="I84"/>
@@ -2468,14 +2466,14 @@
     <row r="85" spans="1:9">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="27"/>
+      <c r="C85" s="26"/>
       <c r="D85"/>
       <c r="F85" s="7"/>
       <c r="I85"/>
     </row>
     <row r="86" spans="1:9">
       <c r="B86" s="9"/>
-      <c r="C86" s="27"/>
+      <c r="C86" s="26"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
       <c r="I86"/>
@@ -2483,14 +2481,14 @@
     <row r="87" spans="1:9">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="27"/>
+      <c r="C87" s="26"/>
       <c r="D87"/>
       <c r="F87" s="7"/>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9">
       <c r="B88" s="9"/>
-      <c r="C88" s="27"/>
+      <c r="C88" s="26"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
       <c r="I88"/>
@@ -2498,14 +2496,14 @@
     <row r="89" spans="1:9">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="26"/>
       <c r="D89"/>
       <c r="F89" s="7"/>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:9">
       <c r="B90" s="9"/>
-      <c r="C90" s="28"/>
+      <c r="C90" s="27"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
       <c r="I90"/>
@@ -2513,14 +2511,14 @@
     <row r="91" spans="1:9">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="28"/>
+      <c r="C91" s="27"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
       <c r="I91"/>
     </row>
     <row r="92" spans="1:9">
       <c r="B92" s="9"/>
-      <c r="C92" s="28"/>
+      <c r="C92" s="27"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
       <c r="I92"/>
@@ -2528,14 +2526,14 @@
     <row r="93" spans="1:9">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="28"/>
+      <c r="C93" s="27"/>
       <c r="D93"/>
       <c r="F93" s="7"/>
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9">
       <c r="B94" s="9"/>
-      <c r="C94" s="27"/>
+      <c r="C94" s="26"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
       <c r="I94"/>
@@ -2543,14 +2541,14 @@
     <row r="95" spans="1:9">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="27"/>
+      <c r="C95" s="26"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9">
       <c r="B96" s="9"/>
-      <c r="C96" s="28"/>
+      <c r="C96" s="27"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
       <c r="I96"/>
@@ -2558,14 +2556,14 @@
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="28"/>
+      <c r="C97" s="27"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
       <c r="I97"/>
     </row>
     <row r="98" spans="1:9">
       <c r="B98" s="9"/>
-      <c r="C98" s="27"/>
+      <c r="C98" s="26"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
       <c r="I98"/>
@@ -2573,14 +2571,14 @@
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="27"/>
+      <c r="C99" s="26"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
       <c r="I99"/>
     </row>
     <row r="100" spans="1:9">
       <c r="B100" s="9"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="26"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
       <c r="I100"/>
@@ -2588,14 +2586,14 @@
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="27"/>
+      <c r="C101" s="26"/>
       <c r="D101"/>
       <c r="F101" s="7"/>
       <c r="I101"/>
     </row>
     <row r="102" spans="1:9">
       <c r="B102" s="9"/>
-      <c r="C102" s="27"/>
+      <c r="C102" s="26"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
       <c r="I102"/>
@@ -2603,14 +2601,14 @@
     <row r="103" spans="1:9">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="27"/>
+      <c r="C103" s="26"/>
       <c r="D103"/>
       <c r="F103" s="7"/>
       <c r="I103"/>
     </row>
     <row r="104" spans="1:9">
       <c r="B104" s="9"/>
-      <c r="C104" s="27"/>
+      <c r="C104" s="26"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
       <c r="I104"/>
@@ -2618,14 +2616,14 @@
     <row r="105" spans="1:9">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="27"/>
+      <c r="C105" s="26"/>
       <c r="D105"/>
       <c r="F105" s="7"/>
       <c r="I105"/>
     </row>
     <row r="106" spans="1:9">
       <c r="B106" s="9"/>
-      <c r="C106" s="27"/>
+      <c r="C106" s="26"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
       <c r="I106"/>
@@ -2633,14 +2631,14 @@
     <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="27"/>
+      <c r="C107" s="26"/>
       <c r="D107"/>
       <c r="F107" s="7"/>
       <c r="I107"/>
     </row>
     <row r="108" spans="1:9">
       <c r="B108" s="9"/>
-      <c r="C108" s="27"/>
+      <c r="C108" s="26"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
       <c r="I108"/>
@@ -2648,14 +2646,14 @@
     <row r="109" spans="1:9">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="27"/>
+      <c r="C109" s="26"/>
       <c r="D109"/>
       <c r="F109" s="7"/>
       <c r="I109"/>
     </row>
     <row r="110" spans="1:9">
       <c r="B110" s="9"/>
-      <c r="C110" s="27"/>
+      <c r="C110" s="26"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
       <c r="I110"/>
@@ -2663,14 +2661,14 @@
     <row r="111" spans="1:9">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="27"/>
+      <c r="C111" s="26"/>
       <c r="D111"/>
       <c r="F111" s="7"/>
       <c r="I111"/>
     </row>
     <row r="112" spans="1:9">
       <c r="B112" s="9"/>
-      <c r="C112" s="27"/>
+      <c r="C112" s="26"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
       <c r="I112"/>
@@ -2678,14 +2676,14 @@
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="27"/>
+      <c r="C113" s="26"/>
       <c r="D113"/>
       <c r="F113" s="7"/>
       <c r="I113"/>
     </row>
     <row r="114" spans="1:9">
       <c r="B114" s="9"/>
-      <c r="C114" s="27"/>
+      <c r="C114" s="26"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
       <c r="I114"/>
@@ -2693,14 +2691,14 @@
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="27"/>
+      <c r="C115" s="26"/>
       <c r="D115"/>
       <c r="F115" s="7"/>
       <c r="I115"/>
     </row>
     <row r="116" spans="1:9">
       <c r="B116" s="9"/>
-      <c r="C116" s="27"/>
+      <c r="C116" s="26"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
       <c r="I116"/>
@@ -2708,14 +2706,14 @@
     <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="27"/>
+      <c r="C117" s="26"/>
       <c r="D117"/>
       <c r="F117" s="7"/>
       <c r="I117"/>
     </row>
     <row r="118" spans="1:9">
       <c r="B118" s="9"/>
-      <c r="C118" s="27"/>
+      <c r="C118" s="26"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
       <c r="I118"/>
@@ -2723,14 +2721,14 @@
     <row r="119" spans="1:9">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="26"/>
       <c r="D119"/>
       <c r="F119" s="7"/>
       <c r="I119"/>
     </row>
     <row r="120" spans="1:9">
       <c r="B120" s="9"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="26"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
       <c r="I120"/>
@@ -2738,14 +2736,14 @@
     <row r="121" spans="1:9">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
-      <c r="C121" s="27"/>
+      <c r="C121" s="26"/>
       <c r="D121"/>
       <c r="F121" s="7"/>
       <c r="I121"/>
     </row>
     <row r="122" spans="1:9">
       <c r="B122" s="9"/>
-      <c r="C122" s="27"/>
+      <c r="C122" s="26"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
       <c r="I122"/>
@@ -2753,14 +2751,14 @@
     <row r="123" spans="1:9">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
-      <c r="C123" s="27"/>
+      <c r="C123" s="26"/>
       <c r="D123"/>
       <c r="F123" s="7"/>
       <c r="I123"/>
     </row>
     <row r="124" spans="1:9">
       <c r="B124" s="9"/>
-      <c r="C124" s="27"/>
+      <c r="C124" s="26"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
       <c r="I124"/>
@@ -2768,14 +2766,14 @@
     <row r="125" spans="1:9">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
-      <c r="C125" s="27"/>
+      <c r="C125" s="26"/>
       <c r="D125"/>
       <c r="F125" s="7"/>
       <c r="I125"/>
     </row>
     <row r="126" spans="1:9">
       <c r="B126" s="9"/>
-      <c r="C126" s="27"/>
+      <c r="C126" s="26"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
       <c r="I126"/>
@@ -2783,14 +2781,14 @@
     <row r="127" spans="1:9">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
-      <c r="C127" s="27"/>
+      <c r="C127" s="26"/>
       <c r="D127"/>
       <c r="F127" s="7"/>
       <c r="I127"/>
     </row>
     <row r="128" spans="1:9">
       <c r="B128" s="9"/>
-      <c r="C128" s="27"/>
+      <c r="C128" s="26"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
       <c r="I128"/>
@@ -2798,14 +2796,14 @@
     <row r="129" spans="1:9">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
-      <c r="C129" s="27"/>
+      <c r="C129" s="26"/>
       <c r="D129"/>
       <c r="F129" s="7"/>
       <c r="I129"/>
     </row>
     <row r="130" spans="1:9">
       <c r="B130" s="9"/>
-      <c r="C130" s="27"/>
+      <c r="C130" s="26"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
       <c r="I130"/>
@@ -2813,14 +2811,14 @@
     <row r="131" spans="1:9">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
-      <c r="C131" s="27"/>
+      <c r="C131" s="26"/>
       <c r="D131"/>
       <c r="F131" s="7"/>
       <c r="I131"/>
     </row>
     <row r="132" spans="1:9">
       <c r="B132" s="9"/>
-      <c r="C132" s="27"/>
+      <c r="C132" s="26"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
       <c r="I132"/>
@@ -2828,7 +2826,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="27"/>
+      <c r="C133" s="26"/>
       <c r="D133"/>
       <c r="F133" s="7"/>
       <c r="I133"/>
@@ -5487,10 +5485,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9E37F-C966-4E08-BF18-BCB0F82DE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Seminar-Plan" sheetId="5" r:id="rId3"/>
     <sheet name="Daily-Marketing-Plan" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
     <author>del</author>
@@ -49,16 +48,25 @@
     <author>tc={58FDE46B-717B-46FD-8359-F3C0EFFF690C}</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,53 +92,107 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="2" shapeId="0" xr:uid="{E2877E5E-C5FC-48C7-91A7-9E60C028C722}">
+    <comment ref="K4" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="3" shapeId="0" xr:uid="{566A0D87-5B70-4568-95BC-4D1E089F500C}">
+    <comment ref="K5" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Guardian will visit to Anodiam.
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="4" shapeId="0" xr:uid="{3991FF0C-D02C-4CF6-B54A-BE6A85F284B9}">
+    <comment ref="K6" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="5" shapeId="0" xr:uid="{05082A02-598E-41F9-A5E0-87BA7ABA0B6A}">
+    <comment ref="K7" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="6" shapeId="0" xr:uid="{19A57DC7-0D01-4D8A-9629-B79D946B8EE8}">
+    <comment ref="K8" authorId="6" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="7" shapeId="0" xr:uid="{58FDE46B-717B-46FD-8359-F3C0EFFF690C}">
+    <comment ref="K9" authorId="7" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -138,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="295">
   <si>
     <t>Student Name</t>
   </si>
@@ -957,12 +1019,78 @@
   </si>
   <si>
     <t>MS OFFICE &amp; Spoken English</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>9830707027</t>
+  </si>
+  <si>
+    <t>Adrij (Class 9)</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>8910404842</t>
+  </si>
+  <si>
+    <t>Well and Gouldsmith</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Dipshikha(class 9)</t>
+  </si>
+  <si>
+    <t>Prosanta Achariya</t>
+  </si>
+  <si>
+    <t>9830380511</t>
+  </si>
+  <si>
+    <t>General Subject</t>
+  </si>
+  <si>
+    <t>Maharishi</t>
+  </si>
+  <si>
+    <t>Ritobroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AI and General subject</t>
+  </si>
+  <si>
+    <t>Utso</t>
+  </si>
+  <si>
+    <t>Triloknath</t>
+  </si>
+  <si>
+    <t>9433415786A</t>
+  </si>
+  <si>
+    <t>AI and Commerce</t>
+  </si>
+  <si>
+    <t>well and Gouldsmith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1564,29 +1692,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="25" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="29.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="21" customWidth="1"/>
+    <col min="8" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="26.4">
+    <row r="1" spans="1:30" ht="38.25">
       <c r="A1" s="28" t="s">
         <v>103</v>
       </c>
@@ -1605,26 +1734,29 @@
       <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -1639,16 +1771,17 @@
       <c r="F2" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.4" customHeight="1">
+      <c r="I2" s="37"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:30" ht="14.45" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -1663,24 +1796,25 @@
       <c r="F3" s="40">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="M3" s="42" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="24" customFormat="1" ht="14.4" customHeight="1">
+    <row r="4" spans="1:30" s="24" customFormat="1" ht="14.45" customHeight="1">
       <c r="A4" s="50">
         <v>3</v>
       </c>
@@ -1695,23 +1829,23 @@
       <c r="F4" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="J4" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="M4" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -1728,8 +1862,9 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" customHeight="1">
+      <c r="AD4"/>
+    </row>
+    <row r="5" spans="1:30" ht="14.45" customHeight="1">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -1744,24 +1879,25 @@
       <c r="F5" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="M5" s="42" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -1776,24 +1912,25 @@
       <c r="F6" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="J6" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="54">
         <v>6</v>
       </c>
@@ -1808,24 +1945,25 @@
       <c r="F7" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="I7" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="J7" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="M7" s="37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -1840,24 +1978,25 @@
       <c r="F8" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="I8" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="37"/>
+      <c r="L8" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="54">
         <v>8</v>
       </c>
@@ -1872,20 +2011,21 @@
       <c r="F9" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="M9" s="37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="32">
         <v>9</v>
       </c>
@@ -1898,14 +2038,15 @@
       <c r="D10" s="35"/>
       <c r="E10" s="34"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="I10" s="37"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="54">
         <v>10</v>
       </c>
@@ -1918,14 +2059,15 @@
       <c r="D11" s="35"/>
       <c r="E11" s="34"/>
       <c r="F11" s="53"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:29" s="24" customFormat="1">
+      <c r="I11" s="37"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:30" s="24" customFormat="1">
       <c r="A12" s="50">
         <v>11</v>
       </c>
@@ -1940,23 +2082,23 @@
       <c r="F12" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="J12" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="K12" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="L12" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="M12" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -1973,8 +2115,9 @@
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:29" s="24" customFormat="1">
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:30" s="24" customFormat="1">
       <c r="A13" s="50">
         <v>12</v>
       </c>
@@ -1985,21 +2128,21 @@
       <c r="D13" s="55"/>
       <c r="E13" s="45"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="J13" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="M13" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -2016,820 +2159,1042 @@
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="B14" s="1"/>
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>276</v>
+      </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="B16" s="1"/>
+      <c r="F14" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9433635023</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="G16" s="22"/>
+      <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6291747759</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="1"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="8">
+        <v>9007337237</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="1"/>
+      <c r="G19" s="22"/>
+      <c r="J19" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7890924561</v>
+      </c>
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G20" s="22"/>
+      <c r="J20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22" s="1"/>
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="20"/>
       <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="B24" s="1"/>
       <c r="E24" s="20"/>
       <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="20"/>
       <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="B26" s="1"/>
       <c r="E26" s="20"/>
       <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="20"/>
       <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="B28" s="1"/>
       <c r="E28" s="20"/>
       <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="B30" s="1"/>
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32" s="1"/>
       <c r="E32" s="20"/>
       <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="B34" s="1"/>
       <c r="E34" s="20"/>
       <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="E35" s="20"/>
       <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="E38" s="20"/>
       <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="E39" s="20"/>
       <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40" s="1"/>
       <c r="E40" s="20"/>
       <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="E41" s="20"/>
       <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="E42" s="20"/>
       <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="E43" s="20"/>
       <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="1"/>
       <c r="E44" s="20"/>
       <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="E45" s="20"/>
       <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="B46" s="1"/>
       <c r="E46" s="20"/>
       <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="E47" s="20"/>
       <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="B48" s="1"/>
       <c r="E48" s="20"/>
       <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="E49" s="20"/>
       <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="B50" s="1"/>
       <c r="E50" s="20"/>
       <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="20"/>
       <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="B52" s="1"/>
       <c r="E52" s="20"/>
       <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="E53" s="20"/>
       <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="B54" s="1"/>
       <c r="E54" s="20"/>
       <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="E55" s="20"/>
       <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="B56" s="1"/>
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
       <c r="C57" s="26"/>
       <c r="D57"/>
       <c r="F57" s="7"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="G57" s="7"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="B58" s="9"/>
       <c r="C58" s="26"/>
       <c r="D58"/>
       <c r="F58" s="7"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="G58" s="7"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
       <c r="C59" s="26"/>
       <c r="D59"/>
       <c r="F59" s="7"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" s="7"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="B60" s="9"/>
       <c r="C60" s="26"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="G60" s="7"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
       <c r="C61" s="26"/>
       <c r="D61"/>
       <c r="F61" s="7"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" s="7"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="B62" s="9"/>
       <c r="C62" s="26"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="G62" s="7"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
       <c r="C63" s="26"/>
       <c r="D63"/>
       <c r="F63" s="7"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="G63" s="7"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="B64" s="9"/>
       <c r="C64" s="26"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="G64" s="7"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
       <c r="C65" s="26"/>
       <c r="D65"/>
       <c r="F65" s="7"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="G65" s="7"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="B66" s="9"/>
       <c r="C66" s="26"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="G66" s="7"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67" s="26"/>
       <c r="D67"/>
       <c r="F67" s="7"/>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="G67" s="7"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="B68" s="9"/>
       <c r="C68" s="26"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="G68" s="7"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
       <c r="C69" s="26"/>
       <c r="D69"/>
       <c r="F69" s="7"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="G69" s="7"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="B70" s="9"/>
       <c r="C70" s="26"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="G70" s="7"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
       <c r="C71" s="26"/>
       <c r="D71"/>
       <c r="F71" s="7"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="G71" s="7"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="B72" s="9"/>
       <c r="C72" s="26"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="G72" s="7"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
       <c r="C73" s="26"/>
       <c r="D73"/>
       <c r="F73" s="7"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="G73" s="7"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="B74" s="9"/>
       <c r="C74" s="26"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="G74" s="7"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
       <c r="C75" s="26"/>
       <c r="D75"/>
       <c r="F75" s="7"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="G75" s="7"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="B76" s="9"/>
       <c r="C76" s="26"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="G76" s="7"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
       <c r="C77" s="26"/>
       <c r="D77"/>
       <c r="F77" s="7"/>
-      <c r="I77"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="G77" s="7"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="B78" s="9"/>
       <c r="C78" s="26"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
-      <c r="I78"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="G78" s="7"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
       <c r="C79" s="26"/>
       <c r="D79"/>
       <c r="F79" s="7"/>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="G79" s="7"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="B80" s="9"/>
       <c r="C80" s="26"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="G80" s="7"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
       <c r="C81" s="26"/>
       <c r="D81"/>
       <c r="F81" s="7"/>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="G81" s="7"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="B82" s="9"/>
       <c r="C82" s="26"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="G82" s="7"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
       <c r="C83" s="26"/>
       <c r="D83"/>
       <c r="F83" s="7"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="G83" s="7"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="B84" s="9"/>
       <c r="C84" s="26"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="G84" s="7"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
       <c r="C85" s="26"/>
       <c r="D85"/>
       <c r="F85" s="7"/>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="G85" s="7"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="B86" s="9"/>
       <c r="C86" s="26"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="G86" s="7"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
       <c r="C87" s="26"/>
       <c r="D87"/>
       <c r="F87" s="7"/>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="G87" s="7"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="B88" s="9"/>
       <c r="C88" s="26"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
-      <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="G88" s="7"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
       <c r="C89" s="26"/>
       <c r="D89"/>
       <c r="F89" s="7"/>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="G89" s="7"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="B90" s="9"/>
       <c r="C90" s="27"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="G90" s="7"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
       <c r="C91" s="27"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="G91" s="7"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="B92" s="9"/>
       <c r="C92" s="27"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="G92" s="7"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
       <c r="C93" s="27"/>
       <c r="D93"/>
       <c r="F93" s="7"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="G93" s="7"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10">
       <c r="B94" s="9"/>
       <c r="C94" s="26"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="G94" s="7"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
       <c r="C95" s="26"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="G95" s="7"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10">
       <c r="B96" s="9"/>
       <c r="C96" s="27"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="G96" s="7"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
       <c r="C97" s="27"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="G97" s="7"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10">
       <c r="B98" s="9"/>
       <c r="C98" s="26"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="G98" s="7"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
       <c r="C99" s="26"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="G99" s="7"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="B100" s="9"/>
       <c r="C100" s="26"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="G100" s="7"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
       <c r="C101" s="26"/>
       <c r="D101"/>
       <c r="F101" s="7"/>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="G101" s="7"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="B102" s="9"/>
       <c r="C102" s="26"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="G102" s="7"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
       <c r="C103" s="26"/>
       <c r="D103"/>
       <c r="F103" s="7"/>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="G103" s="7"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="B104" s="9"/>
       <c r="C104" s="26"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="G104" s="7"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
       <c r="C105" s="26"/>
       <c r="D105"/>
       <c r="F105" s="7"/>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="G105" s="7"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10">
       <c r="B106" s="9"/>
       <c r="C106" s="26"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="G106" s="7"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
       <c r="C107" s="26"/>
       <c r="D107"/>
       <c r="F107" s="7"/>
-      <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="G107" s="7"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="B108" s="9"/>
       <c r="C108" s="26"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
-      <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="G108" s="7"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
       <c r="C109" s="26"/>
       <c r="D109"/>
       <c r="F109" s="7"/>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="G109" s="7"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="B110" s="9"/>
       <c r="C110" s="26"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
-      <c r="I110"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="G110" s="7"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
       <c r="C111" s="26"/>
       <c r="D111"/>
       <c r="F111" s="7"/>
-      <c r="I111"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="G111" s="7"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10">
       <c r="B112" s="9"/>
       <c r="C112" s="26"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
-      <c r="I112"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="G112" s="7"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
       <c r="C113" s="26"/>
       <c r="D113"/>
       <c r="F113" s="7"/>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="G113" s="7"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10">
       <c r="B114" s="9"/>
       <c r="C114" s="26"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
-      <c r="I114"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="G114" s="7"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
       <c r="C115" s="26"/>
       <c r="D115"/>
       <c r="F115" s="7"/>
-      <c r="I115"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="G115" s="7"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10">
       <c r="B116" s="9"/>
       <c r="C116" s="26"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
-      <c r="I116"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="G116" s="7"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
       <c r="C117" s="26"/>
       <c r="D117"/>
       <c r="F117" s="7"/>
-      <c r="I117"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="G117" s="7"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10">
       <c r="B118" s="9"/>
       <c r="C118" s="26"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
-      <c r="I118"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="G118" s="7"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
       <c r="C119" s="26"/>
       <c r="D119"/>
       <c r="F119" s="7"/>
-      <c r="I119"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="G119" s="7"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10">
       <c r="B120" s="9"/>
       <c r="C120" s="26"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
-      <c r="I120"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="G120" s="7"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
       <c r="C121" s="26"/>
       <c r="D121"/>
       <c r="F121" s="7"/>
-      <c r="I121"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="G121" s="7"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10">
       <c r="B122" s="9"/>
       <c r="C122" s="26"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
-      <c r="I122"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="G122" s="7"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
       <c r="C123" s="26"/>
       <c r="D123"/>
       <c r="F123" s="7"/>
-      <c r="I123"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="G123" s="7"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10">
       <c r="B124" s="9"/>
       <c r="C124" s="26"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
-      <c r="I124"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="G124" s="7"/>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
       <c r="C125" s="26"/>
       <c r="D125"/>
       <c r="F125" s="7"/>
-      <c r="I125"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="G125" s="7"/>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10">
       <c r="B126" s="9"/>
       <c r="C126" s="26"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
-      <c r="I126"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="G126" s="7"/>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
       <c r="C127" s="26"/>
       <c r="D127"/>
       <c r="F127" s="7"/>
-      <c r="I127"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="G127" s="7"/>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="B128" s="9"/>
       <c r="C128" s="26"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
-      <c r="I128"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="G128" s="7"/>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
       <c r="C129" s="26"/>
       <c r="D129"/>
       <c r="F129" s="7"/>
-      <c r="I129"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="G129" s="7"/>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10">
       <c r="B130" s="9"/>
       <c r="C130" s="26"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
-      <c r="I130"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="G130" s="7"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
       <c r="C131" s="26"/>
       <c r="D131"/>
       <c r="F131" s="7"/>
-      <c r="I131"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="G131" s="7"/>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10">
       <c r="B132" s="9"/>
       <c r="C132" s="26"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
-      <c r="I132"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="G132" s="7"/>
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
       <c r="C133" s="26"/>
       <c r="D133"/>
       <c r="F133" s="7"/>
-      <c r="I133"/>
+      <c r="G133" s="7"/>
+      <c r="J133"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2841,25 +3206,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -2900,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1">
+    <row r="2" spans="1:12" ht="14.45" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2921,7 +3286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1">
+    <row r="3" spans="1:12" ht="14.45" customHeight="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2942,7 +3307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2963,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2984,7 +3349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1">
+    <row r="6" spans="1:12" ht="14.45" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5469,17 +5834,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5948,14 +6313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16512463-536B-4DEE-86DA-9893C0832B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="300">
   <si>
     <t>Student Name</t>
   </si>
@@ -1085,6 +1085,21 @@
   </si>
   <si>
     <t>well and Gouldsmith</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Visiter ame</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3210,7 +3225,7 @@
   <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6314,14 +6329,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="330">
   <si>
     <t>Student Name</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Monalisa</t>
   </si>
   <si>
-    <t>Kanchan Mujharjee</t>
-  </si>
-  <si>
     <t>Suvajit Bikram</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Aviroop</t>
   </si>
   <si>
-    <t>Rubu Park</t>
-  </si>
-  <si>
     <t>Aparna Roy</t>
   </si>
   <si>
@@ -1100,6 +1094,102 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>did not pic up</t>
+  </si>
+  <si>
+    <t>not interested</t>
+  </si>
+  <si>
+    <t>not interested anymore</t>
+  </si>
+  <si>
+    <t>postersto be whatsaaped</t>
+  </si>
+  <si>
+    <t>to becalled after 6;30</t>
+  </si>
+  <si>
+    <t>out of service</t>
+  </si>
+  <si>
+    <t>potential, might come</t>
+  </si>
+  <si>
+    <t>didn’t pick up</t>
+  </si>
+  <si>
+    <t>Anirban Sir will call to discuss the fee structure</t>
+  </si>
+  <si>
+    <t>class 7, might come</t>
+  </si>
+  <si>
+    <t>already cracked NEET</t>
+  </si>
+  <si>
+    <t>NOT INTERESTED</t>
+  </si>
+  <si>
+    <t>NUMBER DOESN’T EXIST</t>
+  </si>
+  <si>
+    <t>DIDN’T PICK UP</t>
+  </si>
+  <si>
+    <t>NOT INTERESTED4</t>
+  </si>
+  <si>
+    <t>NUMBER DOESN’T EXIXT</t>
+  </si>
+  <si>
+    <t>HAS JOINED ANOTHER INSTITUTE, WILL COME FORDEMO</t>
+  </si>
+  <si>
+    <t>ABUSIVE</t>
+  </si>
+  <si>
+    <t>TO BE FOLLOWED UP</t>
+  </si>
+  <si>
+    <t>WILL COME TOMORROW AT 4PM</t>
+  </si>
+  <si>
+    <t>IRRELEVANT</t>
+  </si>
+  <si>
+    <t>NOT INTRESTED</t>
+  </si>
+  <si>
+    <t>LIVES IN LILUAH, INTERESTED IN ONLINE COMPUTER CLASSES</t>
+  </si>
+  <si>
+    <t>DIDN’T PICK UP CALL</t>
+  </si>
+  <si>
+    <t>WRONG NUMBER</t>
+  </si>
+  <si>
+    <t>NEEDS PRIVATE TUTOR</t>
+  </si>
+  <si>
+    <t>DIDNTPICK UP</t>
+  </si>
+  <si>
+    <t>DIDNP’T PICK UP</t>
+  </si>
+  <si>
+    <t>ADMITTED TO DIFFERENT INSTITUTIONS</t>
+  </si>
+  <si>
+    <t>Ruby Park</t>
+  </si>
+  <si>
+    <t>Kanchan Mukherjee</t>
+  </si>
+  <si>
+    <t>, to be converted.</t>
   </si>
 </sst>
 </file>
@@ -1732,10 +1822,10 @@
   <sheetData>
     <row r="1" spans="1:30" ht="38.25">
       <c r="A1" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>0</v>
@@ -1750,22 +1840,22 @@
         <v>6</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>3</v>
@@ -1781,10 +1871,10 @@
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
       <c r="E2" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="37" t="s">
@@ -1804,7 +1894,7 @@
         <v>45246</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="41"/>
@@ -1813,20 +1903,20 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K3" s="42"/>
       <c r="L3" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="24" customFormat="1" ht="14.45" customHeight="1">
@@ -1837,29 +1927,29 @@
         <v>45246</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="47"/>
       <c r="F4" s="48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="45" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" s="49"/>
       <c r="L4" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M4" s="49" t="s">
         <v>261</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>263</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -1887,29 +1977,29 @@
         <v>45246</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="41"/>
       <c r="F5" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1922,27 +2012,27 @@
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1953,29 +2043,29 @@
         <v>45246</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
       <c r="F7" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="52" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1988,27 +2078,27 @@
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
       <c r="E8" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="52" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -2021,23 +2111,23 @@
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K9" s="37"/>
       <c r="L9" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2048,7 +2138,7 @@
         <v>45246</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="34"/>
@@ -2069,7 +2159,7 @@
         <v>45246</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="34"/>
@@ -2090,29 +2180,29 @@
         <v>45254</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="47"/>
       <c r="F12" s="56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="49"/>
       <c r="I12" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M12" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -2146,17 +2236,17 @@
       <c r="G13" s="48"/>
       <c r="H13" s="49"/>
       <c r="I13" s="49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M13" s="49" t="s">
         <v>261</v>
-      </c>
-      <c r="M13" s="49" t="s">
-        <v>263</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -2181,14 +2271,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>276</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G14" s="22"/>
     </row>
@@ -2197,19 +2287,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="J15" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2217,10 +2307,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D16" s="8">
         <v>9433635023</v>
@@ -2229,7 +2319,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2237,10 +2327,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D17" s="8">
         <v>6291747759</v>
@@ -2254,19 +2344,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E18" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2274,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D19" s="8">
         <v>9007337237</v>
@@ -2286,7 +2376,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2294,10 +2384,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D20" s="8">
         <v>7890924561</v>
@@ -2314,19 +2404,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E21" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3224,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3244,10 +3334,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24">
       <c r="A1" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -3265,16 +3355,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>3</v>
@@ -3286,7 +3376,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3298,7 +3388,10 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.45" customHeight="1">
@@ -3307,7 +3400,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3315,11 +3408,11 @@
         <v>6289937147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>100</v>
+        <v>327</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1">
@@ -3342,6 +3435,9 @@
       <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1">
       <c r="A5" s="10">
@@ -3349,7 +3445,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>9007420629</v>
@@ -3357,11 +3453,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.45" customHeight="1">
@@ -3370,7 +3469,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>9007799541</v>
@@ -3382,7 +3481,10 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3391,7 +3493,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8">
         <v>7439306825</v>
@@ -3399,10 +3501,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3411,7 +3516,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <v>8697960232</v>
@@ -3419,10 +3524,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3431,7 +3539,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8">
         <v>9830963853</v>
@@ -3439,10 +3547,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3451,7 +3562,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8">
         <v>9903482607</v>
@@ -3464,6 +3575,9 @@
       <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="J10" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10">
@@ -3471,7 +3585,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8">
         <v>9674122749</v>
@@ -3482,7 +3596,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3491,7 +3608,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8">
         <v>8902792233</v>
@@ -3502,7 +3619,13 @@
         <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3511,7 +3634,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="8">
         <v>8981518461</v>
@@ -3521,6 +3644,9 @@
       </c>
       <c r="I13" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3529,7 +3655,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="D14" s="8">
         <v>6291394017</v>
@@ -3542,6 +3668,9 @@
       <c r="I14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="J14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10">
@@ -3562,6 +3691,9 @@
       <c r="I15" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="J15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -3582,8 +3714,11 @@
       <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3602,8 +3737,11 @@
       <c r="I17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3622,8 +3760,11 @@
       <c r="I18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3642,8 +3783,11 @@
       <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3663,7 +3807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3682,8 +3826,11 @@
       <c r="I21" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3702,8 +3849,11 @@
       <c r="I22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3722,8 +3872,11 @@
       <c r="I23" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3742,8 +3895,11 @@
       <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3762,8 +3918,11 @@
       <c r="I25" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3782,8 +3941,11 @@
       <c r="I26" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3802,8 +3964,11 @@
       <c r="I27" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3822,8 +3987,11 @@
       <c r="I28" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3842,8 +4010,11 @@
       <c r="I29" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3862,8 +4033,11 @@
       <c r="I30" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3882,8 +4056,11 @@
       <c r="I31" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3902,8 +4079,11 @@
       <c r="I32" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3922,8 +4102,11 @@
       <c r="I33" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3942,8 +4125,11 @@
       <c r="I34" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3962,8 +4148,11 @@
       <c r="I35" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3983,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -4002,8 +4191,11 @@
       <c r="I37" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4022,8 +4214,11 @@
       <c r="I38" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -4042,8 +4237,11 @@
       <c r="I39" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4062,8 +4260,11 @@
       <c r="I40" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -4082,8 +4283,11 @@
       <c r="I41" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4102,8 +4306,11 @@
       <c r="I42" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -4122,8 +4329,11 @@
       <c r="I43" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4142,8 +4352,11 @@
       <c r="I44" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -4162,8 +4375,11 @@
       <c r="I45" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4183,7 +4399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -4203,7 +4419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4411,17 +4627,17 @@
         <v>45179</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58">
         <v>9836382341</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4435,7 +4651,7 @@
       <c r="D59"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I59"/>
     </row>
@@ -4449,13 +4665,13 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60">
         <v>9433543355</v>
       </c>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I60"/>
     </row>
@@ -4469,13 +4685,13 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61">
         <v>7980645323</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I61"/>
     </row>
@@ -4487,17 +4703,17 @@
         <v>45179</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62">
         <v>7044757677</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4508,7 +4724,7 @@
         <v>45181</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63">
         <v>9330494523</v>
@@ -4524,7 +4740,7 @@
         <v>45181</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64">
         <v>9339487022</v>
@@ -4540,7 +4756,7 @@
         <v>45181</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65"/>
       <c r="F65"/>
@@ -4554,7 +4770,7 @@
         <v>45181</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66">
         <v>8617296138</v>
@@ -4570,14 +4786,14 @@
         <v>45181</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67">
         <v>9902987601</v>
       </c>
       <c r="F67"/>
       <c r="I67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4588,7 +4804,7 @@
         <v>45181</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D68">
         <v>7501846983</v>
@@ -4604,7 +4820,7 @@
         <v>45181</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D69">
         <v>8900306546</v>
@@ -4620,7 +4836,7 @@
         <v>45181</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70">
         <v>8697636226</v>
@@ -4636,7 +4852,7 @@
         <v>45181</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71">
         <v>9051481706</v>
@@ -4652,14 +4868,14 @@
         <v>45181</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72">
         <v>7044189984</v>
       </c>
       <c r="F72"/>
       <c r="I72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4670,7 +4886,7 @@
         <v>45181</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73">
         <v>9064573012</v>
@@ -4686,17 +4902,17 @@
         <v>45187</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74">
         <v>9830540969</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4707,17 +4923,17 @@
         <v>45187</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D75">
         <v>9875597274</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4728,17 +4944,17 @@
         <v>45187</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76">
         <v>9831649789</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4749,14 +4965,14 @@
         <v>45187</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D77">
         <v>7044454791</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I77"/>
     </row>
@@ -4768,14 +4984,14 @@
         <v>45187</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D78">
         <v>9051070314</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78"/>
     </row>
@@ -4787,14 +5003,14 @@
         <v>45187</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79">
         <v>8100234251</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79"/>
     </row>
@@ -4806,14 +5022,14 @@
         <v>45187</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D80">
         <v>895612401</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I80"/>
     </row>
@@ -4825,14 +5041,14 @@
         <v>45187</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D81">
         <v>9038607618</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I81"/>
     </row>
@@ -4844,14 +5060,14 @@
         <v>45187</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D82">
         <v>9123738352</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I82"/>
     </row>
@@ -4863,14 +5079,14 @@
         <v>45187</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D83">
         <v>7439648726</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I83"/>
     </row>
@@ -4882,14 +5098,14 @@
         <v>45187</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D84">
         <v>6290149228</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I84"/>
     </row>
@@ -4901,14 +5117,14 @@
         <v>45187</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D85">
         <v>7439235390</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I85"/>
     </row>
@@ -4920,14 +5136,14 @@
         <v>45187</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86">
         <v>9831616972</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I86"/>
     </row>
@@ -4939,14 +5155,14 @@
         <v>45187</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87">
         <v>9875642078</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I87"/>
     </row>
@@ -4958,14 +5174,14 @@
         <v>45187</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D88">
         <v>9330260643</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I88"/>
     </row>
@@ -4977,14 +5193,14 @@
         <v>45187</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D89">
         <v>7865006160</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I89"/>
     </row>
@@ -4996,14 +5212,14 @@
         <v>45187</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D90">
         <v>9933568503</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I90"/>
     </row>
@@ -5015,14 +5231,14 @@
         <v>45187</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91">
         <v>7980097885</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I91"/>
     </row>
@@ -5034,14 +5250,14 @@
         <v>45187</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92">
         <v>8017803547</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I92"/>
     </row>
@@ -5053,14 +5269,14 @@
         <v>45187</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93">
         <v>8927931385</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I93"/>
     </row>
@@ -5072,14 +5288,14 @@
         <v>45187</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D94">
         <v>9123811981</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I94"/>
     </row>
@@ -5091,14 +5307,14 @@
         <v>45188</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95">
         <v>8789192117</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I95"/>
     </row>
@@ -5110,14 +5326,14 @@
         <v>45188</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D96">
         <v>7439261742</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I96"/>
     </row>
@@ -5129,14 +5345,14 @@
         <v>45188</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97">
         <v>8910136033</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I97"/>
     </row>
@@ -5148,14 +5364,14 @@
         <v>45188</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D98">
         <v>8981502987</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I98"/>
     </row>
@@ -5167,14 +5383,14 @@
         <v>45188</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D99">
         <v>8133843005</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I99"/>
     </row>
@@ -5186,14 +5402,14 @@
         <v>45188</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D100">
         <v>6290583136</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I100"/>
     </row>
@@ -5205,14 +5421,14 @@
         <v>45188</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D101">
         <v>8336817657</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I101"/>
     </row>
@@ -5224,14 +5440,14 @@
         <v>45188</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102">
         <v>9831493208</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I102"/>
     </row>
@@ -5243,14 +5459,14 @@
         <v>45188</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D103">
         <v>7003540372</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I103"/>
     </row>
@@ -5262,14 +5478,14 @@
         <v>45188</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D104">
         <v>7278448048</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I104"/>
     </row>
@@ -5281,14 +5497,14 @@
         <v>45188</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D105">
         <v>9830826860</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I105"/>
     </row>
@@ -5300,14 +5516,14 @@
         <v>45188</v>
       </c>
       <c r="C106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D106">
         <v>8420848861</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I106"/>
     </row>
@@ -5319,14 +5535,14 @@
         <v>45188</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D107">
         <v>9872355769</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I107"/>
     </row>
@@ -5338,14 +5554,14 @@
         <v>45188</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D108">
         <v>6294268223</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I108"/>
     </row>
@@ -5357,14 +5573,14 @@
         <v>45188</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D109">
         <v>9143297263</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I109"/>
     </row>
@@ -5376,14 +5592,14 @@
         <v>45188</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D110">
         <v>7890899876</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I110"/>
     </row>
@@ -5395,14 +5611,14 @@
         <v>45188</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D111">
         <v>6289529539</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I111"/>
     </row>
@@ -5414,14 +5630,14 @@
         <v>45188</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D112">
         <v>9433055625</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I112"/>
     </row>
@@ -5433,14 +5649,14 @@
         <v>45188</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D113">
         <v>9433221128</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I113"/>
     </row>
@@ -5452,14 +5668,14 @@
         <v>45188</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D114">
         <v>8477712310</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I114"/>
     </row>
@@ -5471,14 +5687,14 @@
         <v>45188</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D115">
         <v>628955425</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I115"/>
     </row>
@@ -5490,14 +5706,14 @@
         <v>45188</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D116">
         <v>9477900494</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I116"/>
     </row>
@@ -5509,14 +5725,14 @@
         <v>45188</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D117">
         <v>8777706597</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I117"/>
     </row>
@@ -5528,14 +5744,14 @@
         <v>45188</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D118">
         <v>9433256207</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I118"/>
     </row>
@@ -5547,14 +5763,14 @@
         <v>45194</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D119">
         <v>7679591433</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I119"/>
     </row>
@@ -5566,14 +5782,14 @@
         <v>45194</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D120">
         <v>8016981657</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I120"/>
     </row>
@@ -5585,14 +5801,14 @@
         <v>45194</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D121">
         <v>7596825771</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I121"/>
     </row>
@@ -5604,14 +5820,14 @@
         <v>45194</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D122">
         <v>8240581466</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I122"/>
     </row>
@@ -5623,14 +5839,14 @@
         <v>45194</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D123">
         <v>9162975575</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I123"/>
     </row>
@@ -5642,14 +5858,14 @@
         <v>45194</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D124">
         <v>8609063557</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I124"/>
     </row>
@@ -5661,14 +5877,14 @@
         <v>45194</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D125">
         <v>6291578892</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I125"/>
     </row>
@@ -5680,14 +5896,14 @@
         <v>45194</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D126">
         <v>9831874618</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I126"/>
     </row>
@@ -5699,14 +5915,14 @@
         <v>45194</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D127">
         <v>6289714787</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I127"/>
     </row>
@@ -5718,14 +5934,14 @@
         <v>45194</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D128">
         <v>9679402181</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I128"/>
     </row>
@@ -5737,14 +5953,14 @@
         <v>45204</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D129">
         <v>9748494952</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I129"/>
     </row>
@@ -5756,14 +5972,14 @@
         <v>45204</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D130">
         <v>8100681522</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I130"/>
     </row>
@@ -5775,14 +5991,14 @@
         <v>45204</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D131">
         <v>8609345322</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I131"/>
     </row>
@@ -5794,14 +6010,14 @@
         <v>45204</v>
       </c>
       <c r="C132" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D132">
         <v>9163931391</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I132"/>
     </row>
@@ -5813,14 +6029,14 @@
         <v>45204</v>
       </c>
       <c r="C133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D133">
         <v>7003658621</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I133"/>
     </row>
@@ -5832,14 +6048,14 @@
         <v>45204</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D134">
         <v>9993168842</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I134"/>
     </row>
@@ -5866,7 +6082,7 @@
     <row r="1" spans="1:9">
       <c r="A1" s="12"/>
       <c r="B1" s="57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="14"/>
@@ -5889,7 +6105,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -5905,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="15">
         <v>45193</v>
@@ -5922,10 +6138,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -5939,10 +6155,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -5956,10 +6172,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -5973,10 +6189,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -5990,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="13">
         <v>20</v>
@@ -6007,10 +6223,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -6024,10 +6240,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -6041,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -6054,10 +6270,10 @@
     <row r="13" spans="1:9">
       <c r="A13" s="12"/>
       <c r="B13" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -6069,10 +6285,10 @@
     <row r="14" spans="1:9">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -6084,10 +6300,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -6099,10 +6315,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -6114,10 +6330,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="12"/>
       <c r="B17" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -6131,10 +6347,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -6148,10 +6364,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -6165,10 +6381,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -6181,7 +6397,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -6195,10 +6411,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -6212,10 +6428,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -6229,10 +6445,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -6245,7 +6461,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -6258,7 +6474,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -6271,7 +6487,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -6285,10 +6501,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -6331,7 +6547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6346,28 +6562,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>296</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>297</v>
-      </c>
-      <c r="G1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AEFA2-BB99-4172-BF91-9848526A5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="540" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New-Prospects" sheetId="6" r:id="rId1"/>
+    <sheet name="Prospects" sheetId="6" r:id="rId1"/>
     <sheet name="Old-Prospects" sheetId="2" r:id="rId2"/>
-    <sheet name="Seminar-Plan" sheetId="5" r:id="rId3"/>
-    <sheet name="Daily-Marketing-Plan" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
     <author>del</author>
@@ -48,7 +38,7 @@
     <author>tc={58FDE46B-717B-46FD-8359-F3C0EFFF690C}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="2" shapeId="0">
+    <comment ref="K4" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="3" shapeId="0">
+    <comment ref="K5" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="4" shapeId="0">
+    <comment ref="K6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="5" shapeId="0">
+    <comment ref="K7" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="6" shapeId="0">
+    <comment ref="K8" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="7" shapeId="0">
+    <comment ref="K9" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="257">
   <si>
     <t>Student Name</t>
   </si>
@@ -514,9 +504,6 @@
     <t>Slno</t>
   </si>
   <si>
-    <t>SlNo</t>
-  </si>
-  <si>
     <t>Kaustav Dey</t>
   </si>
   <si>
@@ -637,9 +624,6 @@
     <t>Soma</t>
   </si>
   <si>
-    <t>Seminar Plan</t>
-  </si>
-  <si>
     <t>Basudeb Ghosh</t>
   </si>
   <si>
@@ -691,126 +675,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Time </t>
-  </si>
-  <si>
-    <t>4 PM To 6 PM</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>N-1/25, Patuli Kol-94</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Anirban Chakraborty,Debashish Nath,Anupam Sen,Pradipta Bose and Sayan Basak</t>
-  </si>
-  <si>
-    <t>Estimated Guests</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>Pradipta Bose</t>
-  </si>
-  <si>
-    <t>Main Speaker</t>
-  </si>
-  <si>
     <t>Anirban Chakraborty</t>
   </si>
   <si>
-    <t>Subject of Speaking</t>
-  </si>
-  <si>
-    <t>Debashish Nath</t>
-  </si>
-  <si>
-    <t>c) Commerce and Law</t>
-  </si>
-  <si>
-    <t>Anupam Sen</t>
-  </si>
-  <si>
-    <t>Sayan Basak</t>
-  </si>
-  <si>
-    <t>d) Working environment of Anodiam</t>
-  </si>
-  <si>
-    <t>b) Humanities,Science &amp; Competetive Exams</t>
-  </si>
-  <si>
-    <t>a) Introduction about Anodiam and Tech dept</t>
-  </si>
-  <si>
-    <t>d) Mission and Vision of Anodiam &amp; AI</t>
-  </si>
-  <si>
-    <t>Entrance at ground stair</t>
-  </si>
-  <si>
-    <t>Right Arrow Key under the CCTV camera</t>
-  </si>
-  <si>
-    <t>Gate at ground stair</t>
-  </si>
-  <si>
-    <t>Under the bell, write Press Bell</t>
-  </si>
-  <si>
-    <t>Posters in the wall of stair case</t>
-  </si>
-  <si>
-    <t>a) Anodiam Posters</t>
-  </si>
-  <si>
-    <t>b) Seminar in Ist Floor</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>Total Cleaning of Staircase and surrounding walls</t>
-  </si>
-  <si>
-    <t>Ist Floor, Nebula</t>
-  </si>
-  <si>
-    <t>Door of the room</t>
-  </si>
-  <si>
-    <t>Anodiam Poster</t>
-  </si>
-  <si>
-    <t>Food for guest</t>
-  </si>
-  <si>
-    <t>Tea  --&gt; Needs to purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Buiscuits --&gt; Needs to purchase</t>
-  </si>
-  <si>
-    <t>Water --&gt; take 1 extra jar of water</t>
-  </si>
-  <si>
-    <t>Paper Cups --&gt; Need to buy</t>
-  </si>
-  <si>
-    <t>Guests Calling</t>
-  </si>
-  <si>
-    <t>Call all the guests from Thursday</t>
-  </si>
-  <si>
     <t>Ankus pal</t>
   </si>
   <si>
@@ -934,9 +801,6 @@
     <t>I.C.S.E CLASS 10, MOCK TESTS</t>
   </si>
   <si>
-    <t>I.S.C , CLASS 11</t>
-  </si>
-  <si>
     <t>I.C.S.E CLASS 9</t>
   </si>
   <si>
@@ -1069,9 +933,6 @@
     <t>Ritobroto</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI and General subject</t>
-  </si>
-  <si>
     <t>Utso</t>
   </si>
   <si>
@@ -1087,26 +948,26 @@
     <t>well and Gouldsmith</t>
   </si>
   <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>Visiter ame</t>
-  </si>
-  <si>
-    <t>Remarks</t>
+    <t>Ask Ananya for number &amp; details</t>
+  </si>
+  <si>
+    <t>WHY?</t>
+  </si>
+  <si>
+    <t>AI and General subject</t>
+  </si>
+  <si>
+    <t>I.S.C, CLASS 11</t>
+  </si>
+  <si>
+    <t>Which of these prospects will be ready for mock tests? Could we contact some for AI Jounior or other stuffs?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,11 +1000,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Oxygen"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1183,7 +1039,7 @@
       <name val="Calibri "/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1061,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1276,16 +1138,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1311,87 +1163,111 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1707,159 +1583,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="21" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.53125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.86328125" customWidth="1"/>
+    <col min="12" max="12" width="14.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="38.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:30" ht="26.25">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="32">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="29">
         <v>45244</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A3" s="38">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>45246</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40">
+      <c r="C3" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36">
         <v>9830610602</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="24" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A4" s="50">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="20" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="40">
         <v>45246</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="45" t="s">
+      <c r="C4" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>263</v>
+      <c r="I4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -1880,239 +1757,244 @@
       <c r="AD4"/>
     </row>
     <row r="5" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="35">
         <v>45246</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>258</v>
+      <c r="C5" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="32">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>45246</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>262</v>
+      <c r="I6" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="54">
+      <c r="A7" s="50">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="29">
         <v>45246</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>262</v>
+      <c r="I7" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="32">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="29">
         <v>45246</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>262</v>
+      <c r="I8" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="54">
+      <c r="A9" s="50">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>45246</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="F9" s="53" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="32">
+      <c r="L9" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="60" customFormat="1">
+      <c r="A10" s="53">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="54">
         <v>45246</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="54">
+      <c r="L10" s="53"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:30" s="60" customFormat="1">
+      <c r="A11" s="61">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="54">
         <v>45246</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:30" s="24" customFormat="1">
-      <c r="A12" s="50">
+      <c r="C11" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:30" s="20" customFormat="1">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="40">
         <v>45254</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>263</v>
+      <c r="C12" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -2132,31 +2014,31 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:30" s="24" customFormat="1">
-      <c r="A13" s="50">
+    <row r="13" spans="1:30" s="20" customFormat="1">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="40">
         <v>45254</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="M13" s="49" t="s">
-        <v>263</v>
+      <c r="C13" s="43"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
@@ -2181,35 +2063,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>279</v>
+        <v>232</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2217,19 +2099,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>280</v>
+        <v>232</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="D16" s="8">
         <v>9433635023</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2237,36 +2119,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>283</v>
+        <v>232</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="D17" s="8">
         <v>6291747759</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>287</v>
+        <v>232</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2274,19 +2156,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>288</v>
+        <v>232</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D19" s="8">
         <v>9007337237</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2294,17 +2176,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>290</v>
+        <v>232</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D20" s="8">
         <v>7890924561</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
@@ -2314,252 +2196,252 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>294</v>
+        <v>232</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="1"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="1"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="1"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="1"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="1"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" s="1"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:10">
       <c r="B52" s="1"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:10">
       <c r="B54" s="1"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="1"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="26"/>
+      <c r="C57" s="22"/>
       <c r="D57"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -2567,7 +2449,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="B58" s="9"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="22"/>
       <c r="D58"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -2576,7 +2458,7 @@
     <row r="59" spans="1:10">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="26"/>
+      <c r="C59" s="22"/>
       <c r="D59"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -2584,7 +2466,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="B60" s="9"/>
-      <c r="C60" s="26"/>
+      <c r="C60" s="22"/>
       <c r="D60"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -2593,7 +2475,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="26"/>
+      <c r="C61" s="22"/>
       <c r="D61"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -2601,7 +2483,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="B62" s="9"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="22"/>
       <c r="D62"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -2610,7 +2492,7 @@
     <row r="63" spans="1:10">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="22"/>
       <c r="D63"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -2618,7 +2500,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="B64" s="9"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="22"/>
       <c r="D64"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -2627,7 +2509,7 @@
     <row r="65" spans="1:10">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="22"/>
       <c r="D65"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -2635,7 +2517,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="B66" s="9"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="22"/>
       <c r="D66"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -2644,7 +2526,7 @@
     <row r="67" spans="1:10">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="26"/>
+      <c r="C67" s="22"/>
       <c r="D67"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -2652,7 +2534,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="B68" s="9"/>
-      <c r="C68" s="26"/>
+      <c r="C68" s="22"/>
       <c r="D68"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -2661,7 +2543,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="26"/>
+      <c r="C69" s="22"/>
       <c r="D69"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -2669,7 +2551,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="9"/>
-      <c r="C70" s="26"/>
+      <c r="C70" s="22"/>
       <c r="D70"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -2678,7 +2560,7 @@
     <row r="71" spans="1:10">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="26"/>
+      <c r="C71" s="22"/>
       <c r="D71"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -2686,7 +2568,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="B72" s="9"/>
-      <c r="C72" s="26"/>
+      <c r="C72" s="22"/>
       <c r="D72"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -2695,7 +2577,7 @@
     <row r="73" spans="1:10">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="26"/>
+      <c r="C73" s="22"/>
       <c r="D73"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -2703,7 +2585,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="9"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="22"/>
       <c r="D74"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -2712,7 +2594,7 @@
     <row r="75" spans="1:10">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="22"/>
       <c r="D75"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -2720,7 +2602,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="B76" s="9"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="22"/>
       <c r="D76"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -2729,7 +2611,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="26"/>
+      <c r="C77" s="22"/>
       <c r="D77"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -2737,7 +2619,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="B78" s="9"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="22"/>
       <c r="D78"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -2746,7 +2628,7 @@
     <row r="79" spans="1:10">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="26"/>
+      <c r="C79" s="22"/>
       <c r="D79"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -2754,7 +2636,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="B80" s="9"/>
-      <c r="C80" s="26"/>
+      <c r="C80" s="22"/>
       <c r="D80"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -2763,7 +2645,7 @@
     <row r="81" spans="1:10">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="26"/>
+      <c r="C81" s="22"/>
       <c r="D81"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -2771,7 +2653,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="B82" s="9"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="22"/>
       <c r="D82"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -2780,7 +2662,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="22"/>
       <c r="D83"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -2788,7 +2670,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="B84" s="9"/>
-      <c r="C84" s="26"/>
+      <c r="C84" s="22"/>
       <c r="D84"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -2797,7 +2679,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="26"/>
+      <c r="C85" s="22"/>
       <c r="D85"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -2805,7 +2687,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="B86" s="9"/>
-      <c r="C86" s="26"/>
+      <c r="C86" s="22"/>
       <c r="D86"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -2814,7 +2696,7 @@
     <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="26"/>
+      <c r="C87" s="22"/>
       <c r="D87"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -2822,7 +2704,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="9"/>
-      <c r="C88" s="26"/>
+      <c r="C88" s="22"/>
       <c r="D88"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -2831,7 +2713,7 @@
     <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="26"/>
+      <c r="C89" s="22"/>
       <c r="D89"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -2839,7 +2721,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="B90" s="9"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="23"/>
       <c r="D90"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -2848,7 +2730,7 @@
     <row r="91" spans="1:10">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="27"/>
+      <c r="C91" s="23"/>
       <c r="D91"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -2856,7 +2738,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="B92" s="9"/>
-      <c r="C92" s="27"/>
+      <c r="C92" s="23"/>
       <c r="D92"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -2865,7 +2747,7 @@
     <row r="93" spans="1:10">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="27"/>
+      <c r="C93" s="23"/>
       <c r="D93"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -2873,7 +2755,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="B94" s="9"/>
-      <c r="C94" s="26"/>
+      <c r="C94" s="22"/>
       <c r="D94"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -2882,7 +2764,7 @@
     <row r="95" spans="1:10">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="26"/>
+      <c r="C95" s="22"/>
       <c r="D95"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -2890,7 +2772,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="B96" s="9"/>
-      <c r="C96" s="27"/>
+      <c r="C96" s="23"/>
       <c r="D96"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -2899,7 +2781,7 @@
     <row r="97" spans="1:10">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="27"/>
+      <c r="C97" s="23"/>
       <c r="D97"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -2907,7 +2789,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="B98" s="9"/>
-      <c r="C98" s="26"/>
+      <c r="C98" s="22"/>
       <c r="D98"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -2916,7 +2798,7 @@
     <row r="99" spans="1:10">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="26"/>
+      <c r="C99" s="22"/>
       <c r="D99"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -2924,7 +2806,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="B100" s="9"/>
-      <c r="C100" s="26"/>
+      <c r="C100" s="22"/>
       <c r="D100"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -2933,7 +2815,7 @@
     <row r="101" spans="1:10">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="26"/>
+      <c r="C101" s="22"/>
       <c r="D101"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -2941,7 +2823,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="B102" s="9"/>
-      <c r="C102" s="26"/>
+      <c r="C102" s="22"/>
       <c r="D102"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -2950,7 +2832,7 @@
     <row r="103" spans="1:10">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="26"/>
+      <c r="C103" s="22"/>
       <c r="D103"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -2958,7 +2840,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="B104" s="9"/>
-      <c r="C104" s="26"/>
+      <c r="C104" s="22"/>
       <c r="D104"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -2967,7 +2849,7 @@
     <row r="105" spans="1:10">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="26"/>
+      <c r="C105" s="22"/>
       <c r="D105"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -2975,7 +2857,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="B106" s="9"/>
-      <c r="C106" s="26"/>
+      <c r="C106" s="22"/>
       <c r="D106"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -2984,7 +2866,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="26"/>
+      <c r="C107" s="22"/>
       <c r="D107"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -2992,7 +2874,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="B108" s="9"/>
-      <c r="C108" s="26"/>
+      <c r="C108" s="22"/>
       <c r="D108"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -3001,7 +2883,7 @@
     <row r="109" spans="1:10">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="26"/>
+      <c r="C109" s="22"/>
       <c r="D109"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -3009,7 +2891,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="B110" s="9"/>
-      <c r="C110" s="26"/>
+      <c r="C110" s="22"/>
       <c r="D110"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -3018,7 +2900,7 @@
     <row r="111" spans="1:10">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="26"/>
+      <c r="C111" s="22"/>
       <c r="D111"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -3026,7 +2908,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="B112" s="9"/>
-      <c r="C112" s="26"/>
+      <c r="C112" s="22"/>
       <c r="D112"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -3035,7 +2917,7 @@
     <row r="113" spans="1:10">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="26"/>
+      <c r="C113" s="22"/>
       <c r="D113"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -3043,7 +2925,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="B114" s="9"/>
-      <c r="C114" s="26"/>
+      <c r="C114" s="22"/>
       <c r="D114"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -3052,7 +2934,7 @@
     <row r="115" spans="1:10">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="26"/>
+      <c r="C115" s="22"/>
       <c r="D115"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -3060,7 +2942,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="B116" s="9"/>
-      <c r="C116" s="26"/>
+      <c r="C116" s="22"/>
       <c r="D116"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -3069,7 +2951,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="26"/>
+      <c r="C117" s="22"/>
       <c r="D117"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -3077,7 +2959,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="9"/>
-      <c r="C118" s="26"/>
+      <c r="C118" s="22"/>
       <c r="D118"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -3086,7 +2968,7 @@
     <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="26"/>
+      <c r="C119" s="22"/>
       <c r="D119"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
@@ -3094,7 +2976,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="B120" s="9"/>
-      <c r="C120" s="26"/>
+      <c r="C120" s="22"/>
       <c r="D120"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
@@ -3103,7 +2985,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
-      <c r="C121" s="26"/>
+      <c r="C121" s="22"/>
       <c r="D121"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
@@ -3111,7 +2993,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="9"/>
-      <c r="C122" s="26"/>
+      <c r="C122" s="22"/>
       <c r="D122"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
@@ -3120,7 +3002,7 @@
     <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
-      <c r="C123" s="26"/>
+      <c r="C123" s="22"/>
       <c r="D123"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
@@ -3128,7 +3010,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="B124" s="9"/>
-      <c r="C124" s="26"/>
+      <c r="C124" s="22"/>
       <c r="D124"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
@@ -3137,7 +3019,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
-      <c r="C125" s="26"/>
+      <c r="C125" s="22"/>
       <c r="D125"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -3145,7 +3027,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="B126" s="9"/>
-      <c r="C126" s="26"/>
+      <c r="C126" s="22"/>
       <c r="D126"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
@@ -3154,7 +3036,7 @@
     <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
-      <c r="C127" s="26"/>
+      <c r="C127" s="22"/>
       <c r="D127"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
@@ -3162,7 +3044,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="B128" s="9"/>
-      <c r="C128" s="26"/>
+      <c r="C128" s="22"/>
       <c r="D128"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
@@ -3171,7 +3053,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
-      <c r="C129" s="26"/>
+      <c r="C129" s="22"/>
       <c r="D129"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
@@ -3179,7 +3061,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="B130" s="9"/>
-      <c r="C130" s="26"/>
+      <c r="C130" s="22"/>
       <c r="D130"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
@@ -3188,7 +3070,7 @@
     <row r="131" spans="1:10">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
-      <c r="C131" s="26"/>
+      <c r="C131" s="22"/>
       <c r="D131"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
@@ -3196,7 +3078,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="B132" s="9"/>
-      <c r="C132" s="26"/>
+      <c r="C132" s="22"/>
       <c r="D132"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
@@ -3205,7 +3087,7 @@
     <row r="133" spans="1:10">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="26"/>
+      <c r="C133" s="22"/>
       <c r="D133"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
@@ -3221,338 +3103,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.86328125" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.265625" customWidth="1"/>
+    <col min="11" max="11" width="14.73046875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" ht="24.75">
+      <c r="A2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="J2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A2" s="1">
+    <row r="3" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A3" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="6">
-        <v>9123745867</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A3" s="10">
-        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="6">
-        <v>6289937147</v>
+        <v>9123745867</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9804666470</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6">
+        <v>6289937147</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>9007420629</v>
+        <v>9804666470</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.45" customHeight="1">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
-        <v>9007799541</v>
+        <v>9007420629</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10">
-        <v>6</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.45" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="8">
-        <v>7439306825</v>
+      <c r="C7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9007799541</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8">
-        <v>8697960232</v>
+        <v>7439306825</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="10">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="8">
-        <v>9830963853</v>
+        <v>8697960232</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8">
-        <v>9903482607</v>
+        <v>9830963853</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8">
-        <v>9674122749</v>
+        <v>9903482607</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="8">
-        <v>8902792233</v>
+        <v>9674122749</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8">
-        <v>8981518461</v>
-      </c>
+        <v>8902792233</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8">
-        <v>6291394017</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+        <v>8981518461</v>
+      </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8">
-        <v>8240045609</v>
+        <v>6291394017</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5"/>
@@ -3560,204 +3434,204 @@
         <v>53</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="8">
-        <v>9734020100</v>
+        <v>8240045609</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="5"/>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8">
-        <v>7029550368</v>
+        <v>9734020100</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="8">
-        <v>7477479911</v>
+        <v>7029550368</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8">
-        <v>9163148376</v>
+        <v>7477479911</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8">
-        <v>9339422735</v>
+        <v>9163148376</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="5"/>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8">
-        <v>9073931456</v>
+        <v>9339422735</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8">
-        <v>7980429704</v>
+        <v>9073931456</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="10">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>21</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8">
-        <v>8617256144</v>
+        <v>7980429704</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8">
-        <v>9153399782</v>
+        <v>8617256144</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="10">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8">
-        <v>9432305281</v>
+        <v>9153399782</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>19</v>
@@ -3765,39 +3639,39 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="8">
-        <v>8582862129</v>
+        <v>9432305281</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="10">
-        <v>26</v>
+      <c r="A27" s="1">
+        <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="8">
-        <v>9836325815</v>
+        <v>8582862129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>10</v>
@@ -3805,114 +3679,114 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" s="8">
-        <v>9321586870</v>
+        <v>9836325815</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="10">
-        <v>28</v>
+      <c r="A29" s="1">
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="8">
-        <v>9830328851</v>
+        <v>9321586870</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="8">
-        <v>9073950900</v>
+        <v>9830328851</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="5"/>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="10">
-        <v>30</v>
+      <c r="A31" s="1">
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="8">
-        <v>9560621777</v>
+        <v>9073950900</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="5"/>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D32" s="8">
-        <v>7370988146</v>
+        <v>9560621777</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="10">
-        <v>32</v>
+      <c r="A33" s="1">
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="8">
-        <v>8240580651</v>
+        <v>7370988146</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5"/>
@@ -3925,54 +3799,54 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="8">
-        <v>9831921605</v>
+        <v>8240580651</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="10">
-        <v>34</v>
+      <c r="A35" s="1">
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" s="8">
-        <v>9330061807</v>
+        <v>9831921605</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="8">
-        <v>8887850034</v>
+        <v>9330061807</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5"/>
@@ -3984,15 +3858,15 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="10">
-        <v>36</v>
+      <c r="A37" s="1">
+        <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8">
-        <v>9382353541</v>
+        <v>8887850034</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="5"/>
@@ -4005,14 +3879,14 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8">
-        <v>6291764011</v>
+        <v>9382353541</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="5"/>
@@ -4024,35 +3898,35 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="10">
-        <v>38</v>
+      <c r="A39" s="1">
+        <v>37</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="8">
-        <v>9123066614</v>
+        <v>6291764011</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="5"/>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D40" s="8">
-        <v>7044076484</v>
+        <v>9123066614</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="5"/>
@@ -4060,79 +3934,79 @@
         <v>11</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="10">
-        <v>40</v>
+      <c r="A41" s="1">
+        <v>39</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41" s="8">
-        <v>6290369571</v>
+        <v>7044076484</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="5"/>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D42" s="8">
-        <v>8240456328</v>
+        <v>6290369571</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="5"/>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="10">
-        <v>42</v>
+      <c r="A43" s="1">
+        <v>41</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="8">
-        <v>8777056761</v>
+        <v>8240456328</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="5"/>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" s="8">
-        <v>7628069343</v>
+        <v>8777056761</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5"/>
@@ -4140,24 +4014,24 @@
         <v>37</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="10">
-        <v>44</v>
+      <c r="A45" s="1">
+        <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" s="8">
-        <v>7980835215</v>
+        <v>7628069343</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="5"/>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>10</v>
@@ -4165,134 +4039,134 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="8">
-        <v>9330804219</v>
+        <v>7980835215</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="5"/>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="10">
-        <v>46</v>
+      <c r="A47" s="1">
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D47" s="8">
-        <v>8584068988</v>
+        <v>9330804219</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="5"/>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="8">
-        <v>8240996600</v>
+        <v>8584068988</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="5"/>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="10">
-        <v>48</v>
+      <c r="A49" s="1">
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="8">
-        <v>8697349807</v>
+        <v>8240996600</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="5"/>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="8">
-        <v>8900200144</v>
+        <v>8697349807</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="10">
-        <v>50</v>
+      <c r="A51" s="1">
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D51" s="8">
-        <v>9679872726</v>
+        <v>8900200144</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="5"/>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52" s="8">
-        <v>9143179780</v>
+        <v>9679872726</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="5"/>
@@ -4300,2115 +4174,1568 @@
         <v>17</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="10">
-        <v>52</v>
+      <c r="A53" s="1">
+        <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" s="8">
-        <v>9051329877</v>
+        <v>9143179780</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="5"/>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="8">
-        <v>7439940754</v>
+        <v>9051329877</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="5"/>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="10">
-        <v>54</v>
+      <c r="A55" s="1">
+        <v>53</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D55" s="8">
-        <v>7602684338</v>
+        <v>7439940754</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="5"/>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56" s="8">
-        <v>7584994196</v>
+        <v>7602684338</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5"/>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="10">
-        <v>56</v>
+      <c r="A57" s="1">
+        <v>55</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57" s="8">
-        <v>9330285792</v>
+        <v>7584994196</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="5"/>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>9330285792</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="5"/>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
         <v>57</v>
-      </c>
-      <c r="B58" s="9">
-        <v>45179</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58">
-        <v>9836382341</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="10">
-        <v>58</v>
       </c>
       <c r="B59" s="9">
         <v>45179</v>
       </c>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59">
+        <v>9836382341</v>
+      </c>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>108</v>
-      </c>
-      <c r="I59"/>
+        <v>105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="9">
         <v>45179</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60">
-        <v>9433543355</v>
-      </c>
+      <c r="F60"/>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I60"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="10">
-        <v>60</v>
+      <c r="A61" s="1">
+        <v>59</v>
       </c>
       <c r="B61" s="9">
-        <v>45180</v>
+        <v>45179</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F61">
-        <v>7980645323</v>
+        <v>9433543355</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I61"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9">
+        <v>45180</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62">
+        <v>7980645323</v>
+      </c>
+      <c r="G62" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B63" s="9">
         <v>45179</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63">
+        <v>7044757677</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
         <v>112</v>
       </c>
-      <c r="D62">
-        <v>7044757677</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>113</v>
-      </c>
-      <c r="I62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="10">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9">
-        <v>45181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63">
-        <v>9330494523</v>
-      </c>
-      <c r="F63"/>
-      <c r="I63"/>
+      <c r="I63" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9">
         <v>45181</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64">
-        <v>9339487022</v>
+        <v>9330494523</v>
       </c>
       <c r="F64"/>
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="10">
-        <v>64</v>
+      <c r="A65" s="1">
+        <v>63</v>
       </c>
       <c r="B65" s="9">
         <v>45181</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65"/>
+        <v>114</v>
+      </c>
+      <c r="D65">
+        <v>9339487022</v>
+      </c>
       <c r="F65"/>
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9">
         <v>45181</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66">
-        <v>8617296138</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D66"/>
       <c r="F66"/>
       <c r="I66"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="10">
-        <v>66</v>
+      <c r="A67" s="1">
+        <v>65</v>
       </c>
       <c r="B67" s="9">
         <v>45181</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67">
-        <v>9902987601</v>
+        <v>8617296138</v>
       </c>
       <c r="F67"/>
-      <c r="I67" t="s">
-        <v>119</v>
-      </c>
+      <c r="I67"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="9">
         <v>45181</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D68">
-        <v>7501846983</v>
+        <v>9902987601</v>
       </c>
       <c r="F68"/>
-      <c r="I68"/>
+      <c r="I68" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="10">
-        <v>68</v>
+      <c r="A69" s="1">
+        <v>67</v>
       </c>
       <c r="B69" s="9">
         <v>45181</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D69">
-        <v>8900306546</v>
+        <v>7501846983</v>
       </c>
       <c r="F69"/>
       <c r="I69"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="9">
         <v>45181</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70">
-        <v>8697636226</v>
+        <v>8900306546</v>
       </c>
       <c r="F70"/>
       <c r="I70"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="10">
-        <v>70</v>
+      <c r="A71" s="1">
+        <v>69</v>
       </c>
       <c r="B71" s="9">
         <v>45181</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71">
-        <v>9051481706</v>
+        <v>8697636226</v>
       </c>
       <c r="F71"/>
       <c r="I71"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="9">
         <v>45181</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72">
-        <v>7044189984</v>
+        <v>9051481706</v>
       </c>
       <c r="F72"/>
-      <c r="I72" t="s">
-        <v>107</v>
-      </c>
+      <c r="I72"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="10">
-        <v>72</v>
+      <c r="A73" s="1">
+        <v>71</v>
       </c>
       <c r="B73" s="9">
         <v>45181</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73">
-        <v>9064573012</v>
+        <v>7044189984</v>
       </c>
       <c r="F73"/>
-      <c r="I73"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9">
+        <v>45181</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74">
+        <v>9064573012</v>
+      </c>
+      <c r="F74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
         <v>73</v>
-      </c>
-      <c r="B74" s="9">
-        <v>45187</v>
-      </c>
-      <c r="C74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74">
-        <v>9830540969</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="10">
-        <v>74</v>
       </c>
       <c r="B75" s="9">
         <v>45187</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D75">
-        <v>9875597274</v>
+        <v>9830540969</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="9">
         <v>45187</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="D76">
-        <v>9831649789</v>
+        <v>9875597274</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="10">
-        <v>76</v>
+      <c r="A77" s="1">
+        <v>75</v>
       </c>
       <c r="B77" s="9">
         <v>45187</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D77">
-        <v>7044454791</v>
+        <v>9831649789</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I77"/>
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="9">
         <v>45187</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D78">
-        <v>9051070314</v>
+        <v>7044454791</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I78"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="10">
-        <v>78</v>
+      <c r="A79" s="1">
+        <v>77</v>
       </c>
       <c r="B79" s="9">
         <v>45187</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="D79">
-        <v>8100234251</v>
+        <v>9051070314</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I79"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="9">
         <v>45187</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D80">
-        <v>895612401</v>
+        <v>8100234251</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I80"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="10">
-        <v>80</v>
+      <c r="A81" s="1">
+        <v>79</v>
       </c>
       <c r="B81" s="9">
         <v>45187</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D81">
-        <v>9038607618</v>
+        <v>895612401</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="9">
         <v>45187</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D82">
-        <v>9123738352</v>
+        <v>9038607618</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I82"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="10">
-        <v>82</v>
+      <c r="A83" s="1">
+        <v>81</v>
       </c>
       <c r="B83" s="9">
         <v>45187</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D83">
-        <v>7439648726</v>
+        <v>9123738352</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I83"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="9">
         <v>45187</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="D84">
-        <v>6290149228</v>
+        <v>7439648726</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="10">
-        <v>84</v>
+      <c r="A85" s="1">
+        <v>83</v>
       </c>
       <c r="B85" s="9">
         <v>45187</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="D85">
-        <v>7439235390</v>
+        <v>6290149228</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I85"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="9">
         <v>45187</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="D86">
-        <v>9831616972</v>
+        <v>7439235390</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I86"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="10">
-        <v>86</v>
+      <c r="A87" s="1">
+        <v>85</v>
       </c>
       <c r="B87" s="9">
         <v>45187</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="D87">
-        <v>9875642078</v>
+        <v>9831616972</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="9">
         <v>45187</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D88">
-        <v>9330260643</v>
+        <v>9875642078</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="10">
-        <v>88</v>
+      <c r="A89" s="1">
+        <v>87</v>
       </c>
       <c r="B89" s="9">
         <v>45187</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="D89">
-        <v>7865006160</v>
+        <v>9330260643</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="9">
         <v>45187</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D90">
-        <v>9933568503</v>
+        <v>7865006160</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="10">
-        <v>90</v>
+      <c r="A91" s="1">
+        <v>89</v>
       </c>
       <c r="B91" s="9">
         <v>45187</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>139</v>
+      <c r="C91" t="s">
+        <v>170</v>
       </c>
       <c r="D91">
-        <v>7980097885</v>
+        <v>9933568503</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I91"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="9">
         <v>45187</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="D92">
-        <v>8017803547</v>
+        <v>7980097885</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I92"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="10">
-        <v>92</v>
+      <c r="A93" s="1">
+        <v>91</v>
       </c>
       <c r="B93" s="9">
         <v>45187</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D93">
-        <v>8927931385</v>
+        <v>8017803547</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="9">
         <v>45187</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D94">
-        <v>9123811981</v>
+        <v>8927931385</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I94"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="10">
-        <v>94</v>
+      <c r="A95" s="1">
+        <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>45188</v>
-      </c>
-      <c r="C95" t="s">
-        <v>142</v>
+        <v>45187</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="D95">
-        <v>8789192117</v>
+        <v>9123811981</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="9">
         <v>45188</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="D96">
-        <v>7439261742</v>
+        <v>8789192117</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I96"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="10">
-        <v>96</v>
+      <c r="A97" s="1">
+        <v>95</v>
       </c>
       <c r="B97" s="9">
         <v>45188</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>144</v>
+      <c r="C97" t="s">
+        <v>168</v>
       </c>
       <c r="D97">
-        <v>8910136033</v>
+        <v>7439261742</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I97"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="9">
         <v>45188</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D98">
-        <v>8981502987</v>
+        <v>8910136033</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I98"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="10">
-        <v>98</v>
+      <c r="A99" s="1">
+        <v>97</v>
       </c>
       <c r="B99" s="9">
         <v>45188</v>
       </c>
-      <c r="C99" t="s">
-        <v>148</v>
+      <c r="C99" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D99">
-        <v>8133843005</v>
+        <v>8981502987</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I99"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="9">
         <v>45188</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="D100">
-        <v>6290583136</v>
+        <v>8133843005</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I100"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="10">
-        <v>100</v>
+      <c r="A101" s="1">
+        <v>99</v>
       </c>
       <c r="B101" s="9">
         <v>45188</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D101">
-        <v>8336817657</v>
+        <v>6290583136</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I101"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="9">
         <v>45188</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D102">
-        <v>9831493208</v>
+        <v>8336817657</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I102"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="10">
-        <v>102</v>
+      <c r="A103" s="1">
+        <v>101</v>
       </c>
       <c r="B103" s="9">
         <v>45188</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D103">
-        <v>7003540372</v>
+        <v>9831493208</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I103"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="9">
         <v>45188</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D104">
-        <v>7278448048</v>
+        <v>7003540372</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I104"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="10">
-        <v>104</v>
+      <c r="A105" s="1">
+        <v>103</v>
       </c>
       <c r="B105" s="9">
         <v>45188</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D105">
-        <v>9830826860</v>
+        <v>7278448048</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I105"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="9">
         <v>45188</v>
       </c>
       <c r="C106" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="D106">
-        <v>8420848861</v>
+        <v>9830826860</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I106"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="10">
-        <v>106</v>
+      <c r="A107" s="1">
+        <v>105</v>
       </c>
       <c r="B107" s="9">
         <v>45188</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D107">
-        <v>9872355769</v>
+        <v>8420848861</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I107"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="9">
         <v>45188</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D108">
-        <v>6294268223</v>
+        <v>9872355769</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I108"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="10">
-        <v>108</v>
+      <c r="A109" s="1">
+        <v>107</v>
       </c>
       <c r="B109" s="9">
         <v>45188</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="D109">
-        <v>9143297263</v>
+        <v>6294268223</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I109"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="9">
         <v>45188</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="D110">
-        <v>7890899876</v>
+        <v>9143297263</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I110"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="10">
-        <v>110</v>
+      <c r="A111" s="1">
+        <v>109</v>
       </c>
       <c r="B111" s="9">
         <v>45188</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D111">
-        <v>6289529539</v>
+        <v>7890899876</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I111"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="9">
         <v>45188</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="D112">
-        <v>9433055625</v>
+        <v>6289529539</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I112"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="10">
-        <v>112</v>
+      <c r="A113" s="1">
+        <v>111</v>
       </c>
       <c r="B113" s="9">
         <v>45188</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D113">
-        <v>9433221128</v>
+        <v>9433055625</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I113"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="9">
         <v>45188</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D114">
-        <v>8477712310</v>
+        <v>9433221128</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I114"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="10">
-        <v>114</v>
+      <c r="A115" s="1">
+        <v>113</v>
       </c>
       <c r="B115" s="9">
         <v>45188</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D115">
-        <v>628955425</v>
+        <v>8477712310</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I115"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="9">
         <v>45188</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D116">
-        <v>9477900494</v>
+        <v>628955425</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I116"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="10">
-        <v>116</v>
+      <c r="A117" s="1">
+        <v>115</v>
       </c>
       <c r="B117" s="9">
         <v>45188</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D117">
-        <v>8777706597</v>
+        <v>9477900494</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I117"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="9">
         <v>45188</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D118">
-        <v>9433256207</v>
+        <v>8777706597</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I118"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="10">
-        <v>118</v>
+      <c r="A119" s="1">
+        <v>117</v>
       </c>
       <c r="B119" s="9">
-        <v>45194</v>
+        <v>45188</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D119">
-        <v>7679591433</v>
+        <v>9433256207</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I119"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="9">
         <v>45194</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="D120">
-        <v>8016981657</v>
+        <v>7679591433</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I120"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="10">
-        <v>120</v>
+      <c r="A121" s="1">
+        <v>119</v>
       </c>
       <c r="B121" s="9">
         <v>45194</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D121">
-        <v>7596825771</v>
+        <v>8016981657</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I121"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="9">
         <v>45194</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D122">
-        <v>8240581466</v>
+        <v>7596825771</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I122"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="10">
-        <v>122</v>
+      <c r="A123" s="1">
+        <v>121</v>
       </c>
       <c r="B123" s="9">
         <v>45194</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="D123">
-        <v>9162975575</v>
+        <v>8240581466</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I123"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="9">
         <v>45194</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="D124">
-        <v>8609063557</v>
+        <v>9162975575</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I124"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="10">
-        <v>124</v>
+      <c r="A125" s="1">
+        <v>123</v>
       </c>
       <c r="B125" s="9">
         <v>45194</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="D125">
-        <v>6291578892</v>
+        <v>8609063557</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I125"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="9">
         <v>45194</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D126">
-        <v>9831874618</v>
+        <v>6291578892</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I126"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="10">
-        <v>126</v>
+      <c r="A127" s="1">
+        <v>125</v>
       </c>
       <c r="B127" s="9">
         <v>45194</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="D127">
-        <v>6289714787</v>
+        <v>9831874618</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I127"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="9">
         <v>45194</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D128">
-        <v>9679402181</v>
+        <v>6289714787</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I128"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="10">
-        <v>128</v>
+      <c r="A129" s="1">
+        <v>127</v>
       </c>
       <c r="B129" s="9">
-        <v>45204</v>
+        <v>45194</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="D129">
-        <v>9748494952</v>
+        <v>9679402181</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I129"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="9">
         <v>45204</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="D130">
-        <v>8100681522</v>
+        <v>9748494952</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I130"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="10">
-        <v>130</v>
+      <c r="A131" s="1">
+        <v>129</v>
       </c>
       <c r="B131" s="9">
         <v>45204</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D131">
-        <v>8609345322</v>
+        <v>8100681522</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I131"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="9">
         <v>45204</v>
       </c>
       <c r="C132" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="D132">
-        <v>9163931391</v>
+        <v>8609345322</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I132"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="10">
-        <v>132</v>
+      <c r="A133" s="1">
+        <v>131</v>
       </c>
       <c r="B133" s="9">
         <v>45204</v>
       </c>
       <c r="C133" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="D133">
-        <v>7003658621</v>
+        <v>9163931391</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I133"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="9">
         <v>45204</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D134">
-        <v>9993168842</v>
+        <v>7003658621</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I134"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12"/>
-      <c r="B1" s="57" t="s">
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9">
+        <v>45204</v>
+      </c>
+      <c r="C135" t="s">
+        <v>193</v>
+      </c>
+      <c r="D135">
+        <v>9993168842</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45193</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="13">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="12">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="12">
-        <v>13</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="12">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="12">
-        <v>15</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="12">
-        <v>16</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
+      <c r="I135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AEFA2-BB99-4172-BF91-9848526A5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395" tabRatio="540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prospects" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={7E67AF77-C060-4374-A850-FD124A910796}</author>
     <author>del</author>
@@ -38,7 +37,7 @@
     <author>tc={58FDE46B-717B-46FD-8359-F3C0EFFF690C}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K5" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="K6" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="K7" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K8" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K9" authorId="7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="259">
   <si>
     <t>Student Name</t>
   </si>
@@ -961,12 +960,18 @@
   </si>
   <si>
     <t>Which of these prospects will be ready for mock tests? Could we contact some for AI Jounior or other stuffs?</t>
+  </si>
+  <si>
+    <t>will call us tommorow</t>
+  </si>
+  <si>
+    <t>DIDN’T PICK UP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1583,31 +1588,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" customWidth="1"/>
-    <col min="12" max="12" width="14.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26.25">
+    <row r="1" spans="1:30" ht="25.5">
       <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" ht="25.5">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" ht="25.5">
       <c r="A7" s="50">
         <v>6</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" ht="25.5">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -1964,7 +1969,7 @@
       <c r="L11" s="53"/>
       <c r="M11" s="59"/>
     </row>
-    <row r="12" spans="1:30" s="20" customFormat="1">
+    <row r="12" spans="1:30" s="20" customFormat="1" ht="25.5">
       <c r="A12" s="46">
         <v>11</v>
       </c>
@@ -2074,7 +2079,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" ht="24">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="24">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3103,25 +3108,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.265625" customWidth="1"/>
-    <col min="11" max="11" width="14.73046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3136,7 +3141,7 @@
       <c r="G1" s="62"/>
       <c r="H1" s="62"/>
     </row>
-    <row r="2" spans="1:12" ht="24.75">
+    <row r="2" spans="1:12" ht="24">
       <c r="A2" s="12" t="s">
         <v>103</v>
       </c>
@@ -4410,7 +4415,7 @@
       <c r="F64"/>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4426,7 +4431,7 @@
       <c r="F65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4440,7 +4445,7 @@
       <c r="F66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4456,7 +4461,7 @@
       <c r="F67"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4490,7 +4495,7 @@
       <c r="F69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4506,7 +4511,7 @@
       <c r="F70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4522,7 +4527,7 @@
       <c r="F71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4538,7 +4543,7 @@
       <c r="F72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4572,7 +4577,7 @@
       <c r="F74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4592,8 +4597,11 @@
       <c r="I75" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4613,8 +4621,11 @@
       <c r="I76" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4634,8 +4645,11 @@
       <c r="I77" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4654,7 +4668,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4673,7 +4687,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="273">
   <si>
     <t>Student Name</t>
   </si>
@@ -966,6 +966,48 @@
   </si>
   <si>
     <t>DIDN’T PICK UP</t>
+  </si>
+  <si>
+    <t>DIDN’T PICKUP CALL</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>SWITCHED OFF</t>
+  </si>
+  <si>
+    <t>9 DIGIT NUMBER</t>
+  </si>
+  <si>
+    <t>NOT INTERSTED</t>
+  </si>
+  <si>
+    <t>SPECIAL CHILD</t>
+  </si>
+  <si>
+    <t>NOT INTERESTED</t>
+  </si>
+  <si>
+    <t>POTENTIAL</t>
+  </si>
+  <si>
+    <t>BUSY</t>
+  </si>
+  <si>
+    <t>INTERSTED</t>
+  </si>
+  <si>
+    <t>will call us LATER</t>
+  </si>
+  <si>
+    <t>NEXT YEAR</t>
+  </si>
+  <si>
+    <t>CARE-TAKERS NUMBER</t>
+  </si>
+  <si>
+    <t>WILL COME TO OUR OFFICE</t>
   </si>
 </sst>
 </file>
@@ -3111,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4667,6 +4709,9 @@
         <v>132</v>
       </c>
       <c r="I78"/>
+      <c r="J78" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1">
@@ -4686,6 +4731,9 @@
         <v>132</v>
       </c>
       <c r="I79"/>
+      <c r="J79" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1">
@@ -4705,8 +4753,11 @@
         <v>132</v>
       </c>
       <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4724,8 +4775,11 @@
         <v>132</v>
       </c>
       <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4743,8 +4797,11 @@
         <v>132</v>
       </c>
       <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4762,8 +4819,11 @@
         <v>132</v>
       </c>
       <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4781,8 +4841,11 @@
         <v>134</v>
       </c>
       <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4800,8 +4863,11 @@
         <v>134</v>
       </c>
       <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4819,8 +4885,11 @@
         <v>134</v>
       </c>
       <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4838,8 +4907,11 @@
         <v>134</v>
       </c>
       <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4857,8 +4929,11 @@
         <v>134</v>
       </c>
       <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4876,8 +4951,11 @@
         <v>134</v>
       </c>
       <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4895,8 +4973,11 @@
         <v>134</v>
       </c>
       <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4914,8 +4995,11 @@
         <v>134</v>
       </c>
       <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4933,8 +5017,11 @@
         <v>134</v>
       </c>
       <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4952,8 +5039,11 @@
         <v>134</v>
       </c>
       <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4971,8 +5061,11 @@
         <v>134</v>
       </c>
       <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4990,8 +5083,11 @@
         <v>134</v>
       </c>
       <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5009,8 +5105,11 @@
         <v>142</v>
       </c>
       <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5028,8 +5127,11 @@
         <v>142</v>
       </c>
       <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5047,8 +5149,11 @@
         <v>142</v>
       </c>
       <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5066,8 +5171,11 @@
         <v>145</v>
       </c>
       <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5085,8 +5193,11 @@
         <v>145</v>
       </c>
       <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5104,8 +5215,11 @@
         <v>145</v>
       </c>
       <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5124,7 +5238,7 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5143,7 +5257,7 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5162,7 +5276,7 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5181,7 +5295,7 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5200,7 +5314,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5219,7 +5333,7 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5238,7 +5352,7 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5257,7 +5371,7 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5276,7 +5390,7 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5295,7 +5409,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC54F8E-8C5C-4AB2-8877-C8A76B619328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A6DAE-9171-4EC6-8EDE-CD6D3E1B6B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="Prospects" sheetId="2" r:id="rId1"/>
     <sheet name="Notes" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,6 +45,7 @@
     <author>tc={7185A813-EFC8-435F-AB79-A43871C4A260}</author>
     <author>tc={588025E0-A0E6-4E4A-9495-C2EA9C676DAF}</author>
     <author>tc={006DA87C-A4D4-4EB6-A53D-8225376469C4}</author>
+    <author>tc={06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}</author>
   </authors>
   <commentList>
     <comment ref="L135" authorId="0" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
@@ -122,12 +132,20 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
+    <comment ref="L157" authorId="8" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Student is interested in vehicles. We can show robotics vehicles by Bappadito.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="286">
   <si>
     <t>Student Name</t>
   </si>
@@ -816,9 +834,6 @@
     <t>School Name</t>
   </si>
   <si>
-    <t>24/11/2023</t>
-  </si>
-  <si>
     <t>9830707027</t>
   </si>
   <si>
@@ -867,9 +882,6 @@
     <t>Triloknath</t>
   </si>
   <si>
-    <t>9433415786A</t>
-  </si>
-  <si>
     <t>AI and Commerce</t>
   </si>
   <si>
@@ -955,6 +967,42 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Soumyadip Kumar</t>
+  </si>
+  <si>
+    <t>Std 12</t>
+  </si>
+  <si>
+    <t>Wants to study Physics</t>
+  </si>
+  <si>
+    <t>Saranya Bhattacharjee</t>
+  </si>
+  <si>
+    <t>Indranil Bhattacharjee</t>
+  </si>
+  <si>
+    <t>Mock Test Humanities</t>
+  </si>
+  <si>
+    <t>9433415786</t>
+  </si>
+  <si>
+    <t>Madhuparna Acharya</t>
+  </si>
+  <si>
+    <t>9875492987</t>
+  </si>
+  <si>
+    <t>South City</t>
+  </si>
+  <si>
+    <t>AI &amp; Robotics</t>
+  </si>
+  <si>
+    <t>Sattaki Acharya</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,6 +1255,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,15 +1582,18 @@
   <threadedComment ref="L142" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
+  <threadedComment ref="L157" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+    <text>Student is interested in vehicles. We can show robotics vehicles by Bappadito.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1534,13 +1603,13 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1550,10 +1619,10 @@
         <v>103</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>0</v>
@@ -1618,7 +1687,7 @@
         <v>217</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1">
@@ -1650,7 +1719,7 @@
         <v>217</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1">
@@ -1682,7 +1751,7 @@
         <v>217</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1">
@@ -1714,7 +1783,7 @@
         <v>217</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1">
@@ -1746,7 +1815,7 @@
         <v>217</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1778,7 +1847,7 @@
         <v>217</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1810,7 +1879,7 @@
         <v>217</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1842,7 +1911,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1874,7 +1943,7 @@
         <v>217</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1906,7 +1975,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1938,7 +2007,7 @@
         <v>217</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1969,7 +2038,7 @@
         <v>217</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2001,7 +2070,7 @@
         <v>217</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2033,7 +2102,7 @@
         <v>217</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2065,7 +2134,7 @@
         <v>217</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2097,7 +2166,7 @@
         <v>217</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2129,7 +2198,7 @@
         <v>217</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2161,7 +2230,7 @@
         <v>217</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2193,7 +2262,7 @@
         <v>217</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2225,7 +2294,7 @@
         <v>217</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2257,7 +2326,7 @@
         <v>217</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2289,7 +2358,7 @@
         <v>217</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2321,7 +2390,7 @@
         <v>217</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2353,7 +2422,7 @@
         <v>217</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2385,7 +2454,7 @@
         <v>217</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2417,7 +2486,7 @@
         <v>217</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2449,7 +2518,7 @@
         <v>217</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2481,7 +2550,7 @@
         <v>217</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2513,7 +2582,7 @@
         <v>217</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2545,7 +2614,7 @@
         <v>217</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2577,7 +2646,7 @@
         <v>217</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2609,7 +2678,7 @@
         <v>217</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2641,7 +2710,7 @@
         <v>217</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2673,7 +2742,7 @@
         <v>217</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2705,7 +2774,7 @@
         <v>217</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2737,7 +2806,7 @@
         <v>217</v>
       </c>
       <c r="N37" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2769,7 +2838,7 @@
         <v>217</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2801,7 +2870,7 @@
         <v>217</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2833,7 +2902,7 @@
         <v>217</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2865,7 +2934,7 @@
         <v>217</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2897,7 +2966,7 @@
         <v>217</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2929,7 +2998,7 @@
         <v>217</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2961,7 +3030,7 @@
         <v>217</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2993,7 +3062,7 @@
         <v>217</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3025,7 +3094,7 @@
         <v>217</v>
       </c>
       <c r="N46" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3057,7 +3126,7 @@
         <v>217</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3089,7 +3158,7 @@
         <v>217</v>
       </c>
       <c r="N48" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3121,7 +3190,7 @@
         <v>217</v>
       </c>
       <c r="N49" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3153,7 +3222,7 @@
         <v>217</v>
       </c>
       <c r="N50" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3185,7 +3254,7 @@
         <v>217</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3217,7 +3286,7 @@
         <v>217</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3249,7 +3318,7 @@
         <v>217</v>
       </c>
       <c r="N53" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3281,7 +3350,7 @@
         <v>217</v>
       </c>
       <c r="N54" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3313,7 +3382,7 @@
         <v>217</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3345,7 +3414,7 @@
         <v>217</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3377,7 +3446,7 @@
         <v>217</v>
       </c>
       <c r="N57" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3409,7 +3478,7 @@
         <v>217</v>
       </c>
       <c r="N58" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3435,7 +3504,7 @@
         <v>217</v>
       </c>
       <c r="N59" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3465,7 +3534,7 @@
         <v>217</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3495,7 +3564,7 @@
         <v>217</v>
       </c>
       <c r="N61" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3527,7 +3596,7 @@
         <v>217</v>
       </c>
       <c r="N62" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3555,7 +3624,7 @@
         <v>217</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3583,7 +3652,7 @@
         <v>217</v>
       </c>
       <c r="N64" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3609,7 +3678,7 @@
         <v>217</v>
       </c>
       <c r="N65" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3637,7 +3706,7 @@
         <v>217</v>
       </c>
       <c r="N66" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3667,7 +3736,7 @@
         <v>217</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3695,7 +3764,7 @@
         <v>217</v>
       </c>
       <c r="N68" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3723,7 +3792,7 @@
         <v>217</v>
       </c>
       <c r="N69" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3751,7 +3820,7 @@
         <v>217</v>
       </c>
       <c r="N70" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3779,7 +3848,7 @@
         <v>217</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3809,7 +3878,7 @@
         <v>217</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3837,7 +3906,7 @@
         <v>217</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3867,7 +3936,7 @@
         <v>126</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="28"/>
@@ -3899,7 +3968,7 @@
         <v>128</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="28"/>
@@ -3931,7 +4000,7 @@
         <v>129</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="28"/>
@@ -3961,7 +4030,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
       <c r="L77" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="28"/>
@@ -3991,7 +4060,7 @@
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M78" s="31"/>
       <c r="N78" s="28"/>
@@ -4021,7 +4090,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M79" s="31"/>
       <c r="N79" s="28"/>
@@ -4051,7 +4120,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
       <c r="L80" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M80" s="31"/>
       <c r="N80" s="28"/>
@@ -4081,7 +4150,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
       <c r="L81" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M81" s="31"/>
       <c r="N81" s="28"/>
@@ -4111,7 +4180,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
       <c r="L82" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M82" s="31"/>
       <c r="N82" s="28"/>
@@ -4141,7 +4210,7 @@
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
       <c r="L83" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M83" s="31"/>
       <c r="N83" s="28"/>
@@ -4171,7 +4240,7 @@
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
       <c r="L84" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M84" s="31"/>
       <c r="N84" s="28"/>
@@ -4201,7 +4270,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
       <c r="L85" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M85" s="31"/>
       <c r="N85" s="28"/>
@@ -4231,7 +4300,7 @@
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
       <c r="L86" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M86" s="31"/>
       <c r="N86" s="28"/>
@@ -4261,7 +4330,7 @@
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
       <c r="L87" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M87" s="31"/>
       <c r="N87" s="28"/>
@@ -4291,7 +4360,7 @@
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
       <c r="L88" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M88" s="31"/>
       <c r="N88" s="28"/>
@@ -4321,7 +4390,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="28"/>
       <c r="L89" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M89" s="31"/>
       <c r="N89" s="28"/>
@@ -4351,7 +4420,7 @@
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
       <c r="L90" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M90" s="31"/>
       <c r="N90" s="28"/>
@@ -4381,7 +4450,7 @@
       <c r="J91" s="28"/>
       <c r="K91" s="28"/>
       <c r="L91" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M91" s="31"/>
       <c r="N91" s="28"/>
@@ -4411,7 +4480,7 @@
       <c r="J92" s="28"/>
       <c r="K92" s="28"/>
       <c r="L92" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M92" s="31"/>
       <c r="N92" s="28"/>
@@ -4441,7 +4510,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="28"/>
       <c r="L93" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M93" s="31"/>
       <c r="N93" s="28"/>
@@ -4471,7 +4540,7 @@
       <c r="J94" s="28"/>
       <c r="K94" s="28"/>
       <c r="L94" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M94" s="31"/>
       <c r="N94" s="28"/>
@@ -4501,7 +4570,7 @@
       <c r="J95" s="28"/>
       <c r="K95" s="28"/>
       <c r="L95" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M95" s="31"/>
       <c r="N95" s="28"/>
@@ -4531,7 +4600,7 @@
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
       <c r="L96" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M96" s="31"/>
       <c r="N96" s="28"/>
@@ -4561,7 +4630,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
       <c r="L97" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M97" s="31"/>
       <c r="N97" s="28"/>
@@ -4591,7 +4660,7 @@
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
       <c r="L98" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M98" s="31"/>
       <c r="N98" s="28"/>
@@ -4621,7 +4690,7 @@
       <c r="J99" s="28"/>
       <c r="K99" s="28"/>
       <c r="L99" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M99" s="31"/>
       <c r="N99" s="28"/>
@@ -4651,7 +4720,7 @@
       <c r="J100" s="28"/>
       <c r="K100" s="28"/>
       <c r="L100" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M100" s="31"/>
       <c r="N100" s="28"/>
@@ -4683,7 +4752,7 @@
         <v>217</v>
       </c>
       <c r="N101" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4713,7 +4782,7 @@
         <v>217</v>
       </c>
       <c r="N102" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4743,7 +4812,7 @@
         <v>217</v>
       </c>
       <c r="N103" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4773,7 +4842,7 @@
         <v>217</v>
       </c>
       <c r="N104" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4803,7 +4872,7 @@
         <v>217</v>
       </c>
       <c r="N105" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4833,7 +4902,7 @@
         <v>217</v>
       </c>
       <c r="N106" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -4863,7 +4932,7 @@
         <v>217</v>
       </c>
       <c r="N107" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4893,7 +4962,7 @@
         <v>217</v>
       </c>
       <c r="N108" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4923,7 +4992,7 @@
         <v>217</v>
       </c>
       <c r="N109" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4953,7 +5022,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -4983,7 +5052,7 @@
         <v>217</v>
       </c>
       <c r="N111" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5013,7 +5082,7 @@
         <v>217</v>
       </c>
       <c r="N112" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5043,7 +5112,7 @@
         <v>217</v>
       </c>
       <c r="N113" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5073,7 +5142,7 @@
         <v>217</v>
       </c>
       <c r="N114" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5103,7 +5172,7 @@
         <v>217</v>
       </c>
       <c r="N115" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5133,7 +5202,7 @@
         <v>217</v>
       </c>
       <c r="N116" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5163,7 +5232,7 @@
         <v>217</v>
       </c>
       <c r="N117" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5193,7 +5262,7 @@
         <v>217</v>
       </c>
       <c r="N118" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5223,7 +5292,7 @@
         <v>217</v>
       </c>
       <c r="N119" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5253,7 +5322,7 @@
         <v>217</v>
       </c>
       <c r="N120" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5283,7 +5352,7 @@
         <v>217</v>
       </c>
       <c r="N121" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5313,7 +5382,7 @@
         <v>217</v>
       </c>
       <c r="N122" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5343,7 +5412,7 @@
         <v>217</v>
       </c>
       <c r="N123" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5373,7 +5442,7 @@
         <v>217</v>
       </c>
       <c r="N124" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5403,7 +5472,7 @@
         <v>217</v>
       </c>
       <c r="N125" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5433,7 +5502,7 @@
         <v>217</v>
       </c>
       <c r="N126" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5463,7 +5532,7 @@
         <v>217</v>
       </c>
       <c r="N127" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5493,7 +5562,7 @@
         <v>217</v>
       </c>
       <c r="N128" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5523,7 +5592,7 @@
         <v>217</v>
       </c>
       <c r="N129" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -5553,7 +5622,7 @@
         <v>217</v>
       </c>
       <c r="N130" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5583,7 +5652,7 @@
         <v>217</v>
       </c>
       <c r="N131" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -5613,7 +5682,7 @@
         <v>217</v>
       </c>
       <c r="N132" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -5643,7 +5712,7 @@
         <v>217</v>
       </c>
       <c r="N133" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -5673,7 +5742,7 @@
         <v>217</v>
       </c>
       <c r="N134" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -5703,7 +5772,7 @@
       <c r="L135" s="12"/>
       <c r="M135" s="7"/>
       <c r="N135" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -5768,7 +5837,7 @@
         <v>220</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L137" s="12"/>
       <c r="M137" s="7" t="s">
@@ -5847,7 +5916,7 @@
         <v>217</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="26.4">
@@ -5883,7 +5952,7 @@
         <v>217</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="26.4">
@@ -5919,7 +5988,7 @@
         <v>217</v>
       </c>
       <c r="N141" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -5947,13 +6016,13 @@
         <v>212</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>217</v>
       </c>
       <c r="N142" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -5977,11 +6046,11 @@
       <c r="J143" s="22"/>
       <c r="K143" s="20"/>
       <c r="L143" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M143" s="16"/>
       <c r="N143" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6005,11 +6074,11 @@
       <c r="J144" s="22"/>
       <c r="K144" s="20"/>
       <c r="L144" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M144" s="16"/>
       <c r="N144" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="18.600000000000001" customHeight="1">
@@ -6082,19 +6151,19 @@
       <c r="A147" s="35">
         <v>146</v>
       </c>
-      <c r="B147" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C147" s="35" t="s">
-        <v>229</v>
+      <c r="B147" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C147" s="36">
+        <v>45254</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E147" s="37"/>
       <c r="F147" s="43"/>
       <c r="G147" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H147" s="29"/>
       <c r="I147" s="28"/>
@@ -6103,53 +6172,53 @@
       <c r="L147" s="28"/>
       <c r="M147" s="44"/>
       <c r="N147" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="27.6">
       <c r="A148" s="35">
         <v>147</v>
       </c>
-      <c r="B148" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C148" s="35" t="s">
-        <v>229</v>
+      <c r="B148" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C148" s="36">
+        <v>45254</v>
       </c>
       <c r="D148" s="42"/>
       <c r="E148" s="37"/>
       <c r="F148" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="G148" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="H148" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="H148" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="I148" s="28"/>
       <c r="J148" s="28"/>
       <c r="K148" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L148" s="28"/>
       <c r="M148" s="44"/>
       <c r="N148" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="35">
         <v>148</v>
       </c>
-      <c r="B149" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>229</v>
+      <c r="B149" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C149" s="36">
+        <v>45254</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E149" s="37">
         <v>9433635023</v>
@@ -6160,26 +6229,26 @@
       <c r="I149" s="28"/>
       <c r="J149" s="28"/>
       <c r="K149" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L149" s="28"/>
       <c r="M149" s="44"/>
       <c r="N149" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="35">
         <v>149</v>
       </c>
-      <c r="B150" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>229</v>
+      <c r="B150" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C150" s="36">
+        <v>45254</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E150" s="37">
         <v>6291747759</v>
@@ -6193,53 +6262,53 @@
       <c r="L150" s="28"/>
       <c r="M150" s="44"/>
       <c r="N150" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="35">
         <v>150</v>
       </c>
-      <c r="B151" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>229</v>
+      <c r="B151" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C151" s="36">
+        <v>45254</v>
       </c>
       <c r="D151" s="42"/>
       <c r="E151" s="37"/>
       <c r="F151" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G151" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="G151" s="29" t="s">
-        <v>240</v>
-      </c>
       <c r="H151" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I151" s="28"/>
       <c r="J151" s="28"/>
       <c r="K151" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L151" s="28"/>
       <c r="M151" s="44"/>
       <c r="N151" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="35">
         <v>151</v>
       </c>
-      <c r="B152" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>229</v>
+      <c r="B152" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C152" s="36">
+        <v>45254</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E152" s="37">
         <v>9007337237</v>
@@ -6250,26 +6319,26 @@
       <c r="I152" s="28"/>
       <c r="J152" s="28"/>
       <c r="K152" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L152" s="28"/>
       <c r="M152" s="44"/>
       <c r="N152" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="35">
         <v>152</v>
       </c>
-      <c r="B153" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C153" s="35" t="s">
-        <v>229</v>
+      <c r="B153" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C153" s="36">
+        <v>45254</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E153" s="37">
         <v>7890924561</v>
@@ -6285,39 +6354,130 @@
       <c r="L153" s="28"/>
       <c r="M153" s="44"/>
       <c r="N153" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="27.6">
       <c r="A154" s="35">
         <v>153</v>
       </c>
-      <c r="B154" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>229</v>
+      <c r="B154" s="36">
+        <v>45254</v>
+      </c>
+      <c r="C154" s="36">
+        <v>45254</v>
       </c>
       <c r="D154" s="42"/>
       <c r="E154" s="37"/>
       <c r="F154" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G154" s="29" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="H154" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I154" s="28"/>
       <c r="J154" s="28"/>
       <c r="K154" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L154" s="28"/>
       <c r="M154" s="44"/>
       <c r="N154" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="46">
+        <v>45262</v>
+      </c>
+      <c r="C155" s="46">
+        <v>45262</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E155" s="3">
+        <v>8335865511</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L155" t="s">
+        <v>275</v>
+      </c>
+      <c r="N155" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="46">
+        <v>45263</v>
+      </c>
+      <c r="C156" s="46">
+        <v>45263</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" t="s">
+        <v>278</v>
+      </c>
+      <c r="G156" s="47">
+        <v>8777380801</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M156" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N156" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="48">
+        <v>45264</v>
+      </c>
+      <c r="C157" s="48">
+        <v>45264</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="E157" s="50"/>
+      <c r="F157" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="G157" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="H157" s="53"/>
+      <c r="I157" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="J157" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="K157" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="L157" s="51"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="55" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6342,10 +6502,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6353,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5BDEB-17CE-4960-A53A-169E9B6C7E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B404A49-C76A-4E46-95BB-2E60F915B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="309">
   <si>
     <t>Student Name</t>
   </si>
@@ -1091,6 +1091,15 @@
   </si>
   <si>
     <t>AI ML</t>
+  </si>
+  <si>
+    <t>Jha</t>
+  </si>
+  <si>
+    <t>Mock Test</t>
+  </si>
+  <si>
+    <t>His son can give mock test</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1464,6 +1473,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,7 +1805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6797,20 +6807,37 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="47"/>
-      <c r="B161" s="51"/>
-      <c r="C161" s="51"/>
+      <c r="A161" s="47">
+        <v>160</v>
+      </c>
+      <c r="B161" s="73">
+        <v>45264</v>
+      </c>
+      <c r="C161" s="73">
+        <v>45264</v>
+      </c>
       <c r="D161" s="49"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="51"/>
-      <c r="G161" s="19"/>
+      <c r="F161" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="G161" s="50">
+        <v>9430501357</v>
+      </c>
       <c r="H161" s="52"/>
       <c r="I161" s="51"/>
-      <c r="J161" s="51"/>
-      <c r="K161" s="49"/>
-      <c r="L161" s="51"/>
+      <c r="J161" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="K161" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="L161" s="51" t="s">
+        <v>308</v>
+      </c>
       <c r="M161" s="53"/>
-      <c r="N161" s="51"/>
+      <c r="N161" s="51" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="47"/>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04A0E6-E79E-4E4A-AF6A-566536D84460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC524BF-E784-403A-A227-FDA78DD8E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B4F983C8-7CA2-499B-9BA2-EE1FF232C344}</author>
+    <author>tc={5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}</author>
+    <author>tc={45448100-AA57-47F2-B572-B76A2B5B2CB8}</author>
+    <author>tc={27AC4C6F-8492-4484-AC93-52BF102E5BBA}</author>
     <author>tc={F9F09DC9-4779-423A-8A97-51698EE11B5D}</author>
     <author>del</author>
     <author>tc={42F09BE5-1DCF-4810-B480-E82E54A58353}</author>
@@ -52,6 +55,7 @@
     <author>tc={020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}</author>
     <author>tc={C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}</author>
     <author>tc={E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}</author>
+    <author>tc={BD936E28-6500-430E-896F-A137AE40CCEB}</author>
   </authors>
   <commentList>
     <comment ref="L62" authorId="0" shapeId="0" xr:uid="{B4F983C8-7CA2-499B-9BA2-EE1FF232C344}">
@@ -62,7 +66,32 @@
     She is a potential candidate to take Selenium course. Her laptop is out of order. Followup Date 06-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L135" authorId="1" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
+    <comment ref="L102" authorId="1" shapeId="0" xr:uid="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Right now Abhirup is giving exam of Std X,hence he won't take any course.
+ We need to connect him after final examination.</t>
+      </text>
+    </comment>
+    <comment ref="L104" authorId="2" shapeId="0" xr:uid="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to do follow-up in every month.</t>
+      </text>
+    </comment>
+    <comment ref="L105" authorId="3" shapeId="0" xr:uid="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to do follow-up in every month.</t>
+      </text>
+    </comment>
+    <comment ref="L135" authorId="4" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +100,7 @@
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
       </text>
     </comment>
-    <comment ref="L136" authorId="2" shapeId="0" xr:uid="{F489F0F2-C518-426D-8D73-5380C467489D}">
+    <comment ref="L136" authorId="5" shapeId="0" xr:uid="{F489F0F2-C518-426D-8D73-5380C467489D}">
       <text>
         <r>
           <rPr>
@@ -97,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L137" authorId="3" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
+    <comment ref="L137" authorId="6" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +134,7 @@
     She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
       </text>
     </comment>
-    <comment ref="L138" authorId="4" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
+    <comment ref="L138" authorId="7" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +143,7 @@
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
-    <comment ref="L139" authorId="5" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
+    <comment ref="L139" authorId="8" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +151,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L140" authorId="6" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
+    <comment ref="L140" authorId="9" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +159,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L141" authorId="7" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
+    <comment ref="L141" authorId="10" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +167,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L142" authorId="8" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
+    <comment ref="L142" authorId="11" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +175,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L156" authorId="9" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+    <comment ref="L156" authorId="12" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +183,7 @@
     He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</t>
       </text>
     </comment>
-    <comment ref="L158" authorId="10" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+    <comment ref="L158" authorId="13" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +192,7 @@
 Demo class by Bappadito</t>
       </text>
     </comment>
-    <comment ref="L159" authorId="11" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+    <comment ref="L159" authorId="14" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +200,7 @@
     She is a working lady. Follow up date 05-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L160" authorId="12" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+    <comment ref="L160" authorId="15" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +208,7 @@
     His daughter studies in GD Birla in class IX.She needs coaching in Physics.</t>
       </text>
     </comment>
-    <comment ref="L161" authorId="13" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+    <comment ref="L161" authorId="16" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +216,7 @@
     She will come to our institute on Thursday 07-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L163" authorId="14" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+    <comment ref="L163" authorId="17" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,12 +225,21 @@
 </t>
       </text>
     </comment>
+    <comment ref="L164" authorId="18" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
+We need to give bio data of Avishek to his guardian Jui Haldar.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="317">
   <si>
     <t>Student Name</t>
   </si>
@@ -1137,6 +1175,21 @@
   </si>
   <si>
     <t>Physics - Std 12</t>
+  </si>
+  <si>
+    <t>Parijat Haldar</t>
+  </si>
+  <si>
+    <t>Jui Haldar</t>
+  </si>
+  <si>
+    <t>8017874272</t>
+  </si>
+  <si>
+    <t>Std XI Maths, JEE Maths</t>
+  </si>
+  <si>
+    <t>Goutam Das</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,7 +1425,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1426,6 +1478,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1433,12 +1519,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1730,6 +1810,16 @@
   <threadedComment ref="L62" dT="2023-12-04T11:54:48.95" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{B4F983C8-7CA2-499B-9BA2-EE1FF232C344}">
     <text>She is a potential candidate to take Selenium course. Her laptop is out of order. Followup Date 06-12-2023.</text>
   </threadedComment>
+  <threadedComment ref="L102" dT="2023-12-05T11:30:11.27" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
+    <text>Right now Abhirup is giving exam of Std X,hence he won't take any course.
+ We need to connect him after final examination.</text>
+  </threadedComment>
+  <threadedComment ref="L104" dT="2023-12-05T11:46:16.52" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
+    <text>Need to do follow-up in every month.</text>
+  </threadedComment>
+  <threadedComment ref="L105" dT="2023-12-05T11:46:26.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
+    <text>Need to do follow-up in every month.</text>
+  </threadedComment>
   <threadedComment ref="L135" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
     <text>Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</text>
@@ -1773,6 +1863,10 @@
     <text xml:space="preserve">He told to call on 06-12-2023 at 3 PM.
 </text>
   </threadedComment>
+  <threadedComment ref="L164" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+    <text>Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
+We need to give bio data of Avishek to his guardian Jui Haldar.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1780,27 +1874,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="46" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
@@ -1926,7 +2020,7 @@
         <v>9804666470</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="9"/>
       <c r="I4" s="8" t="s">
         <v>8</v>
@@ -1958,7 +2052,7 @@
         <v>9007420629</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="9"/>
       <c r="I5" s="8" t="s">
         <v>94</v>
@@ -1990,7 +2084,7 @@
         <v>9007799541</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="9"/>
       <c r="I6" s="8" t="s">
         <v>43</v>
@@ -2022,7 +2116,7 @@
         <v>7439306825</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>92</v>
@@ -2054,7 +2148,7 @@
         <v>8697960232</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
       <c r="I8" s="17" t="s">
         <v>90</v>
@@ -2086,7 +2180,7 @@
         <v>9830963853</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="9"/>
       <c r="I9" s="17" t="s">
         <v>88</v>
@@ -2118,7 +2212,7 @@
         <v>9903482607</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="9"/>
       <c r="I10" s="17" t="s">
         <v>27</v>
@@ -2150,7 +2244,7 @@
         <v>9674122749</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="9"/>
       <c r="I11" s="17" t="s">
         <v>17</v>
@@ -2182,7 +2276,7 @@
         <v>8902792233</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="9"/>
       <c r="I12" s="17" t="s">
         <v>27</v>
@@ -2214,7 +2308,7 @@
         <v>8981518461</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="21"/>
       <c r="I13" s="17" t="s">
         <v>17</v>
@@ -2246,7 +2340,7 @@
         <v>6291394017</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="9"/>
       <c r="I14" s="17" t="s">
         <v>53</v>
@@ -2278,7 +2372,7 @@
         <v>8240045609</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="I15" s="17" t="s">
         <v>53</v>
@@ -2310,7 +2404,7 @@
         <v>9734020100</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="9"/>
       <c r="I16" s="17" t="s">
         <v>27</v>
@@ -2342,7 +2436,7 @@
         <v>7029550368</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="9"/>
       <c r="I17" s="17" t="s">
         <v>77</v>
@@ -2374,7 +2468,7 @@
         <v>7477479911</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="9"/>
       <c r="I18" s="17" t="s">
         <v>27</v>
@@ -2406,7 +2500,7 @@
         <v>9163148376</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="9"/>
       <c r="I19" s="17" t="s">
         <v>74</v>
@@ -2438,7 +2532,7 @@
         <v>9339422735</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="9"/>
       <c r="I20" s="17" t="s">
         <v>17</v>
@@ -2470,7 +2564,7 @@
         <v>9073931456</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="9"/>
       <c r="I21" s="17" t="s">
         <v>70</v>
@@ -2502,7 +2596,7 @@
         <v>7980429704</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="I22" s="17" t="s">
         <v>17</v>
@@ -2534,7 +2628,7 @@
         <v>8617256144</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="9"/>
       <c r="I23" s="17" t="s">
         <v>27</v>
@@ -2566,7 +2660,7 @@
         <v>9153399782</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="9"/>
       <c r="I24" s="17" t="s">
         <v>66</v>
@@ -2598,7 +2692,7 @@
         <v>9432305281</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="9"/>
       <c r="I25" s="17" t="s">
         <v>27</v>
@@ -2630,7 +2724,7 @@
         <v>8582862129</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="9"/>
       <c r="I26" s="17" t="s">
         <v>43</v>
@@ -2662,7 +2756,7 @@
         <v>9836325815</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="9"/>
       <c r="I27" s="17" t="s">
         <v>63</v>
@@ -2694,7 +2788,7 @@
         <v>9321586870</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="9"/>
       <c r="I28" s="17" t="s">
         <v>43</v>
@@ -2726,7 +2820,7 @@
         <v>9830328851</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="30"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="I29" s="17" t="s">
         <v>27</v>
@@ -2758,7 +2852,7 @@
         <v>9073950900</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="30"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="9"/>
       <c r="I30" s="17" t="s">
         <v>59</v>
@@ -2790,7 +2884,7 @@
         <v>9560621777</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="9"/>
       <c r="I31" s="17" t="s">
         <v>57</v>
@@ -2822,7 +2916,7 @@
         <v>7370988146</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="9"/>
       <c r="I32" s="17" t="s">
         <v>27</v>
@@ -2854,7 +2948,7 @@
         <v>8240580651</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="9"/>
       <c r="I33" s="17" t="s">
         <v>27</v>
@@ -2886,7 +2980,7 @@
         <v>9831921605</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="30"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="9"/>
       <c r="I34" s="17" t="s">
         <v>53</v>
@@ -2918,7 +3012,7 @@
         <v>9330061807</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="9"/>
       <c r="I35" s="17" t="s">
         <v>27</v>
@@ -2950,7 +3044,7 @@
         <v>8887850034</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="30"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="9"/>
       <c r="I36" s="17" t="s">
         <v>27</v>
@@ -2982,7 +3076,7 @@
         <v>9382353541</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="9"/>
       <c r="I37" s="17" t="s">
         <v>27</v>
@@ -3014,7 +3108,7 @@
         <v>6291764011</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="9"/>
       <c r="I38" s="17" t="s">
         <v>27</v>
@@ -3046,7 +3140,7 @@
         <v>9123066614</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="9"/>
       <c r="I39" s="17" t="s">
         <v>11</v>
@@ -3078,7 +3172,7 @@
         <v>7044076484</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="9"/>
       <c r="I40" s="17" t="s">
         <v>11</v>
@@ -3110,7 +3204,7 @@
         <v>6290369571</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="9"/>
       <c r="I41" s="17" t="s">
         <v>43</v>
@@ -3142,7 +3236,7 @@
         <v>8240456328</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="9"/>
       <c r="I42" s="17" t="s">
         <v>41</v>
@@ -3174,7 +3268,7 @@
         <v>8777056761</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="9"/>
       <c r="I43" s="17" t="s">
         <v>37</v>
@@ -3206,7 +3300,7 @@
         <v>7628069343</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="30"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="9"/>
       <c r="I44" s="17" t="s">
         <v>37</v>
@@ -3238,7 +3332,7 @@
         <v>7980835215</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="29"/>
       <c r="H45" s="9"/>
       <c r="I45" s="17" t="s">
         <v>17</v>
@@ -3270,7 +3364,7 @@
         <v>9330804219</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="30"/>
+      <c r="G46" s="29"/>
       <c r="H46" s="9"/>
       <c r="I46" s="17" t="s">
         <v>34</v>
@@ -3302,7 +3396,7 @@
         <v>8584068988</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="9"/>
       <c r="I47" s="17" t="s">
         <v>17</v>
@@ -3334,7 +3428,7 @@
         <v>8240996600</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="30"/>
+      <c r="G48" s="29"/>
       <c r="H48" s="9"/>
       <c r="I48" s="17" t="s">
         <v>31</v>
@@ -3366,7 +3460,7 @@
         <v>8697349807</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="30"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="9"/>
       <c r="I49" s="17" t="s">
         <v>11</v>
@@ -3398,7 +3492,7 @@
         <v>8900200144</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="30"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="9"/>
       <c r="I50" s="17" t="s">
         <v>27</v>
@@ -3430,7 +3524,7 @@
         <v>9679872726</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="30"/>
+      <c r="G51" s="29"/>
       <c r="H51" s="9"/>
       <c r="I51" s="17" t="s">
         <v>17</v>
@@ -3462,7 +3556,7 @@
         <v>9143179780</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="30"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="9"/>
       <c r="I52" s="17" t="s">
         <v>17</v>
@@ -3494,7 +3588,7 @@
         <v>9051329877</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="30"/>
+      <c r="G53" s="29"/>
       <c r="H53" s="9"/>
       <c r="I53" s="17" t="s">
         <v>11</v>
@@ -3526,7 +3620,7 @@
         <v>7439940754</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="30"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="9"/>
       <c r="I54" s="17" t="s">
         <v>20</v>
@@ -3558,7 +3652,7 @@
         <v>7602684338</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="30"/>
+      <c r="G55" s="29"/>
       <c r="H55" s="9"/>
       <c r="I55" s="17" t="s">
         <v>17</v>
@@ -3590,7 +3684,7 @@
         <v>7584994196</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="30"/>
+      <c r="G56" s="29"/>
       <c r="H56" s="9"/>
       <c r="I56" s="17" t="s">
         <v>14</v>
@@ -3622,7 +3716,7 @@
         <v>9330285792</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="30"/>
+      <c r="G57" s="29"/>
       <c r="H57" s="9"/>
       <c r="I57" s="17" t="s">
         <v>11</v>
@@ -3774,7 +3868,7 @@
         <v>7044757677</v>
       </c>
       <c r="F62" s="24"/>
-      <c r="G62" s="42"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24" t="s">
         <v>112</v>
@@ -4102,1013 +4196,1029 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="54">
         <v>73</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="26">
         <v>45187</v>
       </c>
       <c r="C74" s="26">
         <v>45261</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="50">
         <v>9830540969</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17" t="s">
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17" t="s">
+      <c r="J74" s="50"/>
+      <c r="K74" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="L74" s="17" t="s">
+      <c r="L74" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="50" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="A75" s="54">
         <v>74</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="26">
         <v>45187</v>
       </c>
       <c r="C75" s="26">
         <v>45261</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="50">
         <v>9875597274</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17" t="s">
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17" t="s">
+      <c r="J75" s="50"/>
+      <c r="K75" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="L75" s="17" t="s">
+      <c r="L75" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="50" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="54">
         <v>75</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76" s="26">
         <v>45187</v>
       </c>
       <c r="C76" s="26">
         <v>45261</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="50">
         <v>9831649789</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17" t="s">
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17" t="s">
+      <c r="J76" s="50"/>
+      <c r="K76" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="L76" s="17" t="s">
+      <c r="L76" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="50" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="54">
         <v>76</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="26">
         <v>45187</v>
       </c>
       <c r="C77" s="26">
         <v>45261</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="50">
         <v>7044454791</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17" t="s">
+      <c r="F77" s="50"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17" t="s">
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="50" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="54">
         <v>77</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="26">
         <v>45187</v>
       </c>
       <c r="C78" s="26">
         <v>45261</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="50">
         <v>9051070314</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17" t="s">
+      <c r="F78" s="50"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17" t="s">
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="50"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="A79" s="54">
         <v>78</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79" s="26">
         <v>45187</v>
       </c>
       <c r="C79" s="26">
         <v>45261</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="50">
         <v>8100234251</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17" t="s">
+      <c r="F79" s="50"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17" t="s">
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="50"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="54">
         <v>79</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="26">
         <v>45187</v>
       </c>
       <c r="C80" s="26">
         <v>45261</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="50">
         <v>895612401</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17" t="s">
+      <c r="F80" s="50"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17" t="s">
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="50"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="A81" s="54">
         <v>80</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81" s="26">
         <v>45187</v>
       </c>
       <c r="C81" s="26">
         <v>45261</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="50">
         <v>9038607618</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17" t="s">
+      <c r="F81" s="50"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17" t="s">
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="50"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="54">
         <v>81</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="26">
         <v>45187</v>
       </c>
       <c r="C82" s="26">
         <v>45261</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="50">
         <v>9123738352</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17" t="s">
+      <c r="F82" s="50"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17" t="s">
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="50"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="A83" s="54">
         <v>82</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83" s="26">
         <v>45187</v>
       </c>
       <c r="C83" s="26">
         <v>45261</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="50">
         <v>7439648726</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17" t="s">
+      <c r="F83" s="50"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17" t="s">
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="50"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="54">
         <v>83</v>
       </c>
-      <c r="B84" s="22">
+      <c r="B84" s="26">
         <v>45187</v>
       </c>
       <c r="C84" s="26">
         <v>45261</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="50">
         <v>6290149228</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17" t="s">
+      <c r="F84" s="50"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17" t="s">
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="50"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="A85" s="54">
         <v>84</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="26">
         <v>45187</v>
       </c>
       <c r="C85" s="26">
         <v>45261</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="50">
         <v>7439235390</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17" t="s">
+      <c r="F85" s="50"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17" t="s">
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="50"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="54">
         <v>85</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86" s="26">
         <v>45187</v>
       </c>
       <c r="C86" s="26">
         <v>45261</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="50">
         <v>9831616972</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17" t="s">
+      <c r="F86" s="50"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17" t="s">
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="50"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="A87" s="54">
         <v>86</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="26">
         <v>45187</v>
       </c>
       <c r="C87" s="26">
         <v>45261</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="50">
         <v>9875642078</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17" t="s">
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17" t="s">
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="50"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="54">
         <v>87</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="26">
         <v>45187</v>
       </c>
       <c r="C88" s="26">
         <v>45261</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="50">
         <v>9330260643</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17" t="s">
+      <c r="F88" s="50"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17" t="s">
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="50"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="A89" s="54">
         <v>88</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="26">
         <v>45187</v>
       </c>
       <c r="C89" s="26">
         <v>45261</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="50">
         <v>7865006160</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17" t="s">
+      <c r="F89" s="50"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17" t="s">
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17" t="s">
+      <c r="M89" s="52"/>
+      <c r="N89" s="50" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="54">
         <v>89</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="26">
         <v>45187</v>
       </c>
       <c r="C90" s="26">
         <v>45261</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="50">
         <v>9933568503</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17" t="s">
+      <c r="F90" s="50"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17" t="s">
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="50"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="A91" s="54">
         <v>90</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="26">
         <v>45187</v>
       </c>
       <c r="C91" s="26">
         <v>45261</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="50">
         <v>7980097885</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17" t="s">
+      <c r="F91" s="50"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17" t="s">
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17" t="s">
+      <c r="M91" s="52"/>
+      <c r="N91" s="50" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="54">
         <v>91</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="26">
         <v>45187</v>
       </c>
       <c r="C92" s="26">
         <v>45261</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="50">
         <v>8017803547</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17" t="s">
+      <c r="F92" s="50"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17" t="s">
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17" t="s">
+      <c r="M92" s="52"/>
+      <c r="N92" s="50" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="A93" s="54">
         <v>92</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93" s="26">
         <v>45187</v>
       </c>
       <c r="C93" s="26">
         <v>45261</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="50">
         <v>8927931385</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17" t="s">
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17" t="s">
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="50"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="54">
         <v>93</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B94" s="26">
         <v>45187</v>
       </c>
       <c r="C94" s="26">
         <v>45261</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="50">
         <v>9123811981</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17" t="s">
+      <c r="F94" s="50"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17" t="s">
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17" t="s">
+      <c r="M94" s="52"/>
+      <c r="N94" s="50" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="A95" s="54">
         <v>94</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95" s="26">
         <v>45188</v>
       </c>
       <c r="C95" s="26">
         <v>45261</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="50">
         <v>8789192117</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17" t="s">
+      <c r="F95" s="50"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17" t="s">
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17"/>
+      <c r="M95" s="52"/>
+      <c r="N95" s="50"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="54">
         <v>95</v>
       </c>
-      <c r="B96" s="22">
+      <c r="B96" s="26">
         <v>45188</v>
       </c>
       <c r="C96" s="26">
         <v>45261</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="50">
         <v>7439261742</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17" t="s">
+      <c r="F96" s="50"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17" t="s">
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17" t="s">
+      <c r="M96" s="52"/>
+      <c r="N96" s="50" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="A97" s="54">
         <v>96</v>
       </c>
-      <c r="B97" s="22">
+      <c r="B97" s="26">
         <v>45188</v>
       </c>
       <c r="C97" s="26">
         <v>45261</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="50">
         <v>8910136033</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17" t="s">
+      <c r="F97" s="50"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17" t="s">
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17" t="s">
+      <c r="M97" s="52"/>
+      <c r="N97" s="50" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="54">
         <v>97</v>
       </c>
-      <c r="B98" s="22">
+      <c r="B98" s="26">
         <v>45188</v>
       </c>
       <c r="C98" s="26">
         <v>45261</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="50">
         <v>8981502987</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17" t="s">
+      <c r="F98" s="50"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17" t="s">
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="50"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+      <c r="A99" s="54">
         <v>98</v>
       </c>
-      <c r="B99" s="22">
+      <c r="B99" s="26">
         <v>45188</v>
       </c>
       <c r="C99" s="26">
         <v>45261</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="50">
         <v>8133843005</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17" t="s">
+      <c r="F99" s="50"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17" t="s">
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="50"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="A100" s="54">
         <v>99</v>
       </c>
-      <c r="B100" s="22">
+      <c r="B100" s="26">
         <v>45188</v>
       </c>
       <c r="C100" s="26">
         <v>45261</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="50">
         <v>6290583136</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17" t="s">
+      <c r="F100" s="50"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17" t="s">
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17" t="s">
+      <c r="M100" s="52"/>
+      <c r="N100" s="50" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="A101" s="55">
         <v>100</v>
       </c>
-      <c r="B101" s="22">
+      <c r="B101" s="56">
         <v>45188</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="17" t="s">
+      <c r="C101" s="56">
+        <v>45265</v>
+      </c>
+      <c r="D101" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="57">
         <v>8336817657</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17" t="s">
+      <c r="F101" s="57"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="18" t="s">
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="57"/>
+      <c r="M101" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N101" s="18" t="s">
+      <c r="N101" s="59" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="A102" s="55">
         <v>101</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B102" s="56">
         <v>45188</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="17" t="s">
+      <c r="C102" s="56">
+        <v>45265</v>
+      </c>
+      <c r="D102" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="60"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="58">
         <v>9831493208</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17" t="s">
+      <c r="H102" s="57"/>
+      <c r="I102" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="18" t="s">
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N102" s="18" t="s">
-        <v>268</v>
+      <c r="N102" s="59" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
+      <c r="A103" s="55">
         <v>102</v>
       </c>
-      <c r="B103" s="22">
+      <c r="B103" s="56">
         <v>45188</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="17" t="s">
+      <c r="C103" s="56">
+        <v>45265</v>
+      </c>
+      <c r="D103" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="57">
         <v>7003540372</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17" t="s">
+      <c r="F103" s="57"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="18" t="s">
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N103" s="18" t="s">
-        <v>268</v>
+      <c r="N103" s="59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="A104" s="55">
         <v>103</v>
       </c>
-      <c r="B104" s="22">
+      <c r="B104" s="56">
         <v>45188</v>
       </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="17" t="s">
+      <c r="C104" s="56"/>
+      <c r="D104" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="61"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57">
         <v>7278448048</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17" t="s">
+      <c r="H104" s="57"/>
+      <c r="I104" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="18" t="s">
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N104" s="18" t="s">
-        <v>268</v>
+      <c r="N104" s="59" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
+      <c r="A105" s="55">
         <v>104</v>
       </c>
-      <c r="B105" s="22">
+      <c r="B105" s="56">
         <v>45188</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="17" t="s">
+      <c r="C105" s="56"/>
+      <c r="D105" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="61"/>
+      <c r="F105" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" s="57">
         <v>9830826860</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17" t="s">
+      <c r="H105" s="57"/>
+      <c r="I105" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="18" t="s">
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N105" s="18" t="s">
-        <v>268</v>
+      <c r="N105" s="59" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="A106" s="55">
         <v>105</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="56">
         <v>45188</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="17" t="s">
+      <c r="C106" s="56"/>
+      <c r="D106" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="57">
         <v>8420848861</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17" t="s">
+      <c r="F106" s="57"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="18" t="s">
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="N106" s="18" t="s">
-        <v>268</v>
+      <c r="N106" s="59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -5966,17 +6076,17 @@
       <c r="F135" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G135" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="H135" s="28"/>
+      <c r="H135" s="27"/>
       <c r="I135" s="17" t="s">
         <v>17</v>
       </c>
       <c r="J135" s="17"/>
       <c r="K135" s="19"/>
       <c r="L135" s="17"/>
-      <c r="M135" s="29"/>
+      <c r="M135" s="28"/>
       <c r="N135" s="18" t="s">
         <v>268</v>
       </c>
@@ -6010,7 +6120,7 @@
         <v>201</v>
       </c>
       <c r="L136" s="17"/>
-      <c r="M136" s="29" t="s">
+      <c r="M136" s="28" t="s">
         <v>214</v>
       </c>
       <c r="N136" s="17" t="s">
@@ -6032,10 +6142,10 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="30" t="s">
+      <c r="G137" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="H137" s="30"/>
+      <c r="H137" s="29"/>
       <c r="I137" s="8" t="s">
         <v>14</v>
       </c>
@@ -6046,7 +6156,7 @@
         <v>248</v>
       </c>
       <c r="L137" s="17"/>
-      <c r="M137" s="29" t="s">
+      <c r="M137" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N137" s="17" t="s">
@@ -6068,10 +6178,10 @@
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="19"/>
-      <c r="G138" s="30" t="s">
+      <c r="G138" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="H138" s="30"/>
+      <c r="H138" s="29"/>
       <c r="I138" s="8" t="s">
         <v>213</v>
       </c>
@@ -6082,7 +6192,7 @@
         <v>202</v>
       </c>
       <c r="L138" s="17"/>
-      <c r="M138" s="29" t="s">
+      <c r="M138" s="28" t="s">
         <v>214</v>
       </c>
       <c r="N138" s="17" t="s">
@@ -6104,10 +6214,10 @@
       <c r="F139" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G139" s="30" t="s">
+      <c r="G139" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H139" s="30"/>
+      <c r="H139" s="29"/>
       <c r="I139" s="8" t="s">
         <v>11</v>
       </c>
@@ -6118,7 +6228,7 @@
         <v>211</v>
       </c>
       <c r="L139" s="17"/>
-      <c r="M139" s="29" t="s">
+      <c r="M139" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N139" s="17" t="s">
@@ -6135,17 +6245,17 @@
       <c r="C140" s="22">
         <v>45246</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="30" t="s">
         <v>283</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G140" s="30" t="s">
+      <c r="G140" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="H140" s="30"/>
+      <c r="H140" s="29"/>
       <c r="I140" s="8" t="s">
         <v>70</v>
       </c>
@@ -6156,7 +6266,7 @@
         <v>211</v>
       </c>
       <c r="L140" s="17"/>
-      <c r="M140" s="29" t="s">
+      <c r="M140" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N140" s="17" t="s">
@@ -6178,10 +6288,10 @@
       <c r="F141" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G141" s="30" t="s">
+      <c r="G141" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="H141" s="30"/>
+      <c r="H141" s="29"/>
       <c r="I141" s="8" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6302,7 @@
         <v>211</v>
       </c>
       <c r="L141" s="17"/>
-      <c r="M141" s="29" t="s">
+      <c r="M141" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N141" s="17" t="s">
@@ -6214,10 +6324,10 @@
       <c r="F142" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G142" s="30" t="s">
+      <c r="G142" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="H142" s="30"/>
+      <c r="H142" s="29"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
       <c r="K142" s="17" t="s">
@@ -6226,7 +6336,7 @@
       <c r="L142" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="M142" s="29" t="s">
+      <c r="M142" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N142" s="17" t="s">
@@ -6237,27 +6347,27 @@
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="32">
+      <c r="B143" s="31">
         <v>45246</v>
       </c>
-      <c r="C143" s="32">
+      <c r="C143" s="31">
         <v>45246</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="34"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="37" t="s">
+      <c r="E143" s="33"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="34"/>
+      <c r="L143" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="M143" s="38"/>
-      <c r="N143" s="37" t="s">
+      <c r="M143" s="37"/>
+      <c r="N143" s="36" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6265,27 +6375,27 @@
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="32">
+      <c r="B144" s="31">
         <v>45246</v>
       </c>
-      <c r="C144" s="32">
+      <c r="C144" s="31">
         <v>45246</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E144" s="34"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="37" t="s">
+      <c r="E144" s="33"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="34"/>
+      <c r="L144" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="M144" s="38"/>
-      <c r="N144" s="37" t="s">
+      <c r="M144" s="37"/>
+      <c r="N144" s="36" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6304,10 +6414,10 @@
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="28" t="s">
+      <c r="G145" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="H145" s="28"/>
+      <c r="H145" s="27"/>
       <c r="I145" s="17"/>
       <c r="J145" s="8" t="s">
         <v>160</v>
@@ -6318,7 +6428,7 @@
       <c r="L145" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="M145" s="29" t="s">
+      <c r="M145" s="28" t="s">
         <v>214</v>
       </c>
       <c r="N145" s="17" t="s">
@@ -6338,8 +6448,8 @@
       <c r="D146" s="19"/>
       <c r="E146" s="20"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
       <c r="I146" s="17"/>
       <c r="J146" s="17" t="s">
         <v>225</v>
@@ -6348,7 +6458,7 @@
         <v>226</v>
       </c>
       <c r="L146" s="17"/>
-      <c r="M146" s="29" t="s">
+      <c r="M146" s="28" t="s">
         <v>216</v>
       </c>
       <c r="N146" s="17" t="s">
@@ -6370,15 +6480,15 @@
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="30" t="s">
+      <c r="G147" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="H147" s="30"/>
+      <c r="H147" s="29"/>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
       <c r="K147" s="19"/>
       <c r="L147" s="17"/>
-      <c r="M147" s="29"/>
+      <c r="M147" s="28"/>
       <c r="N147" s="17" t="s">
         <v>270</v>
       </c>
@@ -6398,10 +6508,10 @@
       <c r="F148" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G148" s="30" t="s">
+      <c r="G148" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="H148" s="30" t="s">
+      <c r="H148" s="29" t="s">
         <v>232</v>
       </c>
       <c r="I148" s="17"/>
@@ -6410,7 +6520,7 @@
         <v>234</v>
       </c>
       <c r="L148" s="17"/>
-      <c r="M148" s="29"/>
+      <c r="M148" s="28"/>
       <c r="N148" s="17" t="s">
         <v>270</v>
       </c>
@@ -6432,15 +6542,15 @@
         <v>9433635023</v>
       </c>
       <c r="F149" s="8"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
       <c r="K149" s="19" t="s">
         <v>235</v>
       </c>
       <c r="L149" s="17"/>
-      <c r="M149" s="29"/>
+      <c r="M149" s="28"/>
       <c r="N149" s="17" t="s">
         <v>270</v>
       </c>
@@ -6462,13 +6572,13 @@
         <v>6291747759</v>
       </c>
       <c r="F150" s="8"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
       <c r="I150" s="17"/>
       <c r="J150" s="17"/>
       <c r="K150" s="19"/>
       <c r="L150" s="17"/>
-      <c r="M150" s="29"/>
+      <c r="M150" s="28"/>
       <c r="N150" s="17" t="s">
         <v>270</v>
       </c>
@@ -6488,10 +6598,10 @@
       <c r="F151" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G151" s="30" t="s">
+      <c r="G151" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="H151" s="30" t="s">
+      <c r="H151" s="29" t="s">
         <v>240</v>
       </c>
       <c r="I151" s="17"/>
@@ -6500,7 +6610,7 @@
         <v>239</v>
       </c>
       <c r="L151" s="17"/>
-      <c r="M151" s="29"/>
+      <c r="M151" s="28"/>
       <c r="N151" s="17" t="s">
         <v>270</v>
       </c>
@@ -6522,15 +6632,15 @@
         <v>9007337237</v>
       </c>
       <c r="F152" s="8"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
       <c r="K152" s="19" t="s">
         <v>247</v>
       </c>
       <c r="L152" s="17"/>
-      <c r="M152" s="29"/>
+      <c r="M152" s="28"/>
       <c r="N152" s="17" t="s">
         <v>270</v>
       </c>
@@ -6552,15 +6662,15 @@
         <v>7890924561</v>
       </c>
       <c r="F153" s="8"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
       <c r="K153" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L153" s="17"/>
-      <c r="M153" s="29"/>
+      <c r="M153" s="28"/>
       <c r="N153" s="17" t="s">
         <v>270</v>
       </c>
@@ -6580,19 +6690,19 @@
       <c r="F154" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G154" s="30" t="s">
+      <c r="G154" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="H154" s="30" t="s">
+      <c r="H154" s="29" t="s">
         <v>232</v>
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="31" t="s">
+      <c r="K154" s="30" t="s">
         <v>244</v>
       </c>
       <c r="L154" s="17"/>
-      <c r="M154" s="29"/>
+      <c r="M154" s="28"/>
       <c r="N154" s="17" t="s">
         <v>270</v>
       </c>
@@ -6607,18 +6717,18 @@
       <c r="C155" s="23">
         <v>45262</v>
       </c>
-      <c r="D155" s="42" t="s">
+      <c r="D155" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E155" s="43"/>
-      <c r="F155" s="42">
+      <c r="E155" s="42"/>
+      <c r="F155" s="41">
         <v>7596961155</v>
       </c>
-      <c r="G155" s="52"/>
-      <c r="H155" s="39"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="38"/>
       <c r="I155" s="24"/>
       <c r="J155" s="24"/>
-      <c r="K155" s="42" t="s">
+      <c r="K155" s="41" t="s">
         <v>311</v>
       </c>
       <c r="L155" s="24"/>
@@ -6637,20 +6747,20 @@
       <c r="C156" s="23">
         <v>45262</v>
       </c>
-      <c r="D156" s="42" t="s">
+      <c r="D156" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E156" s="43">
+      <c r="E156" s="42">
         <v>8335865511</v>
       </c>
       <c r="F156" s="24"/>
-      <c r="G156" s="52"/>
-      <c r="H156" s="39"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="38"/>
       <c r="I156" s="24"/>
       <c r="J156" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K156" s="42" t="s">
+      <c r="K156" s="41" t="s">
         <v>310</v>
       </c>
       <c r="L156" s="24"/>
@@ -6676,7 +6786,7 @@
       <c r="F157" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="G157" s="41">
+      <c r="G157" s="40">
         <v>8777380801</v>
       </c>
       <c r="H157" s="21"/>
@@ -6703,24 +6813,24 @@
       <c r="C158" s="23">
         <v>45264</v>
       </c>
-      <c r="D158" s="42" t="s">
+      <c r="D158" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="E158" s="43"/>
+      <c r="E158" s="42"/>
       <c r="F158" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="G158" s="52" t="s">
+      <c r="G158" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="H158" s="39"/>
+      <c r="H158" s="38"/>
       <c r="I158" s="24" t="s">
         <v>279</v>
       </c>
       <c r="J158" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="K158" s="42" t="s">
+      <c r="K158" s="41" t="s">
         <v>280</v>
       </c>
       <c r="L158" s="24"/>
@@ -6739,20 +6849,20 @@
       <c r="C159" s="23">
         <v>45264</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D159" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="E159" s="43">
+      <c r="E159" s="42">
         <v>8100040475</v>
       </c>
       <c r="F159" s="24"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="39"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="38"/>
       <c r="I159" s="24"/>
       <c r="J159" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K159" s="42" t="s">
+      <c r="K159" s="41" t="s">
         <v>285</v>
       </c>
       <c r="L159" s="24"/>
@@ -6771,22 +6881,22 @@
       <c r="C160" s="23">
         <v>45264</v>
       </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="42" t="s">
+      <c r="D160" s="41"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="G160" s="52" t="s">
+      <c r="G160" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="H160" s="39" t="s">
+      <c r="H160" s="38" t="s">
         <v>289</v>
       </c>
       <c r="I160" s="24"/>
       <c r="J160" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K160" s="42" t="s">
+      <c r="K160" s="41" t="s">
         <v>39</v>
       </c>
       <c r="L160" s="24"/>
@@ -6805,20 +6915,20 @@
       <c r="C161" s="23">
         <v>45264</v>
       </c>
-      <c r="D161" s="42" t="s">
+      <c r="D161" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="43">
+      <c r="E161" s="42">
         <v>6290555078</v>
       </c>
       <c r="F161" s="24"/>
-      <c r="G161" s="52"/>
-      <c r="H161" s="39"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="38"/>
       <c r="I161" s="24"/>
       <c r="J161" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K161" s="42" t="s">
+      <c r="K161" s="41" t="s">
         <v>303</v>
       </c>
       <c r="L161" s="24"/>
@@ -6841,7 +6951,7 @@
       <c r="F162" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="G162" s="41">
+      <c r="G162" s="40">
         <v>9430501357</v>
       </c>
       <c r="H162" s="21"/>
@@ -6875,7 +6985,7 @@
       <c r="F163" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="G163" s="28" t="s">
+      <c r="G163" s="27" t="s">
         <v>308</v>
       </c>
       <c r="H163" s="21"/>
@@ -6891,29 +7001,47 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="17"/>
+      <c r="A164" s="28">
+        <v>163</v>
+      </c>
+      <c r="B164" s="23">
+        <v>45265</v>
+      </c>
+      <c r="C164" s="23">
+        <v>45265</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E164" s="42"/>
+      <c r="F164" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="H164" s="38"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K164" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="L164" s="24"/>
+      <c r="M164" s="25"/>
+      <c r="N164" s="24" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="19"/>
       <c r="E165" s="20"/>
       <c r="F165" s="17"/>
-      <c r="G165" s="28"/>
+      <c r="G165" s="27"/>
       <c r="H165" s="21"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17"/>
@@ -6923,13 +7051,13 @@
       <c r="N165" s="17"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="29"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="19"/>
       <c r="E166" s="20"/>
       <c r="F166" s="17"/>
-      <c r="G166" s="28"/>
+      <c r="G166" s="27"/>
       <c r="H166" s="21"/>
       <c r="I166" s="17"/>
       <c r="J166" s="17"/>
@@ -6939,13 +7067,13 @@
       <c r="N166" s="17"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="29"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="19"/>
       <c r="E167" s="20"/>
       <c r="F167" s="17"/>
-      <c r="G167" s="28"/>
+      <c r="G167" s="27"/>
       <c r="H167" s="21"/>
       <c r="I167" s="17"/>
       <c r="J167" s="17"/>
@@ -6955,13 +7083,13 @@
       <c r="N167" s="17"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="29"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="19"/>
       <c r="E168" s="20"/>
       <c r="F168" s="17"/>
-      <c r="G168" s="28"/>
+      <c r="G168" s="27"/>
       <c r="H168" s="21"/>
       <c r="I168" s="17"/>
       <c r="J168" s="17"/>
@@ -6971,13 +7099,13 @@
       <c r="N168" s="17"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="29"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="19"/>
       <c r="E169" s="20"/>
       <c r="F169" s="17"/>
-      <c r="G169" s="28"/>
+      <c r="G169" s="27"/>
       <c r="H169" s="21"/>
       <c r="I169" s="17"/>
       <c r="J169" s="17"/>
@@ -6987,13 +7115,13 @@
       <c r="N169" s="17"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="29"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="19"/>
       <c r="E170" s="20"/>
       <c r="F170" s="17"/>
-      <c r="G170" s="28"/>
+      <c r="G170" s="27"/>
       <c r="H170" s="21"/>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
@@ -7003,13 +7131,13 @@
       <c r="N170" s="17"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="29"/>
+      <c r="A171" s="28"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="19"/>
       <c r="E171" s="20"/>
       <c r="F171" s="17"/>
-      <c r="G171" s="28"/>
+      <c r="G171" s="27"/>
       <c r="H171" s="21"/>
       <c r="I171" s="17"/>
       <c r="J171" s="17"/>
@@ -7019,13 +7147,13 @@
       <c r="N171" s="17"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="29"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="19"/>
       <c r="E172" s="20"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="28"/>
+      <c r="G172" s="27"/>
       <c r="H172" s="21"/>
       <c r="I172" s="17"/>
       <c r="J172" s="17"/>
@@ -7035,13 +7163,13 @@
       <c r="N172" s="17"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="29"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="19"/>
       <c r="E173" s="20"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="28"/>
+      <c r="G173" s="27"/>
       <c r="H173" s="21"/>
       <c r="I173" s="17"/>
       <c r="J173" s="17"/>
@@ -7051,13 +7179,13 @@
       <c r="N173" s="17"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="29"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="19"/>
       <c r="E174" s="20"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="28"/>
+      <c r="G174" s="27"/>
       <c r="H174" s="21"/>
       <c r="I174" s="17"/>
       <c r="J174" s="17"/>
@@ -7067,13 +7195,13 @@
       <c r="N174" s="17"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="29"/>
+      <c r="A175" s="28"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="19"/>
       <c r="E175" s="20"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="28"/>
+      <c r="G175" s="27"/>
       <c r="H175" s="21"/>
       <c r="I175" s="17"/>
       <c r="J175" s="17"/>
@@ -7083,13 +7211,13 @@
       <c r="N175" s="17"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="29"/>
+      <c r="A176" s="28"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="19"/>
       <c r="E176" s="20"/>
       <c r="F176" s="17"/>
-      <c r="G176" s="28"/>
+      <c r="G176" s="27"/>
       <c r="H176" s="21"/>
       <c r="I176" s="17"/>
       <c r="J176" s="17"/>
@@ -7099,13 +7227,13 @@
       <c r="N176" s="17"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="29"/>
+      <c r="A177" s="28"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="19"/>
       <c r="E177" s="20"/>
       <c r="F177" s="17"/>
-      <c r="G177" s="28"/>
+      <c r="G177" s="27"/>
       <c r="H177" s="21"/>
       <c r="I177" s="17"/>
       <c r="J177" s="17"/>
@@ -7115,13 +7243,13 @@
       <c r="N177" s="17"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="29"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="19"/>
       <c r="E178" s="20"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="28"/>
+      <c r="G178" s="27"/>
       <c r="H178" s="21"/>
       <c r="I178" s="17"/>
       <c r="J178" s="17"/>
@@ -7131,13 +7259,13 @@
       <c r="N178" s="17"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="29"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="19"/>
       <c r="E179" s="20"/>
       <c r="F179" s="17"/>
-      <c r="G179" s="28"/>
+      <c r="G179" s="27"/>
       <c r="H179" s="21"/>
       <c r="I179" s="17"/>
       <c r="J179" s="17"/>
@@ -7147,13 +7275,13 @@
       <c r="N179" s="17"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="29"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="19"/>
       <c r="E180" s="20"/>
       <c r="F180" s="17"/>
-      <c r="G180" s="28"/>
+      <c r="G180" s="27"/>
       <c r="H180" s="21"/>
       <c r="I180" s="17"/>
       <c r="J180" s="17"/>
@@ -7163,13 +7291,13 @@
       <c r="N180" s="17"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="29"/>
+      <c r="A181" s="28"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
       <c r="D181" s="19"/>
       <c r="E181" s="20"/>
       <c r="F181" s="17"/>
-      <c r="G181" s="28"/>
+      <c r="G181" s="27"/>
       <c r="H181" s="21"/>
       <c r="I181" s="17"/>
       <c r="J181" s="17"/>
@@ -7179,13 +7307,13 @@
       <c r="N181" s="17"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="29"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="19"/>
       <c r="E182" s="20"/>
       <c r="F182" s="17"/>
-      <c r="G182" s="28"/>
+      <c r="G182" s="27"/>
       <c r="H182" s="21"/>
       <c r="I182" s="17"/>
       <c r="J182" s="17"/>
@@ -7195,13 +7323,13 @@
       <c r="N182" s="17"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="29"/>
+      <c r="A183" s="28"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
       <c r="D183" s="19"/>
       <c r="E183" s="20"/>
       <c r="F183" s="17"/>
-      <c r="G183" s="28"/>
+      <c r="G183" s="27"/>
       <c r="H183" s="21"/>
       <c r="I183" s="17"/>
       <c r="J183" s="17"/>
@@ -7211,13 +7339,13 @@
       <c r="N183" s="17"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="29"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="19"/>
       <c r="E184" s="20"/>
       <c r="F184" s="17"/>
-      <c r="G184" s="28"/>
+      <c r="G184" s="27"/>
       <c r="H184" s="21"/>
       <c r="I184" s="17"/>
       <c r="J184" s="17"/>
@@ -7227,13 +7355,13 @@
       <c r="N184" s="17"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="29"/>
+      <c r="A185" s="28"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
       <c r="D185" s="19"/>
       <c r="E185" s="20"/>
       <c r="F185" s="17"/>
-      <c r="G185" s="28"/>
+      <c r="G185" s="27"/>
       <c r="H185" s="21"/>
       <c r="I185" s="17"/>
       <c r="J185" s="17"/>
@@ -7243,13 +7371,13 @@
       <c r="N185" s="17"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="29"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
       <c r="D186" s="19"/>
       <c r="E186" s="20"/>
       <c r="F186" s="17"/>
-      <c r="G186" s="28"/>
+      <c r="G186" s="27"/>
       <c r="H186" s="21"/>
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
@@ -7259,13 +7387,13 @@
       <c r="N186" s="17"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="29"/>
+      <c r="A187" s="28"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
       <c r="D187" s="19"/>
       <c r="E187" s="20"/>
       <c r="F187" s="17"/>
-      <c r="G187" s="28"/>
+      <c r="G187" s="27"/>
       <c r="H187" s="21"/>
       <c r="I187" s="17"/>
       <c r="J187" s="17"/>
@@ -7275,13 +7403,13 @@
       <c r="N187" s="17"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="29"/>
+      <c r="A188" s="28"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
       <c r="D188" s="19"/>
       <c r="E188" s="20"/>
       <c r="F188" s="17"/>
-      <c r="G188" s="28"/>
+      <c r="G188" s="27"/>
       <c r="H188" s="21"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
@@ -7291,13 +7419,13 @@
       <c r="N188" s="17"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="29"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
       <c r="D189" s="19"/>
       <c r="E189" s="20"/>
       <c r="F189" s="17"/>
-      <c r="G189" s="28"/>
+      <c r="G189" s="27"/>
       <c r="H189" s="21"/>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
@@ -7307,13 +7435,13 @@
       <c r="N189" s="17"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="29"/>
+      <c r="A190" s="28"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
       <c r="D190" s="19"/>
       <c r="E190" s="20"/>
       <c r="F190" s="17"/>
-      <c r="G190" s="28"/>
+      <c r="G190" s="27"/>
       <c r="H190" s="21"/>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
@@ -7323,13 +7451,13 @@
       <c r="N190" s="17"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="29"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="19"/>
       <c r="E191" s="20"/>
       <c r="F191" s="17"/>
-      <c r="G191" s="28"/>
+      <c r="G191" s="27"/>
       <c r="H191" s="21"/>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -7339,13 +7467,13 @@
       <c r="N191" s="17"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="29"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="19"/>
       <c r="E192" s="20"/>
       <c r="F192" s="17"/>
-      <c r="G192" s="28"/>
+      <c r="G192" s="27"/>
       <c r="H192" s="21"/>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
@@ -7355,13 +7483,13 @@
       <c r="N192" s="17"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A193" s="29"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="19"/>
       <c r="E193" s="20"/>
       <c r="F193" s="17"/>
-      <c r="G193" s="28"/>
+      <c r="G193" s="27"/>
       <c r="H193" s="21"/>
       <c r="I193" s="17"/>
       <c r="J193" s="17"/>
@@ -7371,13 +7499,13 @@
       <c r="N193" s="17"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A194" s="29"/>
+      <c r="A194" s="28"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
       <c r="D194" s="19"/>
       <c r="E194" s="20"/>
       <c r="F194" s="17"/>
-      <c r="G194" s="28"/>
+      <c r="G194" s="27"/>
       <c r="H194" s="21"/>
       <c r="I194" s="17"/>
       <c r="J194" s="17"/>
@@ -7387,13 +7515,13 @@
       <c r="N194" s="17"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="29"/>
+      <c r="A195" s="28"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
       <c r="D195" s="19"/>
       <c r="E195" s="20"/>
       <c r="F195" s="17"/>
-      <c r="G195" s="28"/>
+      <c r="G195" s="27"/>
       <c r="H195" s="21"/>
       <c r="I195" s="17"/>
       <c r="J195" s="17"/>
@@ -7403,13 +7531,13 @@
       <c r="N195" s="17"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="29"/>
+      <c r="A196" s="28"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
       <c r="D196" s="19"/>
       <c r="E196" s="20"/>
       <c r="F196" s="17"/>
-      <c r="G196" s="28"/>
+      <c r="G196" s="27"/>
       <c r="H196" s="21"/>
       <c r="I196" s="17"/>
       <c r="J196" s="17"/>
@@ -7419,13 +7547,13 @@
       <c r="N196" s="17"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A197" s="29"/>
+      <c r="A197" s="28"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
       <c r="D197" s="19"/>
       <c r="E197" s="20"/>
       <c r="F197" s="17"/>
-      <c r="G197" s="28"/>
+      <c r="G197" s="27"/>
       <c r="H197" s="21"/>
       <c r="I197" s="17"/>
       <c r="J197" s="17"/>
@@ -7435,13 +7563,13 @@
       <c r="N197" s="17"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A198" s="29"/>
+      <c r="A198" s="28"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
       <c r="D198" s="19"/>
       <c r="E198" s="20"/>
       <c r="F198" s="17"/>
-      <c r="G198" s="28"/>
+      <c r="G198" s="27"/>
       <c r="H198" s="21"/>
       <c r="I198" s="17"/>
       <c r="J198" s="17"/>
@@ -7451,13 +7579,13 @@
       <c r="N198" s="17"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A199" s="29"/>
+      <c r="A199" s="28"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
       <c r="D199" s="19"/>
       <c r="E199" s="20"/>
       <c r="F199" s="17"/>
-      <c r="G199" s="28"/>
+      <c r="G199" s="27"/>
       <c r="H199" s="21"/>
       <c r="I199" s="17"/>
       <c r="J199" s="17"/>
@@ -7467,13 +7595,13 @@
       <c r="N199" s="17"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A200" s="29"/>
+      <c r="A200" s="28"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="28"/>
+      <c r="G200" s="27"/>
       <c r="H200" s="21"/>
       <c r="I200" s="17"/>
       <c r="J200" s="17"/>
@@ -7483,13 +7611,13 @@
       <c r="N200" s="17"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="29"/>
+      <c r="A201" s="28"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="28"/>
+      <c r="G201" s="27"/>
       <c r="H201" s="21"/>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
@@ -7499,13 +7627,13 @@
       <c r="N201" s="17"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A202" s="29"/>
+      <c r="A202" s="28"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
       <c r="D202" s="19"/>
       <c r="E202" s="20"/>
       <c r="F202" s="17"/>
-      <c r="G202" s="28"/>
+      <c r="G202" s="27"/>
       <c r="H202" s="21"/>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
@@ -7515,13 +7643,13 @@
       <c r="N202" s="17"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="29"/>
+      <c r="A203" s="28"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
       <c r="D203" s="19"/>
       <c r="E203" s="20"/>
       <c r="F203" s="17"/>
-      <c r="G203" s="28"/>
+      <c r="G203" s="27"/>
       <c r="H203" s="21"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
@@ -7531,13 +7659,13 @@
       <c r="N203" s="17"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A204" s="29"/>
+      <c r="A204" s="28"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
       <c r="D204" s="19"/>
       <c r="E204" s="20"/>
       <c r="F204" s="17"/>
-      <c r="G204" s="28"/>
+      <c r="G204" s="27"/>
       <c r="H204" s="21"/>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
@@ -7547,13 +7675,13 @@
       <c r="N204" s="17"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A205" s="29"/>
+      <c r="A205" s="28"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
       <c r="D205" s="19"/>
       <c r="E205" s="20"/>
       <c r="F205" s="17"/>
-      <c r="G205" s="28"/>
+      <c r="G205" s="27"/>
       <c r="H205" s="21"/>
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
@@ -7563,13 +7691,13 @@
       <c r="N205" s="17"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A206" s="29"/>
+      <c r="A206" s="28"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
       <c r="D206" s="19"/>
       <c r="E206" s="20"/>
       <c r="F206" s="17"/>
-      <c r="G206" s="28"/>
+      <c r="G206" s="27"/>
       <c r="H206" s="21"/>
       <c r="I206" s="17"/>
       <c r="J206" s="17"/>
@@ -7579,13 +7707,13 @@
       <c r="N206" s="17"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A207" s="29"/>
+      <c r="A207" s="28"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
       <c r="D207" s="19"/>
       <c r="E207" s="20"/>
       <c r="F207" s="17"/>
-      <c r="G207" s="28"/>
+      <c r="G207" s="27"/>
       <c r="H207" s="21"/>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
@@ -7595,13 +7723,13 @@
       <c r="N207" s="17"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A208" s="29"/>
+      <c r="A208" s="28"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
       <c r="D208" s="19"/>
       <c r="E208" s="20"/>
       <c r="F208" s="17"/>
-      <c r="G208" s="28"/>
+      <c r="G208" s="27"/>
       <c r="H208" s="21"/>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
@@ -7611,13 +7739,13 @@
       <c r="N208" s="17"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A209" s="29"/>
+      <c r="A209" s="28"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
       <c r="D209" s="19"/>
       <c r="E209" s="20"/>
       <c r="F209" s="17"/>
-      <c r="G209" s="28"/>
+      <c r="G209" s="27"/>
       <c r="H209" s="21"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
@@ -7627,13 +7755,13 @@
       <c r="N209" s="17"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A210" s="29"/>
+      <c r="A210" s="28"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
       <c r="D210" s="19"/>
       <c r="E210" s="20"/>
       <c r="F210" s="17"/>
-      <c r="G210" s="28"/>
+      <c r="G210" s="27"/>
       <c r="H210" s="21"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
@@ -7643,13 +7771,13 @@
       <c r="N210" s="17"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A211" s="29"/>
+      <c r="A211" s="28"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
       <c r="D211" s="19"/>
       <c r="E211" s="20"/>
       <c r="F211" s="17"/>
-      <c r="G211" s="28"/>
+      <c r="G211" s="27"/>
       <c r="H211" s="21"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
@@ -7659,13 +7787,13 @@
       <c r="N211" s="17"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A212" s="29"/>
+      <c r="A212" s="28"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="19"/>
       <c r="E212" s="20"/>
       <c r="F212" s="17"/>
-      <c r="G212" s="28"/>
+      <c r="G212" s="27"/>
       <c r="H212" s="21"/>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
@@ -7675,13 +7803,13 @@
       <c r="N212" s="17"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A213" s="29"/>
+      <c r="A213" s="28"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
       <c r="D213" s="19"/>
       <c r="E213" s="20"/>
       <c r="F213" s="17"/>
-      <c r="G213" s="28"/>
+      <c r="G213" s="27"/>
       <c r="H213" s="21"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
@@ -7691,13 +7819,13 @@
       <c r="N213" s="17"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A214" s="29"/>
+      <c r="A214" s="28"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
       <c r="D214" s="19"/>
       <c r="E214" s="20"/>
       <c r="F214" s="17"/>
-      <c r="G214" s="28"/>
+      <c r="G214" s="27"/>
       <c r="H214" s="21"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
@@ -7707,13 +7835,13 @@
       <c r="N214" s="17"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A215" s="29"/>
+      <c r="A215" s="28"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
       <c r="D215" s="19"/>
       <c r="E215" s="20"/>
       <c r="F215" s="17"/>
-      <c r="G215" s="28"/>
+      <c r="G215" s="27"/>
       <c r="H215" s="21"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
@@ -7723,13 +7851,13 @@
       <c r="N215" s="17"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A216" s="29"/>
+      <c r="A216" s="28"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
       <c r="D216" s="19"/>
       <c r="E216" s="20"/>
       <c r="F216" s="17"/>
-      <c r="G216" s="28"/>
+      <c r="G216" s="27"/>
       <c r="H216" s="21"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
@@ -7739,13 +7867,13 @@
       <c r="N216" s="17"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A217" s="29"/>
+      <c r="A217" s="28"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="19"/>
       <c r="E217" s="20"/>
       <c r="F217" s="17"/>
-      <c r="G217" s="28"/>
+      <c r="G217" s="27"/>
       <c r="H217" s="21"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
@@ -7755,13 +7883,13 @@
       <c r="N217" s="17"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A218" s="29"/>
+      <c r="A218" s="28"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="19"/>
       <c r="E218" s="20"/>
       <c r="F218" s="17"/>
-      <c r="G218" s="28"/>
+      <c r="G218" s="27"/>
       <c r="H218" s="21"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
@@ -7771,13 +7899,13 @@
       <c r="N218" s="17"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A219" s="29"/>
+      <c r="A219" s="28"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
       <c r="D219" s="19"/>
       <c r="E219" s="20"/>
       <c r="F219" s="17"/>
-      <c r="G219" s="28"/>
+      <c r="G219" s="27"/>
       <c r="H219" s="21"/>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
@@ -7787,13 +7915,13 @@
       <c r="N219" s="17"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A220" s="29"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="19"/>
       <c r="E220" s="20"/>
       <c r="F220" s="17"/>
-      <c r="G220" s="28"/>
+      <c r="G220" s="27"/>
       <c r="H220" s="21"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -7803,13 +7931,13 @@
       <c r="N220" s="17"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A221" s="29"/>
+      <c r="A221" s="28"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
       <c r="D221" s="19"/>
       <c r="E221" s="20"/>
       <c r="F221" s="17"/>
-      <c r="G221" s="28"/>
+      <c r="G221" s="27"/>
       <c r="H221" s="21"/>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
@@ -7819,13 +7947,13 @@
       <c r="N221" s="17"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A222" s="29"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="19"/>
       <c r="E222" s="20"/>
       <c r="F222" s="17"/>
-      <c r="G222" s="28"/>
+      <c r="G222" s="27"/>
       <c r="H222" s="21"/>
       <c r="I222" s="17"/>
       <c r="J222" s="17"/>
@@ -7835,13 +7963,13 @@
       <c r="N222" s="17"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A223" s="29"/>
+      <c r="A223" s="28"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
       <c r="D223" s="19"/>
       <c r="E223" s="20"/>
       <c r="F223" s="17"/>
-      <c r="G223" s="28"/>
+      <c r="G223" s="27"/>
       <c r="H223" s="21"/>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
@@ -7851,13 +7979,13 @@
       <c r="N223" s="17"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A224" s="29"/>
+      <c r="A224" s="28"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
       <c r="D224" s="19"/>
       <c r="E224" s="20"/>
       <c r="F224" s="17"/>
-      <c r="G224" s="28"/>
+      <c r="G224" s="27"/>
       <c r="H224" s="21"/>
       <c r="I224" s="17"/>
       <c r="J224" s="17"/>
@@ -7867,13 +7995,13 @@
       <c r="N224" s="17"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A225" s="29"/>
+      <c r="A225" s="28"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
       <c r="D225" s="19"/>
       <c r="E225" s="20"/>
       <c r="F225" s="17"/>
-      <c r="G225" s="28"/>
+      <c r="G225" s="27"/>
       <c r="H225" s="21"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
@@ -7883,13 +8011,13 @@
       <c r="N225" s="17"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A226" s="29"/>
+      <c r="A226" s="28"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
       <c r="D226" s="19"/>
       <c r="E226" s="20"/>
       <c r="F226" s="17"/>
-      <c r="G226" s="28"/>
+      <c r="G226" s="27"/>
       <c r="H226" s="21"/>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
@@ -7899,13 +8027,13 @@
       <c r="N226" s="17"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="29"/>
+      <c r="A227" s="28"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
       <c r="D227" s="19"/>
       <c r="E227" s="20"/>
       <c r="F227" s="17"/>
-      <c r="G227" s="28"/>
+      <c r="G227" s="27"/>
       <c r="H227" s="21"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
@@ -7915,13 +8043,13 @@
       <c r="N227" s="17"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="29"/>
+      <c r="A228" s="28"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
       <c r="D228" s="19"/>
       <c r="E228" s="20"/>
       <c r="F228" s="17"/>
-      <c r="G228" s="28"/>
+      <c r="G228" s="27"/>
       <c r="H228" s="21"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
@@ -7931,13 +8059,13 @@
       <c r="N228" s="17"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A229" s="29"/>
+      <c r="A229" s="28"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
       <c r="D229" s="19"/>
       <c r="E229" s="20"/>
       <c r="F229" s="17"/>
-      <c r="G229" s="28"/>
+      <c r="G229" s="27"/>
       <c r="H229" s="21"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
@@ -7947,13 +8075,13 @@
       <c r="N229" s="17"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="29"/>
+      <c r="A230" s="28"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
       <c r="D230" s="19"/>
       <c r="E230" s="20"/>
       <c r="F230" s="17"/>
-      <c r="G230" s="28"/>
+      <c r="G230" s="27"/>
       <c r="H230" s="21"/>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
@@ -7963,13 +8091,13 @@
       <c r="N230" s="17"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="29"/>
+      <c r="A231" s="28"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
       <c r="D231" s="19"/>
       <c r="E231" s="20"/>
       <c r="F231" s="17"/>
-      <c r="G231" s="28"/>
+      <c r="G231" s="27"/>
       <c r="H231" s="21"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
@@ -7979,13 +8107,13 @@
       <c r="N231" s="17"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="29"/>
+      <c r="A232" s="28"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
       <c r="D232" s="19"/>
       <c r="E232" s="20"/>
       <c r="F232" s="17"/>
-      <c r="G232" s="28"/>
+      <c r="G232" s="27"/>
       <c r="H232" s="21"/>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
@@ -7995,13 +8123,13 @@
       <c r="N232" s="17"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A233" s="29"/>
+      <c r="A233" s="28"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
       <c r="D233" s="19"/>
       <c r="E233" s="20"/>
       <c r="F233" s="17"/>
-      <c r="G233" s="28"/>
+      <c r="G233" s="27"/>
       <c r="H233" s="21"/>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
@@ -8011,13 +8139,13 @@
       <c r="N233" s="17"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A234" s="29"/>
+      <c r="A234" s="28"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
       <c r="D234" s="19"/>
       <c r="E234" s="20"/>
       <c r="F234" s="17"/>
-      <c r="G234" s="28"/>
+      <c r="G234" s="27"/>
       <c r="H234" s="21"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
@@ -8027,13 +8155,13 @@
       <c r="N234" s="17"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A235" s="29"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
       <c r="D235" s="19"/>
       <c r="E235" s="20"/>
       <c r="F235" s="17"/>
-      <c r="G235" s="28"/>
+      <c r="G235" s="27"/>
       <c r="H235" s="21"/>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
@@ -8043,13 +8171,13 @@
       <c r="N235" s="17"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A236" s="29"/>
+      <c r="A236" s="28"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
       <c r="D236" s="19"/>
       <c r="E236" s="20"/>
       <c r="F236" s="17"/>
-      <c r="G236" s="28"/>
+      <c r="G236" s="27"/>
       <c r="H236" s="21"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
@@ -8059,13 +8187,13 @@
       <c r="N236" s="17"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A237" s="29"/>
+      <c r="A237" s="28"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
       <c r="D237" s="19"/>
       <c r="E237" s="20"/>
       <c r="F237" s="17"/>
-      <c r="G237" s="28"/>
+      <c r="G237" s="27"/>
       <c r="H237" s="21"/>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
@@ -8075,13 +8203,13 @@
       <c r="N237" s="17"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A238" s="29"/>
+      <c r="A238" s="28"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
       <c r="D238" s="19"/>
       <c r="E238" s="20"/>
       <c r="F238" s="17"/>
-      <c r="G238" s="28"/>
+      <c r="G238" s="27"/>
       <c r="H238" s="21"/>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
@@ -8091,13 +8219,13 @@
       <c r="N238" s="17"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A239" s="29"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
       <c r="D239" s="19"/>
       <c r="E239" s="20"/>
       <c r="F239" s="17"/>
-      <c r="G239" s="28"/>
+      <c r="G239" s="27"/>
       <c r="H239" s="21"/>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
@@ -8107,13 +8235,13 @@
       <c r="N239" s="17"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A240" s="29"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
       <c r="D240" s="19"/>
       <c r="E240" s="20"/>
       <c r="F240" s="17"/>
-      <c r="G240" s="28"/>
+      <c r="G240" s="27"/>
       <c r="H240" s="21"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
@@ -8123,13 +8251,13 @@
       <c r="N240" s="17"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A241" s="29"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
       <c r="D241" s="19"/>
       <c r="E241" s="20"/>
       <c r="F241" s="17"/>
-      <c r="G241" s="28"/>
+      <c r="G241" s="27"/>
       <c r="H241" s="21"/>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
@@ -8139,13 +8267,13 @@
       <c r="N241" s="17"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A242" s="29"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
       <c r="D242" s="19"/>
       <c r="E242" s="20"/>
       <c r="F242" s="17"/>
-      <c r="G242" s="28"/>
+      <c r="G242" s="27"/>
       <c r="H242" s="21"/>
       <c r="I242" s="17"/>
       <c r="J242" s="17"/>
@@ -8155,13 +8283,13 @@
       <c r="N242" s="17"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243" s="29"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
       <c r="D243" s="19"/>
       <c r="E243" s="20"/>
       <c r="F243" s="17"/>
-      <c r="G243" s="28"/>
+      <c r="G243" s="27"/>
       <c r="H243" s="21"/>
       <c r="I243" s="17"/>
       <c r="J243" s="17"/>
@@ -8171,13 +8299,13 @@
       <c r="N243" s="17"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A244" s="29"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
       <c r="D244" s="19"/>
       <c r="E244" s="20"/>
       <c r="F244" s="17"/>
-      <c r="G244" s="28"/>
+      <c r="G244" s="27"/>
       <c r="H244" s="21"/>
       <c r="I244" s="17"/>
       <c r="J244" s="17"/>
@@ -8187,13 +8315,13 @@
       <c r="N244" s="17"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A245" s="29"/>
+      <c r="A245" s="28"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
       <c r="D245" s="19"/>
       <c r="E245" s="20"/>
       <c r="F245" s="17"/>
-      <c r="G245" s="28"/>
+      <c r="G245" s="27"/>
       <c r="H245" s="21"/>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
@@ -8203,13 +8331,13 @@
       <c r="N245" s="17"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A246" s="29"/>
+      <c r="A246" s="28"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
       <c r="D246" s="19"/>
       <c r="E246" s="20"/>
       <c r="F246" s="17"/>
-      <c r="G246" s="28"/>
+      <c r="G246" s="27"/>
       <c r="H246" s="21"/>
       <c r="I246" s="17"/>
       <c r="J246" s="17"/>
@@ -8219,13 +8347,13 @@
       <c r="N246" s="17"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A247" s="29"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
       <c r="D247" s="19"/>
       <c r="E247" s="20"/>
       <c r="F247" s="17"/>
-      <c r="G247" s="28"/>
+      <c r="G247" s="27"/>
       <c r="H247" s="21"/>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
@@ -8235,13 +8363,13 @@
       <c r="N247" s="17"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A248" s="29"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
       <c r="D248" s="19"/>
       <c r="E248" s="20"/>
       <c r="F248" s="17"/>
-      <c r="G248" s="28"/>
+      <c r="G248" s="27"/>
       <c r="H248" s="21"/>
       <c r="I248" s="17"/>
       <c r="J248" s="17"/>
@@ -8251,13 +8379,13 @@
       <c r="N248" s="17"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A249" s="29"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
       <c r="D249" s="19"/>
       <c r="E249" s="20"/>
       <c r="F249" s="17"/>
-      <c r="G249" s="28"/>
+      <c r="G249" s="27"/>
       <c r="H249" s="21"/>
       <c r="I249" s="17"/>
       <c r="J249" s="17"/>
@@ -8267,13 +8395,13 @@
       <c r="N249" s="17"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A250" s="29"/>
+      <c r="A250" s="28"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
       <c r="D250" s="19"/>
       <c r="E250" s="20"/>
       <c r="F250" s="17"/>
-      <c r="G250" s="28"/>
+      <c r="G250" s="27"/>
       <c r="H250" s="21"/>
       <c r="I250" s="17"/>
       <c r="J250" s="17"/>
@@ -8283,13 +8411,13 @@
       <c r="N250" s="17"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A251" s="29"/>
+      <c r="A251" s="28"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
       <c r="D251" s="19"/>
       <c r="E251" s="20"/>
       <c r="F251" s="17"/>
-      <c r="G251" s="28"/>
+      <c r="G251" s="27"/>
       <c r="H251" s="21"/>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
@@ -8299,13 +8427,13 @@
       <c r="N251" s="17"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A252" s="29"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
       <c r="D252" s="19"/>
       <c r="E252" s="20"/>
       <c r="F252" s="17"/>
-      <c r="G252" s="28"/>
+      <c r="G252" s="27"/>
       <c r="H252" s="21"/>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
@@ -8315,13 +8443,13 @@
       <c r="N252" s="17"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A253" s="29"/>
+      <c r="A253" s="28"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
       <c r="D253" s="19"/>
       <c r="E253" s="20"/>
       <c r="F253" s="17"/>
-      <c r="G253" s="28"/>
+      <c r="G253" s="27"/>
       <c r="H253" s="21"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
@@ -8331,13 +8459,13 @@
       <c r="N253" s="17"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A254" s="29"/>
+      <c r="A254" s="28"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
       <c r="D254" s="19"/>
       <c r="E254" s="20"/>
       <c r="F254" s="17"/>
-      <c r="G254" s="28"/>
+      <c r="G254" s="27"/>
       <c r="H254" s="21"/>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
@@ -8347,13 +8475,13 @@
       <c r="N254" s="17"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A255" s="29"/>
+      <c r="A255" s="28"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="19"/>
       <c r="E255" s="20"/>
       <c r="F255" s="17"/>
-      <c r="G255" s="28"/>
+      <c r="G255" s="27"/>
       <c r="H255" s="21"/>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
@@ -8363,13 +8491,13 @@
       <c r="N255" s="17"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A256" s="29"/>
+      <c r="A256" s="28"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="19"/>
       <c r="E256" s="20"/>
       <c r="F256" s="17"/>
-      <c r="G256" s="28"/>
+      <c r="G256" s="27"/>
       <c r="H256" s="21"/>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
@@ -8379,13 +8507,13 @@
       <c r="N256" s="17"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A257" s="29"/>
+      <c r="A257" s="28"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
       <c r="D257" s="19"/>
       <c r="E257" s="20"/>
       <c r="F257" s="17"/>
-      <c r="G257" s="28"/>
+      <c r="G257" s="27"/>
       <c r="H257" s="21"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
@@ -8395,13 +8523,13 @@
       <c r="N257" s="17"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A258" s="29"/>
+      <c r="A258" s="28"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
       <c r="D258" s="19"/>
       <c r="E258" s="20"/>
       <c r="F258" s="17"/>
-      <c r="G258" s="28"/>
+      <c r="G258" s="27"/>
       <c r="H258" s="21"/>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
@@ -8411,13 +8539,13 @@
       <c r="N258" s="17"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A259" s="29"/>
+      <c r="A259" s="28"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
       <c r="D259" s="19"/>
       <c r="E259" s="20"/>
       <c r="F259" s="17"/>
-      <c r="G259" s="28"/>
+      <c r="G259" s="27"/>
       <c r="H259" s="21"/>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
@@ -8427,13 +8555,13 @@
       <c r="N259" s="17"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A260" s="29"/>
+      <c r="A260" s="28"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="19"/>
       <c r="E260" s="20"/>
       <c r="F260" s="17"/>
-      <c r="G260" s="28"/>
+      <c r="G260" s="27"/>
       <c r="H260" s="21"/>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
@@ -8443,13 +8571,13 @@
       <c r="N260" s="17"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A261" s="29"/>
+      <c r="A261" s="28"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
       <c r="D261" s="19"/>
       <c r="E261" s="20"/>
       <c r="F261" s="17"/>
-      <c r="G261" s="28"/>
+      <c r="G261" s="27"/>
       <c r="H261" s="21"/>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
@@ -8459,13 +8587,13 @@
       <c r="N261" s="17"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A262" s="29"/>
+      <c r="A262" s="28"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
       <c r="D262" s="19"/>
       <c r="E262" s="20"/>
       <c r="F262" s="17"/>
-      <c r="G262" s="28"/>
+      <c r="G262" s="27"/>
       <c r="H262" s="21"/>
       <c r="I262" s="17"/>
       <c r="J262" s="17"/>
@@ -8475,13 +8603,13 @@
       <c r="N262" s="17"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A263" s="29"/>
+      <c r="A263" s="28"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
       <c r="D263" s="19"/>
       <c r="E263" s="20"/>
       <c r="F263" s="17"/>
-      <c r="G263" s="28"/>
+      <c r="G263" s="27"/>
       <c r="H263" s="21"/>
       <c r="I263" s="17"/>
       <c r="J263" s="17"/>
@@ -8491,13 +8619,13 @@
       <c r="N263" s="17"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A264" s="29"/>
+      <c r="A264" s="28"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
       <c r="D264" s="19"/>
       <c r="E264" s="20"/>
       <c r="F264" s="17"/>
-      <c r="G264" s="28"/>
+      <c r="G264" s="27"/>
       <c r="H264" s="21"/>
       <c r="I264" s="17"/>
       <c r="J264" s="17"/>
@@ -8507,13 +8635,13 @@
       <c r="N264" s="17"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A265" s="29"/>
+      <c r="A265" s="28"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
       <c r="D265" s="19"/>
       <c r="E265" s="20"/>
       <c r="F265" s="17"/>
-      <c r="G265" s="28"/>
+      <c r="G265" s="27"/>
       <c r="H265" s="21"/>
       <c r="I265" s="17"/>
       <c r="J265" s="17"/>
@@ -8523,13 +8651,13 @@
       <c r="N265" s="17"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A266" s="29"/>
+      <c r="A266" s="28"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
       <c r="D266" s="19"/>
       <c r="E266" s="20"/>
       <c r="F266" s="17"/>
-      <c r="G266" s="28"/>
+      <c r="G266" s="27"/>
       <c r="H266" s="21"/>
       <c r="I266" s="17"/>
       <c r="J266" s="17"/>
@@ -8539,13 +8667,13 @@
       <c r="N266" s="17"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A267" s="29"/>
+      <c r="A267" s="28"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
       <c r="D267" s="19"/>
       <c r="E267" s="20"/>
       <c r="F267" s="17"/>
-      <c r="G267" s="28"/>
+      <c r="G267" s="27"/>
       <c r="H267" s="21"/>
       <c r="I267" s="17"/>
       <c r="J267" s="17"/>
@@ -8555,13 +8683,13 @@
       <c r="N267" s="17"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A268" s="29"/>
+      <c r="A268" s="28"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
       <c r="D268" s="19"/>
       <c r="E268" s="20"/>
       <c r="F268" s="17"/>
-      <c r="G268" s="28"/>
+      <c r="G268" s="27"/>
       <c r="H268" s="21"/>
       <c r="I268" s="17"/>
       <c r="J268" s="17"/>
@@ -8571,13 +8699,13 @@
       <c r="N268" s="17"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A269" s="29"/>
+      <c r="A269" s="28"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
       <c r="D269" s="19"/>
       <c r="E269" s="20"/>
       <c r="F269" s="17"/>
-      <c r="G269" s="28"/>
+      <c r="G269" s="27"/>
       <c r="H269" s="21"/>
       <c r="I269" s="17"/>
       <c r="J269" s="17"/>
@@ -8587,13 +8715,13 @@
       <c r="N269" s="17"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A270" s="29"/>
+      <c r="A270" s="28"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
       <c r="D270" s="19"/>
       <c r="E270" s="20"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="28"/>
+      <c r="G270" s="27"/>
       <c r="H270" s="21"/>
       <c r="I270" s="17"/>
       <c r="J270" s="17"/>
@@ -8603,13 +8731,13 @@
       <c r="N270" s="17"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A271" s="29"/>
+      <c r="A271" s="28"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
       <c r="D271" s="19"/>
       <c r="E271" s="20"/>
       <c r="F271" s="17"/>
-      <c r="G271" s="28"/>
+      <c r="G271" s="27"/>
       <c r="H271" s="21"/>
       <c r="I271" s="17"/>
       <c r="J271" s="17"/>
@@ -8619,13 +8747,13 @@
       <c r="N271" s="17"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A272" s="29"/>
+      <c r="A272" s="28"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
       <c r="D272" s="19"/>
       <c r="E272" s="20"/>
       <c r="F272" s="17"/>
-      <c r="G272" s="28"/>
+      <c r="G272" s="27"/>
       <c r="H272" s="21"/>
       <c r="I272" s="17"/>
       <c r="J272" s="17"/>
@@ -8635,13 +8763,13 @@
       <c r="N272" s="17"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A273" s="29"/>
+      <c r="A273" s="28"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
       <c r="D273" s="19"/>
       <c r="E273" s="20"/>
       <c r="F273" s="17"/>
-      <c r="G273" s="28"/>
+      <c r="G273" s="27"/>
       <c r="H273" s="21"/>
       <c r="I273" s="17"/>
       <c r="J273" s="17"/>
@@ -8651,13 +8779,13 @@
       <c r="N273" s="17"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A274" s="29"/>
+      <c r="A274" s="28"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
       <c r="D274" s="19"/>
       <c r="E274" s="20"/>
       <c r="F274" s="17"/>
-      <c r="G274" s="28"/>
+      <c r="G274" s="27"/>
       <c r="H274" s="21"/>
       <c r="I274" s="17"/>
       <c r="J274" s="17"/>
@@ -8667,13 +8795,13 @@
       <c r="N274" s="17"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A275" s="29"/>
+      <c r="A275" s="28"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
       <c r="D275" s="19"/>
       <c r="E275" s="20"/>
       <c r="F275" s="17"/>
-      <c r="G275" s="28"/>
+      <c r="G275" s="27"/>
       <c r="H275" s="21"/>
       <c r="I275" s="17"/>
       <c r="J275" s="17"/>
@@ -8683,13 +8811,13 @@
       <c r="N275" s="17"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A276" s="29"/>
+      <c r="A276" s="28"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
       <c r="D276" s="19"/>
       <c r="E276" s="20"/>
       <c r="F276" s="17"/>
-      <c r="G276" s="28"/>
+      <c r="G276" s="27"/>
       <c r="H276" s="21"/>
       <c r="I276" s="17"/>
       <c r="J276" s="17"/>
@@ -8699,13 +8827,13 @@
       <c r="N276" s="17"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A277" s="29"/>
+      <c r="A277" s="28"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
       <c r="D277" s="19"/>
       <c r="E277" s="20"/>
       <c r="F277" s="17"/>
-      <c r="G277" s="28"/>
+      <c r="G277" s="27"/>
       <c r="H277" s="21"/>
       <c r="I277" s="17"/>
       <c r="J277" s="17"/>
@@ -8715,13 +8843,13 @@
       <c r="N277" s="17"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A278" s="29"/>
+      <c r="A278" s="28"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
       <c r="D278" s="19"/>
       <c r="E278" s="20"/>
       <c r="F278" s="17"/>
-      <c r="G278" s="28"/>
+      <c r="G278" s="27"/>
       <c r="H278" s="21"/>
       <c r="I278" s="17"/>
       <c r="J278" s="17"/>
@@ -8731,13 +8859,13 @@
       <c r="N278" s="17"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A279" s="29"/>
+      <c r="A279" s="28"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
       <c r="D279" s="19"/>
       <c r="E279" s="20"/>
       <c r="F279" s="17"/>
-      <c r="G279" s="28"/>
+      <c r="G279" s="27"/>
       <c r="H279" s="21"/>
       <c r="I279" s="17"/>
       <c r="J279" s="17"/>
@@ -8747,13 +8875,13 @@
       <c r="N279" s="17"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A280" s="29"/>
+      <c r="A280" s="28"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
       <c r="D280" s="19"/>
       <c r="E280" s="20"/>
       <c r="F280" s="17"/>
-      <c r="G280" s="28"/>
+      <c r="G280" s="27"/>
       <c r="H280" s="21"/>
       <c r="I280" s="17"/>
       <c r="J280" s="17"/>
@@ -8763,13 +8891,13 @@
       <c r="N280" s="17"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A281" s="29"/>
+      <c r="A281" s="28"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
       <c r="D281" s="19"/>
       <c r="E281" s="20"/>
       <c r="F281" s="17"/>
-      <c r="G281" s="28"/>
+      <c r="G281" s="27"/>
       <c r="H281" s="21"/>
       <c r="I281" s="17"/>
       <c r="J281" s="17"/>
@@ -8779,13 +8907,13 @@
       <c r="N281" s="17"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A282" s="29"/>
+      <c r="A282" s="28"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
       <c r="D282" s="19"/>
       <c r="E282" s="20"/>
       <c r="F282" s="17"/>
-      <c r="G282" s="28"/>
+      <c r="G282" s="27"/>
       <c r="H282" s="21"/>
       <c r="I282" s="17"/>
       <c r="J282" s="17"/>
@@ -8795,13 +8923,13 @@
       <c r="N282" s="17"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A283" s="29"/>
+      <c r="A283" s="28"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
       <c r="D283" s="19"/>
       <c r="E283" s="20"/>
       <c r="F283" s="17"/>
-      <c r="G283" s="28"/>
+      <c r="G283" s="27"/>
       <c r="H283" s="21"/>
       <c r="I283" s="17"/>
       <c r="J283" s="17"/>
@@ -8811,13 +8939,13 @@
       <c r="N283" s="17"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A284" s="29"/>
+      <c r="A284" s="28"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
       <c r="D284" s="19"/>
       <c r="E284" s="20"/>
       <c r="F284" s="17"/>
-      <c r="G284" s="28"/>
+      <c r="G284" s="27"/>
       <c r="H284" s="21"/>
       <c r="I284" s="17"/>
       <c r="J284" s="17"/>
@@ -8827,13 +8955,13 @@
       <c r="N284" s="17"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A285" s="29"/>
+      <c r="A285" s="28"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
       <c r="D285" s="19"/>
       <c r="E285" s="20"/>
       <c r="F285" s="17"/>
-      <c r="G285" s="28"/>
+      <c r="G285" s="27"/>
       <c r="H285" s="21"/>
       <c r="I285" s="17"/>
       <c r="J285" s="17"/>
@@ -8843,13 +8971,13 @@
       <c r="N285" s="17"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A286" s="29"/>
+      <c r="A286" s="28"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
       <c r="D286" s="19"/>
       <c r="E286" s="20"/>
       <c r="F286" s="17"/>
-      <c r="G286" s="28"/>
+      <c r="G286" s="27"/>
       <c r="H286" s="21"/>
       <c r="I286" s="17"/>
       <c r="J286" s="17"/>
@@ -8859,13 +8987,13 @@
       <c r="N286" s="17"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A287" s="29"/>
+      <c r="A287" s="28"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
       <c r="D287" s="19"/>
       <c r="E287" s="20"/>
       <c r="F287" s="17"/>
-      <c r="G287" s="28"/>
+      <c r="G287" s="27"/>
       <c r="H287" s="21"/>
       <c r="I287" s="17"/>
       <c r="J287" s="17"/>
@@ -8875,13 +9003,13 @@
       <c r="N287" s="17"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A288" s="29"/>
+      <c r="A288" s="28"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
       <c r="D288" s="19"/>
       <c r="E288" s="20"/>
       <c r="F288" s="17"/>
-      <c r="G288" s="28"/>
+      <c r="G288" s="27"/>
       <c r="H288" s="21"/>
       <c r="I288" s="17"/>
       <c r="J288" s="17"/>
@@ -8891,13 +9019,13 @@
       <c r="N288" s="17"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A289" s="29"/>
+      <c r="A289" s="28"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
       <c r="D289" s="19"/>
       <c r="E289" s="20"/>
       <c r="F289" s="17"/>
-      <c r="G289" s="28"/>
+      <c r="G289" s="27"/>
       <c r="H289" s="21"/>
       <c r="I289" s="17"/>
       <c r="J289" s="17"/>
@@ -8907,13 +9035,13 @@
       <c r="N289" s="17"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A290" s="29"/>
+      <c r="A290" s="28"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
       <c r="D290" s="19"/>
       <c r="E290" s="20"/>
       <c r="F290" s="17"/>
-      <c r="G290" s="28"/>
+      <c r="G290" s="27"/>
       <c r="H290" s="21"/>
       <c r="I290" s="17"/>
       <c r="J290" s="17"/>
@@ -8923,13 +9051,13 @@
       <c r="N290" s="17"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A291" s="29"/>
+      <c r="A291" s="28"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
       <c r="D291" s="19"/>
       <c r="E291" s="20"/>
       <c r="F291" s="17"/>
-      <c r="G291" s="28"/>
+      <c r="G291" s="27"/>
       <c r="H291" s="21"/>
       <c r="I291" s="17"/>
       <c r="J291" s="17"/>
@@ -8939,13 +9067,13 @@
       <c r="N291" s="17"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A292" s="29"/>
+      <c r="A292" s="28"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
       <c r="D292" s="19"/>
       <c r="E292" s="20"/>
       <c r="F292" s="17"/>
-      <c r="G292" s="28"/>
+      <c r="G292" s="27"/>
       <c r="H292" s="21"/>
       <c r="I292" s="17"/>
       <c r="J292" s="17"/>
@@ -8955,13 +9083,13 @@
       <c r="N292" s="17"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A293" s="29"/>
+      <c r="A293" s="28"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
       <c r="D293" s="19"/>
       <c r="E293" s="20"/>
       <c r="F293" s="17"/>
-      <c r="G293" s="28"/>
+      <c r="G293" s="27"/>
       <c r="H293" s="21"/>
       <c r="I293" s="17"/>
       <c r="J293" s="17"/>
@@ -8971,13 +9099,13 @@
       <c r="N293" s="17"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A294" s="29"/>
+      <c r="A294" s="28"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
       <c r="D294" s="19"/>
       <c r="E294" s="20"/>
       <c r="F294" s="17"/>
-      <c r="G294" s="28"/>
+      <c r="G294" s="27"/>
       <c r="H294" s="21"/>
       <c r="I294" s="17"/>
       <c r="J294" s="17"/>
@@ -8987,13 +9115,13 @@
       <c r="N294" s="17"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A295" s="29"/>
+      <c r="A295" s="28"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
       <c r="D295" s="19"/>
       <c r="E295" s="20"/>
       <c r="F295" s="17"/>
-      <c r="G295" s="28"/>
+      <c r="G295" s="27"/>
       <c r="H295" s="21"/>
       <c r="I295" s="17"/>
       <c r="J295" s="17"/>
@@ -9003,13 +9131,13 @@
       <c r="N295" s="17"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A296" s="29"/>
+      <c r="A296" s="28"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
       <c r="D296" s="19"/>
       <c r="E296" s="20"/>
       <c r="F296" s="17"/>
-      <c r="G296" s="28"/>
+      <c r="G296" s="27"/>
       <c r="H296" s="21"/>
       <c r="I296" s="17"/>
       <c r="J296" s="17"/>
@@ -9019,13 +9147,13 @@
       <c r="N296" s="17"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A297" s="29"/>
+      <c r="A297" s="28"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
       <c r="D297" s="19"/>
       <c r="E297" s="20"/>
       <c r="F297" s="17"/>
-      <c r="G297" s="28"/>
+      <c r="G297" s="27"/>
       <c r="H297" s="21"/>
       <c r="I297" s="17"/>
       <c r="J297" s="17"/>
@@ -9035,13 +9163,13 @@
       <c r="N297" s="17"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A298" s="29"/>
+      <c r="A298" s="28"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
       <c r="D298" s="19"/>
       <c r="E298" s="20"/>
       <c r="F298" s="17"/>
-      <c r="G298" s="28"/>
+      <c r="G298" s="27"/>
       <c r="H298" s="21"/>
       <c r="I298" s="17"/>
       <c r="J298" s="17"/>
@@ -9051,13 +9179,13 @@
       <c r="N298" s="17"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A299" s="29"/>
+      <c r="A299" s="28"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
       <c r="D299" s="19"/>
       <c r="E299" s="20"/>
       <c r="F299" s="17"/>
-      <c r="G299" s="28"/>
+      <c r="G299" s="27"/>
       <c r="H299" s="21"/>
       <c r="I299" s="17"/>
       <c r="J299" s="17"/>
@@ -9067,13 +9195,13 @@
       <c r="N299" s="17"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A300" s="29"/>
+      <c r="A300" s="28"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
       <c r="D300" s="19"/>
       <c r="E300" s="20"/>
       <c r="F300" s="17"/>
-      <c r="G300" s="28"/>
+      <c r="G300" s="27"/>
       <c r="H300" s="21"/>
       <c r="I300" s="17"/>
       <c r="J300" s="17"/>
@@ -9083,13 +9211,13 @@
       <c r="N300" s="17"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A301" s="29"/>
+      <c r="A301" s="28"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
       <c r="D301" s="19"/>
       <c r="E301" s="20"/>
       <c r="F301" s="17"/>
-      <c r="G301" s="28"/>
+      <c r="G301" s="27"/>
       <c r="H301" s="21"/>
       <c r="I301" s="17"/>
       <c r="J301" s="17"/>
@@ -9099,13 +9227,13 @@
       <c r="N301" s="17"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A302" s="29"/>
+      <c r="A302" s="28"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
       <c r="D302" s="19"/>
       <c r="E302" s="20"/>
       <c r="F302" s="17"/>
-      <c r="G302" s="28"/>
+      <c r="G302" s="27"/>
       <c r="H302" s="21"/>
       <c r="I302" s="17"/>
       <c r="J302" s="17"/>
@@ -9115,13 +9243,13 @@
       <c r="N302" s="17"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A303" s="29"/>
+      <c r="A303" s="28"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
       <c r="D303" s="19"/>
       <c r="E303" s="20"/>
       <c r="F303" s="17"/>
-      <c r="G303" s="28"/>
+      <c r="G303" s="27"/>
       <c r="H303" s="21"/>
       <c r="I303" s="17"/>
       <c r="J303" s="17"/>
@@ -9131,13 +9259,13 @@
       <c r="N303" s="17"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A304" s="29"/>
+      <c r="A304" s="28"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
       <c r="D304" s="19"/>
       <c r="E304" s="20"/>
       <c r="F304" s="17"/>
-      <c r="G304" s="28"/>
+      <c r="G304" s="27"/>
       <c r="H304" s="21"/>
       <c r="I304" s="17"/>
       <c r="J304" s="17"/>
@@ -9147,13 +9275,13 @@
       <c r="N304" s="17"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A305" s="29"/>
+      <c r="A305" s="28"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
       <c r="D305" s="19"/>
       <c r="E305" s="20"/>
       <c r="F305" s="17"/>
-      <c r="G305" s="28"/>
+      <c r="G305" s="27"/>
       <c r="H305" s="21"/>
       <c r="I305" s="17"/>
       <c r="J305" s="17"/>
@@ -9163,13 +9291,13 @@
       <c r="N305" s="17"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A306" s="29"/>
+      <c r="A306" s="28"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
       <c r="D306" s="19"/>
       <c r="E306" s="20"/>
       <c r="F306" s="17"/>
-      <c r="G306" s="28"/>
+      <c r="G306" s="27"/>
       <c r="H306" s="21"/>
       <c r="I306" s="17"/>
       <c r="J306" s="17"/>
@@ -9179,13 +9307,13 @@
       <c r="N306" s="17"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A307" s="29"/>
+      <c r="A307" s="28"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
       <c r="D307" s="19"/>
       <c r="E307" s="20"/>
       <c r="F307" s="17"/>
-      <c r="G307" s="28"/>
+      <c r="G307" s="27"/>
       <c r="H307" s="21"/>
       <c r="I307" s="17"/>
       <c r="J307" s="17"/>
@@ -9195,13 +9323,13 @@
       <c r="N307" s="17"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A308" s="29"/>
+      <c r="A308" s="28"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
       <c r="D308" s="19"/>
       <c r="E308" s="20"/>
       <c r="F308" s="17"/>
-      <c r="G308" s="28"/>
+      <c r="G308" s="27"/>
       <c r="H308" s="21"/>
       <c r="I308" s="17"/>
       <c r="J308" s="17"/>
@@ -9211,13 +9339,13 @@
       <c r="N308" s="17"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A309" s="29"/>
+      <c r="A309" s="28"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
       <c r="D309" s="19"/>
       <c r="E309" s="20"/>
       <c r="F309" s="17"/>
-      <c r="G309" s="28"/>
+      <c r="G309" s="27"/>
       <c r="H309" s="21"/>
       <c r="I309" s="17"/>
       <c r="J309" s="17"/>
@@ -9227,13 +9355,13 @@
       <c r="N309" s="17"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A310" s="29"/>
+      <c r="A310" s="28"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
       <c r="D310" s="19"/>
       <c r="E310" s="20"/>
       <c r="F310" s="17"/>
-      <c r="G310" s="28"/>
+      <c r="G310" s="27"/>
       <c r="H310" s="21"/>
       <c r="I310" s="17"/>
       <c r="J310" s="17"/>
@@ -9243,13 +9371,13 @@
       <c r="N310" s="17"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A311" s="29"/>
+      <c r="A311" s="28"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
       <c r="D311" s="19"/>
       <c r="E311" s="20"/>
       <c r="F311" s="17"/>
-      <c r="G311" s="28"/>
+      <c r="G311" s="27"/>
       <c r="H311" s="21"/>
       <c r="I311" s="17"/>
       <c r="J311" s="17"/>
@@ -9259,13 +9387,13 @@
       <c r="N311" s="17"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A312" s="29"/>
+      <c r="A312" s="28"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
       <c r="D312" s="19"/>
       <c r="E312" s="20"/>
       <c r="F312" s="17"/>
-      <c r="G312" s="28"/>
+      <c r="G312" s="27"/>
       <c r="H312" s="21"/>
       <c r="I312" s="17"/>
       <c r="J312" s="17"/>
@@ -9275,13 +9403,13 @@
       <c r="N312" s="17"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A313" s="29"/>
+      <c r="A313" s="28"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
       <c r="D313" s="19"/>
       <c r="E313" s="20"/>
       <c r="F313" s="17"/>
-      <c r="G313" s="28"/>
+      <c r="G313" s="27"/>
       <c r="H313" s="21"/>
       <c r="I313" s="17"/>
       <c r="J313" s="17"/>
@@ -9291,13 +9419,13 @@
       <c r="N313" s="17"/>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A314" s="29"/>
+      <c r="A314" s="28"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
       <c r="D314" s="19"/>
       <c r="E314" s="20"/>
       <c r="F314" s="17"/>
-      <c r="G314" s="28"/>
+      <c r="G314" s="27"/>
       <c r="H314" s="21"/>
       <c r="I314" s="17"/>
       <c r="J314" s="17"/>
@@ -9307,13 +9435,13 @@
       <c r="N314" s="17"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A315" s="29"/>
+      <c r="A315" s="28"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
       <c r="D315" s="19"/>
       <c r="E315" s="20"/>
       <c r="F315" s="17"/>
-      <c r="G315" s="28"/>
+      <c r="G315" s="27"/>
       <c r="H315" s="21"/>
       <c r="I315" s="17"/>
       <c r="J315" s="17"/>
@@ -9323,13 +9451,13 @@
       <c r="N315" s="17"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A316" s="29"/>
+      <c r="A316" s="28"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
       <c r="D316" s="19"/>
       <c r="E316" s="20"/>
       <c r="F316" s="17"/>
-      <c r="G316" s="28"/>
+      <c r="G316" s="27"/>
       <c r="H316" s="21"/>
       <c r="I316" s="17"/>
       <c r="J316" s="17"/>
@@ -9339,13 +9467,13 @@
       <c r="N316" s="17"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A317" s="29"/>
+      <c r="A317" s="28"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
       <c r="D317" s="19"/>
       <c r="E317" s="20"/>
       <c r="F317" s="17"/>
-      <c r="G317" s="28"/>
+      <c r="G317" s="27"/>
       <c r="H317" s="21"/>
       <c r="I317" s="17"/>
       <c r="J317" s="17"/>
@@ -9355,13 +9483,13 @@
       <c r="N317" s="17"/>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A318" s="29"/>
+      <c r="A318" s="28"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
       <c r="D318" s="19"/>
       <c r="E318" s="20"/>
       <c r="F318" s="17"/>
-      <c r="G318" s="28"/>
+      <c r="G318" s="27"/>
       <c r="H318" s="21"/>
       <c r="I318" s="17"/>
       <c r="J318" s="17"/>
@@ -9371,13 +9499,13 @@
       <c r="N318" s="17"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A319" s="29"/>
+      <c r="A319" s="28"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
       <c r="D319" s="19"/>
       <c r="E319" s="20"/>
       <c r="F319" s="17"/>
-      <c r="G319" s="28"/>
+      <c r="G319" s="27"/>
       <c r="H319" s="21"/>
       <c r="I319" s="17"/>
       <c r="J319" s="17"/>
@@ -9387,13 +9515,13 @@
       <c r="N319" s="17"/>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A320" s="29"/>
+      <c r="A320" s="28"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
       <c r="D320" s="19"/>
       <c r="E320" s="20"/>
       <c r="F320" s="17"/>
-      <c r="G320" s="28"/>
+      <c r="G320" s="27"/>
       <c r="H320" s="21"/>
       <c r="I320" s="17"/>
       <c r="J320" s="17"/>
@@ -9403,13 +9531,13 @@
       <c r="N320" s="17"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A321" s="29"/>
+      <c r="A321" s="28"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
       <c r="D321" s="19"/>
       <c r="E321" s="20"/>
       <c r="F321" s="17"/>
-      <c r="G321" s="28"/>
+      <c r="G321" s="27"/>
       <c r="H321" s="21"/>
       <c r="I321" s="17"/>
       <c r="J321" s="17"/>
@@ -9419,13 +9547,13 @@
       <c r="N321" s="17"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A322" s="29"/>
+      <c r="A322" s="28"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
       <c r="D322" s="19"/>
       <c r="E322" s="20"/>
       <c r="F322" s="17"/>
-      <c r="G322" s="28"/>
+      <c r="G322" s="27"/>
       <c r="H322" s="21"/>
       <c r="I322" s="17"/>
       <c r="J322" s="17"/>
@@ -9435,13 +9563,13 @@
       <c r="N322" s="17"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A323" s="29"/>
+      <c r="A323" s="28"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
       <c r="D323" s="19"/>
       <c r="E323" s="20"/>
       <c r="F323" s="17"/>
-      <c r="G323" s="28"/>
+      <c r="G323" s="27"/>
       <c r="H323" s="21"/>
       <c r="I323" s="17"/>
       <c r="J323" s="17"/>
@@ -9451,13 +9579,13 @@
       <c r="N323" s="17"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A324" s="29"/>
+      <c r="A324" s="28"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
       <c r="D324" s="19"/>
       <c r="E324" s="20"/>
       <c r="F324" s="17"/>
-      <c r="G324" s="28"/>
+      <c r="G324" s="27"/>
       <c r="H324" s="21"/>
       <c r="I324" s="17"/>
       <c r="J324" s="17"/>
@@ -9467,13 +9595,13 @@
       <c r="N324" s="17"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A325" s="29"/>
+      <c r="A325" s="28"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
       <c r="D325" s="19"/>
       <c r="E325" s="20"/>
       <c r="F325" s="17"/>
-      <c r="G325" s="28"/>
+      <c r="G325" s="27"/>
       <c r="H325" s="21"/>
       <c r="I325" s="17"/>
       <c r="J325" s="17"/>
@@ -9483,13 +9611,13 @@
       <c r="N325" s="17"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A326" s="29"/>
+      <c r="A326" s="28"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
       <c r="D326" s="19"/>
       <c r="E326" s="20"/>
       <c r="F326" s="17"/>
-      <c r="G326" s="28"/>
+      <c r="G326" s="27"/>
       <c r="H326" s="21"/>
       <c r="I326" s="17"/>
       <c r="J326" s="17"/>
@@ -9499,13 +9627,13 @@
       <c r="N326" s="17"/>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A327" s="29"/>
+      <c r="A327" s="28"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
       <c r="D327" s="19"/>
       <c r="E327" s="20"/>
       <c r="F327" s="17"/>
-      <c r="G327" s="28"/>
+      <c r="G327" s="27"/>
       <c r="H327" s="21"/>
       <c r="I327" s="17"/>
       <c r="J327" s="17"/>
@@ -9515,13 +9643,13 @@
       <c r="N327" s="17"/>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A328" s="29"/>
+      <c r="A328" s="28"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
       <c r="D328" s="19"/>
       <c r="E328" s="20"/>
       <c r="F328" s="17"/>
-      <c r="G328" s="28"/>
+      <c r="G328" s="27"/>
       <c r="H328" s="21"/>
       <c r="I328" s="17"/>
       <c r="J328" s="17"/>
@@ -9531,13 +9659,13 @@
       <c r="N328" s="17"/>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A329" s="29"/>
+      <c r="A329" s="28"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
       <c r="D329" s="19"/>
       <c r="E329" s="20"/>
       <c r="F329" s="17"/>
-      <c r="G329" s="28"/>
+      <c r="G329" s="27"/>
       <c r="H329" s="21"/>
       <c r="I329" s="17"/>
       <c r="J329" s="17"/>
@@ -9547,13 +9675,13 @@
       <c r="N329" s="17"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A330" s="29"/>
+      <c r="A330" s="28"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
       <c r="D330" s="19"/>
       <c r="E330" s="20"/>
       <c r="F330" s="17"/>
-      <c r="G330" s="28"/>
+      <c r="G330" s="27"/>
       <c r="H330" s="21"/>
       <c r="I330" s="17"/>
       <c r="J330" s="17"/>
@@ -9563,13 +9691,13 @@
       <c r="N330" s="17"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A331" s="29"/>
+      <c r="A331" s="28"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
       <c r="D331" s="19"/>
       <c r="E331" s="20"/>
       <c r="F331" s="17"/>
-      <c r="G331" s="28"/>
+      <c r="G331" s="27"/>
       <c r="H331" s="21"/>
       <c r="I331" s="17"/>
       <c r="J331" s="17"/>
@@ -9579,13 +9707,13 @@
       <c r="N331" s="17"/>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A332" s="29"/>
+      <c r="A332" s="28"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
       <c r="D332" s="19"/>
       <c r="E332" s="20"/>
       <c r="F332" s="17"/>
-      <c r="G332" s="28"/>
+      <c r="G332" s="27"/>
       <c r="H332" s="21"/>
       <c r="I332" s="17"/>
       <c r="J332" s="17"/>
@@ -9595,13 +9723,13 @@
       <c r="N332" s="17"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A333" s="29"/>
+      <c r="A333" s="28"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
       <c r="D333" s="19"/>
       <c r="E333" s="20"/>
       <c r="F333" s="17"/>
-      <c r="G333" s="28"/>
+      <c r="G333" s="27"/>
       <c r="H333" s="21"/>
       <c r="I333" s="17"/>
       <c r="J333" s="17"/>
@@ -9611,13 +9739,13 @@
       <c r="N333" s="17"/>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A334" s="29"/>
+      <c r="A334" s="28"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
       <c r="D334" s="19"/>
       <c r="E334" s="20"/>
       <c r="F334" s="17"/>
-      <c r="G334" s="28"/>
+      <c r="G334" s="27"/>
       <c r="H334" s="21"/>
       <c r="I334" s="17"/>
       <c r="J334" s="17"/>
@@ -9627,13 +9755,13 @@
       <c r="N334" s="17"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A335" s="29"/>
+      <c r="A335" s="28"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
       <c r="D335" s="19"/>
       <c r="E335" s="20"/>
       <c r="F335" s="17"/>
-      <c r="G335" s="28"/>
+      <c r="G335" s="27"/>
       <c r="H335" s="21"/>
       <c r="I335" s="17"/>
       <c r="J335" s="17"/>
@@ -9643,13 +9771,13 @@
       <c r="N335" s="17"/>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A336" s="29"/>
+      <c r="A336" s="28"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
       <c r="D336" s="19"/>
       <c r="E336" s="20"/>
       <c r="F336" s="17"/>
-      <c r="G336" s="28"/>
+      <c r="G336" s="27"/>
       <c r="H336" s="21"/>
       <c r="I336" s="17"/>
       <c r="J336" s="17"/>
@@ -9659,13 +9787,13 @@
       <c r="N336" s="17"/>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A337" s="29"/>
+      <c r="A337" s="28"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
       <c r="D337" s="19"/>
       <c r="E337" s="20"/>
       <c r="F337" s="17"/>
-      <c r="G337" s="28"/>
+      <c r="G337" s="27"/>
       <c r="H337" s="21"/>
       <c r="I337" s="17"/>
       <c r="J337" s="17"/>
@@ -9675,13 +9803,13 @@
       <c r="N337" s="17"/>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A338" s="29"/>
+      <c r="A338" s="28"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
       <c r="D338" s="19"/>
       <c r="E338" s="20"/>
       <c r="F338" s="17"/>
-      <c r="G338" s="28"/>
+      <c r="G338" s="27"/>
       <c r="H338" s="21"/>
       <c r="I338" s="17"/>
       <c r="J338" s="17"/>
@@ -9691,13 +9819,13 @@
       <c r="N338" s="17"/>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A339" s="29"/>
+      <c r="A339" s="28"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
       <c r="D339" s="19"/>
       <c r="E339" s="20"/>
       <c r="F339" s="17"/>
-      <c r="G339" s="28"/>
+      <c r="G339" s="27"/>
       <c r="H339" s="21"/>
       <c r="I339" s="17"/>
       <c r="J339" s="17"/>
@@ -9707,13 +9835,13 @@
       <c r="N339" s="17"/>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A340" s="29"/>
+      <c r="A340" s="28"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
       <c r="D340" s="19"/>
       <c r="E340" s="20"/>
       <c r="F340" s="17"/>
-      <c r="G340" s="28"/>
+      <c r="G340" s="27"/>
       <c r="H340" s="21"/>
       <c r="I340" s="17"/>
       <c r="J340" s="17"/>
@@ -9723,13 +9851,13 @@
       <c r="N340" s="17"/>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A341" s="29"/>
+      <c r="A341" s="28"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
       <c r="D341" s="19"/>
       <c r="E341" s="20"/>
       <c r="F341" s="17"/>
-      <c r="G341" s="28"/>
+      <c r="G341" s="27"/>
       <c r="H341" s="21"/>
       <c r="I341" s="17"/>
       <c r="J341" s="17"/>
@@ -9739,13 +9867,13 @@
       <c r="N341" s="17"/>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A342" s="29"/>
+      <c r="A342" s="28"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
       <c r="D342" s="19"/>
       <c r="E342" s="20"/>
       <c r="F342" s="17"/>
-      <c r="G342" s="28"/>
+      <c r="G342" s="27"/>
       <c r="H342" s="21"/>
       <c r="I342" s="17"/>
       <c r="J342" s="17"/>
@@ -9755,13 +9883,13 @@
       <c r="N342" s="17"/>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A343" s="29"/>
+      <c r="A343" s="28"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
       <c r="D343" s="19"/>
       <c r="E343" s="20"/>
       <c r="F343" s="17"/>
-      <c r="G343" s="28"/>
+      <c r="G343" s="27"/>
       <c r="H343" s="21"/>
       <c r="I343" s="17"/>
       <c r="J343" s="17"/>
@@ -9771,13 +9899,13 @@
       <c r="N343" s="17"/>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A344" s="29"/>
+      <c r="A344" s="28"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
       <c r="D344" s="19"/>
       <c r="E344" s="20"/>
       <c r="F344" s="17"/>
-      <c r="G344" s="28"/>
+      <c r="G344" s="27"/>
       <c r="H344" s="21"/>
       <c r="I344" s="17"/>
       <c r="J344" s="17"/>
@@ -9787,13 +9915,13 @@
       <c r="N344" s="17"/>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A345" s="29"/>
+      <c r="A345" s="28"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
       <c r="D345" s="19"/>
       <c r="E345" s="20"/>
       <c r="F345" s="17"/>
-      <c r="G345" s="28"/>
+      <c r="G345" s="27"/>
       <c r="H345" s="21"/>
       <c r="I345" s="17"/>
       <c r="J345" s="17"/>
@@ -9803,13 +9931,13 @@
       <c r="N345" s="17"/>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A346" s="29"/>
+      <c r="A346" s="28"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
       <c r="D346" s="19"/>
       <c r="E346" s="20"/>
       <c r="F346" s="17"/>
-      <c r="G346" s="28"/>
+      <c r="G346" s="27"/>
       <c r="H346" s="21"/>
       <c r="I346" s="17"/>
       <c r="J346" s="17"/>
@@ -9819,13 +9947,13 @@
       <c r="N346" s="17"/>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A347" s="29"/>
+      <c r="A347" s="28"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
       <c r="D347" s="19"/>
       <c r="E347" s="20"/>
       <c r="F347" s="17"/>
-      <c r="G347" s="28"/>
+      <c r="G347" s="27"/>
       <c r="H347" s="21"/>
       <c r="I347" s="17"/>
       <c r="J347" s="17"/>
@@ -9835,13 +9963,13 @@
       <c r="N347" s="17"/>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A348" s="29"/>
+      <c r="A348" s="28"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
       <c r="D348" s="19"/>
       <c r="E348" s="20"/>
       <c r="F348" s="17"/>
-      <c r="G348" s="28"/>
+      <c r="G348" s="27"/>
       <c r="H348" s="21"/>
       <c r="I348" s="17"/>
       <c r="J348" s="17"/>
@@ -9851,13 +9979,13 @@
       <c r="N348" s="17"/>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A349" s="29"/>
+      <c r="A349" s="28"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
       <c r="D349" s="19"/>
       <c r="E349" s="20"/>
       <c r="F349" s="17"/>
-      <c r="G349" s="28"/>
+      <c r="G349" s="27"/>
       <c r="H349" s="21"/>
       <c r="I349" s="17"/>
       <c r="J349" s="17"/>
@@ -9867,13 +9995,13 @@
       <c r="N349" s="17"/>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A350" s="29"/>
+      <c r="A350" s="28"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
       <c r="D350" s="19"/>
       <c r="E350" s="20"/>
       <c r="F350" s="17"/>
-      <c r="G350" s="28"/>
+      <c r="G350" s="27"/>
       <c r="H350" s="21"/>
       <c r="I350" s="17"/>
       <c r="J350" s="17"/>
@@ -9883,13 +10011,13 @@
       <c r="N350" s="17"/>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A351" s="29"/>
+      <c r="A351" s="28"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
       <c r="D351" s="19"/>
       <c r="E351" s="20"/>
       <c r="F351" s="17"/>
-      <c r="G351" s="28"/>
+      <c r="G351" s="27"/>
       <c r="H351" s="21"/>
       <c r="I351" s="17"/>
       <c r="J351" s="17"/>
@@ -9899,13 +10027,13 @@
       <c r="N351" s="17"/>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A352" s="29"/>
+      <c r="A352" s="28"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
       <c r="D352" s="19"/>
       <c r="E352" s="20"/>
       <c r="F352" s="17"/>
-      <c r="G352" s="28"/>
+      <c r="G352" s="27"/>
       <c r="H352" s="21"/>
       <c r="I352" s="17"/>
       <c r="J352" s="17"/>
@@ -9915,13 +10043,13 @@
       <c r="N352" s="17"/>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A353" s="29"/>
+      <c r="A353" s="28"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
       <c r="D353" s="19"/>
       <c r="E353" s="20"/>
       <c r="F353" s="17"/>
-      <c r="G353" s="28"/>
+      <c r="G353" s="27"/>
       <c r="H353" s="21"/>
       <c r="I353" s="17"/>
       <c r="J353" s="17"/>
@@ -9931,13 +10059,13 @@
       <c r="N353" s="17"/>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A354" s="29"/>
+      <c r="A354" s="28"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
       <c r="D354" s="19"/>
       <c r="E354" s="20"/>
       <c r="F354" s="17"/>
-      <c r="G354" s="28"/>
+      <c r="G354" s="27"/>
       <c r="H354" s="21"/>
       <c r="I354" s="17"/>
       <c r="J354" s="17"/>
@@ -9947,13 +10075,13 @@
       <c r="N354" s="17"/>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A355" s="29"/>
+      <c r="A355" s="28"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
       <c r="D355" s="19"/>
       <c r="E355" s="20"/>
       <c r="F355" s="17"/>
-      <c r="G355" s="28"/>
+      <c r="G355" s="27"/>
       <c r="H355" s="21"/>
       <c r="I355" s="17"/>
       <c r="J355" s="17"/>
@@ -9963,13 +10091,13 @@
       <c r="N355" s="17"/>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A356" s="29"/>
+      <c r="A356" s="28"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
       <c r="D356" s="19"/>
       <c r="E356" s="20"/>
       <c r="F356" s="17"/>
-      <c r="G356" s="28"/>
+      <c r="G356" s="27"/>
       <c r="H356" s="21"/>
       <c r="I356" s="17"/>
       <c r="J356" s="17"/>
@@ -9979,13 +10107,13 @@
       <c r="N356" s="17"/>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A357" s="29"/>
+      <c r="A357" s="28"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
       <c r="D357" s="19"/>
       <c r="E357" s="20"/>
       <c r="F357" s="17"/>
-      <c r="G357" s="28"/>
+      <c r="G357" s="27"/>
       <c r="H357" s="21"/>
       <c r="I357" s="17"/>
       <c r="J357" s="17"/>
@@ -9995,13 +10123,13 @@
       <c r="N357" s="17"/>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A358" s="29"/>
+      <c r="A358" s="28"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
       <c r="D358" s="19"/>
       <c r="E358" s="20"/>
       <c r="F358" s="17"/>
-      <c r="G358" s="28"/>
+      <c r="G358" s="27"/>
       <c r="H358" s="21"/>
       <c r="I358" s="17"/>
       <c r="J358" s="17"/>
@@ -10011,13 +10139,13 @@
       <c r="N358" s="17"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A359" s="29"/>
+      <c r="A359" s="28"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
       <c r="D359" s="19"/>
       <c r="E359" s="20"/>
       <c r="F359" s="17"/>
-      <c r="G359" s="28"/>
+      <c r="G359" s="27"/>
       <c r="H359" s="21"/>
       <c r="I359" s="17"/>
       <c r="J359" s="17"/>
@@ -10027,13 +10155,13 @@
       <c r="N359" s="17"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A360" s="29"/>
+      <c r="A360" s="28"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
       <c r="D360" s="19"/>
       <c r="E360" s="20"/>
       <c r="F360" s="17"/>
-      <c r="G360" s="28"/>
+      <c r="G360" s="27"/>
       <c r="H360" s="21"/>
       <c r="I360" s="17"/>
       <c r="J360" s="17"/>
@@ -10043,13 +10171,13 @@
       <c r="N360" s="17"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A361" s="29"/>
+      <c r="A361" s="28"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
       <c r="D361" s="19"/>
       <c r="E361" s="20"/>
       <c r="F361" s="17"/>
-      <c r="G361" s="28"/>
+      <c r="G361" s="27"/>
       <c r="H361" s="21"/>
       <c r="I361" s="17"/>
       <c r="J361" s="17"/>
@@ -10059,13 +10187,13 @@
       <c r="N361" s="17"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A362" s="29"/>
+      <c r="A362" s="28"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
       <c r="D362" s="19"/>
       <c r="E362" s="20"/>
       <c r="F362" s="17"/>
-      <c r="G362" s="28"/>
+      <c r="G362" s="27"/>
       <c r="H362" s="21"/>
       <c r="I362" s="17"/>
       <c r="J362" s="17"/>
@@ -10075,13 +10203,13 @@
       <c r="N362" s="17"/>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A363" s="29"/>
+      <c r="A363" s="28"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
       <c r="D363" s="19"/>
       <c r="E363" s="20"/>
       <c r="F363" s="17"/>
-      <c r="G363" s="28"/>
+      <c r="G363" s="27"/>
       <c r="H363" s="21"/>
       <c r="I363" s="17"/>
       <c r="J363" s="17"/>
@@ -10091,13 +10219,13 @@
       <c r="N363" s="17"/>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A364" s="29"/>
+      <c r="A364" s="28"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
       <c r="D364" s="19"/>
       <c r="E364" s="20"/>
       <c r="F364" s="17"/>
-      <c r="G364" s="28"/>
+      <c r="G364" s="27"/>
       <c r="H364" s="21"/>
       <c r="I364" s="17"/>
       <c r="J364" s="17"/>
@@ -10107,13 +10235,13 @@
       <c r="N364" s="17"/>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A365" s="29"/>
+      <c r="A365" s="28"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
       <c r="D365" s="19"/>
       <c r="E365" s="20"/>
       <c r="F365" s="17"/>
-      <c r="G365" s="28"/>
+      <c r="G365" s="27"/>
       <c r="H365" s="21"/>
       <c r="I365" s="17"/>
       <c r="J365" s="17"/>
@@ -10123,13 +10251,13 @@
       <c r="N365" s="17"/>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A366" s="29"/>
+      <c r="A366" s="28"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
       <c r="D366" s="19"/>
       <c r="E366" s="20"/>
       <c r="F366" s="17"/>
-      <c r="G366" s="28"/>
+      <c r="G366" s="27"/>
       <c r="H366" s="21"/>
       <c r="I366" s="17"/>
       <c r="J366" s="17"/>
@@ -10139,13 +10267,13 @@
       <c r="N366" s="17"/>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A367" s="29"/>
+      <c r="A367" s="28"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
       <c r="D367" s="19"/>
       <c r="E367" s="20"/>
       <c r="F367" s="17"/>
-      <c r="G367" s="28"/>
+      <c r="G367" s="27"/>
       <c r="H367" s="21"/>
       <c r="I367" s="17"/>
       <c r="J367" s="17"/>
@@ -10155,13 +10283,13 @@
       <c r="N367" s="17"/>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A368" s="29"/>
+      <c r="A368" s="28"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
       <c r="D368" s="19"/>
       <c r="E368" s="20"/>
       <c r="F368" s="17"/>
-      <c r="G368" s="28"/>
+      <c r="G368" s="27"/>
       <c r="H368" s="21"/>
       <c r="I368" s="17"/>
       <c r="J368" s="17"/>
@@ -10171,13 +10299,13 @@
       <c r="N368" s="17"/>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A369" s="29"/>
+      <c r="A369" s="28"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
       <c r="D369" s="19"/>
       <c r="E369" s="20"/>
       <c r="F369" s="17"/>
-      <c r="G369" s="28"/>
+      <c r="G369" s="27"/>
       <c r="H369" s="21"/>
       <c r="I369" s="17"/>
       <c r="J369" s="17"/>
@@ -10187,13 +10315,13 @@
       <c r="N369" s="17"/>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A370" s="29"/>
+      <c r="A370" s="28"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
       <c r="D370" s="19"/>
       <c r="E370" s="20"/>
       <c r="F370" s="17"/>
-      <c r="G370" s="28"/>
+      <c r="G370" s="27"/>
       <c r="H370" s="21"/>
       <c r="I370" s="17"/>
       <c r="J370" s="17"/>
@@ -10203,13 +10331,13 @@
       <c r="N370" s="17"/>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A371" s="29"/>
+      <c r="A371" s="28"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
       <c r="D371" s="19"/>
       <c r="E371" s="20"/>
       <c r="F371" s="17"/>
-      <c r="G371" s="28"/>
+      <c r="G371" s="27"/>
       <c r="H371" s="21"/>
       <c r="I371" s="17"/>
       <c r="J371" s="17"/>
@@ -10219,13 +10347,13 @@
       <c r="N371" s="17"/>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A372" s="29"/>
+      <c r="A372" s="28"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
       <c r="D372" s="19"/>
       <c r="E372" s="20"/>
       <c r="F372" s="17"/>
-      <c r="G372" s="28"/>
+      <c r="G372" s="27"/>
       <c r="H372" s="21"/>
       <c r="I372" s="17"/>
       <c r="J372" s="17"/>
@@ -10235,13 +10363,13 @@
       <c r="N372" s="17"/>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A373" s="29"/>
+      <c r="A373" s="28"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
       <c r="D373" s="19"/>
       <c r="E373" s="20"/>
       <c r="F373" s="17"/>
-      <c r="G373" s="28"/>
+      <c r="G373" s="27"/>
       <c r="H373" s="21"/>
       <c r="I373" s="17"/>
       <c r="J373" s="17"/>
@@ -10251,13 +10379,13 @@
       <c r="N373" s="17"/>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A374" s="29"/>
+      <c r="A374" s="28"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
       <c r="D374" s="19"/>
       <c r="E374" s="20"/>
       <c r="F374" s="17"/>
-      <c r="G374" s="28"/>
+      <c r="G374" s="27"/>
       <c r="H374" s="21"/>
       <c r="I374" s="17"/>
       <c r="J374" s="17"/>
@@ -10267,13 +10395,13 @@
       <c r="N374" s="17"/>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A375" s="29"/>
+      <c r="A375" s="28"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="19"/>
       <c r="E375" s="20"/>
       <c r="F375" s="17"/>
-      <c r="G375" s="28"/>
+      <c r="G375" s="27"/>
       <c r="H375" s="21"/>
       <c r="I375" s="17"/>
       <c r="J375" s="17"/>
@@ -10283,13 +10411,13 @@
       <c r="N375" s="17"/>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A376" s="29"/>
+      <c r="A376" s="28"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
       <c r="D376" s="19"/>
       <c r="E376" s="20"/>
       <c r="F376" s="17"/>
-      <c r="G376" s="28"/>
+      <c r="G376" s="27"/>
       <c r="H376" s="21"/>
       <c r="I376" s="17"/>
       <c r="J376" s="17"/>
@@ -10299,13 +10427,13 @@
       <c r="N376" s="17"/>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A377" s="29"/>
+      <c r="A377" s="28"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="19"/>
       <c r="E377" s="20"/>
       <c r="F377" s="17"/>
-      <c r="G377" s="28"/>
+      <c r="G377" s="27"/>
       <c r="H377" s="21"/>
       <c r="I377" s="17"/>
       <c r="J377" s="17"/>
@@ -10315,13 +10443,13 @@
       <c r="N377" s="17"/>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A378" s="29"/>
+      <c r="A378" s="28"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
       <c r="D378" s="19"/>
       <c r="E378" s="20"/>
       <c r="F378" s="17"/>
-      <c r="G378" s="28"/>
+      <c r="G378" s="27"/>
       <c r="H378" s="21"/>
       <c r="I378" s="17"/>
       <c r="J378" s="17"/>
@@ -10331,13 +10459,13 @@
       <c r="N378" s="17"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A379" s="29"/>
+      <c r="A379" s="28"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
       <c r="D379" s="19"/>
       <c r="E379" s="20"/>
       <c r="F379" s="17"/>
-      <c r="G379" s="28"/>
+      <c r="G379" s="27"/>
       <c r="H379" s="21"/>
       <c r="I379" s="17"/>
       <c r="J379" s="17"/>
@@ -10347,13 +10475,13 @@
       <c r="N379" s="17"/>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A380" s="29"/>
+      <c r="A380" s="28"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
       <c r="D380" s="19"/>
       <c r="E380" s="20"/>
       <c r="F380" s="17"/>
-      <c r="G380" s="28"/>
+      <c r="G380" s="27"/>
       <c r="H380" s="21"/>
       <c r="I380" s="17"/>
       <c r="J380" s="17"/>
@@ -10363,13 +10491,13 @@
       <c r="N380" s="17"/>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A381" s="29"/>
+      <c r="A381" s="28"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
       <c r="D381" s="19"/>
       <c r="E381" s="20"/>
       <c r="F381" s="17"/>
-      <c r="G381" s="28"/>
+      <c r="G381" s="27"/>
       <c r="H381" s="21"/>
       <c r="I381" s="17"/>
       <c r="J381" s="17"/>
@@ -10379,13 +10507,13 @@
       <c r="N381" s="17"/>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A382" s="29"/>
+      <c r="A382" s="28"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
       <c r="D382" s="19"/>
       <c r="E382" s="20"/>
       <c r="F382" s="17"/>
-      <c r="G382" s="28"/>
+      <c r="G382" s="27"/>
       <c r="H382" s="21"/>
       <c r="I382" s="17"/>
       <c r="J382" s="17"/>
@@ -10395,13 +10523,13 @@
       <c r="N382" s="17"/>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A383" s="29"/>
+      <c r="A383" s="28"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
       <c r="D383" s="19"/>
       <c r="E383" s="20"/>
       <c r="F383" s="17"/>
-      <c r="G383" s="28"/>
+      <c r="G383" s="27"/>
       <c r="H383" s="21"/>
       <c r="I383" s="17"/>
       <c r="J383" s="17"/>
@@ -10411,13 +10539,13 @@
       <c r="N383" s="17"/>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A384" s="29"/>
+      <c r="A384" s="28"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
       <c r="D384" s="19"/>
       <c r="E384" s="20"/>
       <c r="F384" s="17"/>
-      <c r="G384" s="28"/>
+      <c r="G384" s="27"/>
       <c r="H384" s="21"/>
       <c r="I384" s="17"/>
       <c r="J384" s="17"/>
@@ -10427,13 +10555,13 @@
       <c r="N384" s="17"/>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A385" s="29"/>
+      <c r="A385" s="28"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
       <c r="D385" s="19"/>
       <c r="E385" s="20"/>
       <c r="F385" s="17"/>
-      <c r="G385" s="28"/>
+      <c r="G385" s="27"/>
       <c r="H385" s="21"/>
       <c r="I385" s="17"/>
       <c r="J385" s="17"/>
@@ -10443,13 +10571,13 @@
       <c r="N385" s="17"/>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A386" s="29"/>
+      <c r="A386" s="28"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
       <c r="D386" s="19"/>
       <c r="E386" s="20"/>
       <c r="F386" s="17"/>
-      <c r="G386" s="28"/>
+      <c r="G386" s="27"/>
       <c r="H386" s="21"/>
       <c r="I386" s="17"/>
       <c r="J386" s="17"/>
@@ -10459,13 +10587,13 @@
       <c r="N386" s="17"/>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A387" s="29"/>
+      <c r="A387" s="28"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
       <c r="D387" s="19"/>
       <c r="E387" s="20"/>
       <c r="F387" s="17"/>
-      <c r="G387" s="28"/>
+      <c r="G387" s="27"/>
       <c r="H387" s="21"/>
       <c r="I387" s="17"/>
       <c r="J387" s="17"/>
@@ -10475,13 +10603,13 @@
       <c r="N387" s="17"/>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A388" s="29"/>
+      <c r="A388" s="28"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
       <c r="D388" s="19"/>
       <c r="E388" s="20"/>
       <c r="F388" s="17"/>
-      <c r="G388" s="28"/>
+      <c r="G388" s="27"/>
       <c r="H388" s="21"/>
       <c r="I388" s="17"/>
       <c r="J388" s="17"/>
@@ -10491,13 +10619,13 @@
       <c r="N388" s="17"/>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A389" s="29"/>
+      <c r="A389" s="28"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
       <c r="D389" s="19"/>
       <c r="E389" s="20"/>
       <c r="F389" s="17"/>
-      <c r="G389" s="28"/>
+      <c r="G389" s="27"/>
       <c r="H389" s="21"/>
       <c r="I389" s="17"/>
       <c r="J389" s="17"/>
@@ -10507,13 +10635,13 @@
       <c r="N389" s="17"/>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A390" s="29"/>
+      <c r="A390" s="28"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
       <c r="D390" s="19"/>
       <c r="E390" s="20"/>
       <c r="F390" s="17"/>
-      <c r="G390" s="28"/>
+      <c r="G390" s="27"/>
       <c r="H390" s="21"/>
       <c r="I390" s="17"/>
       <c r="J390" s="17"/>
@@ -10523,13 +10651,13 @@
       <c r="N390" s="17"/>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A391" s="29"/>
+      <c r="A391" s="28"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
       <c r="D391" s="19"/>
       <c r="E391" s="20"/>
       <c r="F391" s="17"/>
-      <c r="G391" s="28"/>
+      <c r="G391" s="27"/>
       <c r="H391" s="21"/>
       <c r="I391" s="17"/>
       <c r="J391" s="17"/>
@@ -10539,13 +10667,13 @@
       <c r="N391" s="17"/>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A392" s="29"/>
+      <c r="A392" s="28"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
       <c r="D392" s="19"/>
       <c r="E392" s="20"/>
       <c r="F392" s="17"/>
-      <c r="G392" s="28"/>
+      <c r="G392" s="27"/>
       <c r="H392" s="21"/>
       <c r="I392" s="17"/>
       <c r="J392" s="17"/>
@@ -10555,13 +10683,13 @@
       <c r="N392" s="17"/>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A393" s="29"/>
+      <c r="A393" s="28"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
       <c r="D393" s="19"/>
       <c r="E393" s="20"/>
       <c r="F393" s="17"/>
-      <c r="G393" s="28"/>
+      <c r="G393" s="27"/>
       <c r="H393" s="21"/>
       <c r="I393" s="17"/>
       <c r="J393" s="17"/>
@@ -10571,13 +10699,13 @@
       <c r="N393" s="17"/>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A394" s="29"/>
+      <c r="A394" s="28"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
       <c r="D394" s="19"/>
       <c r="E394" s="20"/>
       <c r="F394" s="17"/>
-      <c r="G394" s="28"/>
+      <c r="G394" s="27"/>
       <c r="H394" s="21"/>
       <c r="I394" s="17"/>
       <c r="J394" s="17"/>
@@ -10587,13 +10715,13 @@
       <c r="N394" s="17"/>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A395" s="29"/>
+      <c r="A395" s="28"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
       <c r="D395" s="19"/>
       <c r="E395" s="20"/>
       <c r="F395" s="17"/>
-      <c r="G395" s="28"/>
+      <c r="G395" s="27"/>
       <c r="H395" s="21"/>
       <c r="I395" s="17"/>
       <c r="J395" s="17"/>
@@ -10603,13 +10731,13 @@
       <c r="N395" s="17"/>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A396" s="29"/>
+      <c r="A396" s="28"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
       <c r="D396" s="19"/>
       <c r="E396" s="20"/>
       <c r="F396" s="17"/>
-      <c r="G396" s="28"/>
+      <c r="G396" s="27"/>
       <c r="H396" s="21"/>
       <c r="I396" s="17"/>
       <c r="J396" s="17"/>
@@ -10619,13 +10747,13 @@
       <c r="N396" s="17"/>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A397" s="29"/>
+      <c r="A397" s="28"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
       <c r="D397" s="19"/>
       <c r="E397" s="20"/>
       <c r="F397" s="17"/>
-      <c r="G397" s="28"/>
+      <c r="G397" s="27"/>
       <c r="H397" s="21"/>
       <c r="I397" s="17"/>
       <c r="J397" s="17"/>
@@ -10635,13 +10763,13 @@
       <c r="N397" s="17"/>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A398" s="29"/>
+      <c r="A398" s="28"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
       <c r="D398" s="19"/>
       <c r="E398" s="20"/>
       <c r="F398" s="17"/>
-      <c r="G398" s="28"/>
+      <c r="G398" s="27"/>
       <c r="H398" s="21"/>
       <c r="I398" s="17"/>
       <c r="J398" s="17"/>
@@ -10651,13 +10779,13 @@
       <c r="N398" s="17"/>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A399" s="29"/>
+      <c r="A399" s="28"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
       <c r="D399" s="19"/>
       <c r="E399" s="20"/>
       <c r="F399" s="17"/>
-      <c r="G399" s="28"/>
+      <c r="G399" s="27"/>
       <c r="H399" s="21"/>
       <c r="I399" s="17"/>
       <c r="J399" s="17"/>
@@ -10667,13 +10795,13 @@
       <c r="N399" s="17"/>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A400" s="29"/>
+      <c r="A400" s="28"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
       <c r="D400" s="19"/>
       <c r="E400" s="20"/>
       <c r="F400" s="17"/>
-      <c r="G400" s="28"/>
+      <c r="G400" s="27"/>
       <c r="H400" s="21"/>
       <c r="I400" s="17"/>
       <c r="J400" s="17"/>
@@ -10683,13 +10811,13 @@
       <c r="N400" s="17"/>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A401" s="29"/>
+      <c r="A401" s="28"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
       <c r="D401" s="19"/>
       <c r="E401" s="20"/>
       <c r="F401" s="17"/>
-      <c r="G401" s="28"/>
+      <c r="G401" s="27"/>
       <c r="H401" s="21"/>
       <c r="I401" s="17"/>
       <c r="J401" s="17"/>
@@ -10699,13 +10827,13 @@
       <c r="N401" s="17"/>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A402" s="29"/>
+      <c r="A402" s="28"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
       <c r="D402" s="19"/>
       <c r="E402" s="20"/>
       <c r="F402" s="17"/>
-      <c r="G402" s="28"/>
+      <c r="G402" s="27"/>
       <c r="H402" s="21"/>
       <c r="I402" s="17"/>
       <c r="J402" s="17"/>
@@ -10715,13 +10843,13 @@
       <c r="N402" s="17"/>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A403" s="29"/>
+      <c r="A403" s="28"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
       <c r="D403" s="19"/>
       <c r="E403" s="20"/>
       <c r="F403" s="17"/>
-      <c r="G403" s="28"/>
+      <c r="G403" s="27"/>
       <c r="H403" s="21"/>
       <c r="I403" s="17"/>
       <c r="J403" s="17"/>
@@ -10731,13 +10859,13 @@
       <c r="N403" s="17"/>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A404" s="29"/>
+      <c r="A404" s="28"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
       <c r="D404" s="19"/>
       <c r="E404" s="20"/>
       <c r="F404" s="17"/>
-      <c r="G404" s="28"/>
+      <c r="G404" s="27"/>
       <c r="H404" s="21"/>
       <c r="I404" s="17"/>
       <c r="J404" s="17"/>
@@ -10747,13 +10875,13 @@
       <c r="N404" s="17"/>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A405" s="29"/>
+      <c r="A405" s="28"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
       <c r="D405" s="19"/>
       <c r="E405" s="20"/>
       <c r="F405" s="17"/>
-      <c r="G405" s="28"/>
+      <c r="G405" s="27"/>
       <c r="H405" s="21"/>
       <c r="I405" s="17"/>
       <c r="J405" s="17"/>
@@ -10763,13 +10891,13 @@
       <c r="N405" s="17"/>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A406" s="29"/>
+      <c r="A406" s="28"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
       <c r="D406" s="19"/>
       <c r="E406" s="20"/>
       <c r="F406" s="17"/>
-      <c r="G406" s="28"/>
+      <c r="G406" s="27"/>
       <c r="H406" s="21"/>
       <c r="I406" s="17"/>
       <c r="J406" s="17"/>
@@ -10779,13 +10907,13 @@
       <c r="N406" s="17"/>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A407" s="29"/>
+      <c r="A407" s="28"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
       <c r="D407" s="19"/>
       <c r="E407" s="20"/>
       <c r="F407" s="17"/>
-      <c r="G407" s="28"/>
+      <c r="G407" s="27"/>
       <c r="H407" s="21"/>
       <c r="I407" s="17"/>
       <c r="J407" s="17"/>
@@ -10795,13 +10923,13 @@
       <c r="N407" s="17"/>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A408" s="29"/>
+      <c r="A408" s="28"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
       <c r="D408" s="19"/>
       <c r="E408" s="20"/>
       <c r="F408" s="17"/>
-      <c r="G408" s="28"/>
+      <c r="G408" s="27"/>
       <c r="H408" s="21"/>
       <c r="I408" s="17"/>
       <c r="J408" s="17"/>
@@ -10811,13 +10939,13 @@
       <c r="N408" s="17"/>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A409" s="29"/>
+      <c r="A409" s="28"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
       <c r="D409" s="19"/>
       <c r="E409" s="20"/>
       <c r="F409" s="17"/>
-      <c r="G409" s="28"/>
+      <c r="G409" s="27"/>
       <c r="H409" s="21"/>
       <c r="I409" s="17"/>
       <c r="J409" s="17"/>
@@ -10827,13 +10955,13 @@
       <c r="N409" s="17"/>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A410" s="29"/>
+      <c r="A410" s="28"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
       <c r="D410" s="19"/>
       <c r="E410" s="20"/>
       <c r="F410" s="17"/>
-      <c r="G410" s="28"/>
+      <c r="G410" s="27"/>
       <c r="H410" s="21"/>
       <c r="I410" s="17"/>
       <c r="J410" s="17"/>
@@ -10843,13 +10971,13 @@
       <c r="N410" s="17"/>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A411" s="29"/>
+      <c r="A411" s="28"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
       <c r="D411" s="19"/>
       <c r="E411" s="20"/>
       <c r="F411" s="17"/>
-      <c r="G411" s="28"/>
+      <c r="G411" s="27"/>
       <c r="H411" s="21"/>
       <c r="I411" s="17"/>
       <c r="J411" s="17"/>
@@ -10859,13 +10987,13 @@
       <c r="N411" s="17"/>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A412" s="29"/>
+      <c r="A412" s="28"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
       <c r="D412" s="19"/>
       <c r="E412" s="20"/>
       <c r="F412" s="17"/>
-      <c r="G412" s="28"/>
+      <c r="G412" s="27"/>
       <c r="H412" s="21"/>
       <c r="I412" s="17"/>
       <c r="J412" s="17"/>
@@ -10875,13 +11003,13 @@
       <c r="N412" s="17"/>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A413" s="29"/>
+      <c r="A413" s="28"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
       <c r="D413" s="19"/>
       <c r="E413" s="20"/>
       <c r="F413" s="17"/>
-      <c r="G413" s="28"/>
+      <c r="G413" s="27"/>
       <c r="H413" s="21"/>
       <c r="I413" s="17"/>
       <c r="J413" s="17"/>
@@ -10891,13 +11019,13 @@
       <c r="N413" s="17"/>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A414" s="29"/>
+      <c r="A414" s="28"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="19"/>
       <c r="E414" s="20"/>
       <c r="F414" s="17"/>
-      <c r="G414" s="28"/>
+      <c r="G414" s="27"/>
       <c r="H414" s="21"/>
       <c r="I414" s="17"/>
       <c r="J414" s="17"/>
@@ -10907,13 +11035,13 @@
       <c r="N414" s="17"/>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A415" s="29"/>
+      <c r="A415" s="28"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
       <c r="D415" s="19"/>
       <c r="E415" s="20"/>
       <c r="F415" s="17"/>
-      <c r="G415" s="28"/>
+      <c r="G415" s="27"/>
       <c r="H415" s="21"/>
       <c r="I415" s="17"/>
       <c r="J415" s="17"/>
@@ -10923,13 +11051,13 @@
       <c r="N415" s="17"/>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A416" s="29"/>
+      <c r="A416" s="28"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="19"/>
       <c r="E416" s="20"/>
       <c r="F416" s="17"/>
-      <c r="G416" s="28"/>
+      <c r="G416" s="27"/>
       <c r="H416" s="21"/>
       <c r="I416" s="17"/>
       <c r="J416" s="17"/>
@@ -10939,13 +11067,13 @@
       <c r="N416" s="17"/>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A417" s="29"/>
+      <c r="A417" s="28"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
       <c r="D417" s="19"/>
       <c r="E417" s="20"/>
       <c r="F417" s="17"/>
-      <c r="G417" s="28"/>
+      <c r="G417" s="27"/>
       <c r="H417" s="21"/>
       <c r="I417" s="17"/>
       <c r="J417" s="17"/>
@@ -10955,13 +11083,13 @@
       <c r="N417" s="17"/>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A418" s="29"/>
+      <c r="A418" s="28"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
       <c r="D418" s="19"/>
       <c r="E418" s="20"/>
       <c r="F418" s="17"/>
-      <c r="G418" s="28"/>
+      <c r="G418" s="27"/>
       <c r="H418" s="21"/>
       <c r="I418" s="17"/>
       <c r="J418" s="17"/>
@@ -10971,13 +11099,13 @@
       <c r="N418" s="17"/>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A419" s="29"/>
+      <c r="A419" s="28"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
       <c r="D419" s="19"/>
       <c r="E419" s="20"/>
       <c r="F419" s="17"/>
-      <c r="G419" s="28"/>
+      <c r="G419" s="27"/>
       <c r="H419" s="21"/>
       <c r="I419" s="17"/>
       <c r="J419" s="17"/>
@@ -10987,13 +11115,13 @@
       <c r="N419" s="17"/>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A420" s="29"/>
+      <c r="A420" s="28"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
       <c r="D420" s="19"/>
       <c r="E420" s="20"/>
       <c r="F420" s="17"/>
-      <c r="G420" s="28"/>
+      <c r="G420" s="27"/>
       <c r="H420" s="21"/>
       <c r="I420" s="17"/>
       <c r="J420" s="17"/>
@@ -11003,13 +11131,13 @@
       <c r="N420" s="17"/>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A421" s="29"/>
+      <c r="A421" s="28"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
       <c r="D421" s="19"/>
       <c r="E421" s="20"/>
       <c r="F421" s="17"/>
-      <c r="G421" s="28"/>
+      <c r="G421" s="27"/>
       <c r="H421" s="21"/>
       <c r="I421" s="17"/>
       <c r="J421" s="17"/>
@@ -11019,13 +11147,13 @@
       <c r="N421" s="17"/>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A422" s="29"/>
+      <c r="A422" s="28"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
       <c r="D422" s="19"/>
       <c r="E422" s="20"/>
       <c r="F422" s="17"/>
-      <c r="G422" s="28"/>
+      <c r="G422" s="27"/>
       <c r="H422" s="21"/>
       <c r="I422" s="17"/>
       <c r="J422" s="17"/>
@@ -11035,13 +11163,13 @@
       <c r="N422" s="17"/>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A423" s="29"/>
+      <c r="A423" s="28"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
       <c r="D423" s="19"/>
       <c r="E423" s="20"/>
       <c r="F423" s="17"/>
-      <c r="G423" s="28"/>
+      <c r="G423" s="27"/>
       <c r="H423" s="21"/>
       <c r="I423" s="17"/>
       <c r="J423" s="17"/>
@@ -11051,13 +11179,13 @@
       <c r="N423" s="17"/>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A424" s="29"/>
+      <c r="A424" s="28"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
       <c r="D424" s="19"/>
       <c r="E424" s="20"/>
       <c r="F424" s="17"/>
-      <c r="G424" s="28"/>
+      <c r="G424" s="27"/>
       <c r="H424" s="21"/>
       <c r="I424" s="17"/>
       <c r="J424" s="17"/>
@@ -11067,13 +11195,13 @@
       <c r="N424" s="17"/>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A425" s="29"/>
+      <c r="A425" s="28"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
       <c r="D425" s="19"/>
       <c r="E425" s="20"/>
       <c r="F425" s="17"/>
-      <c r="G425" s="28"/>
+      <c r="G425" s="27"/>
       <c r="H425" s="21"/>
       <c r="I425" s="17"/>
       <c r="J425" s="17"/>
@@ -11083,13 +11211,13 @@
       <c r="N425" s="17"/>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A426" s="29"/>
+      <c r="A426" s="28"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
       <c r="D426" s="19"/>
       <c r="E426" s="20"/>
       <c r="F426" s="17"/>
-      <c r="G426" s="28"/>
+      <c r="G426" s="27"/>
       <c r="H426" s="21"/>
       <c r="I426" s="17"/>
       <c r="J426" s="17"/>
@@ -11099,13 +11227,13 @@
       <c r="N426" s="17"/>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A427" s="29"/>
+      <c r="A427" s="28"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
       <c r="D427" s="19"/>
       <c r="E427" s="20"/>
       <c r="F427" s="17"/>
-      <c r="G427" s="28"/>
+      <c r="G427" s="27"/>
       <c r="H427" s="21"/>
       <c r="I427" s="17"/>
       <c r="J427" s="17"/>
@@ -11115,13 +11243,13 @@
       <c r="N427" s="17"/>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A428" s="29"/>
+      <c r="A428" s="28"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
       <c r="D428" s="19"/>
       <c r="E428" s="20"/>
       <c r="F428" s="17"/>
-      <c r="G428" s="28"/>
+      <c r="G428" s="27"/>
       <c r="H428" s="21"/>
       <c r="I428" s="17"/>
       <c r="J428" s="17"/>
@@ -11131,13 +11259,13 @@
       <c r="N428" s="17"/>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A429" s="29"/>
+      <c r="A429" s="28"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
       <c r="D429" s="19"/>
       <c r="E429" s="20"/>
       <c r="F429" s="17"/>
-      <c r="G429" s="28"/>
+      <c r="G429" s="27"/>
       <c r="H429" s="21"/>
       <c r="I429" s="17"/>
       <c r="J429" s="17"/>
@@ -11147,13 +11275,13 @@
       <c r="N429" s="17"/>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A430" s="29"/>
+      <c r="A430" s="28"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
       <c r="D430" s="19"/>
       <c r="E430" s="20"/>
       <c r="F430" s="17"/>
-      <c r="G430" s="28"/>
+      <c r="G430" s="27"/>
       <c r="H430" s="21"/>
       <c r="I430" s="17"/>
       <c r="J430" s="17"/>
@@ -11163,13 +11291,13 @@
       <c r="N430" s="17"/>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A431" s="29"/>
+      <c r="A431" s="28"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
       <c r="D431" s="19"/>
       <c r="E431" s="20"/>
       <c r="F431" s="17"/>
-      <c r="G431" s="28"/>
+      <c r="G431" s="27"/>
       <c r="H431" s="21"/>
       <c r="I431" s="17"/>
       <c r="J431" s="17"/>
@@ -11179,13 +11307,13 @@
       <c r="N431" s="17"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A432" s="29"/>
+      <c r="A432" s="28"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
       <c r="D432" s="19"/>
       <c r="E432" s="20"/>
       <c r="F432" s="17"/>
-      <c r="G432" s="28"/>
+      <c r="G432" s="27"/>
       <c r="H432" s="21"/>
       <c r="I432" s="17"/>
       <c r="J432" s="17"/>
@@ -11195,13 +11323,13 @@
       <c r="N432" s="17"/>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A433" s="29"/>
+      <c r="A433" s="28"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
       <c r="D433" s="19"/>
       <c r="E433" s="20"/>
       <c r="F433" s="17"/>
-      <c r="G433" s="28"/>
+      <c r="G433" s="27"/>
       <c r="H433" s="21"/>
       <c r="I433" s="17"/>
       <c r="J433" s="17"/>
@@ -11211,13 +11339,13 @@
       <c r="N433" s="17"/>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A434" s="29"/>
+      <c r="A434" s="28"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
       <c r="D434" s="19"/>
       <c r="E434" s="20"/>
       <c r="F434" s="17"/>
-      <c r="G434" s="28"/>
+      <c r="G434" s="27"/>
       <c r="H434" s="21"/>
       <c r="I434" s="17"/>
       <c r="J434" s="17"/>
@@ -11227,13 +11355,13 @@
       <c r="N434" s="17"/>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A435" s="29"/>
+      <c r="A435" s="28"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
       <c r="D435" s="19"/>
       <c r="E435" s="20"/>
       <c r="F435" s="17"/>
-      <c r="G435" s="28"/>
+      <c r="G435" s="27"/>
       <c r="H435" s="21"/>
       <c r="I435" s="17"/>
       <c r="J435" s="17"/>
@@ -11243,13 +11371,13 @@
       <c r="N435" s="17"/>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A436" s="29"/>
+      <c r="A436" s="28"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
       <c r="D436" s="19"/>
       <c r="E436" s="20"/>
       <c r="F436" s="17"/>
-      <c r="G436" s="28"/>
+      <c r="G436" s="27"/>
       <c r="H436" s="21"/>
       <c r="I436" s="17"/>
       <c r="J436" s="17"/>
@@ -11259,13 +11387,13 @@
       <c r="N436" s="17"/>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A437" s="29"/>
+      <c r="A437" s="28"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
       <c r="D437" s="19"/>
       <c r="E437" s="20"/>
       <c r="F437" s="17"/>
-      <c r="G437" s="28"/>
+      <c r="G437" s="27"/>
       <c r="H437" s="21"/>
       <c r="I437" s="17"/>
       <c r="J437" s="17"/>
@@ -11275,13 +11403,13 @@
       <c r="N437" s="17"/>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A438" s="29"/>
+      <c r="A438" s="28"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
       <c r="D438" s="19"/>
       <c r="E438" s="20"/>
       <c r="F438" s="17"/>
-      <c r="G438" s="28"/>
+      <c r="G438" s="27"/>
       <c r="H438" s="21"/>
       <c r="I438" s="17"/>
       <c r="J438" s="17"/>
@@ -11291,13 +11419,13 @@
       <c r="N438" s="17"/>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A439" s="29"/>
+      <c r="A439" s="28"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
       <c r="D439" s="19"/>
       <c r="E439" s="20"/>
       <c r="F439" s="17"/>
-      <c r="G439" s="28"/>
+      <c r="G439" s="27"/>
       <c r="H439" s="21"/>
       <c r="I439" s="17"/>
       <c r="J439" s="17"/>
@@ -11307,13 +11435,13 @@
       <c r="N439" s="17"/>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A440" s="29"/>
+      <c r="A440" s="28"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
       <c r="D440" s="19"/>
       <c r="E440" s="20"/>
       <c r="F440" s="17"/>
-      <c r="G440" s="28"/>
+      <c r="G440" s="27"/>
       <c r="H440" s="21"/>
       <c r="I440" s="17"/>
       <c r="J440" s="17"/>
@@ -11323,13 +11451,13 @@
       <c r="N440" s="17"/>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A441" s="29"/>
+      <c r="A441" s="28"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
       <c r="D441" s="19"/>
       <c r="E441" s="20"/>
       <c r="F441" s="17"/>
-      <c r="G441" s="28"/>
+      <c r="G441" s="27"/>
       <c r="H441" s="21"/>
       <c r="I441" s="17"/>
       <c r="J441" s="17"/>
@@ -11339,13 +11467,13 @@
       <c r="N441" s="17"/>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A442" s="29"/>
+      <c r="A442" s="28"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
       <c r="D442" s="19"/>
       <c r="E442" s="20"/>
       <c r="F442" s="17"/>
-      <c r="G442" s="28"/>
+      <c r="G442" s="27"/>
       <c r="H442" s="21"/>
       <c r="I442" s="17"/>
       <c r="J442" s="17"/>
@@ -11355,13 +11483,13 @@
       <c r="N442" s="17"/>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A443" s="29"/>
+      <c r="A443" s="28"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
       <c r="D443" s="19"/>
       <c r="E443" s="20"/>
       <c r="F443" s="17"/>
-      <c r="G443" s="28"/>
+      <c r="G443" s="27"/>
       <c r="H443" s="21"/>
       <c r="I443" s="17"/>
       <c r="J443" s="17"/>
@@ -11371,13 +11499,13 @@
       <c r="N443" s="17"/>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A444" s="29"/>
+      <c r="A444" s="28"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
       <c r="D444" s="19"/>
       <c r="E444" s="20"/>
       <c r="F444" s="17"/>
-      <c r="G444" s="28"/>
+      <c r="G444" s="27"/>
       <c r="H444" s="21"/>
       <c r="I444" s="17"/>
       <c r="J444" s="17"/>
@@ -11387,13 +11515,13 @@
       <c r="N444" s="17"/>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A445" s="29"/>
+      <c r="A445" s="28"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
       <c r="D445" s="19"/>
       <c r="E445" s="20"/>
       <c r="F445" s="17"/>
-      <c r="G445" s="28"/>
+      <c r="G445" s="27"/>
       <c r="H445" s="21"/>
       <c r="I445" s="17"/>
       <c r="J445" s="17"/>
@@ -11403,13 +11531,13 @@
       <c r="N445" s="17"/>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A446" s="29"/>
+      <c r="A446" s="28"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
       <c r="D446" s="19"/>
       <c r="E446" s="20"/>
       <c r="F446" s="17"/>
-      <c r="G446" s="28"/>
+      <c r="G446" s="27"/>
       <c r="H446" s="21"/>
       <c r="I446" s="17"/>
       <c r="J446" s="17"/>
@@ -11419,13 +11547,13 @@
       <c r="N446" s="17"/>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A447" s="29"/>
+      <c r="A447" s="28"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
       <c r="D447" s="19"/>
       <c r="E447" s="20"/>
       <c r="F447" s="17"/>
-      <c r="G447" s="28"/>
+      <c r="G447" s="27"/>
       <c r="H447" s="21"/>
       <c r="I447" s="17"/>
       <c r="J447" s="17"/>
@@ -11435,13 +11563,13 @@
       <c r="N447" s="17"/>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A448" s="29"/>
+      <c r="A448" s="28"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
       <c r="D448" s="19"/>
       <c r="E448" s="20"/>
       <c r="F448" s="17"/>
-      <c r="G448" s="28"/>
+      <c r="G448" s="27"/>
       <c r="H448" s="21"/>
       <c r="I448" s="17"/>
       <c r="J448" s="17"/>
@@ -11451,13 +11579,13 @@
       <c r="N448" s="17"/>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A449" s="29"/>
+      <c r="A449" s="28"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
       <c r="D449" s="19"/>
       <c r="E449" s="20"/>
       <c r="F449" s="17"/>
-      <c r="G449" s="28"/>
+      <c r="G449" s="27"/>
       <c r="H449" s="21"/>
       <c r="I449" s="17"/>
       <c r="J449" s="17"/>
@@ -11467,13 +11595,13 @@
       <c r="N449" s="17"/>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A450" s="29"/>
+      <c r="A450" s="28"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
       <c r="D450" s="19"/>
       <c r="E450" s="20"/>
       <c r="F450" s="17"/>
-      <c r="G450" s="28"/>
+      <c r="G450" s="27"/>
       <c r="H450" s="21"/>
       <c r="I450" s="17"/>
       <c r="J450" s="17"/>
@@ -11483,13 +11611,13 @@
       <c r="N450" s="17"/>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A451" s="29"/>
+      <c r="A451" s="28"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
       <c r="D451" s="19"/>
       <c r="E451" s="20"/>
       <c r="F451" s="17"/>
-      <c r="G451" s="28"/>
+      <c r="G451" s="27"/>
       <c r="H451" s="21"/>
       <c r="I451" s="17"/>
       <c r="J451" s="17"/>
@@ -11499,13 +11627,13 @@
       <c r="N451" s="17"/>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A452" s="29"/>
+      <c r="A452" s="28"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
       <c r="D452" s="19"/>
       <c r="E452" s="20"/>
       <c r="F452" s="17"/>
-      <c r="G452" s="28"/>
+      <c r="G452" s="27"/>
       <c r="H452" s="21"/>
       <c r="I452" s="17"/>
       <c r="J452" s="17"/>
@@ -11515,13 +11643,13 @@
       <c r="N452" s="17"/>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A453" s="29"/>
+      <c r="A453" s="28"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
       <c r="D453" s="19"/>
       <c r="E453" s="20"/>
       <c r="F453" s="17"/>
-      <c r="G453" s="28"/>
+      <c r="G453" s="27"/>
       <c r="H453" s="21"/>
       <c r="I453" s="17"/>
       <c r="J453" s="17"/>
@@ -11531,13 +11659,13 @@
       <c r="N453" s="17"/>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A454" s="29"/>
+      <c r="A454" s="28"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
       <c r="D454" s="19"/>
       <c r="E454" s="20"/>
       <c r="F454" s="17"/>
-      <c r="G454" s="28"/>
+      <c r="G454" s="27"/>
       <c r="H454" s="21"/>
       <c r="I454" s="17"/>
       <c r="J454" s="17"/>
@@ -11547,13 +11675,13 @@
       <c r="N454" s="17"/>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A455" s="29"/>
+      <c r="A455" s="28"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
       <c r="D455" s="19"/>
       <c r="E455" s="20"/>
       <c r="F455" s="17"/>
-      <c r="G455" s="28"/>
+      <c r="G455" s="27"/>
       <c r="H455" s="21"/>
       <c r="I455" s="17"/>
       <c r="J455" s="17"/>
@@ -11563,13 +11691,13 @@
       <c r="N455" s="17"/>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A456" s="29"/>
+      <c r="A456" s="28"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
       <c r="D456" s="19"/>
       <c r="E456" s="20"/>
       <c r="F456" s="17"/>
-      <c r="G456" s="28"/>
+      <c r="G456" s="27"/>
       <c r="H456" s="21"/>
       <c r="I456" s="17"/>
       <c r="J456" s="17"/>
@@ -11579,13 +11707,13 @@
       <c r="N456" s="17"/>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A457" s="29"/>
+      <c r="A457" s="28"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
       <c r="D457" s="19"/>
       <c r="E457" s="20"/>
       <c r="F457" s="17"/>
-      <c r="G457" s="28"/>
+      <c r="G457" s="27"/>
       <c r="H457" s="21"/>
       <c r="I457" s="17"/>
       <c r="J457" s="17"/>
@@ -11595,13 +11723,13 @@
       <c r="N457" s="17"/>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A458" s="29"/>
+      <c r="A458" s="28"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
       <c r="D458" s="19"/>
       <c r="E458" s="20"/>
       <c r="F458" s="17"/>
-      <c r="G458" s="28"/>
+      <c r="G458" s="27"/>
       <c r="H458" s="21"/>
       <c r="I458" s="17"/>
       <c r="J458" s="17"/>
@@ -11611,13 +11739,13 @@
       <c r="N458" s="17"/>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A459" s="29"/>
+      <c r="A459" s="28"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
       <c r="D459" s="19"/>
       <c r="E459" s="20"/>
       <c r="F459" s="17"/>
-      <c r="G459" s="28"/>
+      <c r="G459" s="27"/>
       <c r="H459" s="21"/>
       <c r="I459" s="17"/>
       <c r="J459" s="17"/>
@@ -11627,13 +11755,13 @@
       <c r="N459" s="17"/>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A460" s="29"/>
+      <c r="A460" s="28"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
       <c r="D460" s="19"/>
       <c r="E460" s="20"/>
       <c r="F460" s="17"/>
-      <c r="G460" s="28"/>
+      <c r="G460" s="27"/>
       <c r="H460" s="21"/>
       <c r="I460" s="17"/>
       <c r="J460" s="17"/>
@@ -11643,13 +11771,13 @@
       <c r="N460" s="17"/>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A461" s="29"/>
+      <c r="A461" s="28"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
       <c r="D461" s="19"/>
       <c r="E461" s="20"/>
       <c r="F461" s="17"/>
-      <c r="G461" s="28"/>
+      <c r="G461" s="27"/>
       <c r="H461" s="21"/>
       <c r="I461" s="17"/>
       <c r="J461" s="17"/>
@@ -11659,13 +11787,13 @@
       <c r="N461" s="17"/>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A462" s="29"/>
+      <c r="A462" s="28"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
       <c r="D462" s="19"/>
       <c r="E462" s="20"/>
       <c r="F462" s="17"/>
-      <c r="G462" s="28"/>
+      <c r="G462" s="27"/>
       <c r="H462" s="21"/>
       <c r="I462" s="17"/>
       <c r="J462" s="17"/>
@@ -11675,13 +11803,13 @@
       <c r="N462" s="17"/>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A463" s="29"/>
+      <c r="A463" s="28"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
       <c r="D463" s="19"/>
       <c r="E463" s="20"/>
       <c r="F463" s="17"/>
-      <c r="G463" s="28"/>
+      <c r="G463" s="27"/>
       <c r="H463" s="21"/>
       <c r="I463" s="17"/>
       <c r="J463" s="17"/>
@@ -11691,13 +11819,13 @@
       <c r="N463" s="17"/>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A464" s="29"/>
+      <c r="A464" s="28"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
       <c r="D464" s="19"/>
       <c r="E464" s="20"/>
       <c r="F464" s="17"/>
-      <c r="G464" s="28"/>
+      <c r="G464" s="27"/>
       <c r="H464" s="21"/>
       <c r="I464" s="17"/>
       <c r="J464" s="17"/>
@@ -11707,13 +11835,13 @@
       <c r="N464" s="17"/>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A465" s="29"/>
+      <c r="A465" s="28"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
       <c r="D465" s="19"/>
       <c r="E465" s="20"/>
       <c r="F465" s="17"/>
-      <c r="G465" s="28"/>
+      <c r="G465" s="27"/>
       <c r="H465" s="21"/>
       <c r="I465" s="17"/>
       <c r="J465" s="17"/>
@@ -11723,13 +11851,13 @@
       <c r="N465" s="17"/>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A466" s="29"/>
+      <c r="A466" s="28"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
       <c r="D466" s="19"/>
       <c r="E466" s="20"/>
       <c r="F466" s="17"/>
-      <c r="G466" s="28"/>
+      <c r="G466" s="27"/>
       <c r="H466" s="21"/>
       <c r="I466" s="17"/>
       <c r="J466" s="17"/>
@@ -11739,13 +11867,13 @@
       <c r="N466" s="17"/>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A467" s="29"/>
+      <c r="A467" s="28"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
       <c r="D467" s="19"/>
       <c r="E467" s="20"/>
       <c r="F467" s="17"/>
-      <c r="G467" s="28"/>
+      <c r="G467" s="27"/>
       <c r="H467" s="21"/>
       <c r="I467" s="17"/>
       <c r="J467" s="17"/>
@@ -11755,13 +11883,13 @@
       <c r="N467" s="17"/>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A468" s="29"/>
+      <c r="A468" s="28"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
       <c r="D468" s="19"/>
       <c r="E468" s="20"/>
       <c r="F468" s="17"/>
-      <c r="G468" s="28"/>
+      <c r="G468" s="27"/>
       <c r="H468" s="21"/>
       <c r="I468" s="17"/>
       <c r="J468" s="17"/>
@@ -11771,13 +11899,13 @@
       <c r="N468" s="17"/>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A469" s="29"/>
+      <c r="A469" s="28"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
       <c r="D469" s="19"/>
       <c r="E469" s="20"/>
       <c r="F469" s="17"/>
-      <c r="G469" s="28"/>
+      <c r="G469" s="27"/>
       <c r="H469" s="21"/>
       <c r="I469" s="17"/>
       <c r="J469" s="17"/>
@@ -11787,13 +11915,13 @@
       <c r="N469" s="17"/>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A470" s="29"/>
+      <c r="A470" s="28"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
       <c r="D470" s="19"/>
       <c r="E470" s="20"/>
       <c r="F470" s="17"/>
-      <c r="G470" s="28"/>
+      <c r="G470" s="27"/>
       <c r="H470" s="21"/>
       <c r="I470" s="17"/>
       <c r="J470" s="17"/>
@@ -11803,13 +11931,13 @@
       <c r="N470" s="17"/>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A471" s="29"/>
+      <c r="A471" s="28"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
       <c r="D471" s="19"/>
       <c r="E471" s="20"/>
       <c r="F471" s="17"/>
-      <c r="G471" s="28"/>
+      <c r="G471" s="27"/>
       <c r="H471" s="21"/>
       <c r="I471" s="17"/>
       <c r="J471" s="17"/>
@@ -11819,13 +11947,13 @@
       <c r="N471" s="17"/>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A472" s="29"/>
+      <c r="A472" s="28"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
       <c r="D472" s="19"/>
       <c r="E472" s="20"/>
       <c r="F472" s="17"/>
-      <c r="G472" s="28"/>
+      <c r="G472" s="27"/>
       <c r="H472" s="21"/>
       <c r="I472" s="17"/>
       <c r="J472" s="17"/>
@@ -11835,13 +11963,13 @@
       <c r="N472" s="17"/>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A473" s="29"/>
+      <c r="A473" s="28"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
       <c r="D473" s="19"/>
       <c r="E473" s="20"/>
       <c r="F473" s="17"/>
-      <c r="G473" s="28"/>
+      <c r="G473" s="27"/>
       <c r="H473" s="21"/>
       <c r="I473" s="17"/>
       <c r="J473" s="17"/>
@@ -11851,13 +11979,13 @@
       <c r="N473" s="17"/>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A474" s="29"/>
+      <c r="A474" s="28"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
       <c r="D474" s="19"/>
       <c r="E474" s="20"/>
       <c r="F474" s="17"/>
-      <c r="G474" s="28"/>
+      <c r="G474" s="27"/>
       <c r="H474" s="21"/>
       <c r="I474" s="17"/>
       <c r="J474" s="17"/>
@@ -11867,13 +11995,13 @@
       <c r="N474" s="17"/>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A475" s="29"/>
+      <c r="A475" s="28"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
       <c r="D475" s="19"/>
       <c r="E475" s="20"/>
       <c r="F475" s="17"/>
-      <c r="G475" s="28"/>
+      <c r="G475" s="27"/>
       <c r="H475" s="21"/>
       <c r="I475" s="17"/>
       <c r="J475" s="17"/>
@@ -11883,13 +12011,13 @@
       <c r="N475" s="17"/>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A476" s="29"/>
+      <c r="A476" s="28"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
       <c r="D476" s="19"/>
       <c r="E476" s="20"/>
       <c r="F476" s="17"/>
-      <c r="G476" s="28"/>
+      <c r="G476" s="27"/>
       <c r="H476" s="21"/>
       <c r="I476" s="17"/>
       <c r="J476" s="17"/>
@@ -11899,13 +12027,13 @@
       <c r="N476" s="17"/>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A477" s="29"/>
+      <c r="A477" s="28"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
       <c r="D477" s="19"/>
       <c r="E477" s="20"/>
       <c r="F477" s="17"/>
-      <c r="G477" s="28"/>
+      <c r="G477" s="27"/>
       <c r="H477" s="21"/>
       <c r="I477" s="17"/>
       <c r="J477" s="17"/>
@@ -11915,13 +12043,13 @@
       <c r="N477" s="17"/>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A478" s="29"/>
+      <c r="A478" s="28"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
       <c r="D478" s="19"/>
       <c r="E478" s="20"/>
       <c r="F478" s="17"/>
-      <c r="G478" s="28"/>
+      <c r="G478" s="27"/>
       <c r="H478" s="21"/>
       <c r="I478" s="17"/>
       <c r="J478" s="17"/>
@@ -11931,13 +12059,13 @@
       <c r="N478" s="17"/>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A479" s="29"/>
+      <c r="A479" s="28"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
       <c r="D479" s="19"/>
       <c r="E479" s="20"/>
       <c r="F479" s="17"/>
-      <c r="G479" s="28"/>
+      <c r="G479" s="27"/>
       <c r="H479" s="21"/>
       <c r="I479" s="17"/>
       <c r="J479" s="17"/>
@@ -11947,13 +12075,13 @@
       <c r="N479" s="17"/>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A480" s="29"/>
+      <c r="A480" s="28"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
       <c r="D480" s="19"/>
       <c r="E480" s="20"/>
       <c r="F480" s="17"/>
-      <c r="G480" s="28"/>
+      <c r="G480" s="27"/>
       <c r="H480" s="21"/>
       <c r="I480" s="17"/>
       <c r="J480" s="17"/>
@@ -11963,13 +12091,13 @@
       <c r="N480" s="17"/>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A481" s="29"/>
+      <c r="A481" s="28"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
       <c r="D481" s="19"/>
       <c r="E481" s="20"/>
       <c r="F481" s="17"/>
-      <c r="G481" s="28"/>
+      <c r="G481" s="27"/>
       <c r="H481" s="21"/>
       <c r="I481" s="17"/>
       <c r="J481" s="17"/>
@@ -11979,13 +12107,13 @@
       <c r="N481" s="17"/>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A482" s="29"/>
+      <c r="A482" s="28"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
       <c r="D482" s="19"/>
       <c r="E482" s="20"/>
       <c r="F482" s="17"/>
-      <c r="G482" s="28"/>
+      <c r="G482" s="27"/>
       <c r="H482" s="21"/>
       <c r="I482" s="17"/>
       <c r="J482" s="17"/>
@@ -11995,13 +12123,13 @@
       <c r="N482" s="17"/>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A483" s="29"/>
+      <c r="A483" s="28"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
       <c r="D483" s="19"/>
       <c r="E483" s="20"/>
       <c r="F483" s="17"/>
-      <c r="G483" s="28"/>
+      <c r="G483" s="27"/>
       <c r="H483" s="21"/>
       <c r="I483" s="17"/>
       <c r="J483" s="17"/>
@@ -12011,13 +12139,13 @@
       <c r="N483" s="17"/>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A484" s="29"/>
+      <c r="A484" s="28"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
       <c r="D484" s="19"/>
       <c r="E484" s="20"/>
       <c r="F484" s="17"/>
-      <c r="G484" s="28"/>
+      <c r="G484" s="27"/>
       <c r="H484" s="21"/>
       <c r="I484" s="17"/>
       <c r="J484" s="17"/>
@@ -12027,13 +12155,13 @@
       <c r="N484" s="17"/>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A485" s="29"/>
+      <c r="A485" s="28"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
       <c r="D485" s="19"/>
       <c r="E485" s="20"/>
       <c r="F485" s="17"/>
-      <c r="G485" s="28"/>
+      <c r="G485" s="27"/>
       <c r="H485" s="21"/>
       <c r="I485" s="17"/>
       <c r="J485" s="17"/>
@@ -12043,13 +12171,13 @@
       <c r="N485" s="17"/>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A486" s="29"/>
+      <c r="A486" s="28"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
       <c r="D486" s="19"/>
       <c r="E486" s="20"/>
       <c r="F486" s="17"/>
-      <c r="G486" s="28"/>
+      <c r="G486" s="27"/>
       <c r="H486" s="21"/>
       <c r="I486" s="17"/>
       <c r="J486" s="17"/>
@@ -12059,13 +12187,13 @@
       <c r="N486" s="17"/>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A487" s="29"/>
+      <c r="A487" s="28"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
       <c r="D487" s="19"/>
       <c r="E487" s="20"/>
       <c r="F487" s="17"/>
-      <c r="G487" s="28"/>
+      <c r="G487" s="27"/>
       <c r="H487" s="21"/>
       <c r="I487" s="17"/>
       <c r="J487" s="17"/>
@@ -12075,13 +12203,13 @@
       <c r="N487" s="17"/>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A488" s="29"/>
+      <c r="A488" s="28"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
       <c r="D488" s="19"/>
       <c r="E488" s="20"/>
       <c r="F488" s="17"/>
-      <c r="G488" s="28"/>
+      <c r="G488" s="27"/>
       <c r="H488" s="21"/>
       <c r="I488" s="17"/>
       <c r="J488" s="17"/>
@@ -12091,13 +12219,13 @@
       <c r="N488" s="17"/>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A489" s="29"/>
+      <c r="A489" s="28"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
       <c r="D489" s="19"/>
       <c r="E489" s="20"/>
       <c r="F489" s="17"/>
-      <c r="G489" s="28"/>
+      <c r="G489" s="27"/>
       <c r="H489" s="21"/>
       <c r="I489" s="17"/>
       <c r="J489" s="17"/>
@@ -12107,13 +12235,13 @@
       <c r="N489" s="17"/>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A490" s="29"/>
+      <c r="A490" s="28"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
       <c r="D490" s="19"/>
       <c r="E490" s="20"/>
       <c r="F490" s="17"/>
-      <c r="G490" s="28"/>
+      <c r="G490" s="27"/>
       <c r="H490" s="21"/>
       <c r="I490" s="17"/>
       <c r="J490" s="17"/>
@@ -12123,13 +12251,13 @@
       <c r="N490" s="17"/>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A491" s="29"/>
+      <c r="A491" s="28"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
       <c r="D491" s="19"/>
       <c r="E491" s="20"/>
       <c r="F491" s="17"/>
-      <c r="G491" s="28"/>
+      <c r="G491" s="27"/>
       <c r="H491" s="21"/>
       <c r="I491" s="17"/>
       <c r="J491" s="17"/>
@@ -12139,13 +12267,13 @@
       <c r="N491" s="17"/>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A492" s="29"/>
+      <c r="A492" s="28"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
       <c r="D492" s="19"/>
       <c r="E492" s="20"/>
       <c r="F492" s="17"/>
-      <c r="G492" s="28"/>
+      <c r="G492" s="27"/>
       <c r="H492" s="21"/>
       <c r="I492" s="17"/>
       <c r="J492" s="17"/>
@@ -12155,13 +12283,13 @@
       <c r="N492" s="17"/>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A493" s="29"/>
+      <c r="A493" s="28"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="19"/>
       <c r="E493" s="20"/>
       <c r="F493" s="17"/>
-      <c r="G493" s="28"/>
+      <c r="G493" s="27"/>
       <c r="H493" s="21"/>
       <c r="I493" s="17"/>
       <c r="J493" s="17"/>
@@ -12171,13 +12299,13 @@
       <c r="N493" s="17"/>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A494" s="29"/>
+      <c r="A494" s="28"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
       <c r="D494" s="19"/>
       <c r="E494" s="20"/>
       <c r="F494" s="17"/>
-      <c r="G494" s="28"/>
+      <c r="G494" s="27"/>
       <c r="H494" s="21"/>
       <c r="I494" s="17"/>
       <c r="J494" s="17"/>
@@ -12187,13 +12315,13 @@
       <c r="N494" s="17"/>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A495" s="29"/>
+      <c r="A495" s="28"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
       <c r="D495" s="19"/>
       <c r="E495" s="20"/>
       <c r="F495" s="17"/>
-      <c r="G495" s="28"/>
+      <c r="G495" s="27"/>
       <c r="H495" s="21"/>
       <c r="I495" s="17"/>
       <c r="J495" s="17"/>
@@ -12203,13 +12331,13 @@
       <c r="N495" s="17"/>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A496" s="29"/>
+      <c r="A496" s="28"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
       <c r="D496" s="19"/>
       <c r="E496" s="20"/>
       <c r="F496" s="17"/>
-      <c r="G496" s="28"/>
+      <c r="G496" s="27"/>
       <c r="H496" s="21"/>
       <c r="I496" s="17"/>
       <c r="J496" s="17"/>
@@ -12219,13 +12347,13 @@
       <c r="N496" s="17"/>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A497" s="29"/>
+      <c r="A497" s="28"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
       <c r="D497" s="19"/>
       <c r="E497" s="20"/>
       <c r="F497" s="17"/>
-      <c r="G497" s="28"/>
+      <c r="G497" s="27"/>
       <c r="H497" s="21"/>
       <c r="I497" s="17"/>
       <c r="J497" s="17"/>
@@ -12235,13 +12363,13 @@
       <c r="N497" s="17"/>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A498" s="29"/>
+      <c r="A498" s="28"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
       <c r="D498" s="19"/>
       <c r="E498" s="20"/>
       <c r="F498" s="17"/>
-      <c r="G498" s="28"/>
+      <c r="G498" s="27"/>
       <c r="H498" s="21"/>
       <c r="I498" s="17"/>
       <c r="J498" s="17"/>
@@ -12251,13 +12379,13 @@
       <c r="N498" s="17"/>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A499" s="29"/>
+      <c r="A499" s="28"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
       <c r="D499" s="19"/>
       <c r="E499" s="20"/>
       <c r="F499" s="17"/>
-      <c r="G499" s="28"/>
+      <c r="G499" s="27"/>
       <c r="H499" s="21"/>
       <c r="I499" s="17"/>
       <c r="J499" s="17"/>
@@ -12267,13 +12395,13 @@
       <c r="N499" s="17"/>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A500" s="29"/>
+      <c r="A500" s="28"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
       <c r="D500" s="19"/>
       <c r="E500" s="20"/>
       <c r="F500" s="17"/>
-      <c r="G500" s="28"/>
+      <c r="G500" s="27"/>
       <c r="H500" s="21"/>
       <c r="I500" s="17"/>
       <c r="J500" s="17"/>
@@ -12283,13 +12411,13 @@
       <c r="N500" s="17"/>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A501" s="29"/>
+      <c r="A501" s="28"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
       <c r="D501" s="19"/>
       <c r="E501" s="20"/>
       <c r="F501" s="17"/>
-      <c r="G501" s="28"/>
+      <c r="G501" s="27"/>
       <c r="H501" s="21"/>
       <c r="I501" s="17"/>
       <c r="J501" s="17"/>
@@ -12323,15 +12451,15 @@
       <c r="A1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15">

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC524BF-E784-403A-A227-FDA78DD8E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D537B1DF-9C70-4D7C-BD8C-4DAA878FC607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     She is a potential candidate to take Selenium course. Her laptop is out of order. Followup Date 06-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L102" authorId="1" shapeId="0" xr:uid="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
+    <comment ref="L101" authorId="1" shapeId="0" xr:uid="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
  We need to connect him after final examination.</t>
       </text>
     </comment>
-    <comment ref="L104" authorId="2" shapeId="0" xr:uid="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
+    <comment ref="L103" authorId="2" shapeId="0" xr:uid="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +83,7 @@
     Need to do follow-up in every month.</t>
       </text>
     </comment>
-    <comment ref="L105" authorId="3" shapeId="0" xr:uid="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
+    <comment ref="L104" authorId="3" shapeId="0" xr:uid="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +91,7 @@
     Need to do follow-up in every month.</t>
       </text>
     </comment>
-    <comment ref="L135" authorId="4" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
+    <comment ref="L133" authorId="4" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
       </text>
     </comment>
-    <comment ref="L136" authorId="5" shapeId="0" xr:uid="{F489F0F2-C518-426D-8D73-5380C467489D}">
+    <comment ref="L134" authorId="5" shapeId="0" xr:uid="{F489F0F2-C518-426D-8D73-5380C467489D}">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L137" authorId="6" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
+    <comment ref="L135" authorId="6" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
     She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
       </text>
     </comment>
-    <comment ref="L138" authorId="7" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
+    <comment ref="L136" authorId="7" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
-    <comment ref="L139" authorId="8" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
+    <comment ref="L137" authorId="8" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +151,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L140" authorId="9" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
+    <comment ref="L138" authorId="9" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +159,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L141" authorId="10" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
+    <comment ref="L139" authorId="10" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L142" authorId="11" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
+    <comment ref="L140" authorId="11" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="L156" authorId="12" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+    <comment ref="L154" authorId="12" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
     He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</t>
       </text>
     </comment>
-    <comment ref="L158" authorId="13" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+    <comment ref="L156" authorId="13" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +192,7 @@
 Demo class by Bappadito</t>
       </text>
     </comment>
-    <comment ref="L159" authorId="14" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+    <comment ref="L157" authorId="14" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
     She is a working lady. Follow up date 05-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L160" authorId="15" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+    <comment ref="L158" authorId="15" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +208,7 @@
     His daughter studies in GD Birla in class IX.She needs coaching in Physics.</t>
       </text>
     </comment>
-    <comment ref="L161" authorId="16" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+    <comment ref="L159" authorId="16" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +216,7 @@
     She will come to our institute on Thursday 07-12-2023.</t>
       </text>
     </comment>
-    <comment ref="L163" authorId="17" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+    <comment ref="L161" authorId="17" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,12 +225,14 @@
 </t>
       </text>
     </comment>
-    <comment ref="L164" authorId="18" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+    <comment ref="L162" authorId="18" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
+    Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. 
+He stays near highland park.
+We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
 We need to give bio data of Avishek to his guardian Jui Haldar.</t>
       </text>
     </comment>
@@ -239,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
   <si>
     <t>Student Name</t>
   </si>
@@ -640,9 +642,6 @@
     <t>South Point School</t>
   </si>
   <si>
-    <t>Sumondno</t>
-  </si>
-  <si>
     <t>Patuli Food Court</t>
   </si>
   <si>
@@ -739,9 +738,6 @@
     <t>Satyo Ranjan Sarkar</t>
   </si>
   <si>
-    <t>Tridip Mondal</t>
-  </si>
-  <si>
     <t>Sukhmeet Singh</t>
   </si>
   <si>
@@ -1004,9 +1000,6 @@
   </si>
   <si>
     <t>SWITCHED OFF</t>
-  </si>
-  <si>
-    <t>9 DIGIT NUMBER</t>
   </si>
   <si>
     <t>NOT INTERSTED</t>
@@ -1363,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1491,7 +1484,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1520,6 +1512,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,61 +1808,63 @@
   <threadedComment ref="L62" dT="2023-12-04T11:54:48.95" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{B4F983C8-7CA2-499B-9BA2-EE1FF232C344}">
     <text>She is a potential candidate to take Selenium course. Her laptop is out of order. Followup Date 06-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="L102" dT="2023-12-05T11:30:11.27" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
+  <threadedComment ref="L101" dT="2023-12-05T11:30:11.27" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}">
     <text>Right now Abhirup is giving exam of Std X,hence he won't take any course.
  We need to connect him after final examination.</text>
   </threadedComment>
-  <threadedComment ref="L104" dT="2023-12-05T11:46:16.52" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
+  <threadedComment ref="L103" dT="2023-12-05T11:46:16.52" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{45448100-AA57-47F2-B572-B76A2B5B2CB8}">
     <text>Need to do follow-up in every month.</text>
   </threadedComment>
-  <threadedComment ref="L105" dT="2023-12-05T11:46:26.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
+  <threadedComment ref="L104" dT="2023-12-05T11:46:26.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
     <text>Need to do follow-up in every month.</text>
   </threadedComment>
-  <threadedComment ref="L135" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
+  <threadedComment ref="L133" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
     <text>Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</text>
   </threadedComment>
-  <threadedComment ref="L137" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
+  <threadedComment ref="L135" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
     <text>She may give mock test. We need to connect with her by Rahul on 20th November 2023</text>
   </threadedComment>
-  <threadedComment ref="L138" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
+  <threadedComment ref="L136" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
     <text>Guardian will visit to Anodiam.
 Rahul will do follow up on Tuesday (21Nov 2023)</text>
   </threadedComment>
-  <threadedComment ref="L139" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
+  <threadedComment ref="L137" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="L140" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7185A813-EFC8-435F-AB79-A43871C4A260}">
+  <threadedComment ref="L138" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7185A813-EFC8-435F-AB79-A43871C4A260}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="L141" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
+  <threadedComment ref="L139" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="L142" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
+  <threadedComment ref="L140" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="L156" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+  <threadedComment ref="L154" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
     <text>He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</text>
   </threadedComment>
-  <threadedComment ref="L158" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+  <threadedComment ref="L156" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
     <text>Student is interested in vehicles. We can show robotics vehicles by Bappadito.
 Demo class by Bappadito</text>
   </threadedComment>
-  <threadedComment ref="L159" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+  <threadedComment ref="L157" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
     <text>She is a working lady. Follow up date 05-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="L160" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+  <threadedComment ref="L158" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
     <text>His daughter studies in GD Birla in class IX.She needs coaching in Physics.</text>
   </threadedComment>
-  <threadedComment ref="L161" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+  <threadedComment ref="L159" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
     <text>She will come to our institute on Thursday 07-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="L163" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+  <threadedComment ref="L161" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
     <text xml:space="preserve">He told to call on 06-12-2023 at 3 PM.
 </text>
   </threadedComment>
-  <threadedComment ref="L164" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
-    <text>Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
+  <threadedComment ref="L162" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+    <text>Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. 
+He stays near highland park.
+We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
 We need to give bio data of Avishek to his guardian Jui Haldar.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1872,11 +1872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:N499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,10 +1902,10 @@
         <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1920,22 +1920,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>3</v>
@@ -1967,10 +1967,10 @@
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1999,10 +1999,10 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2031,10 +2031,10 @@
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2063,10 +2063,10 @@
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2095,10 +2095,10 @@
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2127,10 +2127,10 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2159,10 +2159,10 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -2191,10 +2191,10 @@
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -2223,10 +2223,10 @@
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -2255,10 +2255,10 @@
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -2287,10 +2287,10 @@
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -2319,10 +2319,10 @@
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2415,10 +2415,10 @@
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2447,10 +2447,10 @@
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2479,10 +2479,10 @@
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2511,10 +2511,10 @@
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2543,10 +2543,10 @@
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2575,10 +2575,10 @@
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2607,10 +2607,10 @@
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2639,10 +2639,10 @@
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2671,10 +2671,10 @@
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2703,10 +2703,10 @@
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2735,10 +2735,10 @@
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2767,10 +2767,10 @@
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2799,10 +2799,10 @@
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2831,10 +2831,10 @@
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2863,10 +2863,10 @@
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2895,10 +2895,10 @@
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2927,10 +2927,10 @@
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2959,10 +2959,10 @@
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2991,10 +2991,10 @@
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3023,10 +3023,10 @@
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3055,10 +3055,10 @@
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3087,10 +3087,10 @@
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -3119,10 +3119,10 @@
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3151,10 +3151,10 @@
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3183,10 +3183,10 @@
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3215,10 +3215,10 @@
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3247,10 +3247,10 @@
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3279,10 +3279,10 @@
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3311,10 +3311,10 @@
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3343,10 +3343,10 @@
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3375,10 +3375,10 @@
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3407,10 +3407,10 @@
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3439,10 +3439,10 @@
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3471,10 +3471,10 @@
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3503,10 +3503,10 @@
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3535,10 +3535,10 @@
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3567,10 +3567,10 @@
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3599,10 +3599,10 @@
       </c>
       <c r="L53" s="17"/>
       <c r="M53" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3631,10 +3631,10 @@
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3663,10 +3663,10 @@
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3695,10 +3695,10 @@
       </c>
       <c r="L56" s="17"/>
       <c r="M56" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3727,10 +3727,10 @@
       </c>
       <c r="L57" s="17"/>
       <c r="M57" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3759,10 +3759,10 @@
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3785,10 +3785,10 @@
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3815,10 +3815,10 @@
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3845,10 +3845,10 @@
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3875,14 +3875,14 @@
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N62" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3907,10 +3907,10 @@
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3935,10 +3935,10 @@
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3961,10 +3961,10 @@
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3989,10 +3989,10 @@
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -4019,10 +4019,10 @@
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -4047,10 +4047,10 @@
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -4075,10 +4075,10 @@
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -4103,10 +4103,10 @@
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -4131,10 +4131,10 @@
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
       <c r="M71" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4161,10 +4161,10 @@
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -4189,14 +4189,14 @@
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="54">
+      <c r="A74" s="53">
         <v>73</v>
       </c>
       <c r="B74" s="26">
@@ -4222,15 +4222,15 @@
         <v>126</v>
       </c>
       <c r="L74" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M74" s="52"/>
       <c r="N74" s="50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="54">
+      <c r="A75" s="53">
         <v>74</v>
       </c>
       <c r="B75" s="26">
@@ -4256,15 +4256,15 @@
         <v>128</v>
       </c>
       <c r="L75" s="50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M75" s="52"/>
       <c r="N75" s="50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="54">
+      <c r="A76" s="53">
         <v>75</v>
       </c>
       <c r="B76" s="26">
@@ -4274,7 +4274,7 @@
         <v>45261</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E76" s="50">
         <v>9831649789</v>
@@ -4290,15 +4290,15 @@
         <v>129</v>
       </c>
       <c r="L76" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M76" s="52"/>
       <c r="N76" s="50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="54">
+      <c r="A77" s="53">
         <v>76</v>
       </c>
       <c r="B77" s="26">
@@ -4322,15 +4322,15 @@
       <c r="J77" s="50"/>
       <c r="K77" s="50"/>
       <c r="L77" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M77" s="52"/>
       <c r="N77" s="50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="54">
+      <c r="A78" s="53">
         <v>77</v>
       </c>
       <c r="B78" s="26">
@@ -4354,13 +4354,13 @@
       <c r="J78" s="50"/>
       <c r="K78" s="50"/>
       <c r="L78" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M78" s="52"/>
       <c r="N78" s="50"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="54">
+      <c r="A79" s="53">
         <v>78</v>
       </c>
       <c r="B79" s="26">
@@ -4370,7 +4370,7 @@
         <v>45261</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E79" s="50">
         <v>8100234251</v>
@@ -4384,13 +4384,13 @@
       <c r="J79" s="50"/>
       <c r="K79" s="50"/>
       <c r="L79" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M79" s="52"/>
       <c r="N79" s="50"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="54">
+      <c r="A80" s="53">
         <v>79</v>
       </c>
       <c r="B80" s="26">
@@ -4400,10 +4400,10 @@
         <v>45261</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E80" s="50">
-        <v>895612401</v>
+        <v>9038607618</v>
       </c>
       <c r="F80" s="50"/>
       <c r="G80" s="51"/>
@@ -4414,13 +4414,13 @@
       <c r="J80" s="50"/>
       <c r="K80" s="50"/>
       <c r="L80" s="50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M80" s="52"/>
       <c r="N80" s="50"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="54">
+      <c r="A81" s="53">
         <v>80</v>
       </c>
       <c r="B81" s="26">
@@ -4430,10 +4430,10 @@
         <v>45261</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E81" s="50">
-        <v>9038607618</v>
+        <v>9123738352</v>
       </c>
       <c r="F81" s="50"/>
       <c r="G81" s="51"/>
@@ -4444,13 +4444,13 @@
       <c r="J81" s="50"/>
       <c r="K81" s="50"/>
       <c r="L81" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M81" s="52"/>
       <c r="N81" s="50"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="54">
+      <c r="A82" s="53">
         <v>81</v>
       </c>
       <c r="B82" s="26">
@@ -4460,27 +4460,27 @@
         <v>45261</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E82" s="50">
-        <v>9123738352</v>
+        <v>7439648726</v>
       </c>
       <c r="F82" s="50"/>
       <c r="G82" s="51"/>
       <c r="H82" s="50"/>
       <c r="I82" s="50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J82" s="50"/>
       <c r="K82" s="50"/>
       <c r="L82" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M82" s="52"/>
       <c r="N82" s="50"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="54">
+      <c r="A83" s="53">
         <v>82</v>
       </c>
       <c r="B83" s="26">
@@ -4490,27 +4490,27 @@
         <v>45261</v>
       </c>
       <c r="D83" s="50" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="E83" s="50">
-        <v>7439648726</v>
+        <v>6290149228</v>
       </c>
       <c r="F83" s="50"/>
       <c r="G83" s="51"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J83" s="50"/>
       <c r="K83" s="50"/>
       <c r="L83" s="50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M83" s="52"/>
       <c r="N83" s="50"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="54">
+      <c r="A84" s="53">
         <v>83</v>
       </c>
       <c r="B84" s="26">
@@ -4520,27 +4520,27 @@
         <v>45261</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E84" s="50">
-        <v>6290149228</v>
+        <v>7439235390</v>
       </c>
       <c r="F84" s="50"/>
       <c r="G84" s="51"/>
       <c r="H84" s="50"/>
       <c r="I84" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J84" s="50"/>
       <c r="K84" s="50"/>
       <c r="L84" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M84" s="52"/>
       <c r="N84" s="50"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="54">
+      <c r="A85" s="53">
         <v>84</v>
       </c>
       <c r="B85" s="26">
@@ -4550,27 +4550,27 @@
         <v>45261</v>
       </c>
       <c r="D85" s="50" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E85" s="50">
-        <v>7439235390</v>
+        <v>9831616972</v>
       </c>
       <c r="F85" s="50"/>
       <c r="G85" s="51"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J85" s="50"/>
       <c r="K85" s="50"/>
       <c r="L85" s="50" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M85" s="52"/>
       <c r="N85" s="50"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="54">
+      <c r="A86" s="53">
         <v>85</v>
       </c>
       <c r="B86" s="26">
@@ -4580,27 +4580,27 @@
         <v>45261</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E86" s="50">
-        <v>9831616972</v>
+        <v>9875642078</v>
       </c>
       <c r="F86" s="50"/>
       <c r="G86" s="51"/>
       <c r="H86" s="50"/>
       <c r="I86" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J86" s="50"/>
       <c r="K86" s="50"/>
       <c r="L86" s="50" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M86" s="52"/>
       <c r="N86" s="50"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="54">
+      <c r="A87" s="53">
         <v>86</v>
       </c>
       <c r="B87" s="26">
@@ -4610,27 +4610,27 @@
         <v>45261</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="E87" s="50">
-        <v>9875642078</v>
+        <v>9330260643</v>
       </c>
       <c r="F87" s="50"/>
       <c r="G87" s="51"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J87" s="50"/>
       <c r="K87" s="50"/>
       <c r="L87" s="50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M87" s="52"/>
       <c r="N87" s="50"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="54">
+      <c r="A88" s="53">
         <v>87</v>
       </c>
       <c r="B88" s="26">
@@ -4640,27 +4640,29 @@
         <v>45261</v>
       </c>
       <c r="D88" s="50" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E88" s="50">
-        <v>9330260643</v>
+        <v>7865006160</v>
       </c>
       <c r="F88" s="50"/>
       <c r="G88" s="51"/>
       <c r="H88" s="50"/>
       <c r="I88" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J88" s="50"/>
       <c r="K88" s="50"/>
       <c r="L88" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M88" s="52"/>
-      <c r="N88" s="50"/>
+      <c r="N88" s="50" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="54">
+      <c r="A89" s="53">
         <v>88</v>
       </c>
       <c r="B89" s="26">
@@ -4670,29 +4672,27 @@
         <v>45261</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E89" s="50">
-        <v>7865006160</v>
+        <v>9933568503</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="51"/>
       <c r="H89" s="50"/>
       <c r="I89" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J89" s="50"/>
       <c r="K89" s="50"/>
       <c r="L89" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M89" s="52"/>
-      <c r="N89" s="50" t="s">
-        <v>217</v>
-      </c>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="54">
+      <c r="A90" s="53">
         <v>89</v>
       </c>
       <c r="B90" s="26">
@@ -4702,27 +4702,29 @@
         <v>45261</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E90" s="50">
-        <v>9933568503</v>
+        <v>7980097885</v>
       </c>
       <c r="F90" s="50"/>
       <c r="G90" s="51"/>
       <c r="H90" s="50"/>
       <c r="I90" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J90" s="50"/>
       <c r="K90" s="50"/>
       <c r="L90" s="50" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M90" s="52"/>
-      <c r="N90" s="50"/>
+      <c r="N90" s="50" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="54">
+      <c r="A91" s="53">
         <v>90</v>
       </c>
       <c r="B91" s="26">
@@ -4731,30 +4733,30 @@
       <c r="C91" s="26">
         <v>45261</v>
       </c>
-      <c r="D91" s="53" t="s">
-        <v>138</v>
+      <c r="D91" s="50" t="s">
+        <v>166</v>
       </c>
       <c r="E91" s="50">
-        <v>7980097885</v>
+        <v>8017803547</v>
       </c>
       <c r="F91" s="50"/>
       <c r="G91" s="51"/>
       <c r="H91" s="50"/>
       <c r="I91" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J91" s="50"/>
       <c r="K91" s="50"/>
       <c r="L91" s="50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M91" s="52"/>
       <c r="N91" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="54">
+      <c r="A92" s="53">
         <v>91</v>
       </c>
       <c r="B92" s="26">
@@ -4763,30 +4765,28 @@
       <c r="C92" s="26">
         <v>45261</v>
       </c>
-      <c r="D92" s="53" t="s">
-        <v>168</v>
+      <c r="D92" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="E92" s="50">
-        <v>8017803547</v>
+        <v>8927931385</v>
       </c>
       <c r="F92" s="50"/>
       <c r="G92" s="51"/>
       <c r="H92" s="50"/>
       <c r="I92" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J92" s="50"/>
       <c r="K92" s="50"/>
       <c r="L92" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M92" s="52"/>
-      <c r="N92" s="50" t="s">
-        <v>269</v>
-      </c>
+      <c r="N92" s="50"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="54">
+      <c r="A93" s="53">
         <v>92</v>
       </c>
       <c r="B93" s="26">
@@ -4795,60 +4795,60 @@
       <c r="C93" s="26">
         <v>45261</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="50" t="s">
         <v>139</v>
       </c>
       <c r="E93" s="50">
-        <v>8927931385</v>
+        <v>9123811981</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="51"/>
       <c r="H93" s="50"/>
       <c r="I93" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J93" s="50"/>
       <c r="K93" s="50"/>
       <c r="L93" s="50" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M93" s="52"/>
-      <c r="N93" s="50"/>
+      <c r="N93" s="50" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="54">
+      <c r="A94" s="53">
         <v>93</v>
       </c>
       <c r="B94" s="26">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="C94" s="26">
         <v>45261</v>
       </c>
-      <c r="D94" s="53" t="s">
+      <c r="D94" s="50" t="s">
         <v>140</v>
       </c>
       <c r="E94" s="50">
-        <v>9123811981</v>
+        <v>8789192117</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="51"/>
       <c r="H94" s="50"/>
       <c r="I94" s="50" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J94" s="50"/>
       <c r="K94" s="50"/>
       <c r="L94" s="50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M94" s="52"/>
-      <c r="N94" s="50" t="s">
-        <v>269</v>
-      </c>
+      <c r="N94" s="50"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="54">
+      <c r="A95" s="53">
         <v>94</v>
       </c>
       <c r="B95" s="26">
@@ -4858,27 +4858,29 @@
         <v>45261</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E95" s="50">
-        <v>8789192117</v>
+        <v>7439261742</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="51"/>
       <c r="H95" s="50"/>
       <c r="I95" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J95" s="50"/>
       <c r="K95" s="50"/>
       <c r="L95" s="50" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M95" s="52"/>
-      <c r="N95" s="50"/>
+      <c r="N95" s="50" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="54">
+      <c r="A96" s="53">
         <v>95</v>
       </c>
       <c r="B96" s="26">
@@ -4888,29 +4890,29 @@
         <v>45261</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E96" s="50">
-        <v>7439261742</v>
+        <v>8910136033</v>
       </c>
       <c r="F96" s="50"/>
       <c r="G96" s="51"/>
       <c r="H96" s="50"/>
       <c r="I96" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J96" s="50"/>
       <c r="K96" s="50"/>
       <c r="L96" s="50" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M96" s="52"/>
       <c r="N96" s="50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="54">
+      <c r="A97" s="53">
         <v>96</v>
       </c>
       <c r="B97" s="26">
@@ -4919,30 +4921,28 @@
       <c r="C97" s="26">
         <v>45261</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D97" s="50" t="s">
         <v>143</v>
       </c>
       <c r="E97" s="50">
-        <v>8910136033</v>
+        <v>8981502987</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="51"/>
       <c r="H97" s="50"/>
       <c r="I97" s="50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J97" s="50"/>
       <c r="K97" s="50"/>
       <c r="L97" s="50" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M97" s="52"/>
-      <c r="N97" s="50" t="s">
-        <v>268</v>
-      </c>
+      <c r="N97" s="50"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="54">
+      <c r="A98" s="53">
         <v>97</v>
       </c>
       <c r="B98" s="26">
@@ -4951,28 +4951,28 @@
       <c r="C98" s="26">
         <v>45261</v>
       </c>
-      <c r="D98" s="53" t="s">
-        <v>144</v>
+      <c r="D98" s="50" t="s">
+        <v>145</v>
       </c>
       <c r="E98" s="50">
-        <v>8981502987</v>
+        <v>8133843005</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="51"/>
       <c r="H98" s="50"/>
       <c r="I98" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J98" s="50"/>
       <c r="K98" s="50"/>
       <c r="L98" s="50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M98" s="52"/>
       <c r="N98" s="50"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="54">
+      <c r="A99" s="53">
         <v>98</v>
       </c>
       <c r="B99" s="26">
@@ -4982,337 +4982,351 @@
         <v>45261</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E99" s="50">
-        <v>8133843005</v>
+        <v>6290583136</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="51"/>
       <c r="H99" s="50"/>
       <c r="I99" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J99" s="50"/>
       <c r="K99" s="50"/>
       <c r="L99" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="M99" s="52"/>
+      <c r="N99" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="M99" s="52"/>
-      <c r="N99" s="50"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="54">
         <v>99</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="55">
         <v>45188</v>
       </c>
-      <c r="C100" s="26">
-        <v>45261</v>
-      </c>
-      <c r="D100" s="50" t="s">
+      <c r="C100" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="56">
+        <v>8336817657</v>
+      </c>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N100" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="54">
+        <v>100</v>
+      </c>
+      <c r="B101" s="55">
+        <v>45188</v>
+      </c>
+      <c r="C101" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D101" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="59"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="57">
+        <v>9831493208</v>
+      </c>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N101" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="54">
+        <v>101</v>
+      </c>
+      <c r="B102" s="55">
+        <v>45188</v>
+      </c>
+      <c r="C102" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="56">
+        <v>7003540372</v>
+      </c>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N102" s="58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="54">
+        <v>102</v>
+      </c>
+      <c r="B103" s="55">
+        <v>45188</v>
+      </c>
+      <c r="C103" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="60"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56">
+        <v>7278448048</v>
+      </c>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N103" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="54">
+        <v>103</v>
+      </c>
+      <c r="B104" s="55">
+        <v>45188</v>
+      </c>
+      <c r="C104" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="60"/>
+      <c r="F104" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G104" s="56">
+        <v>9830826860</v>
+      </c>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N104" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="54">
+        <v>104</v>
+      </c>
+      <c r="B105" s="55">
+        <v>45188</v>
+      </c>
+      <c r="C105" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D105" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="50">
-        <v>6290583136</v>
-      </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="M100" s="52"/>
-      <c r="N100" s="50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="55">
-        <v>100</v>
-      </c>
-      <c r="B101" s="56">
+      <c r="E105" s="56">
+        <v>8420848861</v>
+      </c>
+      <c r="F105" s="56"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N105" s="58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="54">
+        <v>105</v>
+      </c>
+      <c r="B106" s="55">
         <v>45188</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C106" s="55">
         <v>45265</v>
       </c>
-      <c r="D101" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E101" s="57">
-        <v>8336817657</v>
-      </c>
-      <c r="F101" s="57"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="57"/>
-      <c r="M101" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N101" s="59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="55">
-        <v>101</v>
-      </c>
-      <c r="B102" s="56">
+      <c r="D106" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106" s="56">
+        <v>9872355769</v>
+      </c>
+      <c r="F106" s="56"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N106" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="54">
+        <v>106</v>
+      </c>
+      <c r="B107" s="55">
         <v>45188</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C107" s="55">
         <v>45265</v>
       </c>
-      <c r="D102" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="60"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="58">
-        <v>9831493208</v>
-      </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J102" s="57"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="57"/>
-      <c r="M102" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N102" s="59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="55">
-        <v>102</v>
-      </c>
-      <c r="B103" s="56">
+      <c r="D107" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="56">
+        <v>6294268223</v>
+      </c>
+      <c r="F107" s="56"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N107" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="54">
+        <v>107</v>
+      </c>
+      <c r="B108" s="55">
         <v>45188</v>
       </c>
-      <c r="C103" s="56">
+      <c r="C108" s="55">
         <v>45265</v>
       </c>
-      <c r="D103" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E103" s="57">
-        <v>7003540372</v>
-      </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J103" s="57"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
-      <c r="M103" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N103" s="59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="55">
-        <v>103</v>
-      </c>
-      <c r="B104" s="56">
+      <c r="D108" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" s="56">
+        <v>9143297263</v>
+      </c>
+      <c r="F108" s="56"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N108" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="54">
+        <v>108</v>
+      </c>
+      <c r="B109" s="55">
         <v>45188</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57">
-        <v>7278448048</v>
-      </c>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N104" s="59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="55">
-        <v>104</v>
-      </c>
-      <c r="B105" s="56">
-        <v>45188</v>
-      </c>
-      <c r="C105" s="56"/>
-      <c r="D105" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="G105" s="57">
-        <v>9830826860</v>
-      </c>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N105" s="59" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="55">
-        <v>105</v>
-      </c>
-      <c r="B106" s="56">
-        <v>45188</v>
-      </c>
-      <c r="C106" s="56"/>
-      <c r="D106" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E106" s="57">
-        <v>8420848861</v>
-      </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="N106" s="59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-      <c r="B107" s="22">
-        <v>45188</v>
-      </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="17">
-        <v>9872355769</v>
-      </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N107" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-      <c r="B108" s="22">
-        <v>45188</v>
-      </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="17" t="s">
+      <c r="C109" s="55">
+        <v>45265</v>
+      </c>
+      <c r="D109" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="E108" s="17">
-        <v>6294268223</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N108" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <v>108</v>
-      </c>
-      <c r="B109" s="22">
-        <v>45188</v>
-      </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="17">
-        <v>9143297263</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N109" s="18" t="s">
-        <v>268</v>
+      <c r="E109" s="56">
+        <v>6289529539</v>
+      </c>
+      <c r="F109" s="56"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="N109" s="58" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="64">
         <v>109</v>
       </c>
       <c r="B110" s="22">
@@ -5320,29 +5334,29 @@
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E110" s="17">
-        <v>7890899876</v>
+        <v>9433055625</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="19"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
       <c r="M110" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+      <c r="A111" s="64">
         <v>110</v>
       </c>
       <c r="B111" s="22">
@@ -5353,26 +5367,26 @@
         <v>154</v>
       </c>
       <c r="E111" s="17">
-        <v>6289529539</v>
+        <v>9433221128</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="19"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
       <c r="M111" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="64">
         <v>111</v>
       </c>
       <c r="B112" s="22">
@@ -5380,29 +5394,29 @@
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E112" s="17">
-        <v>9433055625</v>
+        <v>8477712310</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="19"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
       <c r="M112" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="A113" s="64">
         <v>112</v>
       </c>
       <c r="B113" s="22">
@@ -5410,29 +5424,29 @@
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E113" s="17">
-        <v>9433221128</v>
+        <v>628955425</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="19"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="64">
         <v>113</v>
       </c>
       <c r="B114" s="22">
@@ -5440,29 +5454,29 @@
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E114" s="17">
-        <v>8477712310</v>
+        <v>9477900494</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="19"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
       <c r="L114" s="17"/>
       <c r="M114" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="A115" s="64">
         <v>114</v>
       </c>
       <c r="B115" s="22">
@@ -5473,26 +5487,26 @@
         <v>157</v>
       </c>
       <c r="E115" s="17">
-        <v>628955425</v>
+        <v>8777706597</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="19"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
       <c r="M115" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="64">
         <v>115</v>
       </c>
       <c r="B116" s="22">
@@ -5500,89 +5514,89 @@
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E116" s="17">
-        <v>9477900494</v>
+        <v>9433256207</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="19"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="17"/>
       <c r="M116" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="A117" s="64">
         <v>116</v>
       </c>
       <c r="B117" s="22">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E117" s="17">
-        <v>8777706597</v>
+        <v>7679591433</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="19"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
       <c r="M117" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="64">
         <v>117</v>
       </c>
       <c r="B118" s="22">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="17" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E118" s="17">
-        <v>9433256207</v>
+        <v>8016981657</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="19"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
       <c r="M118" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
+      <c r="A119" s="64">
         <v>118</v>
       </c>
       <c r="B119" s="22">
@@ -5590,29 +5604,29 @@
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="17" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E119" s="17">
-        <v>7679591433</v>
+        <v>7596825771</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="19"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
       <c r="M119" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
+      <c r="A120" s="64">
         <v>119</v>
       </c>
       <c r="B120" s="22">
@@ -5623,26 +5637,26 @@
         <v>178</v>
       </c>
       <c r="E120" s="17">
-        <v>8016981657</v>
+        <v>8240581466</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="19"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
       <c r="M120" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N120" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
+      <c r="A121" s="64">
         <v>120</v>
       </c>
       <c r="B121" s="22">
@@ -5653,26 +5667,26 @@
         <v>179</v>
       </c>
       <c r="E121" s="17">
-        <v>7596825771</v>
+        <v>9162975575</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="19"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
       <c r="M121" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+      <c r="A122" s="64">
         <v>121</v>
       </c>
       <c r="B122" s="22">
@@ -5683,26 +5697,26 @@
         <v>180</v>
       </c>
       <c r="E122" s="17">
-        <v>8240581466</v>
+        <v>8609063557</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="19"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
       <c r="L122" s="17"/>
       <c r="M122" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N122" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+      <c r="A123" s="64">
         <v>122</v>
       </c>
       <c r="B123" s="22">
@@ -5713,26 +5727,26 @@
         <v>181</v>
       </c>
       <c r="E123" s="17">
-        <v>9162975575</v>
+        <v>6291578892</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="19"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
       <c r="M123" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="64">
         <v>123</v>
       </c>
       <c r="B124" s="22">
@@ -5743,26 +5757,26 @@
         <v>182</v>
       </c>
       <c r="E124" s="17">
-        <v>8609063557</v>
+        <v>9831874618</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="19"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
       <c r="M124" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
+      <c r="A125" s="64">
         <v>124</v>
       </c>
       <c r="B125" s="22">
@@ -5773,26 +5787,26 @@
         <v>183</v>
       </c>
       <c r="E125" s="17">
-        <v>6291578892</v>
+        <v>6289714787</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="19"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
       <c r="M125" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="64">
         <v>125</v>
       </c>
       <c r="B126" s="22">
@@ -5803,86 +5817,86 @@
         <v>184</v>
       </c>
       <c r="E126" s="17">
-        <v>9831874618</v>
+        <v>9679402181</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="19"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
       <c r="M126" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N126" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
+      <c r="A127" s="64">
         <v>126</v>
       </c>
       <c r="B127" s="22">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="17" t="s">
         <v>185</v>
       </c>
       <c r="E127" s="17">
-        <v>6289714787</v>
+        <v>9748494952</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
       <c r="M127" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="64">
         <v>127</v>
       </c>
       <c r="B128" s="22">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="17" t="s">
         <v>186</v>
       </c>
       <c r="E128" s="17">
-        <v>9679402181</v>
+        <v>8100681522</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="19"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
       <c r="M128" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N128" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
+      <c r="A129" s="64">
         <v>128</v>
       </c>
       <c r="B129" s="22">
@@ -5893,26 +5907,26 @@
         <v>187</v>
       </c>
       <c r="E129" s="17">
-        <v>9748494952</v>
+        <v>8609345322</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="19"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
       <c r="M129" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
+      <c r="A130" s="64">
         <v>129</v>
       </c>
       <c r="B130" s="22">
@@ -5923,26 +5937,26 @@
         <v>188</v>
       </c>
       <c r="E130" s="17">
-        <v>8100681522</v>
+        <v>9163931391</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="19"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
+      <c r="A131" s="64">
         <v>130</v>
       </c>
       <c r="B131" s="22">
@@ -5953,26 +5967,26 @@
         <v>189</v>
       </c>
       <c r="E131" s="17">
-        <v>8609345322</v>
+        <v>7003658621</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="19"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
       <c r="M131" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="6">
+      <c r="A132" s="64">
         <v>131</v>
       </c>
       <c r="B132" s="22">
@@ -5983,116 +5997,128 @@
         <v>190</v>
       </c>
       <c r="E132" s="17">
-        <v>9163931391</v>
+        <v>9993168842</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="19"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
       <c r="M132" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
+      <c r="A133" s="64">
         <v>132</v>
       </c>
       <c r="B133" s="22">
-        <v>45204</v>
-      </c>
-      <c r="C133" s="22"/>
-      <c r="D133" s="17" t="s">
+        <v>45244</v>
+      </c>
+      <c r="C133" s="22">
+        <v>45244</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E133" s="17">
-        <v>7003658621</v>
-      </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="17"/>
+      <c r="G133" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H133" s="27"/>
       <c r="I133" s="17" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
+      <c r="K133" s="19"/>
       <c r="L133" s="17"/>
-      <c r="M133" s="18" t="s">
-        <v>216</v>
-      </c>
+      <c r="M133" s="28"/>
       <c r="N133" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
+      <c r="A134" s="64">
         <v>133</v>
       </c>
       <c r="B134" s="22">
-        <v>45204</v>
-      </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="17">
-        <v>9993168842</v>
-      </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
+        <v>45246</v>
+      </c>
+      <c r="C134" s="22">
+        <v>45246</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="8">
+        <v>9830610602</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>199</v>
+      </c>
       <c r="L134" s="17"/>
-      <c r="M134" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="N134" s="18" t="s">
-        <v>268</v>
+      <c r="M134" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="N134" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
+      <c r="A135" s="64">
         <v>134</v>
       </c>
       <c r="B135" s="22">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="C135" s="22">
-        <v>45244</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G135" s="27" t="s">
+        <v>45246</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H135" s="27"/>
-      <c r="I135" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J135" s="17"/>
-      <c r="K135" s="19"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H135" s="29"/>
+      <c r="I135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>246</v>
+      </c>
       <c r="L135" s="17"/>
-      <c r="M135" s="28"/>
-      <c r="N135" s="18" t="s">
-        <v>268</v>
+      <c r="M135" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="N135" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
+      <c r="A136" s="64">
         <v>135</v>
       </c>
       <c r="B136" s="22">
@@ -6102,33 +6128,33 @@
         <v>45246</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="19"/>
-      <c r="G136" s="8">
-        <v>9830610602</v>
-      </c>
-      <c r="H136" s="8"/>
+      <c r="G136" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H136" s="29"/>
       <c r="I136" s="8" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K136" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L136" s="17"/>
       <c r="M136" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="64">
         <v>136</v>
       </c>
       <c r="B137" s="22">
@@ -6137,34 +6163,34 @@
       <c r="C137" s="22">
         <v>45246</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="G137" s="29" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="K137" s="17" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="L137" s="17"/>
       <c r="M137" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="64">
         <v>137</v>
       </c>
       <c r="B138" s="22">
@@ -6173,34 +6199,36 @@
       <c r="C138" s="22">
         <v>45246</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="19"/>
+      <c r="D138" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="G138" s="29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="8" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="K138" s="17" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L138" s="17"/>
       <c r="M138" s="28" t="s">
         <v>214</v>
       </c>
       <c r="N138" s="17" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="6">
+      <c r="A139" s="64">
         <v>138</v>
       </c>
       <c r="B139" s="22">
@@ -6212,31 +6240,31 @@
       <c r="D139" s="19"/>
       <c r="E139" s="20"/>
       <c r="F139" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K139" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L139" s="17"/>
       <c r="M139" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N139" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="64">
         <v>139</v>
       </c>
       <c r="B140" s="22">
@@ -6245,228 +6273,214 @@
       <c r="C140" s="22">
         <v>45246</v>
       </c>
-      <c r="D140" s="30" t="s">
-        <v>283</v>
-      </c>
+      <c r="D140" s="19"/>
       <c r="E140" s="20"/>
       <c r="F140" s="8" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H140" s="29"/>
-      <c r="I140" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J140" s="8" t="s">
-        <v>160</v>
-      </c>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
       <c r="K140" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L140" s="17"/>
+        <v>209</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>243</v>
+      </c>
       <c r="M140" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N140" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="64">
         <v>140</v>
       </c>
-      <c r="B141" s="22">
+      <c r="B141" s="31">
         <v>45246</v>
       </c>
-      <c r="C141" s="22">
+      <c r="C141" s="31">
         <v>45246</v>
       </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G141" s="29" t="s">
+      <c r="D141" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H141" s="29"/>
-      <c r="I141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K141" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="N141" s="17" t="s">
-        <v>270</v>
+      <c r="E141" s="33"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="34"/>
+      <c r="L141" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M141" s="37"/>
+      <c r="N141" s="36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
+      <c r="A142" s="64">
         <v>141</v>
       </c>
-      <c r="B142" s="22">
+      <c r="B142" s="31">
         <v>45246</v>
       </c>
-      <c r="C142" s="22">
+      <c r="C142" s="31">
         <v>45246</v>
       </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="8" t="s">
+      <c r="D142" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E142" s="33"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M142" s="37"/>
+      <c r="N142" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="64">
+        <v>142</v>
+      </c>
+      <c r="B143" s="22">
+        <v>45254</v>
+      </c>
+      <c r="C143" s="22">
+        <v>45254</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H143" s="27"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K143" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="M143" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G142" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H142" s="29"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L142" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="M142" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="N142" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="6">
-        <v>142</v>
-      </c>
-      <c r="B143" s="31">
-        <v>45246</v>
-      </c>
-      <c r="C143" s="31">
-        <v>45246</v>
-      </c>
-      <c r="D143" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E143" s="33"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="34"/>
-      <c r="L143" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="M143" s="37"/>
-      <c r="N143" s="36" t="s">
-        <v>269</v>
+      <c r="N143" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="6">
+      <c r="A144" s="64">
         <v>143</v>
       </c>
-      <c r="B144" s="31">
-        <v>45246</v>
-      </c>
-      <c r="C144" s="31">
-        <v>45246</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E144" s="33"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="34"/>
-      <c r="L144" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="M144" s="37"/>
-      <c r="N144" s="36" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
+      <c r="B144" s="22">
+        <v>45254</v>
+      </c>
+      <c r="C144" s="22">
+        <v>45254</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="N144" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="64">
         <v>144</v>
       </c>
-      <c r="B145" s="22">
+      <c r="B145" s="7">
         <v>45254</v>
       </c>
-      <c r="C145" s="22">
+      <c r="C145" s="7">
         <v>45254</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E145" s="20"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H145" s="27"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H145" s="29"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K145" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="L145" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="M145" s="28" t="s">
-        <v>214</v>
-      </c>
+      <c r="J145" s="17"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="28"/>
       <c r="N145" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="64">
         <v>145</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="7">
         <v>45254</v>
       </c>
-      <c r="C146" s="22">
+      <c r="C146" s="7">
         <v>45254</v>
       </c>
       <c r="D146" s="19"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
+      <c r="F146" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H146" s="29" t="s">
+        <v>230</v>
+      </c>
       <c r="I146" s="17"/>
-      <c r="J146" s="17" t="s">
-        <v>225</v>
-      </c>
+      <c r="J146" s="17"/>
       <c r="K146" s="19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L146" s="17"/>
-      <c r="M146" s="28" t="s">
-        <v>216</v>
-      </c>
+      <c r="M146" s="28"/>
       <c r="N146" s="17" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="6">
+      <c r="A147" s="64">
         <v>146</v>
       </c>
       <c r="B147" s="7">
@@ -6476,25 +6490,27 @@
         <v>45254</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E147" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="E147" s="20">
+        <v>9433635023</v>
+      </c>
       <c r="F147" s="8"/>
-      <c r="G147" s="29" t="s">
-        <v>228</v>
-      </c>
+      <c r="G147" s="29"/>
       <c r="H147" s="29"/>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
-      <c r="K147" s="19"/>
+      <c r="K147" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="L147" s="17"/>
       <c r="M147" s="28"/>
       <c r="N147" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" s="64">
         <v>147</v>
       </c>
       <c r="B148" s="7">
@@ -6503,30 +6519,26 @@
       <c r="C148" s="7">
         <v>45254</v>
       </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G148" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H148" s="29" t="s">
-        <v>232</v>
-      </c>
+      <c r="D148" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E148" s="20">
+        <v>6291747759</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
-      <c r="K148" s="19" t="s">
-        <v>234</v>
-      </c>
+      <c r="K148" s="19"/>
       <c r="L148" s="17"/>
       <c r="M148" s="28"/>
       <c r="N148" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="6">
+      <c r="A149" s="64">
         <v>148</v>
       </c>
       <c r="B149" s="7">
@@ -6535,28 +6547,30 @@
       <c r="C149" s="7">
         <v>45254</v>
       </c>
-      <c r="D149" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E149" s="20">
-        <v>9433635023</v>
-      </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H149" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
       <c r="K149" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L149" s="17"/>
       <c r="M149" s="28"/>
       <c r="N149" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
+      <c r="A150" s="64">
         <v>149</v>
       </c>
       <c r="B150" s="7">
@@ -6566,25 +6580,27 @@
         <v>45254</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E150" s="20">
-        <v>6291747759</v>
+        <v>9007337237</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
       <c r="I150" s="17"/>
       <c r="J150" s="17"/>
-      <c r="K150" s="19"/>
+      <c r="K150" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="L150" s="17"/>
       <c r="M150" s="28"/>
       <c r="N150" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="6">
+      <c r="A151" s="64">
         <v>150</v>
       </c>
       <c r="B151" s="7">
@@ -6593,30 +6609,28 @@
       <c r="C151" s="7">
         <v>45254</v>
       </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G151" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H151" s="29" t="s">
+      <c r="D151" s="19" t="s">
         <v>240</v>
       </c>
+      <c r="E151" s="20">
+        <v>7890924561</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
       <c r="I151" s="17"/>
       <c r="J151" s="17"/>
       <c r="K151" s="19" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="L151" s="17"/>
       <c r="M151" s="28"/>
       <c r="N151" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="64">
         <v>151</v>
       </c>
       <c r="B152" s="7">
@@ -6625,186 +6639,194 @@
       <c r="C152" s="7">
         <v>45254</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="19"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E152" s="20">
-        <v>9007337237</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
+      <c r="G152" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H152" s="29" t="s">
+        <v>230</v>
+      </c>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
-      <c r="K152" s="19" t="s">
-        <v>247</v>
+      <c r="K152" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="L152" s="17"/>
       <c r="M152" s="28"/>
       <c r="N152" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="64">
+        <v>152</v>
+      </c>
+      <c r="B153" s="23">
+        <v>45262</v>
+      </c>
+      <c r="C153" s="23">
+        <v>45262</v>
+      </c>
+      <c r="D153" s="41" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
-        <v>152</v>
-      </c>
-      <c r="B153" s="7">
-        <v>45254</v>
-      </c>
-      <c r="C153" s="7">
-        <v>45254</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E153" s="20">
-        <v>7890924561</v>
-      </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L153" s="17"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
+      <c r="E153" s="42"/>
+      <c r="F153" s="41">
+        <v>7596961155</v>
+      </c>
+      <c r="G153" s="48"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L153" s="24"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" s="64">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
-        <v>45254</v>
-      </c>
-      <c r="C154" s="7">
-        <v>45254</v>
-      </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G154" s="29" t="s">
+      <c r="B154" s="23">
+        <v>45262</v>
+      </c>
+      <c r="C154" s="23">
+        <v>45262</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E154" s="42">
+        <v>8335865511</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K154" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L154" s="24"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" s="64">
+        <v>154</v>
+      </c>
+      <c r="B155" s="22">
+        <v>45263</v>
+      </c>
+      <c r="C155" s="22">
+        <v>45263</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E155" s="20"/>
+      <c r="F155" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G155" s="40">
+        <v>8777380801</v>
+      </c>
+      <c r="H155" s="21"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L155" s="17"/>
+      <c r="M155" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="N155" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" s="64">
+        <v>155</v>
+      </c>
+      <c r="B156" s="23">
+        <v>45264</v>
+      </c>
+      <c r="C156" s="23">
+        <v>45264</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E156" s="42"/>
+      <c r="F156" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H156" s="38"/>
+      <c r="I156" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="J156" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K156" s="41" t="s">
         <v>277</v>
-      </c>
-      <c r="H154" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="L154" s="17"/>
-      <c r="M154" s="28"/>
-      <c r="N154" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
-        <v>154</v>
-      </c>
-      <c r="B155" s="23">
-        <v>45262</v>
-      </c>
-      <c r="C155" s="23">
-        <v>45262</v>
-      </c>
-      <c r="D155" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E155" s="42"/>
-      <c r="F155" s="41">
-        <v>7596961155</v>
-      </c>
-      <c r="G155" s="48"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="L155" s="24"/>
-      <c r="M155" s="25"/>
-      <c r="N155" s="24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="6">
-        <v>155</v>
-      </c>
-      <c r="B156" s="23">
-        <v>45262</v>
-      </c>
-      <c r="C156" s="23">
-        <v>45262</v>
-      </c>
-      <c r="D156" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="E156" s="42">
-        <v>8335865511</v>
-      </c>
-      <c r="F156" s="24"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K156" s="41" t="s">
-        <v>310</v>
       </c>
       <c r="L156" s="24"/>
       <c r="M156" s="25"/>
       <c r="N156" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" s="64">
+        <v>156</v>
+      </c>
+      <c r="B157" s="23">
+        <v>45264</v>
+      </c>
+      <c r="C157" s="23">
+        <v>45264</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E157" s="42">
+        <v>8100040475</v>
+      </c>
+      <c r="F157" s="24"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
-        <v>156</v>
-      </c>
-      <c r="B157" s="22">
-        <v>45263</v>
-      </c>
-      <c r="C157" s="22">
-        <v>45263</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E157" s="20"/>
-      <c r="F157" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="G157" s="40">
-        <v>8777380801</v>
-      </c>
-      <c r="H157" s="21"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L157" s="17"/>
-      <c r="M157" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="N157" s="17" t="s">
-        <v>270</v>
+      <c r="K157" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L157" s="24"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="24" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="6">
+      <c r="A158" s="64">
         <v>157</v>
       </c>
       <c r="B158" s="23">
@@ -6813,34 +6835,32 @@
       <c r="C158" s="23">
         <v>45264</v>
       </c>
-      <c r="D158" s="41" t="s">
-        <v>281</v>
-      </c>
+      <c r="D158" s="41"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="24" t="s">
-        <v>278</v>
+      <c r="F158" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="G158" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="H158" s="38"/>
-      <c r="I158" s="24" t="s">
-        <v>279</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H158" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="I158" s="24"/>
       <c r="J158" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K158" s="41" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="L158" s="24"/>
       <c r="M158" s="25"/>
       <c r="N158" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="6">
+      <c r="A159" s="64">
         <v>158</v>
       </c>
       <c r="B159" s="23">
@@ -6850,192 +6870,158 @@
         <v>45264</v>
       </c>
       <c r="D159" s="41" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E159" s="42">
-        <v>8100040475</v>
+        <v>6290555078</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="48"/>
       <c r="H159" s="38"/>
       <c r="I159" s="24"/>
       <c r="J159" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K159" s="41" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L159" s="24"/>
       <c r="M159" s="25"/>
       <c r="N159" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" s="64">
+        <v>159</v>
+      </c>
+      <c r="B160" s="22">
+        <v>45264</v>
+      </c>
+      <c r="C160" s="22">
+        <v>45264</v>
+      </c>
+      <c r="D160" s="19"/>
+      <c r="F160" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G160" s="40">
+        <v>9430501357</v>
+      </c>
+      <c r="H160" s="21"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="6">
-        <v>159</v>
-      </c>
-      <c r="B160" s="23">
-        <v>45264</v>
-      </c>
-      <c r="C160" s="23">
-        <v>45264</v>
-      </c>
-      <c r="D160" s="41"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G160" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="H160" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K160" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="L160" s="24"/>
-      <c r="M160" s="25"/>
-      <c r="N160" s="24" t="s">
+      <c r="K160" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="M160" s="18"/>
+      <c r="N160" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" s="64">
+        <v>160</v>
+      </c>
+      <c r="B161" s="22">
+        <v>45265</v>
+      </c>
+      <c r="C161" s="22">
+        <v>45265</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G161" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H161" s="21"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="6">
-        <v>160</v>
-      </c>
-      <c r="B161" s="23">
-        <v>45264</v>
-      </c>
-      <c r="C161" s="23">
-        <v>45264</v>
-      </c>
-      <c r="D161" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E161" s="42">
-        <v>6290555078</v>
-      </c>
-      <c r="F161" s="24"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="38"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K161" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="L161" s="24"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="24" t="s">
+      <c r="K161" s="19"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" s="64">
+        <v>161</v>
+      </c>
+      <c r="B162" s="23">
+        <v>45265</v>
+      </c>
+      <c r="C162" s="23">
+        <v>45265</v>
+      </c>
+      <c r="D162" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E162" s="42"/>
+      <c r="F162" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G162" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="H162" s="38"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
-        <v>161</v>
-      </c>
-      <c r="B162" s="22">
-        <v>45264</v>
-      </c>
-      <c r="C162" s="22">
-        <v>45264</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="F162" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="G162" s="40">
-        <v>9430501357</v>
-      </c>
-      <c r="H162" s="21"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K162" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="L162" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="M162" s="18"/>
-      <c r="N162" s="17" t="s">
-        <v>270</v>
+      <c r="K162" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="L162" s="24"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="24" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="6">
-        <v>162</v>
-      </c>
-      <c r="B163" s="22">
-        <v>45265</v>
-      </c>
-      <c r="C163" s="22">
-        <v>45265</v>
-      </c>
+      <c r="A163" s="65"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
       <c r="D163" s="19"/>
       <c r="E163" s="20"/>
-      <c r="F163" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G163" s="27" t="s">
-        <v>308</v>
-      </c>
+      <c r="F163" s="17"/>
+      <c r="G163" s="27"/>
       <c r="H163" s="21"/>
       <c r="I163" s="17"/>
-      <c r="J163" s="17" t="s">
-        <v>219</v>
-      </c>
+      <c r="J163" s="17"/>
       <c r="K163" s="19"/>
       <c r="L163" s="17"/>
       <c r="M163" s="18"/>
-      <c r="N163" s="17" t="s">
-        <v>270</v>
-      </c>
+      <c r="N163" s="17"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="28">
-        <v>163</v>
-      </c>
-      <c r="B164" s="23">
-        <v>45265</v>
-      </c>
-      <c r="C164" s="23">
-        <v>45265</v>
-      </c>
-      <c r="D164" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="E164" s="42"/>
-      <c r="F164" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="G164" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="H164" s="38"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K164" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="L164" s="24"/>
-      <c r="M164" s="25"/>
-      <c r="N164" s="24" t="s">
-        <v>217</v>
-      </c>
+      <c r="A164" s="65"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="17"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="28"/>
+      <c r="A165" s="65"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="19"/>
@@ -7051,7 +7037,7 @@
       <c r="N165" s="17"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="28"/>
+      <c r="A166" s="65"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="19"/>
@@ -12393,38 +12379,6 @@
       <c r="L499" s="17"/>
       <c r="M499" s="18"/>
       <c r="N499" s="17"/>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A500" s="28"/>
-      <c r="B500" s="17"/>
-      <c r="C500" s="17"/>
-      <c r="D500" s="19"/>
-      <c r="E500" s="20"/>
-      <c r="F500" s="17"/>
-      <c r="G500" s="27"/>
-      <c r="H500" s="21"/>
-      <c r="I500" s="17"/>
-      <c r="J500" s="17"/>
-      <c r="K500" s="19"/>
-      <c r="L500" s="17"/>
-      <c r="M500" s="18"/>
-      <c r="N500" s="17"/>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A501" s="28"/>
-      <c r="B501" s="17"/>
-      <c r="C501" s="17"/>
-      <c r="D501" s="19"/>
-      <c r="E501" s="20"/>
-      <c r="F501" s="17"/>
-      <c r="G501" s="27"/>
-      <c r="H501" s="21"/>
-      <c r="I501" s="17"/>
-      <c r="J501" s="17"/>
-      <c r="K501" s="19"/>
-      <c r="L501" s="17"/>
-      <c r="M501" s="18"/>
-      <c r="N501" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12449,24 +12403,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+        <v>268</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -12477,10 +12431,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -12491,10 +12445,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -12502,10 +12456,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -12513,10 +12467,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -12524,10 +12478,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -12535,10 +12489,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -12546,10 +12500,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -12557,10 +12511,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FD08F-E053-4936-90A0-6B968C1773FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B3C08-FCC7-4369-AA3F-0C4859D9E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prospects" sheetId="2" r:id="rId1"/>
     <sheet name="Notes" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prospects!$A$1:$O$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prospects!$A$1:$O$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,6 +47,9 @@
     <author>tc={5FAB69F1-1AD6-40EF-AE13-A0C7810DCF5B}</author>
     <author>tc={45448100-AA57-47F2-B572-B76A2B5B2CB8}</author>
     <author>tc={27AC4C6F-8492-4484-AC93-52BF102E5BBA}</author>
+    <author>tc={485D4CEB-5015-43B0-AB4D-F777D360BC50}</author>
+    <author>tc={0B4BAFAE-C9AD-47C5-8D24-F90F5F466831}</author>
+    <author>tc={E7A92FC9-D42E-4E30-8CCA-753899E5052F}</author>
     <author>tc={F9F09DC9-4779-423A-8A97-51698EE11B5D}</author>
     <author>tc={8079E340-FFDC-4A58-A694-E777A070722A}</author>
     <author>tc={42F09BE5-1DCF-4810-B480-E82E54A58353}</author>
@@ -125,7 +128,40 @@
     Need to do follow-up in every month.</t>
       </text>
     </comment>
-    <comment ref="M133" authorId="7" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
+    <comment ref="M110" authorId="7" shapeId="0" xr:uid="{485D4CEB-5015-43B0-AB4D-F777D360BC50}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    His son studies in Scottish Church college in commerce stream. 
+We will offer for 
+A) Commerce Courses
+B) AI Courses
+To be followed on 07-12-2023.</t>
+      </text>
+    </comment>
+    <comment ref="M111" authorId="8" shapeId="0" xr:uid="{0B4BAFAE-C9AD-47C5-8D24-F90F5F466831}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Alibia studies History Honours.
+Stays at M block just near our institute.
+We told her mother to come to our institute.
+</t>
+      </text>
+    </comment>
+    <comment ref="M112" authorId="9" shapeId="0" xr:uid="{E7A92FC9-D42E-4E30-8CCA-753899E5052F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    He works as Oracle Developer. 
+If he wants to do course he will connect us.
+We should follow him after 1 month.</t>
+      </text>
+    </comment>
+    <comment ref="M131" authorId="10" shapeId="0" xr:uid="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +170,7 @@
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</t>
       </text>
     </comment>
-    <comment ref="M134" authorId="8" shapeId="0" xr:uid="{8079E340-FFDC-4A58-A694-E777A070722A}">
+    <comment ref="M132" authorId="11" shapeId="0" xr:uid="{8079E340-FFDC-4A58-A694-E777A070722A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -142,7 +178,7 @@
     Mock Test for Mathematics.</t>
       </text>
     </comment>
-    <comment ref="M135" authorId="9" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
+    <comment ref="M133" authorId="12" shapeId="0" xr:uid="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +186,7 @@
     She may give mock test. We need to connect with her by Rahul on 20th November 2023</t>
       </text>
     </comment>
-    <comment ref="M136" authorId="10" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
+    <comment ref="M134" authorId="13" shapeId="0" xr:uid="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +195,7 @@
 Rahul will do follow up on Tuesday (21Nov 2023)</t>
       </text>
     </comment>
-    <comment ref="M137" authorId="11" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
+    <comment ref="M135" authorId="14" shapeId="0" xr:uid="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +203,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="M138" authorId="12" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
+    <comment ref="M136" authorId="15" shapeId="0" xr:uid="{7185A813-EFC8-435F-AB79-A43871C4A260}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +211,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="M139" authorId="13" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
+    <comment ref="M137" authorId="16" shapeId="0" xr:uid="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +219,7 @@
     As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</t>
       </text>
     </comment>
-    <comment ref="M140" authorId="14" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
+    <comment ref="M138" authorId="17" shapeId="0" xr:uid="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +228,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M143" authorId="15" shapeId="0" xr:uid="{D7894310-9964-4FB2-B7D2-921476547B87}">
+    <comment ref="M141" authorId="18" shapeId="0" xr:uid="{D7894310-9964-4FB2-B7D2-921476547B87}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +237,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M154" authorId="16" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+    <comment ref="M152" authorId="19" shapeId="0" xr:uid="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +245,7 @@
     He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</t>
       </text>
     </comment>
-    <comment ref="M156" authorId="17" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+    <comment ref="M154" authorId="20" shapeId="0" xr:uid="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +254,7 @@
 Demo class by Bappadito</t>
       </text>
     </comment>
-    <comment ref="M157" authorId="18" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+    <comment ref="M155" authorId="21" shapeId="0" xr:uid="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -226,7 +262,7 @@
     She is a working lady. Follow up date 05-12-2023.</t>
       </text>
     </comment>
-    <comment ref="M158" authorId="19" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+    <comment ref="M156" authorId="22" shapeId="0" xr:uid="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,7 +270,7 @@
     His daughter studies in GD Birla in class IX.She needs coaching in Physics.</t>
       </text>
     </comment>
-    <comment ref="M159" authorId="20" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+    <comment ref="M157" authorId="23" shapeId="0" xr:uid="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -243,7 +279,7 @@
 She needs to be followed up on 06-12-2023.</t>
       </text>
     </comment>
-    <comment ref="M160" authorId="21" shapeId="0" xr:uid="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
+    <comment ref="M158" authorId="24" shapeId="0" xr:uid="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -251,7 +287,7 @@
     His son can give mock test</t>
       </text>
     </comment>
-    <comment ref="M161" authorId="22" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+    <comment ref="M159" authorId="25" shapeId="0" xr:uid="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -260,7 +296,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="M162" authorId="23" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+    <comment ref="M160" authorId="26" shapeId="0" xr:uid="{BD936E28-6500-430E-896F-A137AE40CCEB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -276,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="308">
   <si>
     <t>Student Name</t>
   </si>
@@ -740,12 +776,6 @@
     <t>Alibia Chatterjee</t>
   </si>
   <si>
-    <t>Aitizhy</t>
-  </si>
-  <si>
-    <t>Dipankar Dey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rohul </t>
   </si>
   <si>
@@ -1175,9 +1205,6 @@
     <t>Basic Computer Course</t>
   </si>
   <si>
-    <t>Physics - Std 12</t>
-  </si>
-  <si>
     <t>Parijat Haldar</t>
   </si>
   <si>
@@ -1203,13 +1230,19 @@
   </si>
   <si>
     <t xml:space="preserve">I.C.S.E </t>
+  </si>
+  <si>
+    <t>Samridh Samayak</t>
+  </si>
+  <si>
+    <t>Std XII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,12 +1259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1245,12 +1272,6 @@
     <font>
       <sz val="10"/>
       <name val="Oxygen"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1408,28 +1429,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1443,91 +1464,91 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1561,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1548,23 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,62 +1897,80 @@
   <threadedComment ref="M104" dT="2023-12-05T11:46:26.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{27AC4C6F-8492-4484-AC93-52BF102E5BBA}">
     <text>Need to do follow-up in every month.</text>
   </threadedComment>
-  <threadedComment ref="M133" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
+  <threadedComment ref="M110" dT="2023-12-06T09:59:59.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{485D4CEB-5015-43B0-AB4D-F777D360BC50}">
+    <text>His son studies in Scottish Church college in commerce stream. 
+We will offer for 
+A) Commerce Courses
+B) AI Courses
+To be followed on 07-12-2023.</text>
+  </threadedComment>
+  <threadedComment ref="M111" dT="2023-12-06T10:18:05.28" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{0B4BAFAE-C9AD-47C5-8D24-F90F5F466831}">
+    <text xml:space="preserve">Alibia studies History Honours.
+Stays at M block just near our institute.
+We told her mother to come to our institute.
+</text>
+  </threadedComment>
+  <threadedComment ref="M112" dT="2023-12-06T12:22:09.47" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E7A92FC9-D42E-4E30-8CCA-753899E5052F}">
+    <text>He works as Oracle Developer. 
+If he wants to do course he will connect us.
+We should follow him after 1 month.</text>
+  </threadedComment>
+  <threadedComment ref="M131" dT="2023-11-14T11:16:51.22" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{F9F09DC9-4779-423A-8A97-51698EE11B5D}">
     <text>Her son studies in Narendrapur Ram Krishna Mission.
 Pallav's (96611 53498) Wife12yrs experience will teach Mausam's son</text>
   </threadedComment>
-  <threadedComment ref="M134" dT="2023-12-06T07:22:37.28" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{8079E340-FFDC-4A58-A694-E777A070722A}">
+  <threadedComment ref="M132" dT="2023-12-06T07:22:37.28" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{8079E340-FFDC-4A58-A694-E777A070722A}">
     <text>Mock Test for Mathematics.</text>
   </threadedComment>
-  <threadedComment ref="M135" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
+  <threadedComment ref="M133" dT="2023-11-19T06:41:33.01" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{42F09BE5-1DCF-4810-B480-E82E54A58353}">
     <text>She may give mock test. We need to connect with her by Rahul on 20th November 2023</text>
   </threadedComment>
-  <threadedComment ref="M136" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
+  <threadedComment ref="M134" dT="2023-11-19T06:51:20.03" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{99DE04F1-1D02-4632-8214-8964EA40EE47}">
     <text>Guardian will visit to Anodiam.
 Rahul will do follow up on Tuesday (21Nov 2023)</text>
   </threadedComment>
-  <threadedComment ref="M137" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
+  <threadedComment ref="M135" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{DA7BAB53-038E-4E76-89BF-B200E2F4C668}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="M138" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7185A813-EFC8-435F-AB79-A43871C4A260}">
+  <threadedComment ref="M136" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{7185A813-EFC8-435F-AB79-A43871C4A260}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="M139" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
+  <threadedComment ref="M137" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{588025E0-A0E6-4E4A-9495-C2EA9C676DAF}">
     <text>As discussed with Anirban, we will connect with AI prospects once we are ready with AI related necessary stuffs.</text>
   </threadedComment>
-  <threadedComment ref="M140" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
+  <threadedComment ref="M138" dT="2023-11-19T07:28:37.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{006DA87C-A4D4-4EB6-A53D-8225376469C4}">
     <text xml:space="preserve">Ask Ananya for number &amp; details.
 </text>
   </threadedComment>
-  <threadedComment ref="M143" dT="2023-12-06T06:59:59.82" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{D7894310-9964-4FB2-B7D2-921476547B87}">
+  <threadedComment ref="M141" dT="2023-12-06T06:59:59.82" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{D7894310-9964-4FB2-B7D2-921476547B87}">
     <text xml:space="preserve">All Subjects
 </text>
   </threadedComment>
-  <threadedComment ref="M154" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
+  <threadedComment ref="M152" dT="2023-12-05T07:55:10.74" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{9F686F59-C29D-4D23-A297-DDD8C911F41F}">
     <text>He is a retired person and he is keen to study computer course. Needs to follow up  on 07-12-2023 (Thursday).</text>
   </threadedComment>
-  <threadedComment ref="M156" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
+  <threadedComment ref="M154" dT="2023-12-04T08:10:56.08" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{06C1A770-BDC3-4EE1-B6FA-36CCC1AAF8F9}">
     <text>Student is interested in vehicles. We can show robotics vehicles by Bappadito.
 Demo class by Bappadito</text>
   </threadedComment>
-  <threadedComment ref="M157" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
+  <threadedComment ref="M155" dT="2023-12-05T06:38:50.42" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{2358E5BF-6CE9-4B18-A908-A65F44178D1C}">
     <text>She is a working lady. Follow up date 05-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="M158" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
+  <threadedComment ref="M156" dT="2023-12-04T11:40:17.93" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{020F2CA3-F192-4B9F-9B7D-1B455CAC0BBB}">
     <text>His daughter studies in GD Birla in class IX.She needs coaching in Physics.</text>
   </threadedComment>
-  <threadedComment ref="M159" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
+  <threadedComment ref="M157" dT="2023-12-04T12:54:51.83" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{C0727A5B-EA0D-417C-9E76-E2B8CDF1AB5A}">
     <text>She will come to our institute on Thursday 07-12-2023.
 She needs to be followed up on 06-12-2023.</text>
   </threadedComment>
-  <threadedComment ref="M160" dT="2023-12-06T05:39:59.54" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
+  <threadedComment ref="M158" dT="2023-12-06T05:39:59.54" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{59D2B255-7D2E-4587-B857-CF4F4991A1B9}">
     <text>His son can give mock test</text>
   </threadedComment>
-  <threadedComment ref="M161" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
+  <threadedComment ref="M159" dT="2023-12-05T07:24:15.44" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{E5EF2C76-FFB2-45EA-B6C8-EC9A972B960A}">
     <text xml:space="preserve">He told to call on 06-12-2023 at 3 PM.
 </text>
   </threadedComment>
-  <threadedComment ref="M162" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
+  <threadedComment ref="M160" dT="2023-12-05T11:05:14.61" personId="{4666E732-BD10-4E5E-A636-505584664154}" id="{BD936E28-6500-430E-896F-A137AE40CCEB}">
     <text>Parijat Haldar is available on Monday, Tuesday &amp; Friday from 4 PM to attend class. 
 He stays near highland park.
 We need to give a demo class to him. If his guardian is satisfied then he will attend the chemistry class also. 
@@ -1942,11 +1981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O499"/>
+  <dimension ref="A1:O497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,10 +1997,10 @@
     <col min="5" max="5" width="12.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.21875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="36" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="26" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="37" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" style="36" customWidth="1"/>
     <col min="14" max="14" width="10.109375" style="38" bestFit="1" customWidth="1"/>
@@ -1973,10 +2012,10 @@
         <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1991,25 +2030,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
@@ -2042,10 +2081,10 @@
       <c r="L2" s="8"/>
       <c r="M2" s="15"/>
       <c r="N2" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,10 +2114,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
       <c r="N3" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2108,10 +2147,10 @@
       <c r="L4" s="8"/>
       <c r="M4" s="15"/>
       <c r="N4" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2141,10 +2180,10 @@
       <c r="L5" s="8"/>
       <c r="M5" s="15"/>
       <c r="N5" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,10 +2213,10 @@
       <c r="L6" s="8"/>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2207,10 +2246,10 @@
       <c r="L7" s="17"/>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2240,10 +2279,10 @@
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,10 +2312,10 @@
       <c r="L9" s="17"/>
       <c r="M9" s="15"/>
       <c r="N9" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2306,10 +2345,10 @@
       <c r="L10" s="17"/>
       <c r="M10" s="15"/>
       <c r="N10" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2339,10 +2378,10 @@
       <c r="L11" s="17"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2372,10 +2411,10 @@
       <c r="L12" s="17"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2405,10 +2444,10 @@
       <c r="L13" s="17"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2438,10 +2477,10 @@
       <c r="L14" s="17"/>
       <c r="M14" s="15"/>
       <c r="N14" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2471,10 +2510,10 @@
       <c r="L15" s="17"/>
       <c r="M15" s="15"/>
       <c r="N15" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2504,10 +2543,10 @@
       <c r="L16" s="17"/>
       <c r="M16" s="15"/>
       <c r="N16" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2537,10 +2576,10 @@
       <c r="L17" s="17"/>
       <c r="M17" s="15"/>
       <c r="N17" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2570,10 +2609,10 @@
       <c r="L18" s="17"/>
       <c r="M18" s="15"/>
       <c r="N18" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2603,10 +2642,10 @@
       <c r="L19" s="17"/>
       <c r="M19" s="15"/>
       <c r="N19" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2636,10 +2675,10 @@
       <c r="L20" s="17"/>
       <c r="M20" s="15"/>
       <c r="N20" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2669,10 +2708,10 @@
       <c r="L21" s="17"/>
       <c r="M21" s="15"/>
       <c r="N21" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2702,10 +2741,10 @@
       <c r="L22" s="17"/>
       <c r="M22" s="15"/>
       <c r="N22" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2735,10 +2774,10 @@
       <c r="L23" s="17"/>
       <c r="M23" s="15"/>
       <c r="N23" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2768,10 +2807,10 @@
       <c r="L24" s="17"/>
       <c r="M24" s="15"/>
       <c r="N24" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2801,10 +2840,10 @@
       <c r="L25" s="17"/>
       <c r="M25" s="15"/>
       <c r="N25" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2834,10 +2873,10 @@
       <c r="L26" s="17"/>
       <c r="M26" s="15"/>
       <c r="N26" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2867,10 +2906,10 @@
       <c r="L27" s="17"/>
       <c r="M27" s="15"/>
       <c r="N27" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2900,10 +2939,10 @@
       <c r="L28" s="17"/>
       <c r="M28" s="15"/>
       <c r="N28" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2933,10 +2972,10 @@
       <c r="L29" s="17"/>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2966,10 +3005,10 @@
       <c r="L30" s="17"/>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2999,10 +3038,10 @@
       <c r="L31" s="17"/>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3032,10 +3071,10 @@
       <c r="L32" s="17"/>
       <c r="M32" s="15"/>
       <c r="N32" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3065,10 +3104,10 @@
       <c r="L33" s="17"/>
       <c r="M33" s="15"/>
       <c r="N33" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3098,10 +3137,10 @@
       <c r="L34" s="17"/>
       <c r="M34" s="15"/>
       <c r="N34" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3131,10 +3170,10 @@
       <c r="L35" s="17"/>
       <c r="M35" s="15"/>
       <c r="N35" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3164,10 +3203,10 @@
       <c r="L36" s="17"/>
       <c r="M36" s="15"/>
       <c r="N36" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3197,10 +3236,10 @@
       <c r="L37" s="17"/>
       <c r="M37" s="15"/>
       <c r="N37" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3230,10 +3269,10 @@
       <c r="L38" s="17"/>
       <c r="M38" s="15"/>
       <c r="N38" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3263,10 +3302,10 @@
       <c r="L39" s="17"/>
       <c r="M39" s="15"/>
       <c r="N39" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3296,10 +3335,10 @@
       <c r="L40" s="17"/>
       <c r="M40" s="15"/>
       <c r="N40" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3329,10 +3368,10 @@
       <c r="L41" s="17"/>
       <c r="M41" s="15"/>
       <c r="N41" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3362,10 +3401,10 @@
       <c r="L42" s="17"/>
       <c r="M42" s="15"/>
       <c r="N42" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -3395,10 +3434,10 @@
       <c r="L43" s="17"/>
       <c r="M43" s="15"/>
       <c r="N43" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3428,10 +3467,10 @@
       <c r="L44" s="17"/>
       <c r="M44" s="15"/>
       <c r="N44" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -3461,10 +3500,10 @@
       <c r="L45" s="17"/>
       <c r="M45" s="15"/>
       <c r="N45" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -3494,10 +3533,10 @@
       <c r="L46" s="17"/>
       <c r="M46" s="15"/>
       <c r="N46" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -3527,10 +3566,10 @@
       <c r="L47" s="17"/>
       <c r="M47" s="15"/>
       <c r="N47" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -3560,10 +3599,10 @@
       <c r="L48" s="17"/>
       <c r="M48" s="15"/>
       <c r="N48" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3593,10 +3632,10 @@
       <c r="L49" s="17"/>
       <c r="M49" s="15"/>
       <c r="N49" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -3626,10 +3665,10 @@
       <c r="L50" s="17"/>
       <c r="M50" s="15"/>
       <c r="N50" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3659,10 +3698,10 @@
       <c r="L51" s="17"/>
       <c r="M51" s="15"/>
       <c r="N51" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -3692,10 +3731,10 @@
       <c r="L52" s="17"/>
       <c r="M52" s="15"/>
       <c r="N52" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3725,10 +3764,10 @@
       <c r="L53" s="17"/>
       <c r="M53" s="15"/>
       <c r="N53" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3758,10 +3797,10 @@
       <c r="L54" s="17"/>
       <c r="M54" s="15"/>
       <c r="N54" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -3791,10 +3830,10 @@
       <c r="L55" s="17"/>
       <c r="M55" s="15"/>
       <c r="N55" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -3824,10 +3863,10 @@
       <c r="L56" s="17"/>
       <c r="M56" s="15"/>
       <c r="N56" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3857,10 +3896,10 @@
       <c r="L57" s="17"/>
       <c r="M57" s="15"/>
       <c r="N57" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3890,10 +3929,10 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3917,10 +3956,10 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3948,10 +3987,10 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3979,10 +4018,10 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -4009,15 +4048,15 @@
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -4043,10 +4082,10 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -4072,10 +4111,10 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -4099,10 +4138,10 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4128,10 +4167,10 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -4159,10 +4198,10 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
       <c r="N67" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -4188,10 +4227,10 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -4217,10 +4256,10 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
       <c r="N69" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -4246,10 +4285,10 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -4275,10 +4314,10 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4306,10 +4345,10 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4335,10 +4374,10 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -4359,25 +4398,25 @@
       </c>
       <c r="F74" s="41"/>
       <c r="G74" s="42"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41" t="s">
+      <c r="H74" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I74" s="41"/>
       <c r="J74" s="41"/>
       <c r="K74" s="41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L74" s="41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M74" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N74" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O74" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -4398,23 +4437,23 @@
       </c>
       <c r="F75" s="41"/>
       <c r="G75" s="42"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41" t="s">
+      <c r="H75" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I75" s="41"/>
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
       <c r="L75" s="41" t="s">
         <v>127</v>
       </c>
       <c r="M75" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N75" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O75" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4428,30 +4467,30 @@
         <v>45261</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E76" s="41">
         <v>9831649789</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="42"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41" t="s">
+      <c r="H76" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I76" s="41"/>
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
       <c r="L76" s="41" t="s">
         <v>128</v>
       </c>
       <c r="M76" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N76" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O76" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -4472,21 +4511,21 @@
       </c>
       <c r="F77" s="41"/>
       <c r="G77" s="42"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41" t="s">
+      <c r="H77" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I77" s="41"/>
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
       <c r="L77" s="41"/>
       <c r="M77" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N77" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O77" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -4507,21 +4546,21 @@
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="42"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41" t="s">
+      <c r="H78" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I78" s="41"/>
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
       <c r="L78" s="41"/>
       <c r="M78" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N78" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O78" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -4535,28 +4574,28 @@
         <v>45261</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E79" s="41">
         <v>8100234251</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="42"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41" t="s">
+      <c r="H79" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
       <c r="L79" s="41"/>
       <c r="M79" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N79" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O79" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -4570,28 +4609,28 @@
         <v>45261</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E80" s="41">
         <v>9038607618</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="42"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41" t="s">
+      <c r="H80" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I80" s="41"/>
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
       <c r="L80" s="41"/>
       <c r="M80" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N80" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O80" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -4605,26 +4644,26 @@
         <v>45261</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" s="41">
         <v>9123738352</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="42"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41" t="s">
+      <c r="H81" s="41" t="s">
         <v>131</v>
       </c>
+      <c r="I81" s="41"/>
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
       <c r="L81" s="41"/>
       <c r="M81" s="41"/>
       <c r="N81" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O81" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -4653,13 +4692,13 @@
       <c r="K82" s="41"/>
       <c r="L82" s="41"/>
       <c r="M82" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N82" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O82" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -4673,7 +4712,7 @@
         <v>45261</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E83" s="41">
         <v>6290149228</v>
@@ -4688,13 +4727,13 @@
       <c r="K83" s="41"/>
       <c r="L83" s="41"/>
       <c r="M83" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N83" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O83" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -4708,7 +4747,7 @@
         <v>45261</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E84" s="41">
         <v>7439235390</v>
@@ -4723,13 +4762,13 @@
       <c r="K84" s="41"/>
       <c r="L84" s="41"/>
       <c r="M84" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N84" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -4758,13 +4797,13 @@
       <c r="K85" s="41"/>
       <c r="L85" s="41"/>
       <c r="M85" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N85" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O85" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4778,7 +4817,7 @@
         <v>45261</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E86" s="41">
         <v>9875642078</v>
@@ -4793,13 +4832,13 @@
       <c r="K86" s="41"/>
       <c r="L86" s="41"/>
       <c r="M86" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N86" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O86" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4828,13 +4867,13 @@
       <c r="K87" s="41"/>
       <c r="L87" s="41"/>
       <c r="M87" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N87" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O87" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -4848,7 +4887,7 @@
         <v>45261</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E88" s="41">
         <v>7865006160</v>
@@ -4863,13 +4902,13 @@
       <c r="K88" s="41"/>
       <c r="L88" s="41"/>
       <c r="M88" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N88" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O88" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -4883,7 +4922,7 @@
         <v>45261</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E89" s="41">
         <v>9933568503</v>
@@ -4898,13 +4937,13 @@
       <c r="K89" s="41"/>
       <c r="L89" s="41"/>
       <c r="M89" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N89" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O89" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -4933,13 +4972,13 @@
       <c r="K90" s="41"/>
       <c r="L90" s="41"/>
       <c r="M90" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N90" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O90" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -4953,7 +4992,7 @@
         <v>45261</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E91" s="41">
         <v>8017803547</v>
@@ -4968,13 +5007,13 @@
       <c r="K91" s="41"/>
       <c r="L91" s="41"/>
       <c r="M91" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N91" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O91" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5003,13 +5042,13 @@
       <c r="K92" s="41"/>
       <c r="L92" s="41"/>
       <c r="M92" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N92" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O92" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5038,13 +5077,13 @@
       <c r="K93" s="41"/>
       <c r="L93" s="41"/>
       <c r="M93" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N93" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O93" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5073,13 +5112,13 @@
       <c r="K94" s="41"/>
       <c r="L94" s="41"/>
       <c r="M94" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N94" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O94" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5093,7 +5132,7 @@
         <v>45261</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E95" s="41">
         <v>7439261742</v>
@@ -5108,13 +5147,13 @@
       <c r="K95" s="41"/>
       <c r="L95" s="41"/>
       <c r="M95" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N95" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O95" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5143,13 +5182,13 @@
       <c r="K96" s="41"/>
       <c r="L96" s="41"/>
       <c r="M96" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N96" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O96" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -5179,10 +5218,10 @@
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
       <c r="N97" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O97" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -5212,10 +5251,10 @@
       <c r="L98" s="41"/>
       <c r="M98" s="41"/>
       <c r="N98" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O98" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -5229,7 +5268,7 @@
         <v>45261</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E99" s="41">
         <v>6290583136</v>
@@ -5244,13 +5283,13 @@
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
       <c r="M99" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N99" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O99" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -5280,10 +5319,10 @@
       <c r="L100" s="47"/>
       <c r="M100" s="47"/>
       <c r="N100" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O100" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -5313,10 +5352,10 @@
       <c r="L101" s="47"/>
       <c r="M101" s="47"/>
       <c r="N101" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O101" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -5346,10 +5385,10 @@
       <c r="L102" s="47"/>
       <c r="M102" s="47"/>
       <c r="N102" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O102" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -5379,10 +5418,10 @@
       <c r="L103" s="47"/>
       <c r="M103" s="47"/>
       <c r="N103" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O103" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -5400,7 +5439,7 @@
       </c>
       <c r="E104" s="51"/>
       <c r="F104" s="47" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G104" s="47">
         <v>9830826860</v>
@@ -5414,10 +5453,10 @@
       <c r="L104" s="47"/>
       <c r="M104" s="47"/>
       <c r="N104" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O104" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -5431,7 +5470,7 @@
         <v>45265</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E105" s="47">
         <v>8420848861</v>
@@ -5447,10 +5486,10 @@
       <c r="L105" s="47"/>
       <c r="M105" s="47"/>
       <c r="N105" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O105" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -5480,10 +5519,10 @@
       <c r="L106" s="47"/>
       <c r="M106" s="47"/>
       <c r="N106" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O106" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -5513,10 +5552,10 @@
       <c r="L107" s="47"/>
       <c r="M107" s="47"/>
       <c r="N107" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O107" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -5530,7 +5569,7 @@
         <v>45265</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E108" s="47">
         <v>9143297263</v>
@@ -5546,10 +5585,10 @@
       <c r="L108" s="47"/>
       <c r="M108" s="47"/>
       <c r="N108" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O108" s="49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -5579,102 +5618,108 @@
       <c r="L109" s="47"/>
       <c r="M109" s="47"/>
       <c r="N109" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O109" s="49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="45">
+        <v>109</v>
+      </c>
+      <c r="B110" s="46">
+        <v>45188</v>
+      </c>
+      <c r="C110" s="46">
+        <v>45265</v>
+      </c>
+      <c r="D110" s="48"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="47">
+        <v>9433055625</v>
+      </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O110" s="49" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-      <c r="B110" s="20">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="45">
+        <v>110</v>
+      </c>
+      <c r="B111" s="46">
         <v>45188</v>
       </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E110" s="15">
-        <v>9433055625</v>
-      </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15" t="s">
+      <c r="C111" s="46">
+        <v>45265</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="50"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47">
+        <v>9433221128</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O110" s="16" t="s">
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O111" s="49" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-      <c r="B111" s="20">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="45">
+        <v>111</v>
+      </c>
+      <c r="B112" s="46">
         <v>45188</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" s="15">
-        <v>9433221128</v>
-      </c>
-      <c r="F111" s="15"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15" t="s">
+      <c r="C112" s="46">
+        <v>45265</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" s="47">
+        <v>9477900494</v>
+      </c>
+      <c r="F112" s="47"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O111" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
-        <v>111</v>
-      </c>
-      <c r="B112" s="20">
-        <v>45188</v>
-      </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" s="15">
-        <v>8477712310</v>
-      </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O112" s="16" t="s">
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="O112" s="49" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5687,10 +5732,10 @@
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E113" s="15">
-        <v>628955425</v>
+        <v>8777706597</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="17"/>
@@ -5703,10 +5748,10 @@
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
       <c r="N113" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -5718,10 +5763,10 @@
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E114" s="15">
-        <v>9477900494</v>
+        <v>9433256207</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="17"/>
@@ -5734,10 +5779,10 @@
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
       <c r="N114" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -5745,14 +5790,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="20">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E115" s="15">
-        <v>8777706597</v>
+        <v>7679591433</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="17"/>
@@ -5765,10 +5810,10 @@
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
       <c r="N115" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -5776,14 +5821,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="20">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="15" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E116" s="15">
-        <v>9433256207</v>
+        <v>8016981657</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="17"/>
@@ -5796,10 +5841,10 @@
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -5811,10 +5856,10 @@
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="15" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E117" s="15">
-        <v>7679591433</v>
+        <v>7596825771</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="17"/>
@@ -5827,10 +5872,10 @@
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
       <c r="N117" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -5845,7 +5890,7 @@
         <v>175</v>
       </c>
       <c r="E118" s="15">
-        <v>8016981657</v>
+        <v>8240581466</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="17"/>
@@ -5858,10 +5903,10 @@
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
       <c r="N118" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -5876,7 +5921,7 @@
         <v>176</v>
       </c>
       <c r="E119" s="15">
-        <v>7596825771</v>
+        <v>9162975575</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="17"/>
@@ -5889,10 +5934,10 @@
       <c r="L119" s="15"/>
       <c r="M119" s="15"/>
       <c r="N119" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -5907,7 +5952,7 @@
         <v>177</v>
       </c>
       <c r="E120" s="15">
-        <v>8240581466</v>
+        <v>8609063557</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="17"/>
@@ -5920,10 +5965,10 @@
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
       <c r="N120" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -5938,7 +5983,7 @@
         <v>178</v>
       </c>
       <c r="E121" s="15">
-        <v>9162975575</v>
+        <v>6291578892</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="17"/>
@@ -5951,10 +5996,10 @@
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
       <c r="N121" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -5969,7 +6014,7 @@
         <v>179</v>
       </c>
       <c r="E122" s="15">
-        <v>8609063557</v>
+        <v>9831874618</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="17"/>
@@ -5982,10 +6027,10 @@
       <c r="L122" s="15"/>
       <c r="M122" s="15"/>
       <c r="N122" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O122" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -6000,7 +6045,7 @@
         <v>180</v>
       </c>
       <c r="E123" s="15">
-        <v>6291578892</v>
+        <v>6289714787</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="17"/>
@@ -6013,10 +6058,10 @@
       <c r="L123" s="15"/>
       <c r="M123" s="15"/>
       <c r="N123" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O123" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -6031,7 +6076,7 @@
         <v>181</v>
       </c>
       <c r="E124" s="15">
-        <v>9831874618</v>
+        <v>9679402181</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="17"/>
@@ -6044,10 +6089,10 @@
       <c r="L124" s="15"/>
       <c r="M124" s="15"/>
       <c r="N124" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O124" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6055,14 +6100,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="20">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="15" t="s">
         <v>182</v>
       </c>
       <c r="E125" s="15">
-        <v>6289714787</v>
+        <v>9748494952</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="17"/>
@@ -6075,10 +6120,10 @@
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
       <c r="N125" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O125" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6086,14 +6131,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="20">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E126" s="15">
-        <v>9679402181</v>
+        <v>8100681522</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="17"/>
@@ -6106,10 +6151,10 @@
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
       <c r="N126" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O126" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6124,7 +6169,7 @@
         <v>184</v>
       </c>
       <c r="E127" s="15">
-        <v>9748494952</v>
+        <v>8609345322</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="17"/>
@@ -6137,10 +6182,10 @@
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
       <c r="N127" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6155,7 +6200,7 @@
         <v>185</v>
       </c>
       <c r="E128" s="15">
-        <v>8100681522</v>
+        <v>9163931391</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="17"/>
@@ -6168,10 +6213,10 @@
       <c r="L128" s="15"/>
       <c r="M128" s="15"/>
       <c r="N128" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O128" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -6186,7 +6231,7 @@
         <v>186</v>
       </c>
       <c r="E129" s="15">
-        <v>8609345322</v>
+        <v>7003658621</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="17"/>
@@ -6199,10 +6244,10 @@
       <c r="L129" s="15"/>
       <c r="M129" s="15"/>
       <c r="N129" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O129" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -6217,7 +6262,7 @@
         <v>187</v>
       </c>
       <c r="E130" s="15">
-        <v>9163931391</v>
+        <v>9993168842</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="17"/>
@@ -6230,10 +6275,10 @@
       <c r="L130" s="15"/>
       <c r="M130" s="15"/>
       <c r="N130" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O130" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -6241,30 +6286,30 @@
         <v>130</v>
       </c>
       <c r="B131" s="20">
-        <v>45204</v>
-      </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="15" t="s">
+        <v>45244</v>
+      </c>
+      <c r="C131" s="20">
+        <v>45244</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E131" s="15">
-        <v>7003658621</v>
-      </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="15"/>
+      <c r="G131" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H131" s="25"/>
       <c r="I131" s="15" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
       <c r="M131" s="15"/>
-      <c r="N131" s="16" t="s">
-        <v>212</v>
-      </c>
+      <c r="N131" s="26"/>
       <c r="O131" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -6272,30 +6317,38 @@
         <v>131</v>
       </c>
       <c r="B132" s="20">
-        <v>45204</v>
-      </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E132" s="15">
-        <v>9993168842</v>
-      </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
+        <v>45246</v>
+      </c>
+      <c r="C132" s="20">
+        <v>45246</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="8">
+        <v>9830610602</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K132" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L132" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="M132" s="15"/>
-      <c r="N132" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O132" s="16" t="s">
-        <v>257</v>
+      <c r="N132" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O132" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -6303,30 +6356,36 @@
         <v>132</v>
       </c>
       <c r="B133" s="20">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="C133" s="20">
-        <v>45244</v>
-      </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G133" s="25" t="s">
+        <v>45246</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="15"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H133" s="27"/>
+      <c r="I133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K133" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="L133" s="15"/>
       <c r="M133" s="15"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="16" t="s">
-        <v>257</v>
+      <c r="N133" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O133" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -6340,35 +6399,33 @@
         <v>45246</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="17"/>
-      <c r="G134" s="8">
-        <v>9830610602</v>
-      </c>
-      <c r="H134" s="8"/>
+      <c r="G134" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H134" s="27"/>
       <c r="I134" s="8" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L134" s="15" t="s">
-        <v>128</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O134" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -6378,34 +6435,34 @@
       <c r="C135" s="20">
         <v>45246</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G135" s="27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="K135" s="15" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="L135" s="15"/>
       <c r="M135" s="15"/>
       <c r="N135" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O135" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -6415,23 +6472,25 @@
       <c r="C136" s="20">
         <v>45246</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="17"/>
+      <c r="D136" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E136" s="18"/>
+      <c r="F136" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="G136" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="8" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="K136" s="15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L136" s="15"/>
       <c r="M136" s="15"/>
@@ -6439,7 +6498,7 @@
         <v>210</v>
       </c>
       <c r="O136" s="15" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
@@ -6455,31 +6514,31 @@
       <c r="D137" s="17"/>
       <c r="E137" s="18"/>
       <c r="F137" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K137" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L137" s="15"/>
       <c r="M137" s="15"/>
       <c r="N137" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O137" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -6489,229 +6548,219 @@
       <c r="C138" s="20">
         <v>45246</v>
       </c>
-      <c r="D138" s="28" t="s">
-        <v>272</v>
-      </c>
+      <c r="D138" s="17"/>
       <c r="E138" s="18"/>
       <c r="F138" s="8" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H138" s="27"/>
-      <c r="I138" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J138" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
       <c r="K138" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L138" s="15"/>
       <c r="M138" s="15"/>
       <c r="N138" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O138" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="20">
+      <c r="B139" s="60">
         <v>45246</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="60">
         <v>45246</v>
       </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G139" s="27" t="s">
+      <c r="D139" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="H139" s="27"/>
-      <c r="I139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K139" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="O139" s="15" t="s">
-        <v>259</v>
+      <c r="E139" s="62"/>
+      <c r="F139" s="63"/>
+      <c r="G139" s="64"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="63"/>
+      <c r="L139" s="63"/>
+      <c r="M139" s="65"/>
+      <c r="N139" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="O139" s="65" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="60">
         <v>45246</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="60">
         <v>45246</v>
       </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G140" s="27" t="s">
+      <c r="D140" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="H140" s="27"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="O140" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E140" s="62"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="64"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="63"/>
+      <c r="L140" s="63"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="O140" s="65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="63">
-        <v>45246</v>
-      </c>
-      <c r="C141" s="63">
-        <v>45246</v>
-      </c>
-      <c r="D141" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E141" s="65"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="68"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="66"/>
-      <c r="M141" s="68"/>
-      <c r="N141" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="O141" s="68" t="s">
-        <v>258</v>
+      <c r="B141" s="20">
+        <v>45254</v>
+      </c>
+      <c r="C141" s="20">
+        <v>45254</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="18"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H141" s="25"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L141" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M141" s="15"/>
+      <c r="N141" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="63">
-        <v>45246</v>
-      </c>
-      <c r="C142" s="63">
-        <v>45246</v>
-      </c>
-      <c r="D142" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="E142" s="65"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="68"/>
-      <c r="J142" s="68"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="66"/>
-      <c r="M142" s="68"/>
-      <c r="N142" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="O142" s="68" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="20">
+        <v>45254</v>
+      </c>
+      <c r="C142" s="20">
+        <v>45254</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K142" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O142" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="7">
         <v>45254</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="7">
         <v>45254</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E143" s="18"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="H143" s="25"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H143" s="27"/>
       <c r="I143" s="15"/>
-      <c r="J143" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K143" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L143" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="J143" s="15"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
       <c r="M143" s="15"/>
       <c r="N143" s="26" t="s">
         <v>210</v>
       </c>
       <c r="O143" s="15" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="7">
         <v>45254</v>
       </c>
-      <c r="C144" s="20">
+      <c r="C144" s="7">
         <v>45254</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="18"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
+      <c r="F144" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H144" s="27" t="s">
+        <v>225</v>
+      </c>
       <c r="I144" s="15"/>
-      <c r="J144" s="15" t="s">
-        <v>220</v>
-      </c>
+      <c r="J144" s="15"/>
       <c r="K144" s="17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L144" s="17"/>
       <c r="M144" s="15"/>
       <c r="N144" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -6725,27 +6774,29 @@
         <v>45254</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E145" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="E145" s="18">
+        <v>9433635023</v>
+      </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="27" t="s">
-        <v>223</v>
-      </c>
+      <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="17"/>
+      <c r="K145" s="17" t="s">
+        <v>228</v>
+      </c>
       <c r="L145" s="17"/>
       <c r="M145" s="15"/>
       <c r="N145" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -6755,29 +6806,25 @@
       <c r="C146" s="7">
         <v>45254</v>
       </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G146" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="H146" s="27" t="s">
-        <v>227</v>
-      </c>
+      <c r="D146" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" s="18">
+        <v>6291747759</v>
+      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="17" t="s">
-        <v>229</v>
-      </c>
+      <c r="K146" s="17"/>
       <c r="L146" s="17"/>
       <c r="M146" s="15"/>
       <c r="N146" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O146" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -6790,27 +6837,29 @@
       <c r="C147" s="7">
         <v>45254</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="18">
-        <v>9433635023</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G147" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H147" s="27" t="s">
+        <v>233</v>
+      </c>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
       <c r="K147" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L147" s="17"/>
       <c r="M147" s="15"/>
       <c r="N147" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -6824,24 +6873,26 @@
         <v>45254</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E148" s="18">
-        <v>6291747759</v>
+        <v>9007337237</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="L148" s="17"/>
       <c r="M148" s="15"/>
       <c r="N148" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O148" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -6854,32 +6905,30 @@
       <c r="C149" s="7">
         <v>45254</v>
       </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G149" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H149" s="27" t="s">
+      <c r="D149" s="17" t="s">
         <v>235</v>
       </c>
+      <c r="E149" s="18">
+        <v>7890924561</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
       <c r="K149" s="17" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="L149" s="17"/>
       <c r="M149" s="15"/>
       <c r="N149" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -6889,128 +6938,134 @@
       <c r="C150" s="7">
         <v>45254</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="17"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E150" s="18">
-        <v>9007337237</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
+      <c r="G150" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H150" s="27" t="s">
+        <v>225</v>
+      </c>
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="L150" s="17"/>
+      <c r="K150" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L150" s="28"/>
       <c r="M150" s="15"/>
       <c r="N150" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O150" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
-        <v>45254</v>
-      </c>
-      <c r="C151" s="7">
-        <v>45254</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E151" s="18">
-        <v>7890924561</v>
-      </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L151" s="17"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="O151" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="21">
+        <v>45262</v>
+      </c>
+      <c r="C151" s="21">
+        <v>45262</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" s="33"/>
+      <c r="F151" s="32">
+        <v>7596961155</v>
+      </c>
+      <c r="G151" s="39"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L151" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M151" s="22"/>
+      <c r="N151" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O151" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
-        <v>45254</v>
-      </c>
-      <c r="C152" s="7">
-        <v>45254</v>
-      </c>
-      <c r="D152" s="17"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G152" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="H152" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="L152" s="28"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="O152" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="21">
+        <v>45262</v>
+      </c>
+      <c r="C152" s="21">
+        <v>45262</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E152" s="33">
+        <v>8335865511</v>
+      </c>
+      <c r="F152" s="22"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K152" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L152" s="32"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O152" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="21">
-        <v>45262</v>
-      </c>
-      <c r="C153" s="21">
-        <v>45262</v>
-      </c>
-      <c r="D153" s="32" t="s">
+      <c r="B153" s="20">
+        <v>45263</v>
+      </c>
+      <c r="C153" s="20">
+        <v>45263</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" s="18"/>
+      <c r="F153" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E153" s="33"/>
-      <c r="F153" s="32">
-        <v>7596961155</v>
-      </c>
-      <c r="G153" s="39"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
-      <c r="K153" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="L153" s="32"/>
-      <c r="M153" s="22"/>
-      <c r="N153" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O153" s="22" t="s">
-        <v>213</v>
+      <c r="G153" s="31">
+        <v>8777380801</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L153" s="17"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="O153" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -7018,69 +7073,73 @@
         <v>153</v>
       </c>
       <c r="B154" s="21">
-        <v>45262</v>
+        <v>45264</v>
       </c>
       <c r="C154" s="21">
-        <v>45262</v>
+        <v>45264</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="E154" s="33">
-        <v>8335865511</v>
-      </c>
-      <c r="F154" s="22"/>
-      <c r="G154" s="39"/>
+        <v>268</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="F154" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G154" s="39" t="s">
+        <v>269</v>
+      </c>
       <c r="H154" s="29"/>
-      <c r="I154" s="22"/>
+      <c r="I154" s="22" t="s">
+        <v>266</v>
+      </c>
       <c r="J154" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K154" s="32" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="L154" s="32"/>
       <c r="M154" s="22"/>
       <c r="N154" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="20">
-        <v>45263</v>
-      </c>
-      <c r="C155" s="20">
-        <v>45263</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E155" s="18"/>
-      <c r="F155" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G155" s="31">
-        <v>8777380801</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="L155" s="17"/>
-      <c r="M155" s="15"/>
-      <c r="N155" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="O155" s="15" t="s">
-        <v>259</v>
+      <c r="B155" s="21">
+        <v>45264</v>
+      </c>
+      <c r="C155" s="21">
+        <v>45264</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E155" s="33">
+        <v>8100040475</v>
+      </c>
+      <c r="F155" s="22"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K155" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L155" s="32"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O155" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -7093,33 +7152,31 @@
       <c r="C156" s="21">
         <v>45264</v>
       </c>
-      <c r="D156" s="32" t="s">
-        <v>270</v>
-      </c>
+      <c r="D156" s="32"/>
       <c r="E156" s="33"/>
-      <c r="F156" s="22" t="s">
-        <v>267</v>
+      <c r="F156" s="32" t="s">
+        <v>274</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="H156" s="29"/>
-      <c r="I156" s="22" t="s">
-        <v>268</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="H156" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I156" s="22"/>
       <c r="J156" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="L156" s="32"/>
       <c r="M156" s="22"/>
       <c r="N156" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O156" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -7133,134 +7190,132 @@
         <v>45264</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E157" s="33">
-        <v>8100040475</v>
+        <v>6290555078</v>
       </c>
       <c r="F157" s="22"/>
       <c r="G157" s="39"/>
       <c r="H157" s="29"/>
       <c r="I157" s="22"/>
       <c r="J157" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K157" s="32" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="L157" s="32"/>
       <c r="M157" s="22"/>
       <c r="N157" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O157" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="21">
+      <c r="B158" s="20">
         <v>45264</v>
       </c>
-      <c r="C158" s="21">
+      <c r="C158" s="20">
         <v>45264</v>
       </c>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G158" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="H158" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I158" s="22"/>
-      <c r="J158" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K158" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L158" s="32"/>
-      <c r="M158" s="22"/>
-      <c r="N158" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O158" s="22" t="s">
+      <c r="D158" s="17"/>
+      <c r="F158" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G158" s="31">
+        <v>9430501357</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15" t="s">
         <v>213</v>
+      </c>
+      <c r="K158" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="L158" s="17"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O158" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="21">
-        <v>45264</v>
-      </c>
-      <c r="C159" s="21">
-        <v>45264</v>
-      </c>
-      <c r="D159" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="E159" s="33">
-        <v>6290555078</v>
-      </c>
-      <c r="F159" s="22"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="22"/>
-      <c r="J159" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K159" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="L159" s="32"/>
-      <c r="M159" s="22"/>
-      <c r="N159" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O159" s="22" t="s">
+      <c r="B159" s="20">
+        <v>45265</v>
+      </c>
+      <c r="C159" s="20">
+        <v>45265</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G159" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15" t="s">
         <v>213</v>
+      </c>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O159" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="20">
-        <v>45264</v>
-      </c>
-      <c r="C160" s="20">
-        <v>45264</v>
-      </c>
-      <c r="D160" s="17"/>
-      <c r="F160" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="G160" s="31">
-        <v>9430501357</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K160" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="L160" s="17"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="O160" s="15" t="s">
-        <v>259</v>
+      <c r="B160" s="21">
+        <v>45265</v>
+      </c>
+      <c r="C160" s="21">
+        <v>45265</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E160" s="33"/>
+      <c r="F160" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G160" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H160" s="29"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K160" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L160" s="32"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O160" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -7268,70 +7323,48 @@
         <v>160</v>
       </c>
       <c r="B161" s="20">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="C161" s="20">
-        <v>45265</v>
-      </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>296</v>
-      </c>
+        <v>45266</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E161" s="18">
+        <v>7250007254</v>
+      </c>
+      <c r="F161" s="15"/>
+      <c r="G161" s="25"/>
       <c r="H161" s="19"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
       <c r="M161" s="15"/>
-      <c r="N161" s="16" t="s">
-        <v>212</v>
-      </c>
+      <c r="N161" s="16"/>
       <c r="O161" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
-        <v>161</v>
-      </c>
-      <c r="B162" s="21">
-        <v>45265</v>
-      </c>
-      <c r="C162" s="21">
-        <v>45265</v>
-      </c>
-      <c r="D162" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="E162" s="33"/>
-      <c r="F162" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G162" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="H162" s="29"/>
-      <c r="I162" s="22"/>
-      <c r="J162" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K162" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="L162" s="32"/>
-      <c r="M162" s="22"/>
-      <c r="N162" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O162" s="22" t="s">
-        <v>213</v>
-      </c>
+      <c r="A162" s="26"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="15"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
@@ -13028,42 +13061,8 @@
       <c r="N497" s="16"/>
       <c r="O497" s="15"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A498" s="26"/>
-      <c r="B498" s="15"/>
-      <c r="C498" s="15"/>
-      <c r="D498" s="17"/>
-      <c r="E498" s="18"/>
-      <c r="F498" s="15"/>
-      <c r="G498" s="25"/>
-      <c r="H498" s="19"/>
-      <c r="I498" s="15"/>
-      <c r="J498" s="15"/>
-      <c r="K498" s="17"/>
-      <c r="L498" s="17"/>
-      <c r="M498" s="15"/>
-      <c r="N498" s="16"/>
-      <c r="O498" s="15"/>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A499" s="26"/>
-      <c r="B499" s="15"/>
-      <c r="C499" s="15"/>
-      <c r="D499" s="17"/>
-      <c r="E499" s="18"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="25"/>
-      <c r="H499" s="19"/>
-      <c r="I499" s="15"/>
-      <c r="J499" s="15"/>
-      <c r="K499" s="17"/>
-      <c r="L499" s="17"/>
-      <c r="M499" s="15"/>
-      <c r="N499" s="16"/>
-      <c r="O499" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O162" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:O160" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -13086,24 +13085,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+        <v>258</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -13114,10 +13113,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>3</v>
@@ -13128,10 +13127,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13139,10 +13138,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13150,10 +13149,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13161,10 +13160,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13172,10 +13171,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13183,10 +13182,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13194,10 +13193,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B3C08-FCC7-4369-AA3F-0C4859D9E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105A05B-CB6A-4FC0-863C-312668556FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prospects" sheetId="2" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,12 +1295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1314,24 +1308,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,10 +1436,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1481,7 +1457,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1524,6 +1500,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1531,36 +1521,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1587,6 +1557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -6575,28 +6546,28 @@
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="60">
+      <c r="B139" s="54">
         <v>45246</v>
       </c>
-      <c r="C139" s="60">
+      <c r="C139" s="54">
         <v>45246</v>
       </c>
-      <c r="D139" s="61" t="s">
+      <c r="D139" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E139" s="62"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="63"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="65"/>
-      <c r="N139" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="O139" s="65" t="s">
+      <c r="E139" s="56"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="59"/>
+      <c r="K139" s="57"/>
+      <c r="L139" s="57"/>
+      <c r="M139" s="59"/>
+      <c r="N139" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O139" s="59" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6604,28 +6575,28 @@
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="60">
+      <c r="B140" s="54">
         <v>45246</v>
       </c>
-      <c r="C140" s="60">
+      <c r="C140" s="54">
         <v>45246</v>
       </c>
-      <c r="D140" s="61" t="s">
+      <c r="D140" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="E140" s="62"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="63"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="65"/>
-      <c r="N140" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="O140" s="65" t="s">
+      <c r="E140" s="56"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="57"/>
+      <c r="L140" s="57"/>
+      <c r="M140" s="59"/>
+      <c r="N140" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O140" s="59" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13072,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1703B3-076E-40BB-A643-6D0582148E8C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13087,15 +13058,15 @@
       <c r="A1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
@@ -13129,7 +13100,7 @@
       <c r="B5" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="64" t="s">
         <v>257</v>
       </c>
     </row>
@@ -13140,7 +13111,7 @@
       <c r="B6" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="64" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13151,7 +13122,7 @@
       <c r="B7" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="64" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13162,7 +13133,7 @@
       <c r="B8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="64" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13173,7 +13144,7 @@
       <c r="B9" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="64" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13184,7 +13155,7 @@
       <c r="B10" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="64" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13195,7 +13166,7 @@
       <c r="B11" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="64" t="s">
         <v>255</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/CRM/Enquiry.xlsx
+++ b/Offline/BusinessManagement/CRM/Enquiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105A05B-CB6A-4FC0-863C-312668556FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F09B2-A361-4516-9E9F-577347CE37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prospects" sheetId="2" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,7 +1557,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" b